--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>Tại bon Bu Pah, xã Trường Xuân, huyện Đắk Song</t>
+  </si>
+  <si>
+    <t>Audio_2_5</t>
+  </si>
+  <si>
+    <t>Bon Bu Pah hiện có 280 hộ, với 1251 nhân khẩu</t>
+  </si>
+  <si>
+    <t>Audio_2_6</t>
+  </si>
+  <si>
+    <t>Bon Bu Pah nay đã thay đổi nhiều</t>
+  </si>
+  <si>
+    <t>Audio_2_7</t>
+  </si>
+  <si>
+    <t>Bà con không còn trông chờ ỷ lại vào Nhà Nước</t>
+  </si>
+  <si>
+    <t>Audio_2_8</t>
+  </si>
+  <si>
+    <t>Bon Pi Nao có nhiều dân tộc sinh sống</t>
   </si>
 </sst>
 </file>
@@ -65,14 +89,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,155 +551,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1002,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="18.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="80.8888888888889" customWidth="1"/>
@@ -1072,6 +1089,38 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,13 +19,13 @@
     <t>File</t>
   </si>
   <si>
-    <t>Column 2</t>
+    <t>Mnong Transcript</t>
   </si>
   <si>
     <t>Transcript</t>
   </si>
   <si>
-    <t>audio_s100.m4a</t>
+    <t>audio_s100.wav</t>
   </si>
   <si>
     <t>Po\p sa mơ\ng puh, ndruk po\p ian mta eh?</t>
@@ -34,7 +34,7 @@
     <t>Thức ăn của trâu bò là gì?</t>
   </si>
   <si>
-    <t>audio_s101.m4a</t>
+    <t>audio_s101.wav</t>
   </si>
   <si>
     <t>Oh ân gư\t pơp sa bơ le\ pul ka?</t>
@@ -43,7 +43,7 @@
     <t>Em có ăn được các loại cá không?</t>
   </si>
   <si>
-    <t>audio_s102.m4a</t>
+    <t>audio_s102.wav</t>
   </si>
   <si>
     <t>Ruah ka rông po\p ian eh?</t>
@@ -52,7 +52,7 @@
     <t>Cách chọn cá để nuôi như thế nào?</t>
   </si>
   <si>
-    <t>audio_s103.m4a</t>
+    <t>audio_s103.wav</t>
   </si>
   <si>
     <t>Ba\l bân dơi ya ]e# lat po\p djah djâo ta trông?</t>
@@ -61,7 +61,7 @@
     <t>Chúng ta có được vứt rác ra đường không?</t>
   </si>
   <si>
-    <t>audio_s104.m4a</t>
+    <t>audio_s104.wav</t>
   </si>
   <si>
     <t>Ba\l bân so dơi ]e# lat po\p djah djâo ta trông\</t>
@@ -70,7 +70,7 @@
     <t>Chúng ta không được vứt rác ra đường</t>
   </si>
   <si>
-    <t>audio_s105.m4a</t>
+    <t>audio_s105.wav</t>
   </si>
   <si>
     <t>Nar âo e` ka\t duh</t>
@@ -79,7 +79,7 @@
     <t>Hôm nay tôi bị sốt</t>
   </si>
   <si>
-    <t>audio_s106.m4a</t>
+    <t>audio_s106.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Nar âo, e` ji buk </t>
@@ -88,7 +88,7 @@
     <t>Hôm nay tôi bị nhức đầu</t>
   </si>
   <si>
-    <t>audio_s107.m4a</t>
+    <t>audio_s107.wav</t>
   </si>
   <si>
     <t>Nar đo, e` ji ndưl</t>
@@ -97,7 +97,7 @@
     <t>Hôm qua, em bị đau bụng</t>
   </si>
   <si>
-    <t>audio_s108.m4a</t>
+    <t>audio_s108.wav</t>
   </si>
   <si>
     <t>Nar âo, mâo o\k nih ji khu\ng</t>
@@ -106,7 +106,7 @@
     <t>Ngày nay, có nhiều người bị đau dạ dày</t>
   </si>
   <si>
-    <t>audio_s109.m4a</t>
+    <t>audio_s109.wav</t>
   </si>
   <si>
     <t>Tơ geh kôp ka\t duh pơp ian me mho\?</t>
@@ -115,7 +115,7 @@
     <t>Nếu bị ốm, anh phải làm gì?</t>
   </si>
   <si>
-    <t>audio_s110.m4a</t>
+    <t>audio_s110.wav</t>
   </si>
   <si>
     <t>Tơ geh kôp ka\t e` sa\k dla\ng ta nai dak gư\n</t>
@@ -124,7 +124,7 @@
     <t>Nếu bị ốm, tôi đi gặp bác sỹ</t>
   </si>
   <si>
-    <t>audio_s111.m4a</t>
+    <t>audio_s111.wav</t>
   </si>
   <si>
     <t>Pơp ian nai dak gư\n mho\?</t>
@@ -133,7 +133,7 @@
     <t>Bác sỹ làm công việc gì?</t>
   </si>
   <si>
-    <t>audio_s112.m4a</t>
+    <t>audio_s112.wav</t>
   </si>
   <si>
     <t>Nai dak gư\n dla\ng kôp ka\t wa\t ta ân ra\ dak gư\n</t>
@@ -142,7 +142,7 @@
     <t>Bác sỹ khám bệnh và cho đơn thuốc</t>
   </si>
   <si>
-    <t>audio_s113.m4a</t>
+    <t>audio_s113.wav</t>
   </si>
   <si>
     <t>}iang so mâo kôp ka\t dut, pơp ian me mho\?</t>
@@ -151,7 +151,7 @@
     <t>Muốn không bị mắc bệnh, bạn phải làm gì?</t>
   </si>
   <si>
-    <t>audio_s114.m4a</t>
+    <t>audio_s114.wav</t>
   </si>
   <si>
     <t>Kân hân ji tlơm</t>
@@ -160,7 +160,7 @@
     <t>Anh ấy bị bệnh gan</t>
   </si>
   <si>
-    <t>audio_s115.m4a</t>
+    <t>audio_s115.wav</t>
   </si>
   <si>
     <t>Mei e` ji nuih wa\t ta ji jơ\ng</t>
@@ -169,7 +169,7 @@
     <t>Mẹ tôi bị bệnh tim và đau chân</t>
   </si>
   <si>
-    <t>audio_s116.m4a</t>
+    <t>audio_s116.wav</t>
   </si>
   <si>
     <t>Ku sei dơi tâp `jra\ng s'srei</t>
@@ -178,7 +178,7 @@
     <t>Trẻ em cần phải tiêm phòng bệnh sởi</t>
   </si>
   <si>
-    <t>audio_s117.m4a</t>
+    <t>audio_s117.wav</t>
   </si>
   <si>
     <t>Ur e` siak duh lai pra\m nar</t>
@@ -187,7 +187,7 @@
     <t>Vợ tôi bị cảm cúm đã 5 ngày</t>
   </si>
   <si>
-    <t>audio_s118.m4a</t>
+    <t>audio_s118.wav</t>
   </si>
   <si>
     <t>Ka\t duh `jing  [a\h [ơn kôp kăt tăng tơp</t>
@@ -196,7 +196,7 @@
     <t>Sốt rét là một bệnh truyền nhiễm</t>
   </si>
   <si>
-    <t>audio_s119.m4a</t>
+    <t>audio_s119.wav</t>
   </si>
   <si>
     <t>Mâo o\k ku sei riam ra\ hao deh mai\ `a\m nư\m na\m</t>
@@ -205,7 +205,7 @@
     <t>Có nhiều học sinh đi xe máy khi chưa đủ tuổi</t>
   </si>
   <si>
-    <t>audio_s120.m4a</t>
+    <t>audio_s120.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Ta\ng âo, e` ei so dơi sa\k mho\ brua\ </t>
@@ -214,7 +214,7 @@
     <t>Ngày mai tôi không phải đi làm</t>
   </si>
   <si>
-    <t>audio_s121.m4a</t>
+    <t>audio_s121.wav</t>
   </si>
   <si>
     <t>Na\r `joh, tu\k me sa\k?</t>
@@ -223,7 +223,7 @@
     <t>Ngày nghỉ anh đi đâu?</t>
   </si>
   <si>
-    <t>audio_s122.m4a</t>
+    <t>audio_s122.wav</t>
   </si>
   <si>
     <t>Na\r `joh, e` gu\k ta hih.</t>
@@ -232,7 +232,7 @@
     <t>Ngày nghỉ tôi ở nhà</t>
   </si>
   <si>
-    <t>audio_s123.m4a</t>
+    <t>audio_s123.wav</t>
   </si>
   <si>
     <t>Na\r `joh, pơp brua\ e mho\?</t>
@@ -241,7 +241,7 @@
     <t>Ngày nghỉ em làm gì?</t>
   </si>
   <si>
-    <t>audio_s124.m4a</t>
+    <t>audio_s124.wav</t>
   </si>
   <si>
     <t>Na\\r `joh, e` gu\k ta hih, weh `jan lai hân gâm ja\ng</t>
@@ -250,7 +250,7 @@
     <t>Ngày nghỉ tôi ở nhà, quét dọn nhà cửa và nấu nướng</t>
   </si>
   <si>
-    <t>audio_s125.m4a</t>
+    <t>audio_s125.wav</t>
   </si>
   <si>
     <t>Ba\l kuan tl'tlâo me tu\k ta ian sa\k riam?</t>
@@ -259,7 +259,7 @@
     <t>Con trai anh đi học ở đâu?</t>
   </si>
   <si>
-    <t>audio_s126.m4a</t>
+    <t>audio_s126.wav</t>
   </si>
   <si>
     <t>Kuan e` sa\k riam ta uôn kring</t>
@@ -268,7 +268,7 @@
     <t>Con tôi đi học ở thị trấn</t>
   </si>
   <si>
-    <t>audio_s127.m4a</t>
+    <t>audio_s127.wav</t>
   </si>
   <si>
     <t>Ba\l hi khăng sung piang ta hih ju bâk</t>
@@ -277,7 +277,7 @@
     <t>Chúng tôi thường ăn cơm cùng nhau ở nhà</t>
   </si>
   <si>
-    <t>audio_s128.m4a</t>
+    <t>audio_s128.wav</t>
   </si>
   <si>
     <t>Me khơ` ta\ng no# ]ư\ng ple ya?</t>
@@ -286,7 +286,7 @@
     <t>Anh có thích chơi bóng đá không?</t>
   </si>
   <si>
-    <t>audio_s129.m4a</t>
+    <t>audio_s129.wav</t>
   </si>
   <si>
     <t>E` noh khơ` ta\ng no# ]ư\ng ple.</t>
@@ -295,7 +295,7 @@
     <t>Tôi rất thích chơi bóng đá</t>
   </si>
   <si>
-    <t>audio_s130.m4a</t>
+    <t>audio_s130.wav</t>
   </si>
   <si>
     <t>Me khơ` ta\ng no# ple pah ya?</t>
@@ -304,7 +304,7 @@
     <t>Anh có thích chơi bóng chuyền không?</t>
   </si>
   <si>
-    <t>audio_s131.m4a</t>
+    <t>audio_s131.wav</t>
   </si>
   <si>
     <t>E` ei so khơ` ta\ng no# ple pah.</t>
@@ -313,7 +313,7 @@
     <t>Tôi không thích chơi bóng chuyền</t>
   </si>
   <si>
-    <t>audio_s132.m4a</t>
+    <t>audio_s132.wav</t>
   </si>
   <si>
     <t>Me khơ` hao rueh ya?</t>
@@ -322,7 +322,7 @@
     <t>Anh có thích cưỡi voi không?</t>
   </si>
   <si>
-    <t>audio_s133.m4a</t>
+    <t>audio_s133.wav</t>
   </si>
   <si>
     <t>E` ei so khơ` hao rueh.</t>
@@ -331,7 +331,7 @@
     <t>Tôi không thích cưỡi voi</t>
   </si>
   <si>
-    <t>audio_s134.m4a</t>
+    <t>audio_s134.wav</t>
   </si>
   <si>
     <t>Lai sung sa, ba\l hi gu\k `it dak lai hân `joh.</t>
@@ -340,7 +340,7 @@
     <t>Ăn cơm xong, chúng tôi ngồi uống nước và nghỉ ngơi</t>
   </si>
   <si>
-    <t>audio_s135.m4a</t>
+    <t>audio_s135.wav</t>
   </si>
   <si>
     <t>Na\r na\r, e` hao deh mai\ sa\k mho\ brua\</t>
@@ -349,7 +349,7 @@
     <t>Ngày ngày tôi đi xe máy đi làm</t>
   </si>
   <si>
-    <t>audio_s136.m4a</t>
+    <t>audio_s136.wav</t>
   </si>
   <si>
     <t>Tơ dơi `joh e` sra\ng sa\k siap piang gâp mi</t>
@@ -358,7 +358,7 @@
     <t>Nếu được nghỉ tôi sẽ đi thăm nhà bạn bè</t>
   </si>
   <si>
-    <t>audio_s137.m4a</t>
+    <t>audio_s137.wav</t>
   </si>
   <si>
     <t>Mi e` mhei ruat mblâm ô tô</t>
@@ -367,7 +367,7 @@
     <t>Anh trai tôi mới mua một chiếc ô tô</t>
   </si>
   <si>
-    <t>audio_s138.m4a</t>
+    <t>audio_s138.wav</t>
   </si>
   <si>
     <t>Nih dlah piang e` mâo 4 nih: sai e`, bar kuan tl'tlâo lai hân e`.</t>
@@ -376,7 +376,7 @@
     <t>Gia đình tôi có 4 người: chồng tôi, hai con trai và tôi</t>
   </si>
   <si>
-    <t>audio_s139.m4a</t>
+    <t>audio_s139.wav</t>
   </si>
   <si>
     <t>Yo u'ur Nam kha\ng gu\k ta hih na\k so</t>
@@ -385,7 +385,7 @@
     <t>Bà của Nam thường ở nhà trông nhà</t>
   </si>
   <si>
-    <t>audio_s140.m4a</t>
+    <t>audio_s140.wav</t>
   </si>
   <si>
     <t>Nih dlah piang me mâo o\k ian nih?</t>
@@ -394,7 +394,7 @@
     <t>Gia đình anh có mấy người?</t>
   </si>
   <si>
-    <t>audio_s141.m4a</t>
+    <t>audio_s141.wav</t>
   </si>
   <si>
     <t>Mei bap e pơp brua\ mho\?</t>
@@ -403,7 +403,7 @@
     <t>Bố mẹ em làm nghề gì?</t>
   </si>
   <si>
-    <t>audio_s142.m4a</t>
+    <t>audio_s142.wav</t>
   </si>
   <si>
     <t>Mei bap e` `jing nih mho\ lo\</t>
@@ -412,7 +412,7 @@
     <t>Bố mẹ tôi là nông dân</t>
   </si>
   <si>
-    <t>audio_s143.m4a</t>
+    <t>audio_s143.wav</t>
   </si>
   <si>
     <t>Mei ơ\ e` `jing nai t'ti</t>
@@ -421,7 +421,7 @@
     <t>Dì tôi là giáo viên</t>
   </si>
   <si>
-    <t>audio_s144.m4a</t>
+    <t>audio_s144.wav</t>
   </si>
   <si>
     <t>E` mâo pei oh mi tl'tlâo `jing khan Yo Ho</t>
@@ -430,7 +430,7 @@
     <t>Tôi có ba người anh em họ là bộ đội cụ Hồ</t>
   </si>
   <si>
-    <t>audio_s145.m4a</t>
+    <t>audio_s145.wav</t>
   </si>
   <si>
     <t>Dlah piang e pơp ian mâo pơp brêh?</t>
@@ -439,7 +439,7 @@
     <t>Cuộc sống của gia đình ra sao?</t>
   </si>
   <si>
-    <t>audio_s146.m4a</t>
+    <t>audio_s146.wav</t>
   </si>
   <si>
     <t>}ih bar jrông ngơi geh prue#h ta nih dlah piang</t>
@@ -448,7 +448,7 @@
     <t>Hãy viết hai câu có từ gia đình</t>
   </si>
   <si>
-    <t>audio_s147.m4a</t>
+    <t>audio_s147.wav</t>
   </si>
   <si>
     <t>Mei bap geh brua\ krâng rông t'ti oh kuan `jing nih</t>
@@ -457,7 +457,7 @@
     <t>Cha mẹ có trách nhiệm nuôi dạy con cái nên người</t>
   </si>
   <si>
-    <t>audio_s148.m4a</t>
+    <t>audio_s148.wav</t>
   </si>
   <si>
     <t>Oh tl'tlâo mei kual `jing ku`</t>
@@ -466,7 +466,7 @@
     <t>Em trai của mẹ gọi là cậu</t>
   </si>
   <si>
-    <t>audio_s149.m4a</t>
+    <t>audio_s149.wav</t>
   </si>
   <si>
     <t>Ur mi tl'tlâo kual `jing wa u'ur</t>
@@ -475,7 +475,7 @@
     <t>Vợ của anh trai gọi là chị dâu</t>
   </si>
   <si>
-    <t>audio_s150.m4a</t>
+    <t>audio_s150.wav</t>
   </si>
   <si>
     <t>Sai mi u'ur kual `jing wa tl'tlâo</t>
@@ -484,7 +484,7 @@
     <t>Chồng của chị gái gọi là anh rể</t>
   </si>
   <si>
-    <t>audio_s151.m4a</t>
+    <t>audio_s151.wav</t>
   </si>
   <si>
     <t>Mi Mai mho\ brua\ ta pul u'ur dai, khăng săk dơp dơk t'ti lah oh mi u'ur dai mơ\ng uôn brua\ deh `jing mâo mne\]</t>
@@ -493,7 +493,7 @@
     <t>Chị Mai làm ở hội phụ nữ, thường đi tuyên truyền, giáo dục chị em phụ nữ trong buôn làng sinh đẻ có kế hoạch</t>
   </si>
   <si>
-    <t>audio_s152.m4a</t>
+    <t>audio_s152.wav</t>
   </si>
   <si>
     <t>Lai bơ ian, de hum khăng đru kơl grâp nih dlah piang dleh dlan</t>
@@ -502,7 +502,7 @@
     <t>Bên cạnh đó, chị ấy còn giúp đỡ các gia đình gặp khó khăn</t>
   </si>
   <si>
-    <t>audio_s153.m4a</t>
+    <t>audio_s153.wav</t>
   </si>
   <si>
     <t>Bar nâo kuan de ăt hum sa\k riam ra\</t>
@@ -511,7 +511,7 @@
     <t>Hai người con của cô ấy vẫn còn đi học</t>
   </si>
   <si>
-    <t>audio_s154.m4a</t>
+    <t>audio_s154.wav</t>
   </si>
   <si>
     <t>Kuan luar buk e` riam du\ sư\n, kuan dư\t riam du\ pra\m.</t>
@@ -520,7 +520,7 @@
     <t>Con đầu lòng của tôi học lớp 10, con út học lớp 5</t>
   </si>
   <si>
-    <t>audio_s155.m4a</t>
+    <t>audio_s155.wav</t>
   </si>
   <si>
     <t>Na\\r `joh, le\ mơt nih gu\k ta hih ju bâk noh du\h ra\m lai hân ]hu\ ]ha\m</t>
@@ -529,7 +529,7 @@
     <t>Ngày nghỉ, mọi người ở nhà cùng nhau rất rôm rả và vui vẻ</t>
   </si>
   <si>
-    <t>audio_s156.m4a</t>
+    <t>audio_s156.wav</t>
   </si>
   <si>
     <t>Na\\r âo, ei so hum yua ra\ dlah piang</t>
@@ -538,7 +538,7 @@
     <t>Hiện giờ, không còn dùng sổ hộ khẩu</t>
   </si>
   <si>
-    <t>audio_s157.m4a</t>
+    <t>audio_s157.wav</t>
   </si>
   <si>
     <t>Na\r luar, ra\ dlah piang `jing ra\ ]ih gư\t to\ng noh nih mơ\ng nih d;ah piang</t>
@@ -547,7 +547,7 @@
     <t>Ngày trước, sổ hộ khẩu là loại giấy để ghi thông tin về những người trong gia đình</t>
   </si>
   <si>
-    <t>audio_s158.m4a</t>
+    <t>audio_s158.wav</t>
   </si>
   <si>
     <t>Pul nih ta\ng guap tu\k e` mâo pei ta pra\m dlah piang</t>
@@ -556,7 +556,7 @@
     <t>Khu liên gia chỗ tôi có 35 gia đình</t>
   </si>
   <si>
-    <t>audio_s159.m4a</t>
+    <t>audio_s159.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Dlah piang me mâo o\k ian nih? </t>
@@ -565,7 +565,7 @@
     <t>Gia đình bạn có bao nhiêu người?</t>
   </si>
   <si>
-    <t>audio_s160.m4a</t>
+    <t>audio_s160.wav</t>
   </si>
   <si>
     <t>E` sa\ mho\ ra\ yuh săk ân kuan</t>
@@ -574,7 +574,7 @@
     <t>Tôi đi làm giấy khai sinh cho con</t>
   </si>
   <si>
-    <t>audio_s161.m4a</t>
+    <t>audio_s161.wav</t>
   </si>
   <si>
     <t>Ndruat bhian guk ta sai lai hân nih dlah piang lai ân ]ua: u'ur bơ nư\m mât ta pham năm ro mư\ng ti\, 
@@ -584,7 +584,7 @@
     <t>Luật hôn nhân và gia đình quy định: nữ từ đủ 18 tuổi trở lên, nam từ đủ 20 tuổi trở lên thì được kết hôn</t>
   </si>
   <si>
-    <t>audio_s162.m4a</t>
+    <t>audio_s162.wav</t>
   </si>
   <si>
     <t>O\k na\m dơi ]ua ta tl'tlâo, u'ur dơi rơ\ng ta\ng sai?</t>
@@ -593,7 +593,7 @@
     <t>Nam, nữ bao nhiêu tuổi thì được kết hôn?</t>
   </si>
   <si>
-    <t>audio_s163.m4a</t>
+    <t>audio_s163.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Na\r đo, tu\k ta bơ me sa\k? </t>
@@ -602,7 +602,7 @@
     <t>Hôm qua con đi đâu?</t>
   </si>
   <si>
-    <t>audio_s164.m4a</t>
+    <t>audio_s164.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Na\r đo, kuan sa\k siap hih yo u'ur </t>
@@ -611,7 +611,7 @@
     <t>Hôm qua con đi thăm nhà bà.</t>
   </si>
   <si>
-    <t>audio_s165.m4a</t>
+    <t>audio_s165.wav</t>
   </si>
   <si>
     <t>O\k mông ba\l bơ me sa\k riam?</t>
@@ -620,7 +620,7 @@
     <t>Con đi học từ lúc mấy giờ?</t>
   </si>
   <si>
-    <t>audio_s166.m4a</t>
+    <t>audio_s166.wav</t>
   </si>
   <si>
     <t>Kuan sa\k riam bơ pra\m mông ang ui</t>
@@ -629,7 +629,7 @@
     <t>Con đi học từ lúc năm giờ</t>
   </si>
   <si>
-    <t>audio_s167.m4a</t>
+    <t>audio_s167.wav</t>
   </si>
   <si>
     <t>Khoa uôn khâp khat bơ e pơp ian eh?</t>
@@ -638,7 +638,7 @@
     <t>Buôn trưởng đón tiếp chị thế nào?</t>
   </si>
   <si>
-    <t>audio_s168.m4a</t>
+    <t>audio_s168.wav</t>
   </si>
   <si>
     <t>Kân hân khâp khat ba\l hi ]hu\ ]ha\m nga\n.</t>
@@ -647,7 +647,7 @@
     <t>Anh ấy đón tiếp chúng tôi rất niềm nở</t>
   </si>
   <si>
-    <t>audio_s169.m4a</t>
+    <t>audio_s169.wav</t>
   </si>
   <si>
     <t>Me so pơp bre#h bal eh pơp ian?</t>
@@ -656,7 +656,7 @@
     <t>Anh thấy cuộc sống của họ như thế nào?</t>
   </si>
   <si>
-    <t>audio_s170.m4a</t>
+    <t>audio_s170.wav</t>
   </si>
   <si>
     <t>Pơp bre#h ba\l eh hum ko\ kial.</t>
@@ -665,7 +665,7 @@
     <t>Cuộc sống của họ còn khó khăn</t>
   </si>
   <si>
-    <t>audio_s171.m4a</t>
+    <t>audio_s171.wav</t>
   </si>
   <si>
     <t>Trông mbah pro Buôn Ma Thuột `jing tăm tal ju bâk ta pro trông sa\k</t>
@@ -674,7 +674,7 @@
     <t>Ngã sáu Buôn Ma Thuột là nơi giao nhau của 6 con đường</t>
   </si>
   <si>
-    <t>audio_s172.m4a</t>
+    <t>audio_s172.wav</t>
   </si>
   <si>
     <t>Mông na\ng lai dơi mho\ o\k pơp nhap rôm.</t>
@@ -683,7 +683,7 @@
     <t>Thời gian đã làm nên nhiều điều kỳ diệu</t>
   </si>
   <si>
-    <t>audio_s173.m4a</t>
+    <t>audio_s173.wav</t>
   </si>
   <si>
     <t>Jư\m dar trông tăm mbah pro Buôn Ma Thuột mâo hih `ut ngeh ta nih khan khư\t sân sa\k, 
@@ -693,7 +693,7 @@
     <t>Xung quanh ngã sáu Buôn Ma Thuột có đài tưởng niệm, nhà khách, trường học và đài phát thanh, truyền hình</t>
   </si>
   <si>
-    <t>audio_s174.m4a</t>
+    <t>audio_s174.wav</t>
   </si>
   <si>
     <t>Geh o\k pơp tu\ dơn bơ pra\k ‘’tim p’pit hui re dơ\k Yo Hồ’’</t>
@@ -702,7 +702,7 @@
     <t>Hiệu quả thiết thực từ Quỹ tiết kiệm làm theo lời Bác</t>
   </si>
   <si>
-    <t>audio_w175.m4a</t>
+    <t>audio_w175.wav</t>
   </si>
   <si>
     <t>Pơp păn</t>
@@ -711,13 +711,13 @@
     <t>Của cải</t>
   </si>
   <si>
-    <t>audio_w176.m4a</t>
+    <t>audio_w176.wav</t>
   </si>
   <si>
     <t>Pơp no</t>
   </si>
   <si>
-    <t>audio_w177.m4a</t>
+    <t>audio_w177.wav</t>
   </si>
   <si>
     <t>Puaih</t>
@@ -726,7 +726,7 @@
     <t>Củi</t>
   </si>
   <si>
-    <t>audio_w178.m4a</t>
+    <t>audio_w178.wav</t>
   </si>
   <si>
     <t>Tư\n kruan</t>
@@ -735,7 +735,7 @@
     <t>Cúi người</t>
   </si>
   <si>
-    <t>audio_w179.m4a</t>
+    <t>audio_w179.wav</t>
   </si>
   <si>
     <t>ak</t>
@@ -744,7 +744,7 @@
     <t>Cung</t>
   </si>
   <si>
-    <t>audio_w180.m4a</t>
+    <t>audio_w180.wav</t>
   </si>
   <si>
     <t>Ăt</t>
@@ -753,10 +753,10 @@
     <t>Cũng</t>
   </si>
   <si>
-    <t>audio_w181.m4a</t>
-  </si>
-  <si>
-    <t>audio_s182.m4a</t>
+    <t>audio_w181.wav</t>
+  </si>
+  <si>
+    <t>audio_s182.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Viet Nam mâo pra\m jât puan pul nih oh me </t>
@@ -765,7 +765,7 @@
     <t>Việt Nam có 54 dân tộc anh em</t>
   </si>
   <si>
-    <t>audio_s183.m4a</t>
+    <t>audio_s183.wav</t>
   </si>
   <si>
     <t>Lak `jing kring dih dai nga\n mâo pơp ko\ kial mơ\ng ]ar Dak Lak</t>
@@ -774,7 +774,7 @@
     <t>Lắk là huyện có điều kiện đặc biệt khó khăn thuộc tỉnh Đắk Lắk</t>
   </si>
   <si>
-    <t>audio_s184.m4a</t>
+    <t>audio_s184.wav</t>
   </si>
   <si>
     <t>Grâp na\m geh puan ndơm: ndơm kao, ndơm phang, ndơm mih lai hân ndơm ]al</t>
@@ -783,7 +783,7 @@
     <t>Mỗi năm có 4 mùa: mùa xuân, mùa hạ, mùa thu và mùa đông</t>
   </si>
   <si>
-    <t>audio_s185.m4a</t>
+    <t>audio_s185.wav</t>
   </si>
   <si>
     <t>Nai gư\t knal ndơm kao kyua ndơm hâo ]hi dlei eh ]a\t kuat, huan ]a\t, ]al pôh ik trư\m</t>
@@ -792,7 +792,7 @@
     <t>Người ta nhận biết mùa xuân bởi mùa này cây cối đâm chồi, nảy lộc, gió thổi mát mẻ</t>
   </si>
   <si>
-    <t>audio_s186.m4a</t>
+    <t>audio_s186.wav</t>
   </si>
   <si>
     <t>Ndo\m kao `jing ndơm rôm nga\n, ndơm nih uôn lan lai ke\] riak wa\t ta `jing na\r mông grâp nih `jra\ng khat rôm na\m mhei.</t>
@@ -801,7 +801,7 @@
     <t>Mùa xuân là mùa vui nhộn, mùa người dân đã gặt hái xong và là thời gian mọi người chuẩn bị đón năm mới.</t>
   </si>
   <si>
-    <t>audio_s187.m4a</t>
+    <t>audio_s187.wav</t>
   </si>
   <si>
     <t>Ndo\m phang na\r noh duh dang, hâo `jing ndo\m lai lơih brua\ lo\\, lơih brua\ kâr</t>
@@ -810,7 +810,7 @@
     <t xml:space="preserve">Ngày mùa hè rất nóng nực, đây là mùa rảnh rỗi việc ruộng, việc rẫy. </t>
   </si>
   <si>
-    <t>audio_s188.m4a</t>
+    <t>audio_s188.wav</t>
   </si>
   <si>
     <t>Nd\m phang nih Mnông kha\ng sa\k juei puaih, tu] pai lai hân wơ\ng ta`</t>
@@ -819,7 +819,7 @@
     <t>Mùa hè người M nông thường đi kiếm củi, hái rau và dệt thổ cẩm</t>
   </si>
   <si>
-    <t>audio_s189.m4a</t>
+    <t>audio_s189.wav</t>
   </si>
   <si>
     <t>Ndơm phang khăng mâo mih ram, ]al bu\.</t>
@@ -828,7 +828,7 @@
     <t>Mùa hè thường có mưa to và gió lốc</t>
   </si>
   <si>
-    <t>audio_s190.m4a</t>
+    <t>audio_s190.wav</t>
   </si>
   <si>
     <t>Ndơm ]al `jing ndơm grâp nih ke\] riak, lih so\k phê</t>
@@ -837,7 +837,7 @@
     <t>Mùa đông là mùa mọi người thu hái cà phê.</t>
   </si>
   <si>
-    <t>audio_s191.m4a</t>
+    <t>audio_s191.wav</t>
   </si>
   <si>
     <t>Ju na\m mâo o\k ian ndơm?</t>
@@ -846,7 +846,7 @@
     <t>Một năm có mấy mùa?</t>
   </si>
   <si>
-    <t>audio_s192.m4a</t>
+    <t>audio_s192.wav</t>
   </si>
   <si>
     <t>Teh Bri Yuk bân mâo o\k ian ndơm?</t>
@@ -855,7 +855,7 @@
     <t>Tây Nguyên ta có mấy mùa?</t>
   </si>
   <si>
-    <t>audio_s193.m4a</t>
+    <t>audio_s193.wav</t>
   </si>
   <si>
     <t>Pơp ndơm nih uôn lan mho\ lo\, mho\ kâr?</t>
@@ -864,7 +864,7 @@
     <t>Mùa nào người ta làm ruộng, làm rẫy?</t>
   </si>
   <si>
-    <t>audio_s194.m4a</t>
+    <t>audio_s194.wav</t>
   </si>
   <si>
     <t>Pơp ndơm e kha\p khơ` nga\n?</t>
@@ -873,7 +873,7 @@
     <t>Bạn thích mùa nào nhất?</t>
   </si>
   <si>
-    <t>audio_s195.m4a</t>
+    <t>audio_s195.wav</t>
   </si>
   <si>
     <t>Bri la ]ar ]ua Yuk Yang Sin</t>
@@ -882,7 +882,7 @@
     <t>Vườn quốc gia Yuk Yang Sin</t>
   </si>
   <si>
-    <t>audio_s196.m4a</t>
+    <t>audio_s196.wav</t>
   </si>
   <si>
     <t>Bri la ]ar ]ua Yuk Yang Sin gu\k ta kring Krông Bông</t>
@@ -891,7 +891,7 @@
     <t xml:space="preserve">Vườn quốc gia Yuk Yang Sin nằm ở huyện Krông Bông, </t>
   </si>
   <si>
-    <t>audio_s27.m4a</t>
+    <t>audio_s27.wav</t>
   </si>
   <si>
     <t>Năr âo, kôp kăt HIV-AIDS lai mâo ta le\ teh, le\ grâp ]ar tar [ar</t>
@@ -900,7 +900,7 @@
     <t>Ngày nay HIV/AIDS đã có trên toàn thế giới, ở tất cả các quốc gia</t>
   </si>
   <si>
-    <t>audio_s28.m4a</t>
+    <t>audio_s28.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Năr âo, kôp kăt HIV-AIDS lai mâo ta le\ pul tâo săk nih </t>
@@ -909,7 +909,7 @@
     <t>Ngày nay, HIV/AIDS đã có ở tất cả các màu da</t>
   </si>
   <si>
-    <t>audio_s29.m4a</t>
+    <t>audio_s29.wav</t>
   </si>
   <si>
     <t>Năr âo, kôp kăt HIV-AIDS lai mâo ta le\ u'ur wăt ta tl'tlâo</t>
@@ -918,7 +918,7 @@
     <t>Ngày nay, HIV/AIDS đã có ở tất cả nữ giới và nam giới</t>
   </si>
   <si>
-    <t>audio_s30.m4a</t>
+    <t>audio_s30.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Năr âo, kôp kăt HIV-AIDS lai mâo ta le\ mơt grâp ndru\ </t>
@@ -927,7 +927,7 @@
     <t>Ngày nay, HIV/AIDS đã có ở tất cả các lứa tuổi</t>
   </si>
   <si>
-    <t>audio_s31.m4a</t>
+    <t>audio_s31.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Năr âo, kôp kăt HIV-AIDS lai mâo ta grâp gưl nih yang uôn  </t>
@@ -936,7 +936,7 @@
     <t>Ngày nay, HIV/AIDS đã có ở tất cả mọi tầng lớp xã hội</t>
   </si>
   <si>
-    <t>audio_s32.m4a</t>
+    <t>audio_s32.wav</t>
   </si>
   <si>
     <t>Truh ta na\r âo, jdrơ mâo vacin lai hân dak gư\n mdrao ân bah kôp kăt HIV-AIDS</t>
@@ -945,7 +945,7 @@
     <t>Đến nay, chưa có vắc xin và thuốc chữa bệnh HIV/AIDS</t>
   </si>
   <si>
-    <t>audio_s33.m4a</t>
+    <t>audio_s33.wav</t>
   </si>
   <si>
     <t>(TRANG 101)</t>
@@ -954,13 +954,13 @@
     <t>Mọi người, mọi gia đình, mọi quốc gia và cộng đồng trên thế giới cùng giúp nhau để chống lại dịch bệnh AIDS</t>
   </si>
   <si>
-    <t>audio_s34.m4a</t>
+    <t>audio_s34.wav</t>
   </si>
   <si>
     <t>Sự sống còn và phát triển của xã hội trong tương lai trông đợi rất nhiều vào việc ngăn chặn AIDS ngày nay.</t>
   </si>
   <si>
-    <t>audio_s35.m4a</t>
+    <t>audio_s35.wav</t>
   </si>
   <si>
     <t>(TRANG 102)</t>
@@ -969,13 +969,13 @@
     <t>Phường Thống Nhất có một vị trí đặc biệt trong đời sống văn hóa của thành phố Buôn Ma Thuột</t>
   </si>
   <si>
-    <t>audio_s36.m4a</t>
+    <t>audio_s36.wav</t>
   </si>
   <si>
     <t>Đây cũng là nơi có tình hình an ninh, trật tự và an toàn xã hội  đặc biệt phức tạp</t>
   </si>
   <si>
-    <t>audio_s37.m4a</t>
+    <t>audio_s37.wav</t>
   </si>
   <si>
     <t>{lu\ng Tua Srah eh hui ta king trông mei 27 mơ\ng mbar uôn tring Liên Sơn ta să Krông Knô</t>
@@ -984,7 +984,7 @@
     <t>Hồ Tua Srah nằm ven theo quốc lộ 27, giữa thị trấn Liên Sơn và xã Krông Nô</t>
   </si>
   <si>
-    <t>audio_s38.m4a</t>
+    <t>audio_s38.wav</t>
   </si>
   <si>
     <t>{lu\ng Tua Srah mơ\ng mbar uôn tring Liên Sơn ta să Krông Knô, bơ uôn tring ram Buôn Ma Thuột năng ai 90 km</t>
@@ -993,7 +993,7 @@
     <t>Hồ Tua Srah cách thành phố Buôn Ma Thuột khoảng 90km</t>
   </si>
   <si>
-    <t>audio_s39.m4a</t>
+    <t>audio_s39.wav</t>
   </si>
   <si>
     <t>{lu\ng Tua Srah gu\k răm ta nhal teh pei ]ar: Dak Lak, Dak Nông lai hân Lâm Đồng</t>
@@ -1002,7 +1002,7 @@
     <t xml:space="preserve">Hồ Tua Srah nằm giáp ranh 3 tỉnh: Đắk Lắk, Đắk Nông và Lâm Đồng </t>
   </si>
   <si>
-    <t>audio_s40.m4a</t>
+    <t>audio_s40.wav</t>
   </si>
   <si>
     <t>Knu\k kna bân mâo dră ]ua đru kơl să wăl tal pei, mâo pơp brêh `jing dih dai ko\ kial</t>
@@ -1011,7 +1011,7 @@
     <t>Nhà nước ta có chính sách hỗ trợ các xã vùng III, có điều kiện đặc biệt khó khăn</t>
   </si>
   <si>
-    <t>audio_s41.m4a</t>
+    <t>audio_s41.wav</t>
   </si>
   <si>
     <t>{lu\ng Tua Srah ei ]ông gu ân dak ta brua\ mho\ `jing ư\` điện mă hum mho\ dlưh dak hup ta tu\k n'nâm dak</t>
@@ -1020,7 +1020,7 @@
     <t>Hồ Tua Srah không chỉ cung cấp nước làm thủy điện mà còn làm giảm lũ lụt ở vùng hạ lưu</t>
   </si>
   <si>
-    <t>audio_s42.m4a</t>
+    <t>audio_s42.wav</t>
   </si>
   <si>
     <t>Luar yâo jư\m dar [lu\ng `jing bri mum tre\ ram</t>
@@ -1029,7 +1029,7 @@
     <t>Trước đây xung quanh hồ là rừng nguyên sinh rộng lớn</t>
   </si>
   <si>
-    <t>audio_s43.m4a</t>
+    <t>audio_s43.wav</t>
   </si>
   <si>
     <t>Mơ\ng bri mâo o\k pul pơm pri, sư\m re\] lai hân ]hi dlei yuam bhăn</t>
@@ -1038,7 +1038,7 @@
     <t xml:space="preserve">Trong rừng có nhiều thú, chim muông và thực vật quý </t>
   </si>
   <si>
-    <t>audio_s44.m4a</t>
+    <t>audio_s44.wav</t>
   </si>
   <si>
     <t>Năr âo, măt tre\ bri lai jơ\ng nga o\k ngăn, kyua nai lăng rai bri khâp so\k ei eh mho\ kâr</t>
@@ -1047,7 +1047,7 @@
     <t>Ngày nay, diện tích rừng giảm đi rất nhiều do người ta phá rừng để làm nương rẫy</t>
   </si>
   <si>
-    <t>audio_s45.m4a</t>
+    <t>audio_s45.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Kyua tu\ dơn yâo jua, băl hi dơi răng gang bri </t>
@@ -1056,7 +1056,7 @@
     <t>Vì lợi ích lâu dài, chúng ta phải bảo vệ rừng</t>
   </si>
   <si>
-    <t>audio_s46.m4a</t>
+    <t>audio_s46.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Festival cà phê Buôn Ma Thuột hân [ơn ['[ư\n dơi ko\ `jing ta uôn tring ram Buôn Ma Thuột ]ar Dak Lak. </t>
@@ -1065,7 +1065,7 @@
     <t>Festival cà phê Buôn Ma Thuột là một lễ hội được tổ chức ở thành phố Buôn Ma Thuột tỉnh Dak Lak</t>
   </si>
   <si>
-    <t>audio_s47.m4a</t>
+    <t>audio_s47.wav</t>
   </si>
   <si>
     <t>{'[ư\n ko\ `jing tal luar ta năm 2005</t>
@@ -1074,7 +1074,7 @@
     <t>Lễ hội tổ chức lần đầu tiên vào năm 2005</t>
   </si>
   <si>
-    <t>audio_s48.m4a</t>
+    <t>audio_s48.wav</t>
   </si>
   <si>
     <t>Hâo `jing [ơn ['[ư\n ram ta Teh Bri Yuk, dơi Thủ tướng Chỉnh phủ tu\ ư `jing ['[ư\n gưl ]ar la</t>
@@ -1083,7 +1083,7 @@
     <t>Đây là một lễ hội lớn ở Tây Nguyên, được Thủ tướng chính phủ công nhận là lễ hội cấp quốc gia</t>
   </si>
   <si>
-    <t>audio_s49.m4a</t>
+    <t>audio_s49.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Fesstival cà phê Buôn Ma Thuột dơi ko\ `jing bar năm ju do\ khâp n'nei tu\ ư tơm cà phê pơm ]hi </t>
@@ -1092,7 +1092,7 @@
     <t>Festival cà phê Buôn Ma Thuột được tổ chức hai năm một lần để tôn vinh cây cà phê</t>
   </si>
   <si>
-    <t>audio_s50.m4a</t>
+    <t>audio_s50.wav</t>
   </si>
   <si>
     <t>{'[ư\n ei ]ông gu nuh [lang le\ mơt pơp eh lăng ndu bơ tơm cà phê mă hum t'têh hưn rup Buôn Ma Thuột ndrơm brua\
@@ -1102,7 +1102,7 @@
     <t>Lễ hội không chỉ trưng bày các sản phẩm của cây cà phê mà còn giới thiệu hình ảnh Buôn Ma Thuột bằng việc tổ chức nhiều hoạt động văn hóa khác.</t>
   </si>
   <si>
-    <t>audio_s51.m4a</t>
+    <t>audio_s51.wav</t>
   </si>
   <si>
     <t>Grâp do\ ko\ `jing, Festival cà phê Buôn Ma Thuột hui hai dơi grâp nih đ^ng m^n, khat rôm.</t>
@@ -1111,7 +1111,7 @@
     <t>Mỗi lần tổ chức, Festival cà phê Buôn Ma Thuột luôn được mọi người quan tâm, chào đón</t>
   </si>
   <si>
-    <t>audio_s52.m4a</t>
+    <t>audio_s52.wav</t>
   </si>
   <si>
     <t>Jep bar mblâm, ]hum ao ju drăp</t>
@@ -1120,7 +1120,7 @@
     <t>Dép một đôi, áo quần một bộ</t>
   </si>
   <si>
-    <t>audio_s53.m4a</t>
+    <t>audio_s53.wav</t>
   </si>
   <si>
     <t>}ông gu mâo ple nuih l'la `jing le\ mơt drăp pơm</t>
@@ -1129,7 +1129,7 @@
     <t>Chỉ có trái tim bao la, là tất cả gia tài</t>
   </si>
   <si>
-    <t>audio_s54.m4a</t>
+    <t>audio_s54.wav</t>
   </si>
   <si>
     <t>Kân ei so ju n^ kâr i tơm</t>
@@ -1138,7 +1138,7 @@
     <t>Người không một mảnh vườn riêng</t>
   </si>
   <si>
-    <t>audio_s55.m4a</t>
+    <t>audio_s55.wav</t>
   </si>
   <si>
     <t>{ah [ơn kuan bă tơm kân ei ya mâo</t>
@@ -1147,7 +1147,7 @@
     <t>Một đứa con riêng Người chẳng có</t>
   </si>
   <si>
-    <t>audio_s56.m4a</t>
+    <t>audio_s56.wav</t>
   </si>
   <si>
     <t xml:space="preserve">}ông gu mâo wal khe phă ndrơm ân ta muan ku it </t>
@@ -1156,7 +1156,7 @@
     <t>Chỉ có vầng trăng chia đều cho cháu nhỏ</t>
   </si>
   <si>
-    <t>audio_s57.m4a</t>
+    <t>audio_s57.wav</t>
   </si>
   <si>
     <t>Lai hân mu` ju bâk nih uôn lan pơp mu` gum guap</t>
@@ -1165,7 +1165,7 @@
     <t>Và hát chung cùng Nhân dân bài hát kết đoàn</t>
   </si>
   <si>
-    <t>audio_s58.m4a</t>
+    <t>audio_s58.wav</t>
   </si>
   <si>
     <t>Gu\k mơ` bâk Bác, e\` so ju knhuih dah klă bơ Bác `jing noh đup gơt nuih `hâm kuan nih (Phạm Văn Đồng)</t>
@@ -1174,7 +1174,7 @@
     <t>Ở gần Bác, tôi thấy một nét nổi bật của Bác là rất coi trọng phẩm chất con người</t>
   </si>
   <si>
-    <t>audio_s59.m4a</t>
+    <t>audio_s59.wav</t>
   </si>
   <si>
     <t>Khan sut gat, khan kôp ji, nih dlah piang khan lai hân nih dlah piang khư\t tăng blah `jing le\ nih mâo ai đru ta ]ar la, ta nih uôn lan</t>
@@ -1183,7 +1183,7 @@
     <t>Thương binh, bệnh binh, gia đình quân nhân và gia đình liệt sỹ là những người có công với Tổ quốc, với Nhân dân</t>
   </si>
   <si>
-    <t>audio_s60.m4a</t>
+    <t>audio_s60.wav</t>
   </si>
   <si>
     <t>Blah ian hân brua\ băl bân dơi gư\t tur, khăp ]iang lai hân đru kơl băl eh</t>
@@ -1192,7 +1192,7 @@
     <t>Cho nên bổn phận chúng ta phải biết ơn, phải yêu thương và giúp đỡ họ</t>
   </si>
   <si>
-    <t>audio_s61.m4a</t>
+    <t>audio_s61.wav</t>
   </si>
   <si>
     <t>Lai gao grâp nuk âo, kdrueh rup ura` uôn hui hai tăng guap bâk ruh mei uôn lan pul nih [^ Teh Bri Yuk</t>
@@ -1201,7 +1201,7 @@
     <t>Đã bao đời nay, hình ảnh già làng luôn gắn bó với bà con đồng bào các dân tộc thiểu số Tây Nguyên</t>
   </si>
   <si>
-    <t>audio_s62.m4a</t>
+    <t>audio_s62.wav</t>
   </si>
   <si>
     <t>e\` khăng săk mho\ brua\ ta pro mông.</t>
@@ -1210,7 +1210,7 @@
     <t xml:space="preserve">Tôi thường đi làm lúc 6 giờ </t>
   </si>
   <si>
-    <t>audio_s63.m4a</t>
+    <t>audio_s63.wav</t>
   </si>
   <si>
     <t>Bơ hih e\` truh ta tu\k mho\ brua\ năng ai 40 km.</t>
@@ -1219,7 +1219,7 @@
     <t>Từ nhà tôi đến chỗ làm cách 40km</t>
   </si>
   <si>
-    <t>audio_s64.m4a</t>
+    <t>audio_s64.wav</t>
   </si>
   <si>
     <t xml:space="preserve">e\` `jing nai t'ti </t>
@@ -1228,7 +1228,7 @@
     <t>Tôi là giáo viên</t>
   </si>
   <si>
-    <t>audio_s65.m4a</t>
+    <t>audio_s65.wav</t>
   </si>
   <si>
     <t>Grâp năr, băl bân t'ti mblang 3 truh ta 4 mông mơ\ng hih riam.</t>
@@ -1237,7 +1237,7 @@
     <t>Mỗi  ngày, chúng tôi giảng dạy ba đến bốn giờ ở trường</t>
   </si>
   <si>
-    <t>audio_s66.m4a</t>
+    <t>audio_s66.wav</t>
   </si>
   <si>
     <t>Lai bơ ian, băl bân hum dơi tăng râm mho\ o\k pơp brua\ [a [ă blah: săk siap nih dlah piang kusei, săk ['[ư\n…</t>
@@ -1246,7 +1246,7 @@
     <t>Bên cạnh đó, chúng tôi còn phải tham gia nhiều công việc khác như: đi thăm gia đình học sinh, đi họp…</t>
   </si>
   <si>
-    <t>audio_s67.m4a</t>
+    <t>audio_s67.wav</t>
   </si>
   <si>
     <t>Mne\] deh ta nih dlah piang</t>
@@ -1255,7 +1255,7 @@
     <t>Kế hoạch hóa gia đình</t>
   </si>
   <si>
-    <t>audio_s68.m4a</t>
+    <t>audio_s68.wav</t>
   </si>
   <si>
     <t xml:space="preserve">noh e\` khăp khơ` brua\ nai t'ti </t>
@@ -1264,7 +1264,7 @@
     <t>Tôi rất yêu nghề dạy học</t>
   </si>
   <si>
-    <t>audio_s69.m4a</t>
+    <t>audio_s69.wav</t>
   </si>
   <si>
     <t>Noh e\` phu\ng e\` săk ju nâo m'măng ngâo</t>
@@ -1273,7 +1273,7 @@
     <t>Tôi rất sợ đi đêm một mình</t>
   </si>
   <si>
-    <t>audio_s70.m4a</t>
+    <t>audio_s70.wav</t>
   </si>
   <si>
     <t>Ta Teh Bri Yuk, grâp uôn mâo [ah [ơn hih yua ta le\ nih</t>
@@ -1282,7 +1282,7 @@
     <t>Ở Tây nguyên, mỗi buôn có một nhà cộng đồng</t>
   </si>
   <si>
-    <t>audio_s71.m4a</t>
+    <t>audio_s71.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Hih riam ră băl mâo o\k nai t'ti hum ndul </t>
@@ -1291,7 +1291,7 @@
     <t>Trường chúng tôi có nhiều giáo viên trẻ</t>
   </si>
   <si>
-    <t>audio_s72.m4a</t>
+    <t>audio_s72.wav</t>
   </si>
   <si>
     <t>Dak Lak `jing [ah [ơn ]ar tre\ ram</t>
@@ -1300,7 +1300,7 @@
     <t>Đắk Lắk là một tỉnh có diện tích rộng lớn</t>
   </si>
   <si>
-    <t>audio_s73.m4a</t>
+    <t>audio_s73.wav</t>
   </si>
   <si>
     <t>Viet Nam mâo năng ai ju hiang klăk nih</t>
@@ -1309,7 +1309,7 @@
     <t>Việt Nam có dân số gần 100 triệu</t>
   </si>
   <si>
-    <t>audio_s74.m4a</t>
+    <t>audio_s74.wav</t>
   </si>
   <si>
     <t>Knuk kna mâo o\k dră ]ua t'ti lah ân ta pul nih [i\</t>
@@ -1318,7 +1318,7 @@
     <t xml:space="preserve">Nhà nước có nhiều chính sách giáo dục cho người dân tộc thiểu số. </t>
   </si>
   <si>
-    <t>audio_s75.m4a</t>
+    <t>audio_s75.wav</t>
   </si>
   <si>
     <t>Năk rông brua\ t'ti lai hân lăng `jing ta pul nih [i\ hân yơh eh `jing ta noh nih ân hao ]ơn brua\ bre#h `jing uôn lan wa\t ta yang uôn</t>
@@ -1327,7 +1327,7 @@
     <t>Chăm lo giáo dục và đào tạo người dân tộc thiểu chính là tạo điều kiện cho việc phát triển kinh tế và xã hội</t>
   </si>
   <si>
-    <t>audio_s76.m4a</t>
+    <t>audio_s76.wav</t>
   </si>
   <si>
     <t>Na\r âo, nih riam ta hih riam ra\ t'ti dơi đru\ dơng pra\k</t>
@@ -1336,7 +1336,7 @@
     <t>Hiện nay, sinh viên trường sư phạm được hỗ trợ tiền</t>
   </si>
   <si>
-    <t>audio_s77.m4a</t>
+    <t>audio_s77.wav</t>
   </si>
   <si>
     <t>Viet Nam `jing [ơn kring ]ar brua\ lo\ ba</t>
@@ -1345,7 +1345,7 @@
     <t>Việt Nam là một quốc gia nông nghiệp</t>
   </si>
   <si>
-    <t>audio_s78.m4a</t>
+    <t>audio_s78.wav</t>
   </si>
   <si>
     <t>Na\k rông `jing [ơn yuôm bha\n ta brua\ lo\ ba</t>
@@ -1354,7 +1354,7 @@
     <t>Chăn nuôi là một phần quan trọng của nông nghiệp</t>
   </si>
   <si>
-    <t>audio_s79.m4a</t>
+    <t>audio_s79.wav</t>
   </si>
   <si>
     <t>Dak Lak `jing ]ar ta\m o\k phê</t>
@@ -1363,7 +1363,7 @@
     <t>Đắk Lắk là tỉnh trồng nhiều cà phê</t>
   </si>
   <si>
-    <t>audio_s80.m4a</t>
+    <t>audio_s80.wav</t>
   </si>
   <si>
     <t>Brua\ dla\ng nak phê `jing mho\ ba\t, kuih trum, true\] dak, sri phân, siat mbah…</t>
@@ -1372,7 +1372,7 @@
     <t>Việc chăm sóc cà phê là làm cỏ, đào bồn, tưới nước, bón phân, cắt cành…</t>
   </si>
   <si>
-    <t>audio_s81.m4a</t>
+    <t>audio_s81.wav</t>
   </si>
   <si>
     <t>Jao brua\ khoa học kỹ thuật ta nih uôn lan pul nih [i\h</t>
@@ -1381,7 +1381,7 @@
     <t>Chuyển giao khoa học kỹ thuật cho người dân tộc thiểu số</t>
   </si>
   <si>
-    <t>audio_s82.m4a</t>
+    <t>audio_s82.wav</t>
   </si>
   <si>
     <t>Na\r âo, o\k nih uôn lan lai yua khoa học kỹ thuật ta brua\ mho\ `jing</t>
@@ -1390,7 +1390,7 @@
     <t>Ngày nay, nhiều người dân đã biết áp dụng khoa học kỹ thuật vào sản xuất</t>
   </si>
   <si>
-    <t>audio_s83.m4a</t>
+    <t>audio_s83.wav</t>
   </si>
   <si>
     <t>Mâo khoa học kỹ thuật hân pơp bre#h nih mho\ lo\ mir [rơ\ năng [rơ\ ]ơn</t>
@@ -1399,7 +1399,7 @@
     <t>Có khoa học kỹ thuật nên đời sống của người nông dân càng ngày càng được cải thiện</t>
   </si>
   <si>
-    <t>audio_s84.m4a</t>
+    <t>audio_s84.wav</t>
   </si>
   <si>
     <t>Kyua tu\ dơn mât năm dơi tăm ]hi, kyua tu\ dơn hiang năm dơi tăm nih</t>
@@ -1408,7 +1408,7 @@
     <t>Vì lợi ích mười năm trồng cây, vì lợi ích trăm năm trồng người</t>
   </si>
   <si>
-    <t>audio_s85.m4a</t>
+    <t>audio_s85.wav</t>
   </si>
   <si>
     <t>Hih riam ră khăng ko\ `jing ['[ư\n mei bap ku sei riam ra\ ta dâng mơng năm riam</t>
@@ -1417,7 +1417,7 @@
     <t>Nhà trường thường tổ chức họp phụ huynh học sinh vào đầu năm học</t>
   </si>
   <si>
-    <t>audio_s86.m4a</t>
+    <t>audio_s86.wav</t>
   </si>
   <si>
     <t>Hih riam ră khăng ko\ `jing ['[ư\n mei bap ku sei riam ra\ ta dư\t năm riam</t>
@@ -1426,7 +1426,7 @@
     <t>Nhà trường thường tổ chức họp phụ huynh học sinh vào cuối năm học</t>
   </si>
   <si>
-    <t>audio_s87.m4a</t>
+    <t>audio_s87.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Mơ\ng na\r ['[ư\n, grâp nih tăng lup tăng ngơi ju bâk </t>
@@ -1435,7 +1435,7 @@
     <t>Trong ngày họp lớp, mọi người nói chuyện hỏi thăm nhau</t>
   </si>
   <si>
-    <t>audio_s88.m4a</t>
+    <t>audio_s88.wav</t>
   </si>
   <si>
     <t>Oh kuan dơi gơt mei bap lai hân nai t'ti</t>
@@ -1444,7 +1444,7 @@
     <t>Trẻ em phải nghe lời cha mẹ và thầy cô giáo</t>
   </si>
   <si>
-    <t>audio_s89.m4a</t>
+    <t>audio_s89.wav</t>
   </si>
   <si>
     <t>Ku sei riam ra\ ei so dơi tăng ngơi ta mông jai riam</t>
@@ -1453,7 +1453,7 @@
     <t>Học sinh không được nói chuyện trong giờ học</t>
   </si>
   <si>
-    <t>audio_s90.m4a</t>
+    <t>audio_s90.wav</t>
   </si>
   <si>
     <t>Le\ mơt nih dơi hui re druat\ bhian sa\k trông</t>
@@ -1462,7 +1462,7 @@
     <t>Tất cả mọi người phải chấp hành pháp luật luật giao thông</t>
   </si>
   <si>
-    <t>audio_s91.m4a</t>
+    <t>audio_s91.wav</t>
   </si>
   <si>
     <t>Ba\l bân khut khat re ndruat bhian sa\k trông</t>
@@ -1471,7 +1471,7 @@
     <t>Chúng ta phải tuyệt đối chấp hành luật giao thông</t>
   </si>
   <si>
-    <t>audio_s92.m4a</t>
+    <t>audio_s92.wav</t>
   </si>
   <si>
     <t>Ku sei n'nâm 12 năm ei so dơi hao deh wai</t>
@@ -1480,7 +1480,7 @@
     <t>Trẻ em dưới 12 tuổi không được đi xe đạp</t>
   </si>
   <si>
-    <t>audio_s93.m4a</t>
+    <t>audio_s93.wav</t>
   </si>
   <si>
     <t>Ba\l bân dơi đru kơl nih ura` lai hân nih weh wian</t>
@@ -1489,7 +1489,7 @@
     <t>Chúng ta phải giúp đỡ người già và người tàn tật</t>
   </si>
   <si>
-    <t>audio_s94.m4a</t>
+    <t>audio_s94.wav</t>
   </si>
   <si>
     <t>}iang ta po\p ga\l kra di sa\k trông ba\l bân po\p ian mho\?</t>
@@ -1498,13 +1498,13 @@
     <t>Muốn tham gia giao thông an toàn chúng ta phải làm gì</t>
   </si>
   <si>
-    <t>audio_s95.m4a</t>
+    <t>audio_s95.wav</t>
   </si>
   <si>
     <t>Việt Nam là một nước nông nghiệp</t>
   </si>
   <si>
-    <t>audio_s96.m4a</t>
+    <t>audio_s96.wav</t>
   </si>
   <si>
     <t>Puh, ndruk sa ba\t</t>
@@ -1513,7 +1513,7 @@
     <t>Trâu bò ăn cỏ</t>
   </si>
   <si>
-    <t>audio_s97.m4a</t>
+    <t>audio_s97.wav</t>
   </si>
   <si>
     <t>Uôn tơm Bac Ho ta kring Nam Dan, ]ar Nghe An</t>
@@ -1522,7 +1522,7 @@
     <t>Bác Hồ quê ở huyện Nam Đàn, tỉnh Nghệ An</t>
   </si>
   <si>
-    <t>audio_s98.m4a</t>
+    <t>audio_s98.wav</t>
   </si>
   <si>
     <t>Po\p mho\ e `a\m be\]?</t>
@@ -1531,7 +1531,7 @@
     <t>Sao em chưa ngủ?</t>
   </si>
   <si>
-    <t>audio_s99.m4a</t>
+    <t>audio_s99.wav</t>
   </si>
   <si>
     <t>Ta\ng âo, mi po\p ian mho\?</t>
@@ -1540,7 +1540,7 @@
     <t>Ngày mai anh làm gì?</t>
   </si>
   <si>
-    <t>audio_w10.m4a</t>
+    <t>audio_w10.wav</t>
   </si>
   <si>
     <t>Ur ndr'ndrâo</t>
@@ -1549,7 +1549,7 @@
     <t>Bà góa</t>
   </si>
   <si>
-    <t>audio_w100.m4a</t>
+    <t>audio_w100.wav</t>
   </si>
   <si>
     <t>Yăng</t>
@@ -1558,7 +1558,7 @@
     <t>Ché rượu</t>
   </si>
   <si>
-    <t>audio_w101.m4a</t>
+    <t>audio_w101.wav</t>
   </si>
   <si>
     <t>}ông gu</t>
@@ -1567,7 +1567,7 @@
     <t xml:space="preserve">Chỉ </t>
   </si>
   <si>
-    <t>audio_w102.m4a</t>
+    <t>audio_w102.wav</t>
   </si>
   <si>
     <t>Mâo gu</t>
@@ -1576,7 +1576,7 @@
     <t>Chỉ có</t>
   </si>
   <si>
-    <t>audio_w103.m4a</t>
+    <t>audio_w103.wav</t>
   </si>
   <si>
     <t>Mblâm</t>
@@ -1585,7 +1585,7 @@
     <t>Chiếc</t>
   </si>
   <si>
-    <t>audio_w104.m4a</t>
+    <t>audio_w104.wav</t>
   </si>
   <si>
     <t>Tăng sua</t>
@@ -1594,7 +1594,7 @@
     <t>Chiếm đoạt</t>
   </si>
   <si>
-    <t>audio_w105.m4a</t>
+    <t>audio_w105.wav</t>
   </si>
   <si>
     <t>Cư\ng</t>
@@ -1603,7 +1603,7 @@
     <t>Chiêng</t>
   </si>
   <si>
-    <t>audio_w106.m4a</t>
+    <t>audio_w106.wav</t>
   </si>
   <si>
     <t>Mdah</t>
@@ -1612,7 +1612,7 @@
     <t>Chiếu phim</t>
   </si>
   <si>
-    <t>audio_w107.m4a</t>
+    <t>audio_w107.wav</t>
   </si>
   <si>
     <t>Sư\m lang</t>
@@ -1621,7 +1621,7 @@
     <t>Chim cưỡng</t>
   </si>
   <si>
-    <t>audio_w108.m4a</t>
+    <t>audio_w108.wav</t>
   </si>
   <si>
     <t>Sư\m lưng lang</t>
@@ -1630,7 +1630,7 @@
     <t>Chim én</t>
   </si>
   <si>
-    <t>audio_w109.m4a</t>
+    <t>audio_w109.wav</t>
   </si>
   <si>
     <t>Sư\m lông ing</t>
@@ -1639,7 +1639,7 @@
     <t>Chim họa mi</t>
   </si>
   <si>
-    <t>audio_w11.m4a</t>
+    <t>audio_w11.wav</t>
   </si>
   <si>
     <t>Ta]</t>
@@ -1648,7 +1648,7 @@
     <t>Bãi</t>
   </si>
   <si>
-    <t>audio_w110.m4a</t>
+    <t>audio_w110.wav</t>
   </si>
   <si>
     <t>Sư\m kring krieo</t>
@@ -1657,7 +1657,7 @@
     <t>Chim hồng hoàng</t>
   </si>
   <si>
-    <t>audio_w111.m4a</t>
+    <t>audio_w111.wav</t>
   </si>
   <si>
     <t>Sư\m ]ri vit</t>
@@ -1666,7 +1666,7 @@
     <t>Chim lợn</t>
   </si>
   <si>
-    <t>audio_w112.m4a</t>
+    <t>audio_w112.wav</t>
   </si>
   <si>
     <t>djrao</t>
@@ -1675,7 +1675,7 @@
     <t>Chim sáo</t>
   </si>
   <si>
-    <t>audio_w113.m4a</t>
+    <t>audio_w113.wav</t>
   </si>
   <si>
     <t>Sư\m ndru\ng</t>
@@ -1684,7 +1684,7 @@
     <t>Chim sâu</t>
   </si>
   <si>
-    <t>audio_w114.m4a</t>
+    <t>audio_w114.wav</t>
   </si>
   <si>
     <t>Sư\m srai</t>
@@ -1693,7 +1693,7 @@
     <t xml:space="preserve">Chim sẻ </t>
   </si>
   <si>
-    <t>audio_w115.m4a</t>
+    <t>audio_w115.wav</t>
   </si>
   <si>
     <t>Sư\m ê'êt</t>
@@ -1702,7 +1702,7 @@
     <t>Chim vẹt</t>
   </si>
   <si>
-    <t>audio_w116.m4a</t>
+    <t>audio_w116.wav</t>
   </si>
   <si>
     <t>}um</t>
@@ -1711,13 +1711,13 @@
     <t>Chim yểng</t>
   </si>
   <si>
-    <t>audio_w117.m4a</t>
+    <t>audio_w117.wav</t>
   </si>
   <si>
     <t>Dieu</t>
   </si>
   <si>
-    <t>audio_w119.m4a</t>
+    <t>audio_w119.wav</t>
   </si>
   <si>
     <t>Diang</t>
@@ -1726,7 +1726,7 @@
     <t>Chở</t>
   </si>
   <si>
-    <t>audio_w12.m4a</t>
+    <t>audio_w12.wav</t>
   </si>
   <si>
     <t>Pah</t>
@@ -1735,7 +1735,7 @@
     <t>Bám</t>
   </si>
   <si>
-    <t>audio_w120.m4a</t>
+    <t>audio_w120.wav</t>
   </si>
   <si>
     <t>Sâo rhâo</t>
@@ -1744,19 +1744,19 @@
     <t>Chó sói</t>
   </si>
   <si>
-    <t>audio_w121.m4a</t>
+    <t>audio_w121.wav</t>
   </si>
   <si>
     <t>Cho thấy</t>
   </si>
   <si>
-    <t>audio_w122.m4a</t>
+    <t>audio_w122.wav</t>
   </si>
   <si>
     <t>Nuh</t>
   </si>
   <si>
-    <t>audio_w123.m4a</t>
+    <t>audio_w123.wav</t>
   </si>
   <si>
     <t>n'nô\</t>
@@ -1765,7 +1765,7 @@
     <t>chơi</t>
   </si>
   <si>
-    <t>audio_w124.m4a</t>
+    <t>audio_w124.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Lieo </t>
@@ -1774,7 +1774,7 @@
     <t>Chôn</t>
   </si>
   <si>
-    <t>audio_w125.m4a</t>
+    <t>audio_w125.wav</t>
   </si>
   <si>
     <t>Tham</t>
@@ -1783,13 +1783,13 @@
     <t>Chống</t>
   </si>
   <si>
-    <t>audio_w126.m4a</t>
+    <t>audio_w126.wav</t>
   </si>
   <si>
     <t>Gang</t>
   </si>
   <si>
-    <t>audio_w127.m4a</t>
+    <t>audio_w127.wav</t>
   </si>
   <si>
     <t>Jră</t>
@@ -1798,7 +1798,7 @@
     <t>Chống gậy</t>
   </si>
   <si>
-    <t>audio_w128.m4a</t>
+    <t>audio_w128.wav</t>
   </si>
   <si>
     <t>Tơm hih</t>
@@ -1807,7 +1807,7 @@
     <t>Chủ nhà</t>
   </si>
   <si>
-    <t>audio_w129.m4a</t>
+    <t>audio_w129.wav</t>
   </si>
   <si>
     <t>Tơm phu\n</t>
@@ -1816,7 +1816,7 @@
     <t>Chủ yếu</t>
   </si>
   <si>
-    <t>audio_w13.m4a</t>
+    <t>audio_w13.wav</t>
   </si>
   <si>
     <t>Pe`\</t>
@@ -1825,7 +1825,7 @@
     <t>Bắn</t>
   </si>
   <si>
-    <t>audio_w130.m4a</t>
+    <t>audio_w130.wav</t>
   </si>
   <si>
     <t>Jơ rơ</t>
@@ -1834,13 +1834,13 @@
     <t>Chưa</t>
   </si>
   <si>
-    <t>audio_w131.m4a</t>
+    <t>audio_w131.wav</t>
   </si>
   <si>
     <t>~ăm</t>
   </si>
   <si>
-    <t>audio_w133.m4a</t>
+    <t>audio_w133.wav</t>
   </si>
   <si>
     <t>~jrăng</t>
@@ -1849,7 +1849,7 @@
     <t>Chuẩn bị</t>
   </si>
   <si>
-    <t>audio_w134.m4a</t>
+    <t>audio_w134.wav</t>
   </si>
   <si>
     <t>Ju</t>
@@ -1858,7 +1858,7 @@
     <t>Chuối</t>
   </si>
   <si>
-    <t>audio_w135.m4a</t>
+    <t>audio_w135.wav</t>
   </si>
   <si>
     <t>Mai</t>
@@ -1867,7 +1867,7 @@
     <t>Chuỗi hạt cườm</t>
   </si>
   <si>
-    <t>audio_w136.m4a</t>
+    <t>audio_w136.wav</t>
   </si>
   <si>
     <t>Băt</t>
@@ -1876,7 +1876,7 @@
     <t>Cỏ</t>
   </si>
   <si>
-    <t>audio_w137.m4a</t>
+    <t>audio_w137.wav</t>
   </si>
   <si>
     <t>Ai te</t>
@@ -1885,7 +1885,7 @@
     <t>Có công</t>
   </si>
   <si>
-    <t>audio_w138.m4a</t>
+    <t>audio_w138.wav</t>
   </si>
   <si>
     <t>Mâo ndư\l</t>
@@ -1894,7 +1894,7 @@
     <t>Có thai</t>
   </si>
   <si>
-    <t>audio_w139.m4a</t>
+    <t>audio_w139.wav</t>
   </si>
   <si>
     <t>Pơp tih</t>
@@ -1903,7 +1903,7 @@
     <t>Có tội</t>
   </si>
   <si>
-    <t>audio_w14.m4a</t>
+    <t>audio_w14.wav</t>
   </si>
   <si>
     <t>Trông ]hai</t>
@@ -1912,7 +1912,7 @@
     <t>Bàn bạc</t>
   </si>
   <si>
-    <t>audio_w140.m4a</t>
+    <t>audio_w140.wav</t>
   </si>
   <si>
     <t>Ndơ\ng</t>
@@ -1921,7 +1921,7 @@
     <t>Cọc</t>
   </si>
   <si>
-    <t>audio_w141.m4a</t>
+    <t>audio_w141.wav</t>
   </si>
   <si>
     <t>Leh ao</t>
@@ -1930,7 +1930,7 @@
     <t>Cởi áo</t>
   </si>
   <si>
-    <t>audio_w142.m4a</t>
+    <t>audio_w142.wav</t>
   </si>
   <si>
     <t>Doh ]hum</t>
@@ -1939,7 +1939,7 @@
     <t>Cởi quần</t>
   </si>
   <si>
-    <t>audio_w143.m4a</t>
+    <t>audio_w143.wav</t>
   </si>
   <si>
     <t>Wih</t>
@@ -1948,7 +1948,7 @@
     <t>Còn</t>
   </si>
   <si>
-    <t>audio_w144.m4a</t>
+    <t>audio_w144.wav</t>
   </si>
   <si>
     <t>Pik</t>
@@ -1957,7 +1957,7 @@
     <t>Con chồn</t>
   </si>
   <si>
-    <t>audio_w145.m4a</t>
+    <t>audio_w145.wav</t>
   </si>
   <si>
     <t>Kuan pik</t>
@@ -1966,7 +1966,7 @@
     <t>Con chồn con</t>
   </si>
   <si>
-    <t>audio_w146.m4a</t>
+    <t>audio_w146.wav</t>
   </si>
   <si>
     <t>nei</t>
@@ -1975,7 +1975,7 @@
     <t>Con chuột</t>
   </si>
   <si>
-    <t>audio_w147.m4a</t>
+    <t>audio_w147.wav</t>
   </si>
   <si>
     <t>Brak</t>
@@ -1984,7 +1984,7 @@
     <t>Con công</t>
   </si>
   <si>
-    <t>audio_w148.m4a</t>
+    <t>audio_w148.wav</t>
   </si>
   <si>
     <t>Tla</t>
@@ -1993,7 +1993,7 @@
     <t>Con cọp</t>
   </si>
   <si>
-    <t>audio_w149.m4a</t>
+    <t>audio_w149.wav</t>
   </si>
   <si>
     <t>Udruh</t>
@@ -2002,13 +2002,13 @@
     <t>Con gái</t>
   </si>
   <si>
-    <t>audio_w15.m4a</t>
+    <t>audio_w15.wav</t>
   </si>
   <si>
     <t>Tuah wa`</t>
   </si>
   <si>
-    <t>audio_w150.m4a</t>
+    <t>audio_w150.wav</t>
   </si>
   <si>
     <t>Kiap</t>
@@ -2017,7 +2017,7 @@
     <t>Con hến</t>
   </si>
   <si>
-    <t>audio_w151.m4a</t>
+    <t>audio_w151.wav</t>
   </si>
   <si>
     <t>Jư\l</t>
@@ -2026,7 +2026,7 @@
     <t>Con hoẵng</t>
   </si>
   <si>
-    <t>audio_w152.m4a</t>
+    <t>audio_w152.wav</t>
   </si>
   <si>
     <t>Pơm mah</t>
@@ -2035,7 +2035,7 @@
     <t>Con hươu</t>
   </si>
   <si>
-    <t>audio_w153.m4a</t>
+    <t>audio_w153.wav</t>
   </si>
   <si>
     <t>Duk</t>
@@ -2044,7 +2044,7 @@
     <t>Con khỉ</t>
   </si>
   <si>
-    <t>audio_w154.m4a</t>
+    <t>audio_w154.wav</t>
   </si>
   <si>
     <t>Sam</t>
@@ -2053,7 +2053,7 @@
     <t>Con kiến</t>
   </si>
   <si>
-    <t>audio_w155.m4a</t>
+    <t>audio_w155.wav</t>
   </si>
   <si>
     <t>Dâm bri</t>
@@ -2062,7 +2062,7 @@
     <t>Con kỳ đà</t>
   </si>
   <si>
-    <t>audio_w156.m4a</t>
+    <t>audio_w156.wav</t>
   </si>
   <si>
     <t>Nggăr</t>
@@ -2071,7 +2071,7 @@
     <t>Con mắt</t>
   </si>
   <si>
-    <t>audio_w157.m4a</t>
+    <t>audio_w157.wav</t>
   </si>
   <si>
     <t>Te reh</t>
@@ -2080,7 +2080,7 @@
     <t>Con mối</t>
   </si>
   <si>
-    <t>audio_w158.m4a</t>
+    <t>audio_w158.wav</t>
   </si>
   <si>
     <t>Pơm ndrang</t>
@@ -2089,7 +2089,7 @@
     <t>Con nai</t>
   </si>
   <si>
-    <t>audio_w159.m4a</t>
+    <t>audio_w159.wav</t>
   </si>
   <si>
     <t>Nih</t>
@@ -2098,7 +2098,7 @@
     <t>Con người</t>
   </si>
   <si>
-    <t>audio_w16.m4a</t>
+    <t>audio_w16.wav</t>
   </si>
   <si>
     <t>Tơm sơ\ng</t>
@@ -2107,19 +2107,19 @@
     <t>Bản địa</t>
   </si>
   <si>
-    <t>audio_w160.m4a</t>
+    <t>audio_w160.wav</t>
   </si>
   <si>
     <t>Nih yang</t>
   </si>
   <si>
-    <t>audio_w161.m4a</t>
+    <t>audio_w161.wav</t>
   </si>
   <si>
     <t>Kuan nih</t>
   </si>
   <si>
-    <t>audio_w162.m4a</t>
+    <t>audio_w162.wav</t>
   </si>
   <si>
     <t>Kô kôp</t>
@@ -2128,7 +2128,7 @@
     <t>Con rùa</t>
   </si>
   <si>
-    <t>audio_w163.m4a</t>
+    <t>audio_w163.wav</t>
   </si>
   <si>
     <t>Ndru\ng</t>
@@ -2137,7 +2137,7 @@
     <t>Con sâu</t>
   </si>
   <si>
-    <t>audio_w164.m4a</t>
+    <t>audio_w164.wav</t>
   </si>
   <si>
     <t>prôk</t>
@@ -2146,7 +2146,7 @@
     <t>Con sóc</t>
   </si>
   <si>
-    <t>audio_w165.m4a</t>
+    <t>audio_w165.wav</t>
   </si>
   <si>
     <t>Du huh</t>
@@ -2155,13 +2155,13 @@
     <t>Con sư tử</t>
   </si>
   <si>
-    <t>audio_w166.m4a</t>
+    <t>audio_w166.wav</t>
   </si>
   <si>
     <t>Ha gu</t>
   </si>
   <si>
-    <t>audio_w167.m4a</t>
+    <t>audio_w167.wav</t>
   </si>
   <si>
     <t>Pua] sap</t>
@@ -2170,7 +2170,7 @@
     <t>Con tê tê</t>
   </si>
   <si>
-    <t>audio_w169.m4a</t>
+    <t>audio_w169.wav</t>
   </si>
   <si>
     <t>Tlâo nu</t>
@@ -2179,7 +2179,7 @@
     <t>Con trai</t>
   </si>
   <si>
-    <t>audio_w17.m4a</t>
+    <t>audio_w17.wav</t>
   </si>
   <si>
     <t>Jư\ng tu\k</t>
@@ -2188,7 +2188,7 @@
     <t>Bàn ghế</t>
   </si>
   <si>
-    <t>audio_w170.m4a</t>
+    <t>audio_w170.wav</t>
   </si>
   <si>
     <t>Kue\`</t>
@@ -2197,7 +2197,7 @@
     <t>Con vượn</t>
   </si>
   <si>
-    <t>audio_w171.m4a</t>
+    <t>audio_w171.wav</t>
   </si>
   <si>
     <t>Bă</t>
@@ -2206,7 +2206,7 @@
     <t>Cõng</t>
   </si>
   <si>
-    <t>audio_w172.m4a</t>
+    <t>audio_w172.wav</t>
   </si>
   <si>
     <t>Gông</t>
@@ -2215,7 +2215,7 @@
     <t>Cồng</t>
   </si>
   <si>
-    <t>audio_w173.m4a</t>
+    <t>audio_w173.wav</t>
   </si>
   <si>
     <t>Brua\ nua\</t>
@@ -2224,7 +2224,7 @@
     <t xml:space="preserve">Công việc </t>
   </si>
   <si>
-    <t>audio_w174.m4a</t>
+    <t>audio_w174.wav</t>
   </si>
   <si>
     <t>}a nhông</t>
@@ -2233,7 +2233,7 @@
     <t>Củ riềng</t>
   </si>
   <si>
-    <t>audio_w18.m4a</t>
+    <t>audio_w18.wav</t>
   </si>
   <si>
     <t>Lăng jư\r</t>
@@ -2242,7 +2242,7 @@
     <t>Ban hành</t>
   </si>
   <si>
-    <t>audio_w182.m4a</t>
+    <t>audio_w182.wav</t>
   </si>
   <si>
     <t>Dăng</t>
@@ -2251,7 +2251,7 @@
     <t>Cứng</t>
   </si>
   <si>
-    <t>audio_w183.m4a</t>
+    <t>audio_w183.wav</t>
   </si>
   <si>
     <t>Phă dak</t>
@@ -2260,7 +2260,7 @@
     <t>Cung cấp nước</t>
   </si>
   <si>
-    <t>audio_w184.m4a</t>
+    <t>audio_w184.wav</t>
   </si>
   <si>
     <t>Jăp kâp</t>
@@ -2269,7 +2269,7 @@
     <t>Cứng cỏi</t>
   </si>
   <si>
-    <t>audio_w185.m4a</t>
+    <t>audio_w185.wav</t>
   </si>
   <si>
     <t>Ju băk de</t>
@@ -2278,7 +2278,7 @@
     <t>Cùng với cô ấy</t>
   </si>
   <si>
-    <t>audio_w186.m4a</t>
+    <t>audio_w186.wav</t>
   </si>
   <si>
     <t>Brua\ tăng blah</t>
@@ -2287,7 +2287,7 @@
     <t>Cuộc kháng chiến</t>
   </si>
   <si>
-    <t>audio_w187.m4a</t>
+    <t>audio_w187.wav</t>
   </si>
   <si>
     <t>Brua\ mhei blah</t>
@@ -2296,7 +2296,7 @@
     <t>Cuộc khởi nghĩa</t>
   </si>
   <si>
-    <t>audio_w188.m4a</t>
+    <t>audio_w188.wav</t>
   </si>
   <si>
     <t>Hao rueh</t>
@@ -2305,7 +2305,7 @@
     <t>Cưỡi voi</t>
   </si>
   <si>
-    <t>audio_w189.m4a</t>
+    <t>audio_w189.wav</t>
   </si>
   <si>
     <t>Tâo</t>
@@ -2314,7 +2314,7 @@
     <t>Da người</t>
   </si>
   <si>
-    <t>audio_w19.m4a</t>
+    <t>audio_w19.wav</t>
   </si>
   <si>
     <t>~ơ\ [ơ\</t>
@@ -2323,7 +2323,7 @@
     <t>Bẩn thỉu</t>
   </si>
   <si>
-    <t>audio_w190.m4a</t>
+    <t>audio_w190.wav</t>
   </si>
   <si>
     <t>Dih ai</t>
@@ -2332,7 +2332,7 @@
     <t>Đặc biệt</t>
   </si>
   <si>
-    <t>audio_w191.m4a</t>
+    <t>audio_w191.wav</t>
   </si>
   <si>
     <t>jua</t>
@@ -2341,13 +2341,13 @@
     <t>Dài</t>
   </si>
   <si>
-    <t>audio_w192.m4a</t>
+    <t>audio_w192.wav</t>
   </si>
   <si>
     <t>Jua</t>
   </si>
   <si>
-    <t>audio_w193.m4a</t>
+    <t>audio_w193.wav</t>
   </si>
   <si>
     <t>Dâng un</t>
@@ -2356,7 +2356,7 @@
     <t>Đại diện</t>
   </si>
   <si>
-    <t>audio_w194.m4a</t>
+    <t>audio_w194.wav</t>
   </si>
   <si>
     <t>Dro\ng ne\]</t>
@@ -2365,7 +2365,7 @@
     <t>Đãi khách</t>
   </si>
   <si>
-    <t>audio_w195.m4a</t>
+    <t>audio_w195.wav</t>
   </si>
   <si>
     <t>Jua ke\] kul</t>
@@ -2374,7 +2374,7 @@
     <t>Dài uốn khúc</t>
   </si>
   <si>
-    <t>audio_w196.m4a</t>
+    <t>audio_w196.wav</t>
   </si>
   <si>
     <t>Tâp</t>
@@ -2383,13 +2383,13 @@
     <t>Đâm</t>
   </si>
   <si>
-    <t>audio_w197.m4a</t>
+    <t>audio_w197.wav</t>
   </si>
   <si>
     <t>Sreh</t>
   </si>
   <si>
-    <t>audio_w198.m4a</t>
+    <t>audio_w198.wav</t>
   </si>
   <si>
     <t>Nung djut</t>
@@ -2398,7 +2398,7 @@
     <t>Đầm lầy</t>
   </si>
   <si>
-    <t>audio_w199.m4a</t>
+    <t>audio_w199.wav</t>
   </si>
   <si>
     <t>Sra</t>
@@ -2407,7 +2407,7 @@
     <t>Đan áo</t>
   </si>
   <si>
-    <t>audio_w20.m4a</t>
+    <t>audio_w20.wav</t>
   </si>
   <si>
     <t>Ndrơm</t>
@@ -2416,7 +2416,7 @@
     <t>Bằng</t>
   </si>
   <si>
-    <t>audio_w200.m4a</t>
+    <t>audio_w200.wav</t>
   </si>
   <si>
     <t>doh tông</t>
@@ -2425,7 +2425,7 @@
     <t>dân ca</t>
   </si>
   <si>
-    <t>audio_w201.m4a</t>
+    <t>audio_w201.wav</t>
   </si>
   <si>
     <t>Ta tă</t>
@@ -2434,7 +2434,7 @@
     <t>Dặn dò</t>
   </si>
   <si>
-    <t>audio_w202.m4a</t>
+    <t>audio_w202.wav</t>
   </si>
   <si>
     <t>Ta` sah</t>
@@ -2443,7 +2443,7 @@
     <t>Đan gùi</t>
   </si>
   <si>
-    <t>audio_w203.m4a</t>
+    <t>audio_w203.wav</t>
   </si>
   <si>
     <t>}ơn ngâp</t>
@@ -2452,7 +2452,7 @@
     <t>Dâng ngập</t>
   </si>
   <si>
-    <t>audio_w204.m4a</t>
+    <t>audio_w204.wav</t>
   </si>
   <si>
     <t>Đir đa]</t>
@@ -2461,7 +2461,7 @@
     <t>Đáng sợ</t>
   </si>
   <si>
-    <t>audio_w205.m4a</t>
+    <t>audio_w205.wav</t>
   </si>
   <si>
     <t>Yat</t>
@@ -2470,19 +2470,19 @@
     <t>Đánh</t>
   </si>
   <si>
-    <t>audio_w206.m4a</t>
+    <t>audio_w206.wav</t>
   </si>
   <si>
     <t>Bâm</t>
   </si>
   <si>
-    <t>audio_w207.m4a</t>
+    <t>audio_w207.wav</t>
   </si>
   <si>
     <t>Đánh bóng chuyền</t>
   </si>
   <si>
-    <t>audio_w208.m4a</t>
+    <t>audio_w208.wav</t>
   </si>
   <si>
     <t>Pu\ yat</t>
@@ -2491,7 +2491,7 @@
     <t>Đánh đập</t>
   </si>
   <si>
-    <t>audio_w209.m4a</t>
+    <t>audio_w209.wav</t>
   </si>
   <si>
     <t>Tim dih</t>
@@ -2500,7 +2500,7 @@
     <t>Dành riêng</t>
   </si>
   <si>
-    <t>audio_w21.m4a</t>
+    <t>audio_w21.wav</t>
   </si>
   <si>
     <t>Put</t>
@@ -2509,7 +2509,7 @@
     <t>Băng bó</t>
   </si>
   <si>
-    <t>audio_w210.m4a</t>
+    <t>audio_w210.wav</t>
   </si>
   <si>
     <t>Kuih</t>
@@ -2518,7 +2518,7 @@
     <t>Đào</t>
   </si>
   <si>
-    <t>audio_w211.m4a</t>
+    <t>audio_w211.wav</t>
   </si>
   <si>
     <t>Lăng `jing bruă</t>
@@ -2527,7 +2527,7 @@
     <t>Đào tạo nghề</t>
   </si>
   <si>
-    <t>audio_w212.m4a</t>
+    <t>audio_w212.wav</t>
   </si>
   <si>
     <t>Teh</t>
@@ -2536,13 +2536,13 @@
     <t>Đất</t>
   </si>
   <si>
-    <t>audio_w213.m4a</t>
+    <t>audio_w213.wav</t>
   </si>
   <si>
     <t>Bo\k (Bông Krang, Yang Tao)</t>
   </si>
   <si>
-    <t>audio_w214.m4a</t>
+    <t>audio_w214.wav</t>
   </si>
   <si>
     <t>Nggân</t>
@@ -2551,7 +2551,7 @@
     <t>Đặt mua</t>
   </si>
   <si>
-    <t>audio_w215.m4a</t>
+    <t>audio_w215.wav</t>
   </si>
   <si>
     <t>Sei dam</t>
@@ -2560,7 +2560,7 @@
     <t>Dây</t>
   </si>
   <si>
-    <t>audio_w216.m4a</t>
+    <t>audio_w216.wav</t>
   </si>
   <si>
     <t>Bư\t</t>
@@ -2569,7 +2569,7 @@
     <t>Đáy</t>
   </si>
   <si>
-    <t>audio_w217.m4a</t>
+    <t>audio_w217.wav</t>
   </si>
   <si>
     <t>Bing</t>
@@ -2578,7 +2578,7 @@
     <t>Đầy</t>
   </si>
   <si>
-    <t>audio_w218.m4a</t>
+    <t>audio_w218.wav</t>
   </si>
   <si>
     <t>Ư\t</t>
@@ -2587,7 +2587,7 @@
     <t>Dày cộm</t>
   </si>
   <si>
-    <t>audio_w219.m4a</t>
+    <t>audio_w219.wav</t>
   </si>
   <si>
     <t>Bư\t yăng</t>
@@ -2596,7 +2596,7 @@
     <t>Đáy ché</t>
   </si>
   <si>
-    <t>audio_w22.m4a</t>
+    <t>audio_w22.wav</t>
   </si>
   <si>
     <t>Ư dơn</t>
@@ -2605,7 +2605,7 @@
     <t>Bằng lòng</t>
   </si>
   <si>
-    <t>audio_w220.m4a</t>
+    <t>audio_w220.wav</t>
   </si>
   <si>
     <t>Nư\m nap</t>
@@ -2614,7 +2614,7 @@
     <t>Đầy đủ</t>
   </si>
   <si>
-    <t>audio_w221.m4a</t>
+    <t>audio_w221.wav</t>
   </si>
   <si>
     <t>Ndâl krư\p</t>
@@ -2623,7 +2623,7 @@
     <t>Đậy kín</t>
   </si>
   <si>
-    <t>audio_w222.m4a</t>
+    <t>audio_w222.wav</t>
   </si>
   <si>
     <t>To rơng</t>
@@ -2632,7 +2632,7 @@
     <t>Dây leo</t>
   </si>
   <si>
-    <t>audio_w223.m4a</t>
+    <t>audio_w223.wav</t>
   </si>
   <si>
     <t>khâp</t>
@@ -2641,13 +2641,13 @@
     <t>Để</t>
   </si>
   <si>
-    <t>audio_w224.m4a</t>
+    <t>audio_w224.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Để </t>
   </si>
   <si>
-    <t>audio_w225.m4a</t>
+    <t>audio_w225.wav</t>
   </si>
   <si>
     <t>Yuh săk</t>
@@ -2656,7 +2656,7 @@
     <t xml:space="preserve">Đẻ </t>
   </si>
   <si>
-    <t>audio_w226.m4a</t>
+    <t>audio_w226.wav</t>
   </si>
   <si>
     <t>Deh</t>
@@ -2665,7 +2665,7 @@
     <t>Đẻ</t>
   </si>
   <si>
-    <t>audio_w227.m4a</t>
+    <t>audio_w227.wav</t>
   </si>
   <si>
     <t>Nơih kơih</t>
@@ -2674,7 +2674,7 @@
     <t>Dễ dàng</t>
   </si>
   <si>
-    <t>audio_w228.m4a</t>
+    <t>audio_w228.wav</t>
   </si>
   <si>
     <t>Gu gu</t>
@@ -2683,7 +2683,7 @@
     <t>Đều</t>
   </si>
   <si>
-    <t>audio_w229.m4a</t>
+    <t>audio_w229.wav</t>
   </si>
   <si>
     <t>Mih gu</t>
@@ -2692,7 +2692,7 @@
     <t>Đều mưa</t>
   </si>
   <si>
-    <t>audio_w23.m4a</t>
+    <t>audio_w23.wav</t>
   </si>
   <si>
     <t>Mih ]al ram</t>
@@ -2701,7 +2701,7 @@
     <t>Bão</t>
   </si>
   <si>
-    <t>audio_w230.m4a</t>
+    <t>audio_w230.wav</t>
   </si>
   <si>
     <t>Săk rue\] rue\]</t>
@@ -2710,7 +2710,7 @@
     <t>Đi diễu hành</t>
   </si>
   <si>
-    <t>audio_w231.m4a</t>
+    <t>audio_w231.wav</t>
   </si>
   <si>
     <t>Til djoh</t>
@@ -2719,7 +2719,7 @@
     <t>Điềm gở</t>
   </si>
   <si>
-    <t>audio_w232.m4a</t>
+    <t>audio_w232.wav</t>
   </si>
   <si>
     <t>Mdah yat bâm</t>
@@ -2728,7 +2728,7 @@
     <t>Diễn tấu</t>
   </si>
   <si>
-    <t>audio_w233.m4a</t>
+    <t>audio_w233.wav</t>
   </si>
   <si>
     <t>Măt tre\</t>
@@ -2737,7 +2737,7 @@
     <t>Diện tích</t>
   </si>
   <si>
-    <t>audio_w234.m4a</t>
+    <t>audio_w234.wav</t>
   </si>
   <si>
     <t>Tlang</t>
@@ -2746,7 +2746,7 @@
     <t>Diều hâu</t>
   </si>
   <si>
-    <t>audio_w235.m4a</t>
+    <t>audio_w235.wav</t>
   </si>
   <si>
     <t>Lăng ndrơm</t>
@@ -2755,7 +2755,7 @@
     <t>Điều hòa</t>
   </si>
   <si>
-    <t>audio_w236.m4a</t>
+    <t>audio_w236.wav</t>
   </si>
   <si>
     <t>Pơp djoh</t>
@@ -2764,7 +2764,7 @@
     <t>Điều xấu</t>
   </si>
   <si>
-    <t>audio_w237.m4a</t>
+    <t>audio_w237.wav</t>
   </si>
   <si>
     <t>Do\</t>
@@ -2773,7 +2773,7 @@
     <t>Dịp</t>
   </si>
   <si>
-    <t>audio_w238.m4a</t>
+    <t>audio_w238.wav</t>
   </si>
   <si>
     <t>Tuh</t>
@@ -2782,7 +2782,7 @@
     <t xml:space="preserve">Đổ </t>
   </si>
   <si>
-    <t>audio_w239.m4a</t>
+    <t>audio_w239.wav</t>
   </si>
   <si>
     <t>Mâl</t>
@@ -2791,7 +2791,7 @@
     <t>Đổ</t>
   </si>
   <si>
-    <t>audio_w24.m4a</t>
+    <t>audio_w24.wav</t>
   </si>
   <si>
     <t>Yua</t>
@@ -2800,7 +2800,7 @@
     <t>Bảo</t>
   </si>
   <si>
-    <t>audio_w240.m4a</t>
+    <t>audio_w240.wav</t>
   </si>
   <si>
     <t>~ơ\ siap</t>
@@ -2809,7 +2809,7 @@
     <t>Dơ bẩn</t>
   </si>
   <si>
-    <t>audio_w241.m4a</t>
+    <t>audio_w241.wav</t>
   </si>
   <si>
     <t>Ru\k</t>
@@ -2818,7 +2818,7 @@
     <t>Đổ bỏ</t>
   </si>
   <si>
-    <t>audio_w242.m4a</t>
+    <t>audio_w242.wav</t>
   </si>
   <si>
     <t>Mbe\]</t>
@@ -2827,7 +2827,7 @@
     <t>Đổ thêm vào</t>
   </si>
   <si>
-    <t>audio_w243.m4a</t>
+    <t>audio_w243.wav</t>
   </si>
   <si>
     <t>pir</t>
@@ -2836,13 +2836,13 @@
     <t>Dọc</t>
   </si>
   <si>
-    <t>audio_w244.m4a</t>
+    <t>audio_w244.wav</t>
   </si>
   <si>
     <t>Rôk</t>
   </si>
   <si>
-    <t>audio_w245.m4a</t>
+    <t>audio_w245.wav</t>
   </si>
   <si>
     <t>O\k ro\k</t>
@@ -2851,13 +2851,13 @@
     <t>Dồi dào</t>
   </si>
   <si>
-    <t>audio_w246.m4a</t>
+    <t>audio_w246.wav</t>
   </si>
   <si>
     <t>O\k mo\k</t>
   </si>
   <si>
-    <t>audio_w247.m4a</t>
+    <t>audio_w247.wav</t>
   </si>
   <si>
     <t>Dâo buk</t>
@@ -2866,7 +2866,7 @@
     <t>Đội đầu</t>
   </si>
   <si>
-    <t>audio_w248.m4a</t>
+    <t>audio_w248.wav</t>
   </si>
   <si>
     <t>~jan [ư\n</t>
@@ -2875,13 +2875,13 @@
     <t>Dọn</t>
   </si>
   <si>
-    <t>audio_w249.m4a</t>
+    <t>audio_w249.wav</t>
   </si>
   <si>
     <t>Jan</t>
   </si>
   <si>
-    <t>audio_w25.m4a</t>
+    <t>audio_w25.wav</t>
   </si>
   <si>
     <t>Răng kre</t>
@@ -2890,7 +2890,7 @@
     <t>Bảo quản</t>
   </si>
   <si>
-    <t>audio_w250.m4a</t>
+    <t>audio_w250.wav</t>
   </si>
   <si>
     <t>Khat</t>
@@ -2899,13 +2899,13 @@
     <t>Đón</t>
   </si>
   <si>
-    <t>audio_w251.m4a</t>
+    <t>audio_w251.wav</t>
   </si>
   <si>
     <t>Đơn giản</t>
   </si>
   <si>
-    <t>audio_w252.m4a</t>
+    <t>audio_w252.wav</t>
   </si>
   <si>
     <t>~hân</t>
@@ -2914,7 +2914,7 @@
     <t>Dồn lại</t>
   </si>
   <si>
-    <t>audio_w253.m4a</t>
+    <t>audio_w253.wav</t>
   </si>
   <si>
     <t>Khâp khat</t>
@@ -2923,7 +2923,7 @@
     <t>Đón tiếp</t>
   </si>
   <si>
-    <t>audio_w254.m4a</t>
+    <t>audio_w254.wav</t>
   </si>
   <si>
     <t>Pơng</t>
@@ -2932,13 +2932,13 @@
     <t>Đóng</t>
   </si>
   <si>
-    <t>audio_w255.m4a</t>
+    <t>audio_w255.wav</t>
   </si>
   <si>
     <t>mho\</t>
   </si>
   <si>
-    <t>audio_w256.m4a</t>
+    <t>audio_w256.wav</t>
   </si>
   <si>
     <t>Ta] băt</t>
@@ -2947,7 +2947,7 @@
     <t>Đồng cỏ</t>
   </si>
   <si>
-    <t>audio_w257.m4a</t>
+    <t>audio_w257.wav</t>
   </si>
   <si>
     <t>Bông dak</t>
@@ -2956,7 +2956,7 @@
     <t>Dòng suối</t>
   </si>
   <si>
-    <t>audio_w258.m4a</t>
+    <t>audio_w258.wav</t>
   </si>
   <si>
     <t>dak ôi</t>
@@ -2965,7 +2965,7 @@
     <t>Dòng suối mẹ Gar</t>
   </si>
   <si>
-    <t>audio_w259.m4a</t>
+    <t>audio_w259.wav</t>
   </si>
   <si>
     <t>dak uei</t>
@@ -2974,7 +2974,7 @@
     <t>Dòng suối mẹ Rlăm</t>
   </si>
   <si>
-    <t>audio_w26.m4a</t>
+    <t>audio_w26.wav</t>
   </si>
   <si>
     <t>Wang dăr</t>
@@ -2983,7 +2983,7 @@
     <t>Bao quanh</t>
   </si>
   <si>
-    <t>audio_w260.m4a</t>
+    <t>audio_w260.wav</t>
   </si>
   <si>
     <t>Lo\ng ju bâk</t>
@@ -2992,7 +2992,7 @@
     <t>Đồng thời</t>
   </si>
   <si>
-    <t>audio_w261.m4a</t>
+    <t>audio_w261.wav</t>
   </si>
   <si>
     <t>Jư\l pơm</t>
@@ -3001,7 +3001,7 @@
     <t>Động vật</t>
   </si>
   <si>
-    <t>audio_w262.m4a</t>
+    <t>audio_w262.wav</t>
   </si>
   <si>
     <t>Pual</t>
@@ -3010,7 +3010,7 @@
     <t>Đu</t>
   </si>
   <si>
-    <t>audio_w263.m4a</t>
+    <t>audio_w263.wav</t>
   </si>
   <si>
     <t>Nuih</t>
@@ -3019,7 +3019,7 @@
     <t>Thú dữ</t>
   </si>
   <si>
-    <t>audio_w264.m4a</t>
+    <t>audio_w264.wav</t>
   </si>
   <si>
     <t>M^n ]ua</t>
@@ -3028,7 +3028,7 @@
     <t>Dự án</t>
   </si>
   <si>
-    <t>audio_w265.m4a</t>
+    <t>audio_w265.wav</t>
   </si>
   <si>
     <t>Ne\] sông wăng</t>
@@ -3037,7 +3037,7 @@
     <t>Du khách</t>
   </si>
   <si>
-    <t>audio_w266.m4a</t>
+    <t>audio_w266.wav</t>
   </si>
   <si>
     <t>Nhơ\ng wăng</t>
@@ -3046,7 +3046,7 @@
     <t>Du lịch</t>
   </si>
   <si>
-    <t>audio_w267.m4a</t>
+    <t>audio_w267.wav</t>
   </si>
   <si>
     <t>Pu\ng</t>
@@ -3055,7 +3055,7 @@
     <t>Quả dưa</t>
   </si>
   <si>
-    <t>audio_w268.m4a</t>
+    <t>audio_w268.wav</t>
   </si>
   <si>
     <t>Lăng ndơp</t>
@@ -3064,7 +3064,7 @@
     <t>Đưa tiễn</t>
   </si>
   <si>
-    <t>audio_w269.m4a</t>
+    <t>audio_w269.wav</t>
   </si>
   <si>
     <t>Tăng tưng rueh</t>
@@ -3073,7 +3073,7 @@
     <t>Đua voi</t>
   </si>
   <si>
-    <t>audio_w27.m4a</t>
+    <t>audio_w27.wav</t>
   </si>
   <si>
     <t>T'têh hưn</t>
@@ -3082,7 +3082,7 @@
     <t>Báo tin</t>
   </si>
   <si>
-    <t>audio_w270.m4a</t>
+    <t>audio_w270.wav</t>
   </si>
   <si>
     <t>Kăl</t>
@@ -3091,7 +3091,7 @@
     <t>Nước đục</t>
   </si>
   <si>
-    <t>audio_w271.m4a</t>
+    <t>audio_w271.wav</t>
   </si>
   <si>
     <t>Mư\ng gông</t>
@@ -3100,7 +3100,7 @@
     <t>Dùi chiêng</t>
   </si>
   <si>
-    <t>audio_w272.m4a</t>
+    <t>audio_w272.wav</t>
   </si>
   <si>
     <t>yua</t>
@@ -3109,10 +3109,10 @@
     <t>Dùng</t>
   </si>
   <si>
-    <t>audio_w273.m4a</t>
-  </si>
-  <si>
-    <t>audio_w274.m4a</t>
+    <t>audio_w273.wav</t>
+  </si>
+  <si>
+    <t>audio_w274.wav</t>
   </si>
   <si>
     <t>Dơk</t>
@@ -3121,7 +3121,7 @@
     <t>Đứng</t>
   </si>
   <si>
-    <t>audio_w275.m4a</t>
+    <t>audio_w275.wav</t>
   </si>
   <si>
     <t>Lăng ndơk ndơ\ng</t>
@@ -3130,13 +3130,13 @@
     <t>Dựng cột</t>
   </si>
   <si>
-    <t>audio_w276.m4a</t>
+    <t>audio_w276.wav</t>
   </si>
   <si>
     <t>Lăng ndơk jro\ng</t>
   </si>
   <si>
-    <t>audio_w277.m4a</t>
+    <t>audio_w277.wav</t>
   </si>
   <si>
     <t>Gu\\k ta …</t>
@@ -3145,7 +3145,7 @@
     <t>Đứng thứ…</t>
   </si>
   <si>
-    <t>audio_w278.m4a</t>
+    <t>audio_w278.wav</t>
   </si>
   <si>
     <t>Dơi</t>
@@ -3154,7 +3154,7 @@
     <t>Được</t>
   </si>
   <si>
-    <t>audio_w279.m4a</t>
+    <t>audio_w279.wav</t>
   </si>
   <si>
     <t>Trông</t>
@@ -3163,7 +3163,7 @@
     <t>Đường đi</t>
   </si>
   <si>
-    <t>audio_w28.m4a</t>
+    <t>audio_w28.wav</t>
   </si>
   <si>
     <t>Hum `ut</t>
@@ -3172,7 +3172,7 @@
     <t>Bảo tồn</t>
   </si>
   <si>
-    <t>audio_w280.m4a</t>
+    <t>audio_w280.wav</t>
   </si>
   <si>
     <t>Tăng guap</t>
@@ -3181,7 +3181,7 @@
     <t>Gắn bó</t>
   </si>
   <si>
-    <t>audio_w281.m4a</t>
+    <t>audio_w281.wav</t>
   </si>
   <si>
     <t>G^r ai te</t>
@@ -3190,7 +3190,7 @@
     <t>Gắng sức</t>
   </si>
   <si>
-    <t>audio_w282.m4a</t>
+    <t>audio_w282.wav</t>
   </si>
   <si>
     <t>Phei</t>
@@ -3199,7 +3199,7 @@
     <t>Gạo</t>
   </si>
   <si>
-    <t>audio_w283.m4a</t>
+    <t>audio_w283.wav</t>
   </si>
   <si>
     <t>Tăm tal</t>
@@ -3208,7 +3208,7 @@
     <t>Gặp</t>
   </si>
   <si>
-    <t>audio_w284.m4a</t>
+    <t>audio_w284.wav</t>
   </si>
   <si>
     <t>Ke\] riăk</t>
@@ -3217,7 +3217,7 @@
     <t>Gặt hái</t>
   </si>
   <si>
-    <t>audio_w285.m4a</t>
+    <t>audio_w285.wav</t>
   </si>
   <si>
     <t>Mu\ ko</t>
@@ -3226,7 +3226,7 @@
     <t>Gấu</t>
   </si>
   <si>
-    <t>audio_w286.m4a</t>
+    <t>audio_w286.wav</t>
   </si>
   <si>
     <t>}ih `ut</t>
@@ -3235,7 +3235,7 @@
     <t>Ghi nhớ</t>
   </si>
   <si>
-    <t>audio_w287.m4a</t>
+    <t>audio_w287.wav</t>
   </si>
   <si>
     <t>bo\k</t>
@@ -3244,7 +3244,7 @@
     <t>Giã gạo</t>
   </si>
   <si>
-    <t>audio_w288.m4a</t>
+    <t>audio_w288.wav</t>
   </si>
   <si>
     <t>peh</t>
@@ -3253,7 +3253,7 @@
     <t>Giã lúa</t>
   </si>
   <si>
-    <t>audio_w289.m4a</t>
+    <t>audio_w289.wav</t>
   </si>
   <si>
     <t>Jao</t>
@@ -3262,7 +3262,7 @@
     <t>Giao</t>
   </si>
   <si>
-    <t>audio_w29.m4a</t>
+    <t>audio_w29.wav</t>
   </si>
   <si>
     <t>Khu\ng suar ma</t>
@@ -3271,7 +3271,7 @@
     <t>Bao tử nhím</t>
   </si>
   <si>
-    <t>audio_w290.m4a</t>
+    <t>audio_w290.wav</t>
   </si>
   <si>
     <t>Krơ\ng</t>
@@ -3280,7 +3280,7 @@
     <t>Giao kèo</t>
   </si>
   <si>
-    <t>audio_w291.m4a</t>
+    <t>audio_w291.wav</t>
   </si>
   <si>
     <t>Guap bâk</t>
@@ -3289,10 +3289,10 @@
     <t>Giao lưu</t>
   </si>
   <si>
-    <t>audio_w292.m4a</t>
-  </si>
-  <si>
-    <t>audio_w293.m4a</t>
+    <t>audio_w292.wav</t>
+  </si>
+  <si>
+    <t>audio_w293.wav</t>
   </si>
   <si>
     <t>Tăng kuh</t>
@@ -3301,7 +3301,7 @@
     <t>Giao nhau</t>
   </si>
   <si>
-    <t>audio_w294.m4a</t>
+    <t>audio_w294.wav</t>
   </si>
   <si>
     <t>Pih ao</t>
@@ -3310,7 +3310,7 @@
     <t>Giặt áo</t>
   </si>
   <si>
-    <t>audio_w295.m4a</t>
+    <t>audio_w295.wav</t>
   </si>
   <si>
     <t>}al</t>
@@ -3319,7 +3319,7 @@
     <t>Gió</t>
   </si>
   <si>
-    <t>audio_w296.m4a</t>
+    <t>audio_w296.wav</t>
   </si>
   <si>
     <t>}al bu\</t>
@@ -3328,13 +3328,13 @@
     <t>Gió lốc</t>
   </si>
   <si>
-    <t>audio_w297.m4a</t>
+    <t>audio_w297.wav</t>
   </si>
   <si>
     <t>}al u\</t>
   </si>
   <si>
-    <t>audio_w298.m4a</t>
+    <t>audio_w298.wav</t>
   </si>
   <si>
     <t>}al pôh</t>
@@ -3343,7 +3343,7 @@
     <t>Gió thổi</t>
   </si>
   <si>
-    <t>audio_w299.m4a</t>
+    <t>audio_w299.wav</t>
   </si>
   <si>
     <t>Nă</t>
@@ -3352,7 +3352,7 @@
     <t>Giỏi</t>
   </si>
   <si>
-    <t>audio_w30.m4a</t>
+    <t>audio_w30.wav</t>
   </si>
   <si>
     <t>Năk gang</t>
@@ -3361,16 +3361,16 @@
     <t>Bảo vệ</t>
   </si>
   <si>
-    <t>audio_w300.m4a</t>
+    <t>audio_w300.wav</t>
   </si>
   <si>
     <t>Giữ gìn</t>
   </si>
   <si>
-    <t>audio_w301.m4a</t>
-  </si>
-  <si>
-    <t>audio_w302.m4a</t>
+    <t>audio_w301.wav</t>
+  </si>
+  <si>
+    <t>audio_w302.wav</t>
   </si>
   <si>
     <t>Nông</t>
@@ -3379,13 +3379,13 @@
     <t>Giữa</t>
   </si>
   <si>
-    <t>audio_w303.m4a</t>
+    <t>audio_w303.wav</t>
   </si>
   <si>
     <t>Mơ\ng mbar</t>
   </si>
   <si>
-    <t>audio_w304.m4a</t>
+    <t>audio_w304.wav</t>
   </si>
   <si>
     <t>Dơ\ng năr</t>
@@ -3394,7 +3394,7 @@
     <t>Giữa trưa</t>
   </si>
   <si>
-    <t>audio_w305.m4a</t>
+    <t>audio_w305.wav</t>
   </si>
   <si>
     <t>Đru nu</t>
@@ -3403,7 +3403,7 @@
     <t>Giúp đỡ</t>
   </si>
   <si>
-    <t>audio_w306.m4a</t>
+    <t>audio_w306.wav</t>
   </si>
   <si>
     <t>Tơm ]hi</t>
@@ -3412,13 +3412,13 @@
     <t>Gốc cây</t>
   </si>
   <si>
-    <t>audio_w307.m4a</t>
+    <t>audio_w307.wav</t>
   </si>
   <si>
     <t>Gu ]hi</t>
   </si>
   <si>
-    <t>audio_w308.m4a</t>
+    <t>audio_w308.wav</t>
   </si>
   <si>
     <t>Tuân</t>
@@ -3427,7 +3427,7 @@
     <t>Gói bánh</t>
   </si>
   <si>
-    <t>audio_w309.m4a</t>
+    <t>audio_w309.wav</t>
   </si>
   <si>
     <t>Ndrôm</t>
@@ -3436,7 +3436,7 @@
     <t>Đóng góp</t>
   </si>
   <si>
-    <t>audio_w31.m4a</t>
+    <t>audio_w31.wav</t>
   </si>
   <si>
     <t>Kôp ji</t>
@@ -3445,7 +3445,7 @@
     <t>Bệnh tật</t>
   </si>
   <si>
-    <t>audio_w310.m4a</t>
+    <t>audio_w310.wav</t>
   </si>
   <si>
     <t>Tăng râm</t>
@@ -3454,7 +3454,7 @@
     <t>Góp phần</t>
   </si>
   <si>
-    <t>audio_w311.m4a</t>
+    <t>audio_w311.wav</t>
   </si>
   <si>
     <t>}a</t>
@@ -3463,7 +3463,7 @@
     <t>Gừng</t>
   </si>
   <si>
-    <t>audio_w312.m4a</t>
+    <t>audio_w312.wav</t>
   </si>
   <si>
     <t>Lih</t>
@@ -3472,7 +3472,7 @@
     <t>Hái quả</t>
   </si>
   <si>
-    <t>audio_w313.m4a</t>
+    <t>audio_w313.wav</t>
   </si>
   <si>
     <t>Tu]</t>
@@ -3481,7 +3481,7 @@
     <t>Hái rau</t>
   </si>
   <si>
-    <t>audio_w314.m4a</t>
+    <t>audio_w314.wav</t>
   </si>
   <si>
     <t>Prăng</t>
@@ -3490,7 +3490,7 @@
     <t>Hạn</t>
   </si>
   <si>
-    <t>audio_w315.m4a</t>
+    <t>audio_w315.wav</t>
   </si>
   <si>
     <t>Trum</t>
@@ -3499,7 +3499,7 @@
     <t>Hang</t>
   </si>
   <si>
-    <t>audio_w316.m4a</t>
+    <t>audio_w316.wav</t>
   </si>
   <si>
     <t>Grâp năm</t>
@@ -3508,13 +3508,13 @@
     <t>Hàng năm</t>
   </si>
   <si>
-    <t>audio_w317.m4a</t>
+    <t>audio_w317.wav</t>
   </si>
   <si>
     <t>Hàng rào</t>
   </si>
   <si>
-    <t>audio_w318.m4a</t>
+    <t>audio_w318.wav</t>
   </si>
   <si>
     <t>Brơn mơn</t>
@@ -3523,7 +3523,7 @@
     <t>Hạnh phúc</t>
   </si>
   <si>
-    <t>audio_w319.m4a</t>
+    <t>audio_w319.wav</t>
   </si>
   <si>
     <t>Gưl mơ\ng mbar</t>
@@ -3532,7 +3532,7 @@
     <t>Hệ trung cấp</t>
   </si>
   <si>
-    <t>audio_w32.m4a</t>
+    <t>audio_w32.wav</t>
   </si>
   <si>
     <t>Bông nhak</t>
@@ -3541,7 +3541,7 @@
     <t>Bếp lửa</t>
   </si>
   <si>
-    <t>audio_w320.m4a</t>
+    <t>audio_w320.wav</t>
   </si>
   <si>
     <t>Tăng ]ah</t>
@@ -3550,7 +3550,7 @@
     <t>Hẹn ngày</t>
   </si>
   <si>
-    <t>audio_w321.m4a</t>
+    <t>audio_w321.wav</t>
   </si>
   <si>
     <t>Kei</t>
@@ -3559,13 +3559,13 @@
     <t>Heo rừng</t>
   </si>
   <si>
-    <t>audio_w322.m4a</t>
+    <t>audio_w322.wav</t>
   </si>
   <si>
     <t>Sư\r bri</t>
   </si>
   <si>
-    <t>audio_w323.m4a</t>
+    <t>audio_w323.wav</t>
   </si>
   <si>
     <t>Le\ nơn</t>
@@ -3574,7 +3574,7 @@
     <t>Hết luôn</t>
   </si>
   <si>
-    <t>audio_w324.m4a</t>
+    <t>audio_w324.wav</t>
   </si>
   <si>
     <t>Ân yơr</t>
@@ -3583,7 +3583,7 @@
     <t>Hiến tế</t>
   </si>
   <si>
-    <t>audio_w325.m4a</t>
+    <t>audio_w325.wav</t>
   </si>
   <si>
     <t>Til nhar</t>
@@ -3592,7 +3592,7 @@
     <t>Hiện tượng</t>
   </si>
   <si>
-    <t>audio_w326.m4a</t>
+    <t>audio_w326.wav</t>
   </si>
   <si>
     <t>Ndruat nuh</t>
@@ -3601,7 +3601,7 @@
     <t>Hình thức</t>
   </si>
   <si>
-    <t>audio_w327.m4a</t>
+    <t>audio_w327.wav</t>
   </si>
   <si>
     <t>{lu\ng</t>
@@ -3610,7 +3610,7 @@
     <t>Hồ</t>
   </si>
   <si>
-    <t>audio_w328.m4a</t>
+    <t>audio_w328.wav</t>
   </si>
   <si>
     <t>Đru\ dơng</t>
@@ -3619,7 +3619,7 @@
     <t>Hỗ trợ</t>
   </si>
   <si>
-    <t>audio_w329.m4a</t>
+    <t>audio_w329.wav</t>
   </si>
   <si>
     <t>Kao truih</t>
@@ -3628,7 +3628,7 @@
     <t>Hoa  sen</t>
   </si>
   <si>
-    <t>audio_w33.m4a</t>
+    <t>audio_w33.wav</t>
   </si>
   <si>
     <t>Eh wăk</t>
@@ -3637,7 +3637,7 @@
     <t>Bị nạn</t>
   </si>
   <si>
-    <t>audio_w330.m4a</t>
+    <t>audio_w330.wav</t>
   </si>
   <si>
     <t>Kao khuar</t>
@@ -3646,7 +3646,7 @@
     <t>Hoa súng</t>
   </si>
   <si>
-    <t>audio_w331.m4a</t>
+    <t>audio_w331.wav</t>
   </si>
   <si>
     <t>Li lai</t>
@@ -3655,7 +3655,7 @@
     <t xml:space="preserve">Hòa thuận </t>
   </si>
   <si>
-    <t>audio_w332.m4a</t>
+    <t>audio_w332.wav</t>
   </si>
   <si>
     <t>Kdrueh đe\]</t>
@@ -3664,7 +3664,7 @@
     <t>Hoa văn</t>
   </si>
   <si>
-    <t>audio_w333.m4a</t>
+    <t>audio_w333.wav</t>
   </si>
   <si>
     <t>Ei eh</t>
@@ -3673,7 +3673,7 @@
     <t>Hoặc</t>
   </si>
   <si>
-    <t>audio_w334.m4a</t>
+    <t>audio_w334.wav</t>
   </si>
   <si>
     <t>Plo\ sư\t</t>
@@ -3682,25 +3682,25 @@
     <t>Hoãn lại</t>
   </si>
   <si>
-    <t>audio_w335.m4a</t>
+    <t>audio_w335.wav</t>
   </si>
   <si>
     <t>Ndroh sư\t</t>
   </si>
   <si>
-    <t>audio_w336.m4a</t>
+    <t>audio_w336.wav</t>
   </si>
   <si>
     <t>Ndroh ndrăn</t>
   </si>
   <si>
-    <t>audio_w337.m4a</t>
+    <t>audio_w337.wav</t>
   </si>
   <si>
     <t>Hoẵng</t>
   </si>
   <si>
-    <t>audio_w338.m4a</t>
+    <t>audio_w338.wav</t>
   </si>
   <si>
     <t>Lup</t>
@@ -3709,7 +3709,7 @@
     <t>Hỏi</t>
   </si>
   <si>
-    <t>audio_w339.m4a</t>
+    <t>audio_w339.wav</t>
   </si>
   <si>
     <t>Bâo um</t>
@@ -3718,13 +3718,13 @@
     <t>Hôi thối</t>
   </si>
   <si>
-    <t>audio_w34.m4a</t>
+    <t>audio_w34.wav</t>
   </si>
   <si>
     <t>Bí xanh</t>
   </si>
   <si>
-    <t>audio_w340.m4a</t>
+    <t>audio_w340.wav</t>
   </si>
   <si>
     <t>Khe\`</t>
@@ -3733,25 +3733,25 @@
     <t>Hơn</t>
   </si>
   <si>
-    <t>audio_w341.m4a</t>
+    <t>audio_w341.wav</t>
   </si>
   <si>
     <t>Gao</t>
   </si>
   <si>
-    <t>audio_w342.m4a</t>
+    <t>audio_w342.wav</t>
   </si>
   <si>
     <t>H^n</t>
   </si>
   <si>
-    <t>audio_w343.m4a</t>
+    <t>audio_w343.wav</t>
   </si>
   <si>
     <t>Khe`</t>
   </si>
   <si>
-    <t>audio_w344.m4a</t>
+    <t>audio_w344.wav</t>
   </si>
   <si>
     <t>Mâo nhak</t>
@@ -3760,7 +3760,7 @@
     <t>Hòn đá kê bếp</t>
   </si>
   <si>
-    <t>audio_w345.m4a</t>
+    <t>audio_w345.wav</t>
   </si>
   <si>
     <t>Gum bâk</t>
@@ -3769,13 +3769,13 @@
     <t>Hợp tác</t>
   </si>
   <si>
-    <t>audio_w346.m4a</t>
+    <t>audio_w346.wav</t>
   </si>
   <si>
     <t>Hột</t>
   </si>
   <si>
-    <t>audio_w347.m4a</t>
+    <t>audio_w347.wav</t>
   </si>
   <si>
     <t>Hue\]</t>
@@ -3784,7 +3784,7 @@
     <t>Tiếng chim hót</t>
   </si>
   <si>
-    <t>audio_w348.m4a</t>
+    <t>audio_w348.wav</t>
   </si>
   <si>
     <t>kêu</t>
@@ -3793,7 +3793,7 @@
     <t>Huh</t>
   </si>
   <si>
-    <t>audio_w349.m4a</t>
+    <t>audio_w349.wav</t>
   </si>
   <si>
     <t>Dơn</t>
@@ -3802,7 +3802,7 @@
     <t>Hưởng</t>
   </si>
   <si>
-    <t>audio_w35.m4a</t>
+    <t>audio_w35.wav</t>
   </si>
   <si>
     <t>Mlih p'pât</t>
@@ -3811,7 +3811,7 @@
     <t>Biến động</t>
   </si>
   <si>
-    <t>audio_w350.m4a</t>
+    <t>audio_w350.wav</t>
   </si>
   <si>
     <t>Sơm trông</t>
@@ -3820,19 +3820,19 @@
     <t>Hướng dẫn</t>
   </si>
   <si>
-    <t>audio_w351.m4a</t>
+    <t>audio_w351.wav</t>
   </si>
   <si>
     <t>Sơm lăm</t>
   </si>
   <si>
-    <t>audio_w352.m4a</t>
+    <t>audio_w352.wav</t>
   </si>
   <si>
     <t>Hươu</t>
   </si>
   <si>
-    <t>audio_w353.m4a</t>
+    <t>audio_w353.wav</t>
   </si>
   <si>
     <t>Hư\]</t>
@@ -3841,13 +3841,13 @@
     <t>Húp canh</t>
   </si>
   <si>
-    <t>audio_w354.m4a</t>
+    <t>audio_w354.wav</t>
   </si>
   <si>
     <t>Huýt sáo</t>
   </si>
   <si>
-    <t>audio_w355.m4a</t>
+    <t>audio_w355.wav</t>
   </si>
   <si>
     <t>So gui</t>
@@ -3856,7 +3856,7 @@
     <t>In bóng</t>
   </si>
   <si>
-    <t>audio_w356.m4a</t>
+    <t>audio_w356.wav</t>
   </si>
   <si>
     <t>Lông t'têh</t>
@@ -3865,7 +3865,7 @@
     <t>Kể</t>
   </si>
   <si>
-    <t>audio_w357.m4a</t>
+    <t>audio_w357.wav</t>
   </si>
   <si>
     <t>Nu\ng</t>
@@ -3874,13 +3874,13 @@
     <t>Kèn</t>
   </si>
   <si>
-    <t>audio_w358.m4a</t>
+    <t>audio_w358.wav</t>
   </si>
   <si>
     <t>Kèn đinh năm</t>
   </si>
   <si>
-    <t>audio_w359.m4a</t>
+    <t>audio_w359.wav</t>
   </si>
   <si>
     <t>Grât</t>
@@ -3889,13 +3889,13 @@
     <t>Kền kền</t>
   </si>
   <si>
-    <t>audio_w36.m4a</t>
+    <t>audio_w36.wav</t>
   </si>
   <si>
     <t>Bịt</t>
   </si>
   <si>
-    <t>audio_w360.m4a</t>
+    <t>audio_w360.wav</t>
   </si>
   <si>
     <t>mbuôt</t>
@@ -3904,7 +3904,7 @@
     <t>Kèn môi</t>
   </si>
   <si>
-    <t>audio_w361.m4a</t>
+    <t>audio_w361.wav</t>
   </si>
   <si>
     <t>Đoh</t>
@@ -3913,13 +3913,13 @@
     <t>Kéo</t>
   </si>
   <si>
-    <t>audio_w362.m4a</t>
+    <t>audio_w362.wav</t>
   </si>
   <si>
     <t>Lôi kéo</t>
   </si>
   <si>
-    <t>audio_w363.m4a</t>
+    <t>audio_w363.wav</t>
   </si>
   <si>
     <t>Tăng kuat</t>
@@ -3928,7 +3928,7 @@
     <t>Kết đôi</t>
   </si>
   <si>
-    <t>audio_w364.m4a</t>
+    <t>audio_w364.wav</t>
   </si>
   <si>
     <t>Ndr'ndrâo</t>
@@ -3937,13 +3937,13 @@
     <t>Kêu</t>
   </si>
   <si>
-    <t>audio_w365.m4a</t>
+    <t>audio_w365.wav</t>
   </si>
   <si>
     <t>Kual</t>
   </si>
   <si>
-    <t>audio_w366.m4a</t>
+    <t>audio_w366.wav</t>
   </si>
   <si>
     <t>Ng'ngăn eh</t>
@@ -3952,13 +3952,13 @@
     <t>Khá đặc biệt</t>
   </si>
   <si>
-    <t>audio_w367.m4a</t>
+    <t>audio_w367.wav</t>
   </si>
   <si>
     <t>Tloh noh dih dai</t>
   </si>
   <si>
-    <t>audio_w368.m4a</t>
+    <t>audio_w368.wav</t>
   </si>
   <si>
     <t>Dih</t>
@@ -3967,7 +3967,7 @@
     <t>Khác</t>
   </si>
   <si>
-    <t>audio_w369.m4a</t>
+    <t>audio_w369.wav</t>
   </si>
   <si>
     <t>{a [ă</t>
@@ -3976,7 +3976,7 @@
     <t>Khác nữa</t>
   </si>
   <si>
-    <t>audio_w37.m4a</t>
+    <t>audio_w37.wav</t>
   </si>
   <si>
     <t>Ndroh</t>
@@ -3985,7 +3985,7 @@
     <t>Bỏ</t>
   </si>
   <si>
-    <t>audio_w370.m4a</t>
+    <t>audio_w370.wav</t>
   </si>
   <si>
     <t>Ne\] yang</t>
@@ -3994,7 +3994,7 @@
     <t>Khách khứa</t>
   </si>
   <si>
-    <t>audio_w371.m4a</t>
+    <t>audio_w371.wav</t>
   </si>
   <si>
     <t>Soh</t>
@@ -4003,7 +4003,7 @@
     <t>Khe hở sàn nhà</t>
   </si>
   <si>
-    <t>audio_w372.m4a</t>
+    <t>audio_w372.wav</t>
   </si>
   <si>
     <t>Di</t>
@@ -4012,7 +4012,7 @@
     <t>Khi</t>
   </si>
   <si>
-    <t>audio_w373.m4a</t>
+    <t>audio_w373.wav</t>
   </si>
   <si>
     <t>duk</t>
@@ -4021,7 +4021,7 @@
     <t>Khỉ</t>
   </si>
   <si>
-    <t>audio_w374.m4a</t>
+    <t>audio_w374.wav</t>
   </si>
   <si>
     <t>~uei `h'`hâm truk</t>
@@ -4030,13 +4030,13 @@
     <t>Khí hậu</t>
   </si>
   <si>
-    <t>audio_w375.m4a</t>
+    <t>audio_w375.wav</t>
   </si>
   <si>
     <t>Khít</t>
   </si>
   <si>
-    <t>audio_w376.m4a</t>
+    <t>audio_w376.wav</t>
   </si>
   <si>
     <t>Nâm</t>
@@ -4045,7 +4045,7 @@
     <t>Kho</t>
   </si>
   <si>
-    <t>audio_w377.m4a</t>
+    <t>audio_w377.wav</t>
   </si>
   <si>
     <t>Su trua`</t>
@@ -4054,7 +4054,7 @@
     <t>Khố</t>
   </si>
   <si>
-    <t>audio_w378.m4a</t>
+    <t>audio_w378.wav</t>
   </si>
   <si>
     <t>Nâm ba</t>
@@ -4063,7 +4063,7 @@
     <t>Kho lúa</t>
   </si>
   <si>
-    <t>audio_w379.m4a</t>
+    <t>audio_w379.wav</t>
   </si>
   <si>
     <t>Bum blang</t>
@@ -4072,13 +4072,13 @@
     <t>Khoai mì</t>
   </si>
   <si>
-    <t>audio_w38.m4a</t>
+    <t>audio_w38.wav</t>
   </si>
   <si>
     <t>Lơi</t>
   </si>
   <si>
-    <t>audio_w380.m4a</t>
+    <t>audio_w380.wav</t>
   </si>
   <si>
     <t>Năng ai</t>
@@ -4087,7 +4087,7 @@
     <t>Khoảng</t>
   </si>
   <si>
-    <t>audio_w381.m4a</t>
+    <t>audio_w381.wav</t>
   </si>
   <si>
     <t>Pral</t>
@@ -4096,7 +4096,7 @@
     <t>Khỏe</t>
   </si>
   <si>
-    <t>audio_w382.m4a</t>
+    <t>audio_w382.wav</t>
   </si>
   <si>
     <t>Bah</t>
@@ -4105,7 +4105,7 @@
     <t>Khỏi bệnh</t>
   </si>
   <si>
-    <t>audio_w383.m4a</t>
+    <t>audio_w383.wav</t>
   </si>
   <si>
     <t>Gư\t nă</t>
@@ -4114,7 +4114,7 @@
     <t>Khôn</t>
   </si>
   <si>
-    <t>audio_w384.m4a</t>
+    <t>audio_w384.wav</t>
   </si>
   <si>
     <t>Wưt\ wah</t>
@@ -4123,7 +4123,7 @@
     <t>Khôn ngoan</t>
   </si>
   <si>
-    <t>audio_w385.m4a</t>
+    <t>audio_w385.wav</t>
   </si>
   <si>
     <t>Ơ\ rang</t>
@@ -4132,7 +4132,7 @@
     <t>Không cho</t>
   </si>
   <si>
-    <t>audio_w386.m4a</t>
+    <t>audio_w386.wav</t>
   </si>
   <si>
     <t>Ei râo</t>
@@ -4141,13 +4141,13 @@
     <t>Không được</t>
   </si>
   <si>
-    <t>audio_w387.m4a</t>
+    <t>audio_w387.wav</t>
   </si>
   <si>
     <t>Ei so dơi</t>
   </si>
   <si>
-    <t>audio_w388.m4a</t>
+    <t>audio_w388.wav</t>
   </si>
   <si>
     <t>ei râo plo\</t>
@@ -4156,7 +4156,7 @@
     <t>Không được về</t>
   </si>
   <si>
-    <t>audio_w389.m4a</t>
+    <t>audio_w389.wav</t>
   </si>
   <si>
     <t>Lăng mbu\</t>
@@ -4165,7 +4165,7 @@
     <t>Khuyến khích</t>
   </si>
   <si>
-    <t>audio_w39.m4a</t>
+    <t>audio_w39.wav</t>
   </si>
   <si>
     <t>Jrông</t>
@@ -4174,7 +4174,7 @@
     <t>Bộ</t>
   </si>
   <si>
-    <t>audio_w390.m4a</t>
+    <t>audio_w390.wav</t>
   </si>
   <si>
     <t>Wiar</t>
@@ -4183,7 +4183,7 @@
     <t>Kiêng</t>
   </si>
   <si>
-    <t>audio_w391.m4a</t>
+    <t>audio_w391.wav</t>
   </si>
   <si>
     <t>wiar păng</t>
@@ -4192,7 +4192,7 @@
     <t>Kiêng kỵ</t>
   </si>
   <si>
-    <t>audio_w392.m4a</t>
+    <t>audio_w392.wav</t>
   </si>
   <si>
     <t>Drăp pul ao</t>
@@ -4201,7 +4201,7 @@
     <t>Kiểu quần áo</t>
   </si>
   <si>
-    <t>audio_w393.m4a</t>
+    <t>audio_w393.wav</t>
   </si>
   <si>
     <t>Ngit nggăr</t>
@@ -4210,19 +4210,19 @@
     <t>Kinh động</t>
   </si>
   <si>
-    <t>audio_w394.m4a</t>
+    <t>audio_w394.wav</t>
   </si>
   <si>
     <t>Phu\ng nggăr</t>
   </si>
   <si>
-    <t>audio_w395.m4a</t>
+    <t>audio_w395.wav</t>
   </si>
   <si>
     <t>Ngit phu\ng</t>
   </si>
   <si>
-    <t>audio_w396.m4a</t>
+    <t>audio_w396.wav</t>
   </si>
   <si>
     <t>jei</t>
@@ -4231,7 +4231,7 @@
     <t>Kỹ</t>
   </si>
   <si>
-    <t>audio_w397.m4a</t>
+    <t>audio_w397.wav</t>
   </si>
   <si>
     <t>Ha</t>
@@ -4240,7 +4240,7 @@
     <t>Lá</t>
   </si>
   <si>
-    <t>audio_w398.m4a</t>
+    <t>audio_w398.wav</t>
   </si>
   <si>
     <t>Brua\ bri dak</t>
@@ -4249,7 +4249,7 @@
     <t>Lâm nghiệp</t>
   </si>
   <si>
-    <t>audio_w399.m4a</t>
+    <t>audio_w399.wav</t>
   </si>
   <si>
     <t>Nhal dư\t</t>
@@ -4258,7 +4258,7 @@
     <t>Lần cuối</t>
   </si>
   <si>
-    <t>audio_w40.m4a</t>
+    <t>audio_w40.wav</t>
   </si>
   <si>
     <t>Rơng</t>
@@ -4267,7 +4267,7 @@
     <t>Bò lết</t>
   </si>
   <si>
-    <t>audio_w400.m4a</t>
+    <t>audio_w400.wav</t>
   </si>
   <si>
     <t>Ne\] nuar</t>
@@ -4276,7 +4276,7 @@
     <t>Lang thang</t>
   </si>
   <si>
-    <t>audio_w401.m4a</t>
+    <t>audio_w401.wav</t>
   </si>
   <si>
     <t>Yâo</t>
@@ -4285,13 +4285,13 @@
     <t>Lâu</t>
   </si>
   <si>
-    <t>audio_w402.m4a</t>
+    <t>audio_w402.wav</t>
   </si>
   <si>
     <t>jo\k</t>
   </si>
   <si>
-    <t>audio_w403.m4a</t>
+    <t>audio_w403.wav</t>
   </si>
   <si>
     <t>jut</t>
@@ -4300,7 +4300,7 @@
     <t>Lau chùi</t>
   </si>
   <si>
-    <t>audio_w404.m4a</t>
+    <t>audio_w404.wav</t>
   </si>
   <si>
     <t>Hư\t hu</t>
@@ -4309,7 +4309,7 @@
     <t>Lầy lội</t>
   </si>
   <si>
-    <t>audio_w405.m4a</t>
+    <t>audio_w405.wav</t>
   </si>
   <si>
     <t>Ru</t>
@@ -4318,7 +4318,7 @@
     <t>Lễ</t>
   </si>
   <si>
-    <t>audio_w406.m4a</t>
+    <t>audio_w406.wav</t>
   </si>
   <si>
     <t>Pơp no mho\ yang</t>
@@ -4327,7 +4327,7 @@
     <t>Lễ vật</t>
   </si>
   <si>
-    <t>audio_w407.m4a</t>
+    <t>audio_w407.wav</t>
   </si>
   <si>
     <t>Sâl</t>
@@ -4336,13 +4336,13 @@
     <t>Lèn</t>
   </si>
   <si>
-    <t>audio_w408.m4a</t>
+    <t>audio_w408.wav</t>
   </si>
   <si>
     <t>Leo</t>
   </si>
   <si>
-    <t>audio_w409.m4a</t>
+    <t>audio_w409.wav</t>
   </si>
   <si>
     <t>Yâo pang</t>
@@ -4351,7 +4351,7 @@
     <t>Lịch sử</t>
   </si>
   <si>
-    <t>audio_w41.m4a</t>
+    <t>audio_w41.wav</t>
   </si>
   <si>
     <t>Tơp uôn</t>
@@ -4360,13 +4360,13 @@
     <t>Bồ câu</t>
   </si>
   <si>
-    <t>audio_w410.m4a</t>
+    <t>audio_w410.wav</t>
   </si>
   <si>
     <t>Liên hoan</t>
   </si>
   <si>
-    <t>audio_w411.m4a</t>
+    <t>audio_w411.wav</t>
   </si>
   <si>
     <t>Ndrông bâk</t>
@@ -4375,7 +4375,7 @@
     <t>Liên kết</t>
   </si>
   <si>
-    <t>audio_w412.m4a</t>
+    <t>audio_w412.wav</t>
   </si>
   <si>
     <t>Khư\t tăng blah</t>
@@ -4384,7 +4384,7 @@
     <t>Liệt sỹ</t>
   </si>
   <si>
-    <t>audio_w413.m4a</t>
+    <t>audio_w413.wav</t>
   </si>
   <si>
     <t>Ngăt nhual</t>
@@ -4393,7 +4393,7 @@
     <t>Linh hồn</t>
   </si>
   <si>
-    <t>audio_w414.m4a</t>
+    <t>audio_w414.wav</t>
   </si>
   <si>
     <t>Ram</t>
@@ -4402,7 +4402,7 @@
     <t>Lớn</t>
   </si>
   <si>
-    <t>audio_w415.m4a</t>
+    <t>audio_w415.wav</t>
   </si>
   <si>
     <t>Ba</t>
@@ -4411,10 +4411,10 @@
     <t>Lúa</t>
   </si>
   <si>
-    <t>audio_w416.m4a</t>
-  </si>
-  <si>
-    <t>audio_w417.m4a</t>
+    <t>audio_w416.wav</t>
+  </si>
+  <si>
+    <t>audio_w417.wav</t>
   </si>
   <si>
     <t>Ba mbăr</t>
@@ -4423,7 +4423,7 @@
     <t>Lúa nếp</t>
   </si>
   <si>
-    <t>audio_w418.m4a</t>
+    <t>audio_w418.wav</t>
   </si>
   <si>
     <t>Ba dung</t>
@@ -4432,7 +4432,7 @@
     <t>Lúa tẻ</t>
   </si>
   <si>
-    <t>audio_w419.m4a</t>
+    <t>audio_w419.wav</t>
   </si>
   <si>
     <t>Ku kơi</t>
@@ -4441,7 +4441,7 @@
     <t>Lưng</t>
   </si>
   <si>
-    <t>audio_w42.m4a</t>
+    <t>audio_w42.wav</t>
   </si>
   <si>
     <t>Ân bro</t>
@@ -4450,7 +4450,7 @@
     <t>Bỏ hàng</t>
   </si>
   <si>
-    <t>audio_w420.m4a</t>
+    <t>audio_w420.wav</t>
   </si>
   <si>
     <t>Dlo\k dluan</t>
@@ -4459,7 +4459,7 @@
     <t>Lượn sóng</t>
   </si>
   <si>
-    <t>audio_w421.m4a</t>
+    <t>audio_w421.wav</t>
   </si>
   <si>
     <t>Tu</t>
@@ -4468,7 +4468,7 @@
     <t>Mả</t>
   </si>
   <si>
-    <t>audio_w422.m4a</t>
+    <t>audio_w422.wav</t>
   </si>
   <si>
     <t>}ak</t>
@@ -4477,7 +4477,7 @@
     <t>Ma lai</t>
   </si>
   <si>
-    <t>audio_w423.m4a</t>
+    <t>audio_w423.wav</t>
   </si>
   <si>
     <t>Soh ao</t>
@@ -4486,7 +4486,7 @@
     <t>Mặc áo</t>
   </si>
   <si>
-    <t>audio_w424.m4a</t>
+    <t>audio_w424.wav</t>
   </si>
   <si>
     <t>}ư\t ]hum (không dùng với áo)</t>
@@ -4495,7 +4495,7 @@
     <t>Mặc quần</t>
   </si>
   <si>
-    <t>audio_w425.m4a</t>
+    <t>audio_w425.wav</t>
   </si>
   <si>
     <t>Băn ]hum ao</t>
@@ -4504,7 +4504,7 @@
     <t>Mặc quần áo</t>
   </si>
   <si>
-    <t>audio_w426.m4a</t>
+    <t>audio_w426.wav</t>
   </si>
   <si>
     <t>Hat</t>
@@ -4513,7 +4513,7 @@
     <t>Mặn</t>
   </si>
   <si>
-    <t>audio_w427.m4a</t>
+    <t>audio_w427.wav</t>
   </si>
   <si>
     <t>Ut rak</t>
@@ -4522,7 +4522,7 @@
     <t>Mắng chửi</t>
   </si>
   <si>
-    <t>audio_w428.m4a</t>
+    <t>audio_w428.wav</t>
   </si>
   <si>
     <t>Luh du</t>
@@ -4531,7 +4531,7 @@
     <t>Mang lại</t>
   </si>
   <si>
-    <t>audio_w429.m4a</t>
+    <t>audio_w429.wav</t>
   </si>
   <si>
     <t>Săk `j'`jâk</t>
@@ -4540,7 +4540,7 @@
     <t>Mang thai</t>
   </si>
   <si>
-    <t>audio_w43.m4a</t>
+    <t>audio_w43.wav</t>
   </si>
   <si>
     <t>Kru\</t>
@@ -4549,13 +4549,13 @@
     <t>Bò tót</t>
   </si>
   <si>
-    <t>audio_w430.m4a</t>
+    <t>audio_w430.wav</t>
   </si>
   <si>
     <t>săk bư\n</t>
   </si>
   <si>
-    <t>audio_w431.m4a</t>
+    <t>audio_w431.wav</t>
   </si>
   <si>
     <t>~ut trieo</t>
@@ -4564,7 +4564,7 @@
     <t>Mang theo</t>
   </si>
   <si>
-    <t>audio_w433.m4a</t>
+    <t>audio_w433.wav</t>
   </si>
   <si>
     <t>Jơng nga</t>
@@ -4573,13 +4573,13 @@
     <t>Chết</t>
   </si>
   <si>
-    <t>audio_w434.m4a</t>
+    <t>audio_w434.wav</t>
   </si>
   <si>
     <t>Lik</t>
   </si>
   <si>
-    <t>audio_w435.m4a</t>
+    <t>audio_w435.wav</t>
   </si>
   <si>
     <t>Ple măt mu\ ko</t>
@@ -4588,7 +4588,7 @@
     <t>Mật gấu</t>
   </si>
   <si>
-    <t>audio_w436.m4a</t>
+    <t>audio_w436.wav</t>
   </si>
   <si>
     <t>Ik trư\m</t>
@@ -4597,7 +4597,7 @@
     <t>Mát mẻ</t>
   </si>
   <si>
-    <t>audio_w437.m4a</t>
+    <t>audio_w437.wav</t>
   </si>
   <si>
     <t>Sư\t wei</t>
@@ -4606,7 +4606,7 @@
     <t>Mật ong</t>
   </si>
   <si>
-    <t>audio_w438.m4a</t>
+    <t>audio_w438.wav</t>
   </si>
   <si>
     <t>Năr</t>
@@ -4615,7 +4615,7 @@
     <t>Mặt trời</t>
   </si>
   <si>
-    <t>audio_w439.m4a</t>
+    <t>audio_w439.wav</t>
   </si>
   <si>
     <t>Năr `âp</t>
@@ -4624,7 +4624,7 @@
     <t>Mặt trời lặn</t>
   </si>
   <si>
-    <t>audio_w44.m4a</t>
+    <t>audio_w44.wav</t>
   </si>
   <si>
     <t>Rei</t>
@@ -4633,7 +4633,7 @@
     <t>Bơi</t>
   </si>
   <si>
-    <t>audio_w440.m4a</t>
+    <t>audio_w440.wav</t>
   </si>
   <si>
     <t>Năr luh</t>
@@ -4642,7 +4642,7 @@
     <t>Mặt trời mọc</t>
   </si>
   <si>
-    <t>audio_w441.m4a</t>
+    <t>audio_w441.wav</t>
   </si>
   <si>
     <t>Mham</t>
@@ -4651,7 +4651,7 @@
     <t>Máu</t>
   </si>
   <si>
-    <t>audio_w442.m4a</t>
+    <t>audio_w442.wav</t>
   </si>
   <si>
     <t>Um mbrih</t>
@@ -4660,7 +4660,7 @@
     <t>Màu xanh</t>
   </si>
   <si>
-    <t>audio_w443.m4a</t>
+    <t>audio_w443.wav</t>
   </si>
   <si>
     <t>Tu\k</t>
@@ -4669,7 +4669,7 @@
     <t>Mây mù</t>
   </si>
   <si>
-    <t>audio_w444.m4a</t>
+    <t>audio_w444.wav</t>
   </si>
   <si>
     <t>Jư\n</t>
@@ -4678,7 +4678,7 @@
     <t>Mềm</t>
   </si>
   <si>
-    <t>audio_w445.m4a</t>
+    <t>audio_w445.wav</t>
   </si>
   <si>
     <t>Băn</t>
@@ -4687,7 +4687,7 @@
     <t xml:space="preserve">Mềm </t>
   </si>
   <si>
-    <t>audio_w446.m4a</t>
+    <t>audio_w446.wav</t>
   </si>
   <si>
     <t>Pei</t>
@@ -4696,7 +4696,7 @@
     <t>Men</t>
   </si>
   <si>
-    <t>audio_w447.m4a</t>
+    <t>audio_w447.wav</t>
   </si>
   <si>
     <t>Bâr</t>
@@ -4705,7 +4705,7 @@
     <t>Miệng</t>
   </si>
   <si>
-    <t>audio_w448.m4a</t>
+    <t>audio_w448.wav</t>
   </si>
   <si>
     <t>Mưa lớn</t>
@@ -4714,13 +4714,13 @@
     <t>Mih ram</t>
   </si>
   <si>
-    <t>audio_w449.m4a</t>
+    <t>audio_w449.wav</t>
   </si>
   <si>
     <t>Mộ</t>
   </si>
   <si>
-    <t>audio_w450.m4a</t>
+    <t>audio_w450.wav</t>
   </si>
   <si>
     <t>Pơk</t>
@@ -4729,7 +4729,7 @@
     <t>Mở</t>
   </si>
   <si>
-    <t>audio_w451.m4a</t>
+    <t>audio_w451.wav</t>
   </si>
   <si>
     <t>Ku đơi</t>
@@ -4738,7 +4738,7 @@
     <t>Mồ côi</t>
   </si>
   <si>
-    <t>audio_w452.m4a</t>
+    <t>audio_w452.wav</t>
   </si>
   <si>
     <t>Lăng tre\</t>
@@ -4747,7 +4747,7 @@
     <t>Mở rộng</t>
   </si>
   <si>
-    <t>audio_w453.m4a</t>
+    <t>audio_w453.wav</t>
   </si>
   <si>
     <t>}ăt</t>
@@ -4756,7 +4756,7 @@
     <t>Mọc</t>
   </si>
   <si>
-    <t>audio_w454.m4a</t>
+    <t>audio_w454.wav</t>
   </si>
   <si>
     <t>Huan ]ăt</t>
@@ -4765,7 +4765,7 @@
     <t>Mọc mầm</t>
   </si>
   <si>
-    <t>audio_w455.m4a</t>
+    <t>audio_w455.wav</t>
   </si>
   <si>
     <t>To\</t>
@@ -4774,13 +4774,13 @@
     <t>Mời</t>
   </si>
   <si>
-    <t>audio_w456.m4a</t>
+    <t>audio_w456.wav</t>
   </si>
   <si>
     <t>Ndơm</t>
   </si>
   <si>
-    <t>audio_w457.m4a</t>
+    <t>audio_w457.wav</t>
   </si>
   <si>
     <t>Ko\ loh</t>
@@ -4789,7 +4789,7 @@
     <t>Mới thôi</t>
   </si>
   <si>
-    <t>audio_w458.m4a</t>
+    <t>audio_w458.wav</t>
   </si>
   <si>
     <t>Tu\k bri dak</t>
@@ -4798,19 +4798,19 @@
     <t>Môi trường</t>
   </si>
   <si>
-    <t>audio_w459.m4a</t>
+    <t>audio_w459.wav</t>
   </si>
   <si>
     <t>Một</t>
   </si>
   <si>
-    <t>audio_w46.m4a</t>
+    <t>audio_w46.wav</t>
   </si>
   <si>
     <t>Bởi</t>
   </si>
   <si>
-    <t>audio_w460.m4a</t>
+    <t>audio_w460.wav</t>
   </si>
   <si>
     <t>Ju jrông</t>
@@ -4819,7 +4819,7 @@
     <t>Một bộ</t>
   </si>
   <si>
-    <t>audio_w461.m4a</t>
+    <t>audio_w461.wav</t>
   </si>
   <si>
     <t>Ju n^</t>
@@ -4828,7 +4828,7 @@
     <t>Một ít</t>
   </si>
   <si>
-    <t>audio_w462.m4a</t>
+    <t>audio_w462.wav</t>
   </si>
   <si>
     <t>{ơn mơ\ng t^ tu\k</t>
@@ -4837,7 +4837,7 @@
     <t>Một trong ít nơi</t>
   </si>
   <si>
-    <t>audio_w463.m4a</t>
+    <t>audio_w463.wav</t>
   </si>
   <si>
     <t>Kdo\</t>
@@ -4846,13 +4846,13 @@
     <t>Múa</t>
   </si>
   <si>
-    <t>audio_w464.m4a</t>
+    <t>audio_w464.wav</t>
   </si>
   <si>
     <t>Mùa</t>
   </si>
   <si>
-    <t>audio_w465.m4a</t>
+    <t>audio_w465.wav</t>
   </si>
   <si>
     <t>Mih</t>
@@ -4861,7 +4861,7 @@
     <t>Mưa</t>
   </si>
   <si>
-    <t>audio_w466.m4a</t>
+    <t>audio_w466.wav</t>
   </si>
   <si>
     <t>Mih nha]</t>
@@ -4870,7 +4870,7 @@
     <t>Mưa dầm</t>
   </si>
   <si>
-    <t>audio_w467.m4a</t>
+    <t>audio_w467.wav</t>
   </si>
   <si>
     <t>Ndơm ]al</t>
@@ -4879,7 +4879,7 @@
     <t>Mùa đông</t>
   </si>
   <si>
-    <t>audio_w468.m4a</t>
+    <t>audio_w468.wav</t>
   </si>
   <si>
     <t>Ndơm phang</t>
@@ -4888,13 +4888,13 @@
     <t>Mùa hè</t>
   </si>
   <si>
-    <t>audio_w469.m4a</t>
+    <t>audio_w469.wav</t>
   </si>
   <si>
     <t>Mùa khô</t>
   </si>
   <si>
-    <t>audio_w47.m4a</t>
+    <t>audio_w47.wav</t>
   </si>
   <si>
     <t>Tâm</t>
@@ -4903,7 +4903,7 @@
     <t>Bồi thường</t>
   </si>
   <si>
-    <t>audio_w470.m4a</t>
+    <t>audio_w470.wav</t>
   </si>
   <si>
     <t>Ndơm kăt</t>
@@ -4912,7 +4912,7 @@
     <t>Mùa lạnh</t>
   </si>
   <si>
-    <t>audio_w471.m4a</t>
+    <t>audio_w471.wav</t>
   </si>
   <si>
     <t>Ndơm mih</t>
@@ -4921,7 +4921,7 @@
     <t>Mùa mưa</t>
   </si>
   <si>
-    <t>audio_w472.m4a</t>
+    <t>audio_w472.wav</t>
   </si>
   <si>
     <t>Mih [^ [^</t>
@@ -4930,7 +4930,7 @@
     <t>Mưa phùn</t>
   </si>
   <si>
-    <t>audio_w473.m4a</t>
+    <t>audio_w473.wav</t>
   </si>
   <si>
     <t>Ndơm kao</t>
@@ -4939,13 +4939,13 @@
     <t>Mùa xuân</t>
   </si>
   <si>
-    <t>audio_w474.m4a</t>
+    <t>audio_w474.wav</t>
   </si>
   <si>
     <t>Nai</t>
   </si>
   <si>
-    <t>audio_w475.m4a</t>
+    <t>audio_w475.wav</t>
   </si>
   <si>
     <t>Nih hao rueh</t>
@@ -4954,7 +4954,7 @@
     <t>Nài voi</t>
   </si>
   <si>
-    <t>audio_w476.m4a</t>
+    <t>audio_w476.wav</t>
   </si>
   <si>
     <t>Păt</t>
@@ -4963,13 +4963,13 @@
     <t>Nắm</t>
   </si>
   <si>
-    <t>audio_w477.m4a</t>
+    <t>audio_w477.wav</t>
   </si>
   <si>
     <t>Nắng</t>
   </si>
   <si>
-    <t>audio_w478.m4a</t>
+    <t>audio_w478.wav</t>
   </si>
   <si>
     <t>jâk</t>
@@ -4978,7 +4978,7 @@
     <t>Nặng</t>
   </si>
   <si>
-    <t>audio_w479.m4a</t>
+    <t>audio_w479.wav</t>
   </si>
   <si>
     <t>Yơ\r</t>
@@ -4987,13 +4987,13 @@
     <t>Nâng trên tay</t>
   </si>
   <si>
-    <t>audio_w48.m4a</t>
+    <t>audio_w48.wav</t>
   </si>
   <si>
     <t>Tâm măl</t>
   </si>
   <si>
-    <t>audio_w480.m4a</t>
+    <t>audio_w480.wav</t>
   </si>
   <si>
     <t>Rai</t>
@@ -5002,7 +5002,7 @@
     <t>Nat tán</t>
   </si>
   <si>
-    <t>audio_w481.m4a</t>
+    <t>audio_w481.wav</t>
   </si>
   <si>
     <t>}ăt kuat</t>
@@ -5011,7 +5011,7 @@
     <t>Nảy chồi</t>
   </si>
   <si>
-    <t>audio_w482.m4a</t>
+    <t>audio_w482.wav</t>
   </si>
   <si>
     <t>Tu\k jră</t>
@@ -5020,7 +5020,7 @@
     <t>Nền tảng</t>
   </si>
   <si>
-    <t>audio_w483.m4a</t>
+    <t>audio_w483.wav</t>
   </si>
   <si>
     <t>Ju nâo nâo</t>
@@ -5029,7 +5029,7 @@
     <t>Neo đơn</t>
   </si>
   <si>
-    <t>audio_w484.m4a</t>
+    <t>audio_w484.wav</t>
   </si>
   <si>
     <t>Tơ</t>
@@ -5038,7 +5038,7 @@
     <t>Nếu</t>
   </si>
   <si>
-    <t>audio_w485.m4a</t>
+    <t>audio_w485.wav</t>
   </si>
   <si>
     <t>Di lah … mha …</t>
@@ -5047,7 +5047,7 @@
     <t xml:space="preserve">Nếu … thì … </t>
   </si>
   <si>
-    <t>audio_w486.m4a</t>
+    <t>audio_w486.wav</t>
   </si>
   <si>
     <t>Bla rueh</t>
@@ -5056,7 +5056,7 @@
     <t>Ngà voi</t>
   </si>
   <si>
-    <t>audio_w487.m4a</t>
+    <t>audio_w487.wav</t>
   </si>
   <si>
     <t>Bơm</t>
@@ -5065,7 +5065,7 @@
     <t>Ngách</t>
   </si>
   <si>
-    <t>audio_w488.m4a</t>
+    <t>audio_w488.wav</t>
   </si>
   <si>
     <t>}ăng gang</t>
@@ -5074,7 +5074,7 @@
     <t>Ngăn</t>
   </si>
   <si>
-    <t>audio_w489.m4a</t>
+    <t>audio_w489.wav</t>
   </si>
   <si>
     <t>tơt</t>
@@ -5083,13 +5083,13 @@
     <t>Ngắn</t>
   </si>
   <si>
-    <t>audio_w49.m4a</t>
+    <t>audio_w49.wav</t>
   </si>
   <si>
     <t>Dăn</t>
   </si>
   <si>
-    <t>audio_w490.m4a</t>
+    <t>audio_w490.wav</t>
   </si>
   <si>
     <t>Hih prăk kăk</t>
@@ -5098,7 +5098,7 @@
     <t>Ngân hàng</t>
   </si>
   <si>
-    <t>audio_w491.m4a</t>
+    <t>audio_w491.wav</t>
   </si>
   <si>
     <t>Teh rư`</t>
@@ -5107,7 +5107,7 @@
     <t>Ngân nga</t>
   </si>
   <si>
-    <t>audio_w492.m4a</t>
+    <t>audio_w492.wav</t>
   </si>
   <si>
     <t>Brua\</t>
@@ -5116,7 +5116,7 @@
     <t>Ngành</t>
   </si>
   <si>
-    <t>audio_w493.m4a</t>
+    <t>audio_w493.wav</t>
   </si>
   <si>
     <t>W'wăng teh tu\k</t>
@@ -5125,7 +5125,7 @@
     <t>Ngao du</t>
   </si>
   <si>
-    <t>audio_w494.m4a</t>
+    <t>audio_w494.wav</t>
   </si>
   <si>
     <t>Năr ['[ưn</t>
@@ -5134,7 +5134,7 @@
     <t>Ngày hội</t>
   </si>
   <si>
-    <t>audio_w495.m4a</t>
+    <t>audio_w495.wav</t>
   </si>
   <si>
     <t>Năr ru</t>
@@ -5143,7 +5143,7 @@
     <t xml:space="preserve">Ngày lễ </t>
   </si>
   <si>
-    <t>audio_w496.m4a</t>
+    <t>audio_w496.wav</t>
   </si>
   <si>
     <t>To\ng</t>
@@ -5152,7 +5152,7 @@
     <t>Nghe</t>
   </si>
   <si>
-    <t>audio_w497.m4a</t>
+    <t>audio_w497.wav</t>
   </si>
   <si>
     <t>Nih gư\t</t>
@@ -5161,7 +5161,7 @@
     <t>Nghệ nhân</t>
   </si>
   <si>
-    <t>audio_w498.m4a</t>
+    <t>audio_w498.wav</t>
   </si>
   <si>
     <t>Bruă le\ mơt</t>
@@ -5170,7 +5170,7 @@
     <t>Nghề phổ thông</t>
   </si>
   <si>
-    <t>audio_w499.m4a</t>
+    <t>audio_w499.wav</t>
   </si>
   <si>
     <t>m'ne\] m']eh</t>
@@ -5179,7 +5179,7 @@
     <t>Nghệ thuật</t>
   </si>
   <si>
-    <t>audio_w50.m4a</t>
+    <t>audio_w50.wav</t>
   </si>
   <si>
     <t>So hui pơp tăng kuat</t>
@@ -5188,7 +5188,7 @@
     <t>Bội ước</t>
   </si>
   <si>
-    <t>audio_w500.m4a</t>
+    <t>audio_w500.wav</t>
   </si>
   <si>
     <t>{un knap</t>
@@ -5197,7 +5197,7 @@
     <t>Nghèo khó</t>
   </si>
   <si>
-    <t>audio_w501.m4a</t>
+    <t>audio_w501.wav</t>
   </si>
   <si>
     <t>Ndruat mho\ yang</t>
@@ -5206,7 +5206,7 @@
     <t>Nghi lễ</t>
   </si>
   <si>
-    <t>audio_w502.m4a</t>
+    <t>audio_w502.wav</t>
   </si>
   <si>
     <t>Khan uôn lan</t>
@@ -5215,7 +5215,7 @@
     <t>Nghĩa quân</t>
   </si>
   <si>
-    <t>audio_w503.m4a</t>
+    <t>audio_w503.wav</t>
   </si>
   <si>
     <t>Lâr tiar</t>
@@ -5224,7 +5224,7 @@
     <t>Nghịch ngợm</t>
   </si>
   <si>
-    <t>audio_w504.m4a</t>
+    <t>audio_w504.wav</t>
   </si>
   <si>
     <t>Triang</t>
@@ -5233,7 +5233,7 @@
     <t>Ngó</t>
   </si>
   <si>
-    <t>audio_w505.m4a</t>
+    <t>audio_w505.wav</t>
   </si>
   <si>
     <t>Têh dơk</t>
@@ -5242,7 +5242,7 @@
     <t>Ngỏ lời</t>
   </si>
   <si>
-    <t>audio_w506.m4a</t>
+    <t>audio_w506.wav</t>
   </si>
   <si>
     <t>Đir ngit</t>
@@ -5251,7 +5251,7 @@
     <t>Ngoạn mục</t>
   </si>
   <si>
-    <t>audio_w507.m4a</t>
+    <t>audio_w507.wav</t>
   </si>
   <si>
     <t>Kah</t>
@@ -5260,22 +5260,22 @@
     <t>Ngon</t>
   </si>
   <si>
-    <t>audio_w508.m4a</t>
-  </si>
-  <si>
-    <t>audio_w509.m4a</t>
+    <t>audio_w508.wav</t>
+  </si>
+  <si>
+    <t>audio_w509.wav</t>
   </si>
   <si>
     <t>Kah tiat</t>
   </si>
   <si>
-    <t>audio_w51.m4a</t>
+    <t>audio_w51.wav</t>
   </si>
   <si>
     <t>Bớt</t>
   </si>
   <si>
-    <t>audio_w510.m4a</t>
+    <t>audio_w510.wav</t>
   </si>
   <si>
     <t>Dư\t</t>
@@ -5284,10 +5284,10 @@
     <t>Ngớt</t>
   </si>
   <si>
-    <t>audio_w511.m4a</t>
-  </si>
-  <si>
-    <t>audio_w512.m4a</t>
+    <t>audio_w511.wav</t>
+  </si>
+  <si>
+    <t>audio_w512.wav</t>
   </si>
   <si>
     <t>be\]</t>
@@ -5296,13 +5296,13 @@
     <t>Ngủ</t>
   </si>
   <si>
-    <t>audio_w513.m4a</t>
+    <t>audio_w513.wav</t>
   </si>
   <si>
     <t>[^</t>
   </si>
   <si>
-    <t>audio_w514.m4a</t>
+    <t>audio_w514.wav</t>
   </si>
   <si>
     <t>Hak be\]</t>
@@ -5311,7 +5311,7 @@
     <t>ngủ ngon</t>
   </si>
   <si>
-    <t>audio_w515.m4a</t>
+    <t>audio_w515.wav</t>
   </si>
   <si>
     <t>Plo\ bư\t buk</t>
@@ -5320,7 +5320,7 @@
     <t>Ngược lại</t>
   </si>
   <si>
-    <t>audio_w516.m4a</t>
+    <t>audio_w516.wav</t>
   </si>
   <si>
     <t>Prôk nih</t>
@@ -5329,7 +5329,7 @@
     <t>Người chết</t>
   </si>
   <si>
-    <t>audio_w517.m4a</t>
+    <t>audio_w517.wav</t>
   </si>
   <si>
     <t>Buk dak</t>
@@ -5338,7 +5338,7 @@
     <t>Nguồn nước</t>
   </si>
   <si>
-    <t>audio_w518.m4a</t>
+    <t>audio_w518.wav</t>
   </si>
   <si>
     <t>Buk dak luh</t>
@@ -5347,7 +5347,7 @@
     <t>Nguồn thủy sinh</t>
   </si>
   <si>
-    <t>audio_w519.m4a</t>
+    <t>audio_w519.wav</t>
   </si>
   <si>
     <t>Grâp pơp yua</t>
@@ -5356,13 +5356,13 @@
     <t>Nguyên liệu</t>
   </si>
   <si>
-    <t>audio_w52.m4a</t>
+    <t>audio_w52.wav</t>
   </si>
   <si>
     <t>Bột</t>
   </si>
   <si>
-    <t>audio_w520.m4a</t>
+    <t>audio_w520.wav</t>
   </si>
   <si>
     <t>Hih</t>
@@ -5371,7 +5371,7 @@
     <t>Nhà</t>
   </si>
   <si>
-    <t>audio_w521.m4a</t>
+    <t>audio_w521.wav</t>
   </si>
   <si>
     <t>~jah</t>
@@ -5380,19 +5380,19 @@
     <t>Nhai</t>
   </si>
   <si>
-    <t>audio_w522.m4a</t>
+    <t>audio_w522.wav</t>
   </si>
   <si>
     <t>~j'`jah</t>
   </si>
   <si>
-    <t>audio_w523.m4a</t>
+    <t>audio_w523.wav</t>
   </si>
   <si>
     <t>Nhận</t>
   </si>
   <si>
-    <t>audio_w524.m4a</t>
+    <t>audio_w524.wav</t>
   </si>
   <si>
     <t>Knal</t>
@@ -5401,13 +5401,13 @@
     <t>Nhận biết</t>
   </si>
   <si>
-    <t>audio_w525.m4a</t>
+    <t>audio_w525.wav</t>
   </si>
   <si>
     <t>Nhảy múa</t>
   </si>
   <si>
-    <t>audio_w526.m4a</t>
+    <t>audio_w526.wav</t>
   </si>
   <si>
     <t>djhơi</t>
@@ -5416,7 +5416,7 @@
     <t>Nhẹ</t>
   </si>
   <si>
-    <t>audio_w527.m4a</t>
+    <t>audio_w527.wav</t>
   </si>
   <si>
     <t>O\k pul ]hi dlei</t>
@@ -5425,7 +5425,7 @@
     <t>Nhiều loại thực vật</t>
   </si>
   <si>
-    <t>audio_w528.m4a</t>
+    <t>audio_w528.wav</t>
   </si>
   <si>
     <t>Do ma</t>
@@ -5434,13 +5434,13 @@
     <t>Nhím</t>
   </si>
   <si>
-    <t>audio_w529.m4a</t>
+    <t>audio_w529.wav</t>
   </si>
   <si>
     <t>Suar ma</t>
   </si>
   <si>
-    <t>audio_w53.m4a</t>
+    <t>audio_w53.wav</t>
   </si>
   <si>
     <t>Bu buh</t>
@@ -5449,7 +5449,7 @@
     <t>Bụi</t>
   </si>
   <si>
-    <t>audio_w530.m4a</t>
+    <t>audio_w530.wav</t>
   </si>
   <si>
     <t>Ngeh</t>
@@ -5458,13 +5458,13 @@
     <t>Nhớ</t>
   </si>
   <si>
-    <t>audio_w531.m4a</t>
+    <t>audio_w531.wav</t>
   </si>
   <si>
     <t>Nhổ nước bọt</t>
   </si>
   <si>
-    <t>audio_w532.m4a</t>
+    <t>audio_w532.wav</t>
   </si>
   <si>
     <t>}ăt kao</t>
@@ -5473,7 +5473,7 @@
     <t>Nhú hoa</t>
   </si>
   <si>
-    <t>audio_w533.m4a</t>
+    <t>audio_w533.wav</t>
   </si>
   <si>
     <t>{^ dah</t>
@@ -5482,7 +5482,7 @@
     <t>Nhưng mà</t>
   </si>
   <si>
-    <t>audio_w534.m4a</t>
+    <t>audio_w534.wav</t>
   </si>
   <si>
     <t>Kei s'sei pơm</t>
@@ -5491,7 +5491,7 @@
     <t>Nhung nai</t>
   </si>
   <si>
-    <t>audio_w535.m4a</t>
+    <t>audio_w535.wav</t>
   </si>
   <si>
     <t>~ôm</t>
@@ -5500,7 +5500,7 @@
     <t>Nhuộm</t>
   </si>
   <si>
-    <t>audio_w536.m4a</t>
+    <t>audio_w536.wav</t>
   </si>
   <si>
     <t>Na</t>
@@ -5509,7 +5509,7 @@
     <t>Nỏ</t>
   </si>
   <si>
-    <t>audio_w537.m4a</t>
+    <t>audio_w537.wav</t>
   </si>
   <si>
     <t>Pu\ng hih</t>
@@ -5518,7 +5518,7 @@
     <t>Nóc nhà</t>
   </si>
   <si>
-    <t>audio_w538.m4a</t>
+    <t>audio_w538.wav</t>
   </si>
   <si>
     <t>~iu `iu</t>
@@ -5527,7 +5527,7 @@
     <t>Nói chuyện ồn ào, rôm rả</t>
   </si>
   <si>
-    <t>audio_w539.m4a</t>
+    <t>audio_w539.wav</t>
   </si>
   <si>
     <t>Lah dih</t>
@@ -5536,7 +5536,7 @@
     <t>Nói riêng</t>
   </si>
   <si>
-    <t>audio_w54.m4a</t>
+    <t>audio_w54.wav</t>
   </si>
   <si>
     <t>kât</t>
@@ -5545,7 +5545,7 @@
     <t>Buộc</t>
   </si>
   <si>
-    <t>audio_w540.m4a</t>
+    <t>audio_w540.wav</t>
   </si>
   <si>
     <t>Đuan ha</t>
@@ -5554,7 +5554,7 @@
     <t>Nón lá</t>
   </si>
   <si>
-    <t>audio_w541.m4a</t>
+    <t>audio_w541.wav</t>
   </si>
   <si>
     <t>Duh</t>
@@ -5563,10 +5563,10 @@
     <t>Nóng</t>
   </si>
   <si>
-    <t>audio_w542.m4a</t>
-  </si>
-  <si>
-    <t>audio_w543.m4a</t>
+    <t>audio_w542.wav</t>
+  </si>
+  <si>
+    <t>audio_w543.wav</t>
   </si>
   <si>
     <t>Duh dang</t>
@@ -5575,7 +5575,7 @@
     <t>Nóng nực</t>
   </si>
   <si>
-    <t>audio_w544.m4a</t>
+    <t>audio_w544.wav</t>
   </si>
   <si>
     <t>Wih sư\t</t>
@@ -5584,13 +5584,13 @@
     <t>Nữa</t>
   </si>
   <si>
-    <t>audio_w545.m4a</t>
+    <t>audio_w545.wav</t>
   </si>
   <si>
     <t>Nửa</t>
   </si>
   <si>
-    <t>audio_w546.m4a</t>
+    <t>audio_w546.wav</t>
   </si>
   <si>
     <t>Yuk yang</t>
@@ -5599,7 +5599,7 @@
     <t>Núi non</t>
   </si>
   <si>
-    <t>audio_w547.m4a</t>
+    <t>audio_w547.wav</t>
   </si>
   <si>
     <t>Dak</t>
@@ -5608,7 +5608,7 @@
     <t>Nước</t>
   </si>
   <si>
-    <t>audio_w548.m4a</t>
+    <t>audio_w548.wav</t>
   </si>
   <si>
     <t>Dak diu</t>
@@ -5617,7 +5617,7 @@
     <t>Nước bọt</t>
   </si>
   <si>
-    <t>audio_w549.m4a</t>
+    <t>audio_w549.wav</t>
   </si>
   <si>
     <t>Dak hung</t>
@@ -5626,7 +5626,7 @@
     <t>Nước chảy</t>
   </si>
   <si>
-    <t>audio_w55.m4a</t>
+    <t>audio_w55.wav</t>
   </si>
   <si>
     <t>Tlông năr</t>
@@ -5635,7 +5635,7 @@
     <t>Buổi trưa</t>
   </si>
   <si>
-    <t>audio_w550.m4a</t>
+    <t>audio_w550.wav</t>
   </si>
   <si>
     <t>Dak lap</t>
@@ -5644,13 +5644,13 @@
     <t>Nước ngập</t>
   </si>
   <si>
-    <t>audio_w551.m4a</t>
+    <t>audio_w551.wav</t>
   </si>
   <si>
     <t>Dak lip</t>
   </si>
   <si>
-    <t>audio_w552.m4a</t>
+    <t>audio_w552.wav</t>
   </si>
   <si>
     <t>Dak diang</t>
@@ -5659,7 +5659,7 @@
     <t>Nước nôi</t>
   </si>
   <si>
-    <t>audio_w553.m4a</t>
+    <t>audio_w553.wav</t>
   </si>
   <si>
     <t>Dak jru</t>
@@ -5668,7 +5668,7 @@
     <t>Nước sâu</t>
   </si>
   <si>
-    <t>audio_w554.m4a</t>
+    <t>audio_w554.wav</t>
   </si>
   <si>
     <t>Rông</t>
@@ -5677,7 +5677,7 @@
     <t>Nuôi</t>
   </si>
   <si>
-    <t>audio_w555.m4a</t>
+    <t>audio_w555.wav</t>
   </si>
   <si>
     <t>Rông un</t>
@@ -5686,7 +5686,7 @@
     <t>Nuôi giúp</t>
   </si>
   <si>
-    <t>audio_w556.m4a</t>
+    <t>audio_w556.wav</t>
   </si>
   <si>
     <t>Ta</t>
@@ -5695,7 +5695,7 @@
     <t>Ở</t>
   </si>
   <si>
-    <t>audio_w557.m4a</t>
+    <t>audio_w557.wav</t>
   </si>
   <si>
     <t>Ta âo</t>
@@ -5704,13 +5704,13 @@
     <t>Ở đây</t>
   </si>
   <si>
-    <t>audio_w558.m4a</t>
+    <t>audio_w558.wav</t>
   </si>
   <si>
     <t>Tu\k âo</t>
   </si>
   <si>
-    <t>audio_w559.m4a</t>
+    <t>audio_w559.wav</t>
   </si>
   <si>
     <t>Ta to\</t>
@@ -5719,7 +5719,7 @@
     <t>Ở kia</t>
   </si>
   <si>
-    <t>audio_w56.m4a</t>
+    <t>audio_w56.wav</t>
   </si>
   <si>
     <t>Te\] bro</t>
@@ -5728,7 +5728,7 @@
     <t>Buôn bán</t>
   </si>
   <si>
-    <t>audio_w560.m4a</t>
+    <t>audio_w560.wav</t>
   </si>
   <si>
     <t>Gu\k sư\t gao măng</t>
@@ -5737,7 +5737,7 @@
     <t>Ở lại qua đêm</t>
   </si>
   <si>
-    <t>audio_w561.m4a</t>
+    <t>audio_w561.wav</t>
   </si>
   <si>
     <t>ta la]</t>
@@ -5746,7 +5746,7 @@
     <t>Ở ngoài</t>
   </si>
   <si>
-    <t>audio_w563.m4a</t>
+    <t>audio_w563.wav</t>
   </si>
   <si>
     <t>Sô\ `ơ\</t>
@@ -5755,7 +5755,7 @@
     <t>Ô nhiễm</t>
   </si>
   <si>
-    <t>audio_w564.m4a</t>
+    <t>audio_w564.wav</t>
   </si>
   <si>
     <t>Dư\ng</t>
@@ -5764,7 +5764,7 @@
     <t>Ống</t>
   </si>
   <si>
-    <t>audio_w565.m4a</t>
+    <t>audio_w565.wav</t>
   </si>
   <si>
     <t>Ndra`</t>
@@ -5773,13 +5773,13 @@
     <t>Ông mối</t>
   </si>
   <si>
-    <t>audio_w566.m4a</t>
+    <t>audio_w566.wav</t>
   </si>
   <si>
     <t>Tung ndra`</t>
   </si>
   <si>
-    <t>audio_w567.m4a</t>
+    <t>audio_w567.wav</t>
   </si>
   <si>
     <t>Dư\ng la</t>
@@ -5788,7 +5788,7 @@
     <t>Ống tre</t>
   </si>
   <si>
-    <t>audio_w568.m4a</t>
+    <t>audio_w568.wav</t>
   </si>
   <si>
     <t>Mbre\]</t>
@@ -5797,7 +5797,7 @@
     <t>Ớt</t>
   </si>
   <si>
-    <t>audio_w569.m4a</t>
+    <t>audio_w569.wav</t>
   </si>
   <si>
     <t>{ăk [ai</t>
@@ -5806,7 +5806,7 @@
     <t>Phá</t>
   </si>
   <si>
-    <t>audio_w57.m4a</t>
+    <t>audio_w57.wav</t>
   </si>
   <si>
     <t>Băng bư\t</t>
@@ -5815,13 +5815,13 @@
     <t>Búp măng</t>
   </si>
   <si>
-    <t>audio_w570.m4a</t>
+    <t>audio_w570.wav</t>
   </si>
   <si>
     <t>Phải</t>
   </si>
   <si>
-    <t>audio_w571.m4a</t>
+    <t>audio_w571.wav</t>
   </si>
   <si>
     <t>ê\</t>
@@ -5830,7 +5830,7 @@
     <t>Phân</t>
   </si>
   <si>
-    <t>audio_w572.m4a</t>
+    <t>audio_w572.wav</t>
   </si>
   <si>
     <t>Nư\k</t>
@@ -5839,7 +5839,7 @@
     <t>Phần</t>
   </si>
   <si>
-    <t>audio_w573.m4a</t>
+    <t>audio_w573.wav</t>
   </si>
   <si>
     <t>Phă</t>
@@ -5848,7 +5848,7 @@
     <t>Phân bổ</t>
   </si>
   <si>
-    <t>audio_w574.m4a</t>
+    <t>audio_w574.wav</t>
   </si>
   <si>
     <t>Nư\k tu</t>
@@ -5857,7 +5857,7 @@
     <t>Phần mộ</t>
   </si>
   <si>
-    <t>audio_w575.m4a</t>
+    <t>audio_w575.wav</t>
   </si>
   <si>
     <t>piah</t>
@@ -5866,7 +5866,7 @@
     <t>Phát cành</t>
   </si>
   <si>
-    <t>audio_w576.m4a</t>
+    <t>audio_w576.wav</t>
   </si>
   <si>
     <t>Đhung</t>
@@ -5875,7 +5875,7 @@
     <t>Phát sóng</t>
   </si>
   <si>
-    <t>audio_w577.m4a</t>
+    <t>audio_w577.wav</t>
   </si>
   <si>
     <t>}ăt `jring</t>
@@ -5884,13 +5884,13 @@
     <t>Phát đạt</t>
   </si>
   <si>
-    <t>audio_w578.m4a</t>
+    <t>audio_w578.wav</t>
   </si>
   <si>
     <t>Phát ra</t>
   </si>
   <si>
-    <t>audio_w579.m4a</t>
+    <t>audio_w579.wav</t>
   </si>
   <si>
     <t>Hao ]ơn</t>
@@ -5899,7 +5899,7 @@
     <t>Phát triển</t>
   </si>
   <si>
-    <t>audio_w58.m4a</t>
+    <t>audio_w58.wav</t>
   </si>
   <si>
     <t>We\]</t>
@@ -5908,13 +5908,13 @@
     <t>Cách</t>
   </si>
   <si>
-    <t>audio_w580.m4a</t>
+    <t>audio_w580.wav</t>
   </si>
   <si>
     <t>Phên</t>
   </si>
   <si>
-    <t>audio_w581.m4a</t>
+    <t>audio_w581.wav</t>
   </si>
   <si>
     <t>Tăng kah</t>
@@ -5923,7 +5923,7 @@
     <t>Phiên chế</t>
   </si>
   <si>
-    <t>audio_w582.m4a</t>
+    <t>audio_w582.wav</t>
   </si>
   <si>
     <t>Tăng guap băk</t>
@@ -5932,7 +5932,7 @@
     <t>Phối hợp</t>
   </si>
   <si>
-    <t>audio_w583.m4a</t>
+    <t>audio_w583.wav</t>
   </si>
   <si>
     <t>Jăng</t>
@@ -5941,7 +5941,7 @@
     <t>Phóng lao</t>
   </si>
   <si>
-    <t>audio_w584.m4a</t>
+    <t>audio_w584.wav</t>
   </si>
   <si>
     <t>Sư\m ndrư\m</t>
@@ -5950,19 +5950,19 @@
     <t>Phong phú</t>
   </si>
   <si>
-    <t>audio_w585.m4a</t>
+    <t>audio_w585.wav</t>
   </si>
   <si>
     <t>Ndro\ng sah</t>
   </si>
   <si>
-    <t>audio_w586.m4a</t>
+    <t>audio_w586.wav</t>
   </si>
   <si>
     <t>Nư\m</t>
   </si>
   <si>
-    <t>audio_w587.m4a</t>
+    <t>audio_w587.wav</t>
   </si>
   <si>
     <t>}']ăng `hâp</t>
@@ -5971,7 +5971,7 @@
     <t>Phủ kín</t>
   </si>
   <si>
-    <t>audio_w588.m4a</t>
+    <t>audio_w588.wav</t>
   </si>
   <si>
     <t>Tơm brua\</t>
@@ -5980,7 +5980,7 @@
     <t>Phụ trách</t>
   </si>
   <si>
-    <t>audio_w589.m4a</t>
+    <t>audio_w589.wav</t>
   </si>
   <si>
     <t>Trông ]ua</t>
@@ -5989,13 +5989,13 @@
     <t>Phương châm</t>
   </si>
   <si>
-    <t>audio_w59.m4a</t>
+    <t>audio_w59.wav</t>
   </si>
   <si>
     <t>Dră</t>
   </si>
   <si>
-    <t>audio_w590.m4a</t>
+    <t>audio_w590.wav</t>
   </si>
   <si>
     <t>Mne\]</t>
@@ -6004,13 +6004,13 @@
     <t>Phương pháp</t>
   </si>
   <si>
-    <t>audio_w591.m4a</t>
+    <t>audio_w591.wav</t>
   </si>
   <si>
     <t>Qua</t>
   </si>
   <si>
-    <t>audio_w592.m4a</t>
+    <t>audio_w592.wav</t>
   </si>
   <si>
     <t>Kuan năk</t>
@@ -6019,7 +6019,7 @@
     <t>Quản lý</t>
   </si>
   <si>
-    <t>audio_w593.m4a</t>
+    <t>audio_w593.wav</t>
   </si>
   <si>
     <t>we\] wial ja băk</t>
@@ -6028,7 +6028,7 @@
     <t>Quấn vào nhau</t>
   </si>
   <si>
-    <t>audio_w594.m4a</t>
+    <t>audio_w594.wav</t>
   </si>
   <si>
     <t>wal dăr</t>
@@ -6037,7 +6037,7 @@
     <t>Quầng</t>
   </si>
   <si>
-    <t>audio_w595.m4a</t>
+    <t>audio_w595.wav</t>
   </si>
   <si>
     <t>}ê\ lâng</t>
@@ -6046,7 +6046,7 @@
     <t>Quẳng</t>
   </si>
   <si>
-    <t>audio_w596.m4a</t>
+    <t>audio_w596.wav</t>
   </si>
   <si>
     <t>Jơ\ng wâr</t>
@@ -6055,13 +6055,13 @@
     <t>Quên</t>
   </si>
   <si>
-    <t>audio_w597.m4a</t>
+    <t>audio_w597.wav</t>
   </si>
   <si>
     <t>Wâr</t>
   </si>
   <si>
-    <t>audio_w598.m4a</t>
+    <t>audio_w598.wav</t>
   </si>
   <si>
     <t>Lo\ng wâr</t>
@@ -6070,7 +6070,7 @@
     <t>Quên luôn</t>
   </si>
   <si>
-    <t>audio_w599.m4a</t>
+    <t>audio_w599.wav</t>
   </si>
   <si>
     <t>Weh `jan</t>
@@ -6079,19 +6079,19 @@
     <t>Quét dọn</t>
   </si>
   <si>
-    <t>audio_w6.m4a</t>
+    <t>audio_w6.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Ấm </t>
   </si>
   <si>
-    <t>audio_w60.m4a</t>
+    <t>audio_w60.wav</t>
   </si>
   <si>
     <t>Dơ\ng bơ</t>
   </si>
   <si>
-    <t>audio_w600.m4a</t>
+    <t>audio_w600.wav</t>
   </si>
   <si>
     <t>Trung kuih</t>
@@ -6100,7 +6100,7 @@
     <t>Quỳ chào</t>
   </si>
   <si>
-    <t>audio_w601.m4a</t>
+    <t>audio_w601.wav</t>
   </si>
   <si>
     <t>Yuam</t>
@@ -6109,13 +6109,13 @@
     <t>Quý hiếm</t>
   </si>
   <si>
-    <t>audio_w602.m4a</t>
+    <t>audio_w602.wav</t>
   </si>
   <si>
     <t>{^ mâo</t>
   </si>
   <si>
-    <t>audio_w603.m4a</t>
+    <t>audio_w603.wav</t>
   </si>
   <si>
     <t>Sri</t>
@@ -6124,7 +6124,7 @@
     <t>Rắc</t>
   </si>
   <si>
-    <t>audio_w604.m4a</t>
+    <t>audio_w604.wav</t>
   </si>
   <si>
     <t>Djah djâo</t>
@@ -6133,7 +6133,7 @@
     <t>Rác rưởi</t>
   </si>
   <si>
-    <t>audio_w605.m4a</t>
+    <t>audio_w605.wav</t>
   </si>
   <si>
     <t>bih</t>
@@ -6142,13 +6142,13 @@
     <t>Rắn</t>
   </si>
   <si>
-    <t>audio_w606.m4a</t>
+    <t>audio_w606.wav</t>
   </si>
   <si>
     <t>Rào</t>
   </si>
   <si>
-    <t>audio_w607.m4a</t>
+    <t>audio_w607.wav</t>
   </si>
   <si>
     <t>Pai</t>
@@ -6157,7 +6157,7 @@
     <t>Rau</t>
   </si>
   <si>
-    <t>audio_w608.m4a</t>
+    <t>audio_w608.wav</t>
   </si>
   <si>
     <t>Dih dih</t>
@@ -6166,7 +6166,7 @@
     <t>Riêng rẽ</t>
   </si>
   <si>
-    <t>audio_w609.m4a</t>
+    <t>audio_w609.wav</t>
   </si>
   <si>
     <t>Klă</t>
@@ -6175,7 +6175,7 @@
     <t>Rõ</t>
   </si>
   <si>
-    <t>audio_w61.m4a</t>
+    <t>audio_w61.wav</t>
   </si>
   <si>
     <t>K]o\k</t>
@@ -6184,7 +6184,7 @@
     <t>Cái ly</t>
   </si>
   <si>
-    <t>audio_w610.m4a</t>
+    <t>audio_w610.wav</t>
   </si>
   <si>
     <t>Răp đrăp</t>
@@ -6193,13 +6193,13 @@
     <t>Rộn ràng</t>
   </si>
   <si>
-    <t>audio_w611.m4a</t>
+    <t>audio_w611.wav</t>
   </si>
   <si>
     <t>Đrăp</t>
   </si>
   <si>
-    <t>audio_w612.m4a</t>
+    <t>audio_w612.wav</t>
   </si>
   <si>
     <t>Tre\</t>
@@ -6208,7 +6208,7 @@
     <t>Rộng</t>
   </si>
   <si>
-    <t>audio_w613.m4a</t>
+    <t>audio_w613.wav</t>
   </si>
   <si>
     <t>Djring</t>
@@ -6217,19 +6217,19 @@
     <t>Rót</t>
   </si>
   <si>
-    <t>audio_w614.m4a</t>
+    <t>audio_w614.wav</t>
   </si>
   <si>
     <t>Tling</t>
   </si>
   <si>
-    <t>audio_w615.m4a</t>
+    <t>audio_w615.wav</t>
   </si>
   <si>
     <t>Rủ</t>
   </si>
   <si>
-    <t>audio_w616.m4a</t>
+    <t>audio_w616.wav</t>
   </si>
   <si>
     <t>Eh w'wăk</t>
@@ -6238,19 +6238,19 @@
     <t>Rủi ro</t>
   </si>
   <si>
-    <t>audio_w617.m4a</t>
+    <t>audio_w617.wav</t>
   </si>
   <si>
     <t>Rung</t>
   </si>
   <si>
-    <t>audio_w618.m4a</t>
+    <t>audio_w618.wav</t>
   </si>
   <si>
     <t>Rụng</t>
   </si>
   <si>
-    <t>audio_w619.m4a</t>
+    <t>audio_w619.wav</t>
   </si>
   <si>
     <t>Bri mum</t>
@@ -6259,7 +6259,7 @@
     <t>Rừng nguyên sinh</t>
   </si>
   <si>
-    <t>audio_w62.m4a</t>
+    <t>audio_w62.wav</t>
   </si>
   <si>
     <t>Dung</t>
@@ -6268,7 +6268,7 @@
     <t>Cái nong, nia</t>
   </si>
   <si>
-    <t>audio_w620.m4a</t>
+    <t>audio_w620.wav</t>
   </si>
   <si>
     <t>Bri dak</t>
@@ -6277,7 +6277,7 @@
     <t>Rừng rú</t>
   </si>
   <si>
-    <t>audio_w621.m4a</t>
+    <t>audio_w621.wav</t>
   </si>
   <si>
     <t>True]</t>
@@ -6286,7 +6286,7 @@
     <t>Rưới</t>
   </si>
   <si>
-    <t>audio_w622.m4a</t>
+    <t>audio_w622.wav</t>
   </si>
   <si>
     <t>Nơm</t>
@@ -6295,7 +6295,7 @@
     <t>Rượu</t>
   </si>
   <si>
-    <t>audio_w623.m4a</t>
+    <t>audio_w623.wav</t>
   </si>
   <si>
     <t>Ngur nhap</t>
@@ -6304,7 +6304,7 @@
     <t>Sạch sẽ</t>
   </si>
   <si>
-    <t>audio_w624.m4a</t>
+    <t>audio_w624.wav</t>
   </si>
   <si>
     <t>Tih</t>
@@ -6313,7 +6313,7 @@
     <t>Sai</t>
   </si>
   <si>
-    <t>audio_w625.m4a</t>
+    <t>audio_w625.wav</t>
   </si>
   <si>
     <t>Pe\` jăng</t>
@@ -6322,7 +6322,7 @@
     <t>Săn bắn</t>
   </si>
   <si>
-    <t>audio_w626.m4a</t>
+    <t>audio_w626.wav</t>
   </si>
   <si>
     <t>Pơp eh `jing</t>
@@ -6331,13 +6331,13 @@
     <t>Sản phẩm</t>
   </si>
   <si>
-    <t>audio_w627.m4a</t>
+    <t>audio_w627.wav</t>
   </si>
   <si>
     <t>Pơp eh lăng ndu</t>
   </si>
   <si>
-    <t>audio_w628.m4a</t>
+    <t>audio_w628.wav</t>
   </si>
   <si>
     <t>Tu\k cư\ng ple</t>
@@ -6346,7 +6346,7 @@
     <t>Sân vận động</t>
   </si>
   <si>
-    <t>audio_w629.m4a</t>
+    <t>audio_w629.wav</t>
   </si>
   <si>
     <t>Brua\ mho\ `jing</t>
@@ -6355,13 +6355,13 @@
     <t>Sản xuất</t>
   </si>
   <si>
-    <t>audio_w63.m4a</t>
+    <t>audio_w63.wav</t>
   </si>
   <si>
     <t>Cái ống</t>
   </si>
   <si>
-    <t>audio_w630.m4a</t>
+    <t>audio_w630.wav</t>
   </si>
   <si>
     <t>Riang nhâng</t>
@@ -6370,7 +6370,7 @@
     <t>Sang chơi</t>
   </si>
   <si>
-    <t>audio_w631.m4a</t>
+    <t>audio_w631.wav</t>
   </si>
   <si>
     <t>Ro\ng</t>
@@ -6379,7 +6379,7 @@
     <t>Sắp</t>
   </si>
   <si>
-    <t>audio_w632.m4a</t>
+    <t>audio_w632.wav</t>
   </si>
   <si>
     <t>Prăp dăp</t>
@@ -6388,7 +6388,7 @@
     <t>Sắp xếp</t>
   </si>
   <si>
-    <t>audio_w633.m4a</t>
+    <t>audio_w633.wav</t>
   </si>
   <si>
     <t>Ju ku kơi</t>
@@ -6397,7 +6397,7 @@
     <t>Sau lưng</t>
   </si>
   <si>
-    <t>audio_w634.m4a</t>
+    <t>audio_w634.wav</t>
   </si>
   <si>
     <t>hak</t>
@@ -6406,7 +6406,7 @@
     <t>Say</t>
   </si>
   <si>
-    <t>audio_w635.m4a</t>
+    <t>audio_w635.wav</t>
   </si>
   <si>
     <t>Mra</t>
@@ -6415,13 +6415,13 @@
     <t>Sẽ</t>
   </si>
   <si>
-    <t>audio_w636.m4a</t>
+    <t>audio_w636.wav</t>
   </si>
   <si>
     <t>Srăng</t>
   </si>
   <si>
-    <t>audio_w637.m4a</t>
+    <t>audio_w637.wav</t>
   </si>
   <si>
     <t>Brai sei</t>
@@ -6430,7 +6430,7 @@
     <t>Se sợi</t>
   </si>
   <si>
-    <t>audio_w638.m4a</t>
+    <t>audio_w638.wav</t>
   </si>
   <si>
     <t>}hai nô\ nhâng</t>
@@ -6439,13 +6439,13 @@
     <t>Sinh hoạt</t>
   </si>
   <si>
-    <t>audio_w639.m4a</t>
+    <t>audio_w639.wav</t>
   </si>
   <si>
     <t>Bla brua\ yua</t>
   </si>
   <si>
-    <t>audio_w64.m4a</t>
+    <t>audio_w64.wav</t>
   </si>
   <si>
     <t>Lâk</t>
@@ -6454,7 +6454,7 @@
     <t>Cám</t>
   </si>
   <si>
-    <t>audio_w640.m4a</t>
+    <t>audio_w640.wav</t>
   </si>
   <si>
     <t>Pơp brêh</t>
@@ -6463,7 +6463,7 @@
     <t>Sinh thái</t>
   </si>
   <si>
-    <t>audio_w641.m4a</t>
+    <t>audio_w641.wav</t>
   </si>
   <si>
     <t>Phu\ng</t>
@@ -6472,7 +6472,7 @@
     <t>Sợ</t>
   </si>
   <si>
-    <t>audio_w642.m4a</t>
+    <t>audio_w642.wav</t>
   </si>
   <si>
     <t>Brai</t>
@@ -6481,7 +6481,7 @@
     <t>Sợi</t>
   </si>
   <si>
-    <t>audio_w643.m4a</t>
+    <t>audio_w643.wav</t>
   </si>
   <si>
     <t>Duh răm</t>
@@ -6490,7 +6490,7 @@
     <t>Sôi động</t>
   </si>
   <si>
-    <t>audio_w644.m4a</t>
+    <t>audio_w644.wav</t>
   </si>
   <si>
     <t>Yak</t>
@@ -6499,7 +6499,7 @@
     <t>Sóng</t>
   </si>
   <si>
-    <t>audio_w645.m4a</t>
+    <t>audio_w645.wav</t>
   </si>
   <si>
     <t>Bông</t>
@@ -6508,7 +6508,7 @@
     <t>Sông</t>
   </si>
   <si>
-    <t>audio_w646.m4a</t>
+    <t>audio_w646.wav</t>
   </si>
   <si>
     <t>Mbrih</t>
@@ -6517,7 +6517,7 @@
     <t>Thịt sống</t>
   </si>
   <si>
-    <t>audio_w647.m4a</t>
+    <t>audio_w647.wav</t>
   </si>
   <si>
     <t>Yak truh</t>
@@ -6526,7 +6526,7 @@
     <t>Sóng cồn</t>
   </si>
   <si>
-    <t>audio_w648.m4a</t>
+    <t>audio_w648.wav</t>
   </si>
   <si>
     <t>Krông măng</t>
@@ -6535,13 +6535,13 @@
     <t>Sông suối</t>
   </si>
   <si>
-    <t>audio_w649.m4a</t>
+    <t>audio_w649.wav</t>
   </si>
   <si>
     <t>Sử dụng</t>
   </si>
   <si>
-    <t>audio_w65.m4a</t>
+    <t>audio_w65.wav</t>
   </si>
   <si>
     <t>Kơ\ng</t>
@@ -6550,7 +6550,7 @@
     <t>Cầm</t>
   </si>
   <si>
-    <t>audio_w650.m4a</t>
+    <t>audio_w650.wav</t>
   </si>
   <si>
     <t>P'pơm</t>
@@ -6559,13 +6559,13 @@
     <t>Sửa soạn</t>
   </si>
   <si>
-    <t>audio_w651.m4a</t>
+    <t>audio_w651.wav</t>
   </si>
   <si>
     <t>Sự thật</t>
   </si>
   <si>
-    <t>audio_w652.m4a</t>
+    <t>audio_w652.wav</t>
   </si>
   <si>
     <t>[ưn</t>
@@ -6574,7 +6574,7 @@
     <t>Sum họp</t>
   </si>
   <si>
-    <t>audio_w653.m4a</t>
+    <t>audio_w653.wav</t>
   </si>
   <si>
     <t>Măng</t>
@@ -6583,7 +6583,7 @@
     <t>Suối</t>
   </si>
   <si>
-    <t>audio_w654.m4a</t>
+    <t>audio_w654.wav</t>
   </si>
   <si>
     <t>Dak tu\k</t>
@@ -6592,19 +6592,19 @@
     <t>Sương mù</t>
   </si>
   <si>
-    <t>audio_w655.m4a</t>
+    <t>audio_w655.wav</t>
   </si>
   <si>
     <t>T\âm trạng</t>
   </si>
   <si>
-    <t>audio_w656.m4a</t>
+    <t>audio_w656.wav</t>
   </si>
   <si>
     <t>Bân</t>
   </si>
   <si>
-    <t>audio_w657.m4a</t>
+    <t>audio_w657.wav</t>
   </si>
   <si>
     <t>Tur</t>
@@ -6613,7 +6613,7 @@
     <t>Tai</t>
   </si>
   <si>
-    <t>audio_w658.m4a</t>
+    <t>audio_w658.wav</t>
   </si>
   <si>
     <t>Mâp truh</t>
@@ -6622,7 +6622,7 @@
     <t>Tai họa</t>
   </si>
   <si>
-    <t>audio_w659.m4a</t>
+    <t>audio_w659.wav</t>
   </si>
   <si>
     <t>Păn</t>
@@ -6631,7 +6631,7 @@
     <t>Tài sản</t>
   </si>
   <si>
-    <t>audio_w66.m4a</t>
+    <t>audio_w66.wav</t>
   </si>
   <si>
     <t>}ư\t</t>
@@ -6640,7 +6640,7 @@
     <t>Cắm</t>
   </si>
   <si>
-    <t>audio_w660.m4a</t>
+    <t>audio_w660.wav</t>
   </si>
   <si>
     <t>Su</t>
@@ -6649,7 +6649,7 @@
     <t>Tấm đắp</t>
   </si>
   <si>
-    <t>audio_w661.m4a</t>
+    <t>audio_w661.wav</t>
   </si>
   <si>
     <t>Ngăt brah yang</t>
@@ -6658,13 +6658,13 @@
     <t>Tâm linh</t>
   </si>
   <si>
-    <t>audio_w662.m4a</t>
+    <t>audio_w662.wav</t>
   </si>
   <si>
     <t>Tấm lòng</t>
   </si>
   <si>
-    <t>audio_w663.m4a</t>
+    <t>audio_w663.wav</t>
   </si>
   <si>
     <t>Ư\m tuh</t>
@@ -6673,7 +6673,7 @@
     <t>Tắm rửa</t>
   </si>
   <si>
-    <t>audio_w664.m4a</t>
+    <t>audio_w664.wav</t>
   </si>
   <si>
     <t>Rah rai</t>
@@ -6682,7 +6682,7 @@
     <t>Tan rã</t>
   </si>
   <si>
-    <t>audio_w665.m4a</t>
+    <t>audio_w665.wav</t>
   </si>
   <si>
     <t>Weh wian</t>
@@ -6691,7 +6691,7 @@
     <t>Tàn tật</t>
   </si>
   <si>
-    <t>audio_w666.m4a</t>
+    <t>audio_w666.wav</t>
   </si>
   <si>
     <t>Yoh</t>
@@ -6700,16 +6700,16 @@
     <t>Tặng</t>
   </si>
   <si>
-    <t>audio_w667.m4a</t>
+    <t>audio_w667.wav</t>
   </si>
   <si>
     <t>Tạnh</t>
   </si>
   <si>
-    <t>audio_w668.m4a</t>
-  </si>
-  <si>
-    <t>audio_w669.m4a</t>
+    <t>audio_w668.wav</t>
+  </si>
+  <si>
+    <t>audio_w669.wav</t>
   </si>
   <si>
     <t>[ư\n ju tu\k</t>
@@ -6718,7 +6718,7 @@
     <t xml:space="preserve">Tập trung </t>
   </si>
   <si>
-    <t>audio_w67.m4a</t>
+    <t>audio_w67.wav</t>
   </si>
   <si>
     <t>Kang</t>
@@ -6727,7 +6727,7 @@
     <t>Cằm</t>
   </si>
   <si>
-    <t>audio_w670.m4a</t>
+    <t>audio_w670.wav</t>
   </si>
   <si>
     <t>Geh sut</t>
@@ -6736,13 +6736,13 @@
     <t xml:space="preserve">Tật </t>
   </si>
   <si>
-    <t>audio_w671.m4a</t>
+    <t>audio_w671.wav</t>
   </si>
   <si>
     <t>Tẩu thuốc</t>
   </si>
   <si>
-    <t>audio_w672.m4a</t>
+    <t>audio_w672.wav</t>
   </si>
   <si>
     <t>Ti</t>
@@ -6751,7 +6751,7 @@
     <t>Tay</t>
   </si>
   <si>
-    <t>audio_w673.m4a</t>
+    <t>audio_w673.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Meh </t>
@@ -6760,7 +6760,7 @@
     <t>Tê giác</t>
   </si>
   <si>
-    <t>audio_w674.m4a</t>
+    <t>audio_w674.wav</t>
   </si>
   <si>
     <t>Năn</t>
@@ -6769,7 +6769,7 @@
     <t>Tên</t>
   </si>
   <si>
-    <t>audio_w675.m4a</t>
+    <t>audio_w675.wav</t>
   </si>
   <si>
     <t>Drai</t>
@@ -6778,7 +6778,7 @@
     <t>Thác</t>
   </si>
   <si>
-    <t>audio_w676.m4a</t>
+    <t>audio_w676.wav</t>
   </si>
   <si>
     <t>Brah yang</t>
@@ -6787,13 +6787,13 @@
     <t>Thần linh</t>
   </si>
   <si>
-    <t>audio_w677.m4a</t>
+    <t>audio_w677.wav</t>
   </si>
   <si>
     <t>Thẳng</t>
   </si>
   <si>
-    <t>audio_w678.m4a</t>
+    <t>audio_w678.wav</t>
   </si>
   <si>
     <t>Kăm u\h druh nu</t>
@@ -6802,13 +6802,13 @@
     <t>Thanh niên</t>
   </si>
   <si>
-    <t>audio_w679.m4a</t>
+    <t>audio_w679.wav</t>
   </si>
   <si>
     <t>Ndul ndeh</t>
   </si>
   <si>
-    <t>audio_w68.m4a</t>
+    <t>audio_w68.wav</t>
   </si>
   <si>
     <t>{ưan rơ\ng</t>
@@ -6817,7 +6817,7 @@
     <t>Cam đoan</t>
   </si>
   <si>
-    <t>audio_w680.m4a</t>
+    <t>audio_w680.wav</t>
   </si>
   <si>
     <t>Ndra` kual yang</t>
@@ -6826,13 +6826,13 @@
     <t>Thầy cúng</t>
   </si>
   <si>
-    <t>audio_w681.m4a</t>
+    <t>audio_w681.wav</t>
   </si>
   <si>
     <t>Ndra` wât</t>
   </si>
   <si>
-    <t>audio_w682.m4a</t>
+    <t>audio_w682.wav</t>
   </si>
   <si>
     <t>Tar [ar</t>
@@ -6841,7 +6841,7 @@
     <t>Thế giới</t>
   </si>
   <si>
-    <t>audio_w683.m4a</t>
+    <t>audio_w683.wav</t>
   </si>
   <si>
     <t>[^a đah</t>
@@ -6850,22 +6850,22 @@
     <t>Thế nhưng</t>
   </si>
   <si>
-    <t>audio_w684.m4a</t>
+    <t>audio_w684.wav</t>
   </si>
   <si>
     <t>Thêm</t>
   </si>
   <si>
-    <t>audio_w685.m4a</t>
+    <t>audio_w685.wav</t>
   </si>
   <si>
     <t>wih ân</t>
   </si>
   <si>
-    <t>audio_w686.m4a</t>
-  </si>
-  <si>
-    <t>audio_w687.m4a</t>
+    <t>audio_w686.wav</t>
+  </si>
+  <si>
+    <t>audio_w687.wav</t>
   </si>
   <si>
     <t>Tăng tư\ng</t>
@@ -6874,7 +6874,7 @@
     <t>Thi chạy</t>
   </si>
   <si>
-    <t>audio_w688.m4a</t>
+    <t>audio_w688.wav</t>
   </si>
   <si>
     <t>}o\ng mâo</t>
@@ -6883,7 +6883,7 @@
     <t>Thiên nhiên</t>
   </si>
   <si>
-    <t>audio_w689.m4a</t>
+    <t>audio_w689.wav</t>
   </si>
   <si>
     <t>Ba wah</t>
@@ -6892,7 +6892,7 @@
     <t>Thiếu</t>
   </si>
   <si>
-    <t>audio_w69.m4a</t>
+    <t>audio_w69.wav</t>
   </si>
   <si>
     <t>Lah găl</t>
@@ -6901,7 +6901,7 @@
     <t>Cảm ơn</t>
   </si>
   <si>
-    <t>audio_w690.m4a</t>
+    <t>audio_w690.wav</t>
   </si>
   <si>
     <t>Lo\ng</t>
@@ -6910,7 +6910,7 @@
     <t>Thịt nạc</t>
   </si>
   <si>
-    <t>audio_w691.m4a</t>
+    <t>audio_w691.wav</t>
   </si>
   <si>
     <t>Lâo</t>
@@ -6919,13 +6919,13 @@
     <t xml:space="preserve">Thịt </t>
   </si>
   <si>
-    <t>audio_w692.m4a</t>
+    <t>audio_w692.wav</t>
   </si>
   <si>
     <t>Thỏ</t>
   </si>
   <si>
-    <t>audio_w693.m4a</t>
+    <t>audio_w693.wav</t>
   </si>
   <si>
     <t>Ik re\]</t>
@@ -6934,7 +6934,7 @@
     <t>Thoáng mát</t>
   </si>
   <si>
-    <t>audio_w694.m4a</t>
+    <t>audio_w694.wav</t>
   </si>
   <si>
     <t>Um</t>
@@ -6943,10 +6943,10 @@
     <t>Thối</t>
   </si>
   <si>
-    <t>audio_w695.m4a</t>
-  </si>
-  <si>
-    <t>audio_w696.m4a</t>
+    <t>audio_w695.wav</t>
+  </si>
+  <si>
+    <t>audio_w696.wav</t>
   </si>
   <si>
     <t>Khum</t>
@@ -6955,13 +6955,13 @@
     <t>Thổi</t>
   </si>
   <si>
-    <t>audio_w697.m4a</t>
+    <t>audio_w697.wav</t>
   </si>
   <si>
     <t>Uh</t>
   </si>
   <si>
-    <t>audio_w698.m4a</t>
+    <t>audio_w698.wav</t>
   </si>
   <si>
     <t>Til `uei `h'`hâm</t>
@@ -6970,7 +6970,7 @@
     <t>Thời tiết</t>
   </si>
   <si>
-    <t>audio_w699.m4a</t>
+    <t>audio_w699.wav</t>
   </si>
   <si>
     <t>Gưt\ to\ng</t>
@@ -6979,7 +6979,7 @@
     <t>Thông báo</t>
   </si>
   <si>
-    <t>audio_w7.m4a</t>
+    <t>audio_w7.wav</t>
   </si>
   <si>
     <t>Ao</t>
@@ -6988,7 +6988,7 @@
     <t>Áo</t>
   </si>
   <si>
-    <t>audio_w70.m4a</t>
+    <t>audio_w70.wav</t>
   </si>
   <si>
     <t>Dưng dai</t>
@@ -6997,13 +6997,13 @@
     <t>Cần rượu</t>
   </si>
   <si>
-    <t>audio_w700.m4a</t>
+    <t>audio_w700.wav</t>
   </si>
   <si>
     <t>Thông tin</t>
   </si>
   <si>
-    <t>audio_w701.m4a</t>
+    <t>audio_w701.wav</t>
   </si>
   <si>
     <t>So\k</t>
@@ -7012,13 +7012,13 @@
     <t>Thu hoạch</t>
   </si>
   <si>
-    <t>audio_w702.m4a</t>
+    <t>audio_w702.wav</t>
   </si>
   <si>
     <t>Geh so\k</t>
   </si>
   <si>
-    <t>audio_w703.m4a</t>
+    <t>audio_w703.wav</t>
   </si>
   <si>
     <t>Lông lup</t>
@@ -7027,7 +7027,7 @@
     <t>Thử hỏi</t>
   </si>
   <si>
-    <t>audio_w704.m4a</t>
+    <t>audio_w704.wav</t>
   </si>
   <si>
     <t>Pơm bri</t>
@@ -7036,13 +7036,13 @@
     <t>Thú rừng</t>
   </si>
   <si>
-    <t>audio_w705.m4a</t>
+    <t>audio_w705.wav</t>
   </si>
   <si>
     <t>Thức dậy</t>
   </si>
   <si>
-    <t>audio_w706.m4a</t>
+    <t>audio_w706.wav</t>
   </si>
   <si>
     <t>Bluh</t>
@@ -7051,7 +7051,7 @@
     <t>Thủng</t>
   </si>
   <si>
-    <t>audio_w707.m4a</t>
+    <t>audio_w707.wav</t>
   </si>
   <si>
     <t>Phôk</t>
@@ -7060,7 +7060,7 @@
     <t>Thung lũng</t>
   </si>
   <si>
-    <t>audio_w708.m4a</t>
+    <t>audio_w708.wav</t>
   </si>
   <si>
     <t>Nhuah</t>
@@ -7069,7 +7069,7 @@
     <t>Thuộc tính</t>
   </si>
   <si>
-    <t>audio_w709.m4a</t>
+    <t>audio_w709.wav</t>
   </si>
   <si>
     <t>Ngeh ngư\r</t>
@@ -7078,7 +7078,7 @@
     <t>Thương tiếc</t>
   </si>
   <si>
-    <t>audio_w71.m4a</t>
+    <t>audio_w71.wav</t>
   </si>
   <si>
     <t>mbah</t>
@@ -7087,7 +7087,7 @@
     <t>Cành cây</t>
   </si>
   <si>
-    <t>audio_w710.m4a</t>
+    <t>audio_w710.wav</t>
   </si>
   <si>
     <t>Pu\ng rlăm</t>
@@ -7096,13 +7096,13 @@
     <t>Thuyền độc mộc</t>
   </si>
   <si>
-    <t>audio_w711.m4a</t>
+    <t>audio_w711.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Tỉa </t>
   </si>
   <si>
-    <t>audio_w712.m4a</t>
+    <t>audio_w712.wav</t>
   </si>
   <si>
     <t>Pơp mâo</t>
@@ -7111,7 +7111,7 @@
     <t>Tiềm năng</t>
   </si>
   <si>
-    <t>audio_w713.m4a</t>
+    <t>audio_w713.wav</t>
   </si>
   <si>
     <t>Troh</t>
@@ -7120,7 +7120,7 @@
     <t>Tiến</t>
   </si>
   <si>
-    <t>audio_w714.m4a</t>
+    <t>audio_w714.wav</t>
   </si>
   <si>
     <t>dơk gông</t>
@@ -7129,7 +7129,7 @@
     <t>Tiếng chiêng</t>
   </si>
   <si>
-    <t>audio_w715.m4a</t>
+    <t>audio_w715.wav</t>
   </si>
   <si>
     <t>Teh ung</t>
@@ -7138,7 +7138,7 @@
     <t>Tiếng trầm</t>
   </si>
   <si>
-    <t>audio_w716.m4a</t>
+    <t>audio_w716.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Teh pual </t>
@@ -7147,19 +7147,19 @@
     <t>Tiếng vang</t>
   </si>
   <si>
-    <t>audio_w717.m4a</t>
+    <t>audio_w717.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Teh </t>
   </si>
   <si>
-    <t>audio_w718.m4a</t>
+    <t>audio_w718.wav</t>
   </si>
   <si>
     <t>Tim</t>
   </si>
   <si>
-    <t>audio_w719.m4a</t>
+    <t>audio_w719.wav</t>
   </si>
   <si>
     <t>T^ng</t>
@@ -7168,31 +7168,31 @@
     <t>Tính, bên</t>
   </si>
   <si>
-    <t>audio_w72.m4a</t>
+    <t>audio_w72.wav</t>
   </si>
   <si>
     <t>Món canh</t>
   </si>
   <si>
-    <t>audio_w720.m4a</t>
+    <t>audio_w720.wav</t>
   </si>
   <si>
     <t>Tổ chức</t>
   </si>
   <si>
-    <t>audio_w721.m4a</t>
+    <t>audio_w721.wav</t>
   </si>
   <si>
     <t>ko\ `jing</t>
   </si>
   <si>
-    <t>audio_w722.m4a</t>
+    <t>audio_w722.wav</t>
   </si>
   <si>
     <t>Ko\ `jing</t>
   </si>
   <si>
-    <t>audio_w723.m4a</t>
+    <t>audio_w723.wav</t>
   </si>
   <si>
     <t>Suan wei</t>
@@ -7201,19 +7201,19 @@
     <t>Tổ ong</t>
   </si>
   <si>
-    <t>audio_w724.m4a</t>
+    <t>audio_w724.wav</t>
   </si>
   <si>
     <t>To tiếng</t>
   </si>
   <si>
-    <t>audio_w725.m4a</t>
+    <t>audio_w725.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Tôm </t>
   </si>
   <si>
-    <t>audio_w726.m4a</t>
+    <t>audio_w726.wav</t>
   </si>
   <si>
     <t>Jua ju dăng</t>
@@ -7222,7 +7222,7 @@
     <t>Trải dài</t>
   </si>
   <si>
-    <t>audio_w727.m4a</t>
+    <t>audio_w727.wav</t>
   </si>
   <si>
     <t>Tlăn</t>
@@ -7231,7 +7231,7 @@
     <t>Trăn</t>
   </si>
   <si>
-    <t>audio_w728.m4a</t>
+    <t>audio_w728.wav</t>
   </si>
   <si>
     <t>Pok ră</t>
@@ -7240,13 +7240,13 @@
     <t>Trang giấy</t>
   </si>
   <si>
-    <t>audio_w729.m4a</t>
+    <t>audio_w729.wav</t>
   </si>
   <si>
     <t>Trang trí</t>
   </si>
   <si>
-    <t>audio_w73.m4a</t>
+    <t>audio_w73.wav</t>
   </si>
   <si>
     <t>Prih hư\n</t>
@@ -7255,7 +7255,7 @@
     <t>Cao nhất</t>
   </si>
   <si>
-    <t>audio_w730.m4a</t>
+    <t>audio_w730.wav</t>
   </si>
   <si>
     <t>Puh</t>
@@ -7264,13 +7264,13 @@
     <t>Trâu</t>
   </si>
   <si>
-    <t>audio_w731.m4a</t>
+    <t>audio_w731.wav</t>
   </si>
   <si>
     <t>Trấu</t>
   </si>
   <si>
-    <t>audio_w732.m4a</t>
+    <t>audio_w732.wav</t>
   </si>
   <si>
     <t>Hăng niang</t>
@@ -7279,7 +7279,7 @@
     <t>Trầu cau</t>
   </si>
   <si>
-    <t>audio_w733.m4a</t>
+    <t>audio_w733.wav</t>
   </si>
   <si>
     <t>Puh bri</t>
@@ -7288,7 +7288,7 @@
     <t>Trâu rừng</t>
   </si>
   <si>
-    <t>audio_w734.m4a</t>
+    <t>audio_w734.wav</t>
   </si>
   <si>
     <t>La</t>
@@ -7297,7 +7297,7 @@
     <t>Tre</t>
   </si>
   <si>
-    <t>audio_w735.m4a</t>
+    <t>audio_w735.wav</t>
   </si>
   <si>
     <t>Tư\ng</t>
@@ -7306,7 +7306,7 @@
     <t>Trên</t>
   </si>
   <si>
-    <t>audio_w736.m4a</t>
+    <t>audio_w736.wav</t>
   </si>
   <si>
     <t>}uar</t>
@@ -7315,13 +7315,13 @@
     <t>Trên cạn</t>
   </si>
   <si>
-    <t>audio_w737.m4a</t>
+    <t>audio_w737.wav</t>
   </si>
   <si>
     <t>Trèo</t>
   </si>
   <si>
-    <t>audio_w738.m4a</t>
+    <t>audio_w738.wav</t>
   </si>
   <si>
     <t>Tăng t^</t>
@@ -7330,7 +7330,7 @@
     <t>Treo lên trên</t>
   </si>
   <si>
-    <t>audio_w739.m4a</t>
+    <t>audio_w739.wav</t>
   </si>
   <si>
     <t>{ư\n ]hai</t>
@@ -7339,7 +7339,7 @@
     <t>Triển khai</t>
   </si>
   <si>
-    <t>audio_w74.m4a</t>
+    <t>audio_w74.wav</t>
   </si>
   <si>
     <t>hat</t>
@@ -7348,7 +7348,7 @@
     <t>Cắt</t>
   </si>
   <si>
-    <t>audio_w740.m4a</t>
+    <t>audio_w740.wav</t>
   </si>
   <si>
     <t>Eh kao</t>
@@ -7357,7 +7357,7 @@
     <t>Trổ bông</t>
   </si>
   <si>
-    <t>audio_w741.m4a</t>
+    <t>audio_w741.wav</t>
   </si>
   <si>
     <t>Nô# nhâng</t>
@@ -7366,13 +7366,13 @@
     <t>Trò chơi</t>
   </si>
   <si>
-    <t>audio_w742.m4a</t>
+    <t>audio_w742.wav</t>
   </si>
   <si>
     <t>Trôi</t>
   </si>
   <si>
-    <t>audio_w743.m4a</t>
+    <t>audio_w743.wav</t>
   </si>
   <si>
     <t>Truk</t>
@@ -7381,7 +7381,7 @@
     <t>Trời</t>
   </si>
   <si>
-    <t>audio_w744.m4a</t>
+    <t>audio_w744.wav</t>
   </si>
   <si>
     <t>Hung đhung</t>
@@ -7390,7 +7390,7 @@
     <t>Trôi chảy</t>
   </si>
   <si>
-    <t>audio_w745.m4a</t>
+    <t>audio_w745.wav</t>
   </si>
   <si>
     <t>Đhung `hân</t>
@@ -7399,7 +7399,7 @@
     <t>Trôi dạt</t>
   </si>
   <si>
-    <t>audio_w746.m4a</t>
+    <t>audio_w746.wav</t>
   </si>
   <si>
     <t>Truk p'piak lư\t</t>
@@ -7408,7 +7408,7 @@
     <t>Trời xanh biếc</t>
   </si>
   <si>
-    <t>audio_w747.m4a</t>
+    <t>audio_w747.wav</t>
   </si>
   <si>
     <t>Tiar</t>
@@ -7417,7 +7417,7 @@
     <t>Trơn</t>
   </si>
   <si>
-    <t>audio_w748.m4a</t>
+    <t>audio_w748.wav</t>
   </si>
   <si>
     <t>Luk</t>
@@ -7426,7 +7426,7 @@
     <t>Trộn</t>
   </si>
   <si>
-    <t>audio_w749.m4a</t>
+    <t>audio_w749.wav</t>
   </si>
   <si>
     <t>Gâr</t>
@@ -7435,7 +7435,7 @@
     <t>Trống</t>
   </si>
   <si>
-    <t>audio_w75.m4a</t>
+    <t>audio_w75.wav</t>
   </si>
   <si>
     <t>siat</t>
@@ -7444,7 +7444,7 @@
     <t>Cắt cành</t>
   </si>
   <si>
-    <t>audio_w750.m4a</t>
+    <t>audio_w750.wav</t>
   </si>
   <si>
     <t>Tăm</t>
@@ -7453,7 +7453,7 @@
     <t>Trồng</t>
   </si>
   <si>
-    <t>audio_w751.m4a</t>
+    <t>audio_w751.wav</t>
   </si>
   <si>
     <t>Nuh [lang</t>
@@ -7462,7 +7462,7 @@
     <t>Trưng bày</t>
   </si>
   <si>
-    <t>audio_w752.m4a</t>
+    <t>audio_w752.wav</t>
   </si>
   <si>
     <t>Lăng nial</t>
@@ -7471,7 +7471,7 @@
     <t>Trừng phạt</t>
   </si>
   <si>
-    <t>audio_w753.m4a</t>
+    <t>audio_w753.wav</t>
   </si>
   <si>
     <t>Gu\k ta măt</t>
@@ -7480,7 +7480,7 @@
     <t>Trước mắt</t>
   </si>
   <si>
-    <t>audio_w754.m4a</t>
+    <t>audio_w754.wav</t>
   </si>
   <si>
     <t>}rơ\ng</t>
@@ -7489,13 +7489,13 @@
     <t>Trườn</t>
   </si>
   <si>
-    <t>audio_w755.m4a</t>
+    <t>audio_w755.wav</t>
   </si>
   <si>
     <t>Truyền đi</t>
   </si>
   <si>
-    <t>audio_w756.m4a</t>
+    <t>audio_w756.wav</t>
   </si>
   <si>
     <t>Ndruat hui</t>
@@ -7504,7 +7504,7 @@
     <t>Truyền thống</t>
   </si>
   <si>
-    <t>audio_w757.m4a</t>
+    <t>audio_w757.wav</t>
   </si>
   <si>
     <t>}o\ng</t>
@@ -7513,19 +7513,19 @@
     <t>Tự</t>
   </si>
   <si>
-    <t>audio_w758.m4a</t>
+    <t>audio_w758.wav</t>
   </si>
   <si>
     <t>Tự có</t>
   </si>
   <si>
-    <t>audio_w759.m4a</t>
+    <t>audio_w759.wav</t>
   </si>
   <si>
     <t>Tự nhiên</t>
   </si>
   <si>
-    <t>audio_w76.m4a</t>
+    <t>audio_w76.wav</t>
   </si>
   <si>
     <t>Re] bâr</t>
@@ -7534,7 +7534,7 @@
     <t>Cầu khẩn</t>
   </si>
   <si>
-    <t>audio_w760.m4a</t>
+    <t>audio_w760.wav</t>
   </si>
   <si>
     <t>Bơ t^ ro su\</t>
@@ -7543,7 +7543,7 @@
     <t>Từ trên xuống</t>
   </si>
   <si>
-    <t>audio_w761.m4a</t>
+    <t>audio_w761.wav</t>
   </si>
   <si>
     <t>Dre\ dre\</t>
@@ -7552,7 +7552,7 @@
     <t>Từ từ</t>
   </si>
   <si>
-    <t>audio_w762.m4a</t>
+    <t>audio_w762.wav</t>
   </si>
   <si>
     <t>Kdô ]iang</t>
@@ -7561,13 +7561,13 @@
     <t>Túi xách</t>
   </si>
   <si>
-    <t>audio_w763.m4a</t>
+    <t>audio_w763.wav</t>
   </si>
   <si>
     <t>Tu\ng ]iang</t>
   </si>
   <si>
-    <t>audio_w764.m4a</t>
+    <t>audio_w764.wav</t>
   </si>
   <si>
     <t>Tui si</t>
@@ -7576,7 +7576,7 @@
     <t>Tùy theo</t>
   </si>
   <si>
-    <t>audio_w765.m4a</t>
+    <t>audio_w765.wav</t>
   </si>
   <si>
     <t>Tui si ai tơi bơ bân</t>
@@ -7585,7 +7585,7 @@
     <t>Tùy theo khả năng của mình</t>
   </si>
   <si>
-    <t>audio_w766.m4a</t>
+    <t>audio_w766.wav</t>
   </si>
   <si>
     <t>Nggâr</t>
@@ -7594,13 +7594,13 @@
     <t>Ủ rượu</t>
   </si>
   <si>
-    <t>audio_w767.m4a</t>
+    <t>audio_w767.wav</t>
   </si>
   <si>
     <t>Uống</t>
   </si>
   <si>
-    <t>audio_w768.m4a</t>
+    <t>audio_w768.wav</t>
   </si>
   <si>
     <t>Dư\ng mbuar</t>
@@ -7609,7 +7609,7 @@
     <t>Uống rượu</t>
   </si>
   <si>
-    <t>audio_w769.m4a</t>
+    <t>audio_w769.wav</t>
   </si>
   <si>
     <t>Da dah</t>
@@ -7618,7 +7618,7 @@
     <t>Ướt</t>
   </si>
   <si>
-    <t>audio_w77.m4a</t>
+    <t>audio_w77.wav</t>
   </si>
   <si>
     <t>Re\] bâr</t>
@@ -7627,7 +7627,7 @@
     <t>Cầu nguyện</t>
   </si>
   <si>
-    <t>audio_w770.m4a</t>
+    <t>audio_w770.wav</t>
   </si>
   <si>
     <t>đrưh ang</t>
@@ -7636,7 +7636,7 @@
     <t>Uy nghi</t>
   </si>
   <si>
-    <t>audio_w771.m4a</t>
+    <t>audio_w771.wav</t>
   </si>
   <si>
     <t>Jư\n jei</t>
@@ -7645,7 +7645,7 @@
     <t>Uyển chuyển</t>
   </si>
   <si>
-    <t>audio_w772.m4a</t>
+    <t>audio_w772.wav</t>
   </si>
   <si>
     <t>Rah</t>
@@ -7654,13 +7654,13 @@
     <t>Sạ lúa</t>
   </si>
   <si>
-    <t>audio_w773.m4a</t>
+    <t>audio_w773.wav</t>
   </si>
   <si>
     <t>Vẫn</t>
   </si>
   <si>
-    <t>audio_w774.m4a</t>
+    <t>audio_w774.wav</t>
   </si>
   <si>
     <t>Pơp gư\t so</t>
@@ -7669,7 +7669,7 @@
     <t>Văn hóa</t>
   </si>
   <si>
-    <t>audio_w775.m4a</t>
+    <t>audio_w775.wav</t>
   </si>
   <si>
     <t>Mah</t>
@@ -7678,7 +7678,7 @@
     <t>Vàng</t>
   </si>
   <si>
-    <t>audio_w776.m4a</t>
+    <t>audio_w776.wav</t>
   </si>
   <si>
     <t>Yơi</t>
@@ -7687,7 +7687,7 @@
     <t>Vào</t>
   </si>
   <si>
-    <t>audio_w777.m4a</t>
+    <t>audio_w777.wav</t>
   </si>
   <si>
     <t>Eh păk</t>
@@ -7696,13 +7696,13 @@
     <t>Vấp</t>
   </si>
   <si>
-    <t>audio_w778.m4a</t>
+    <t>audio_w778.wav</t>
   </si>
   <si>
     <t>Eh dal</t>
   </si>
   <si>
-    <t>audio_w779.m4a</t>
+    <t>audio_w779.wav</t>
   </si>
   <si>
     <t>Pơp</t>
@@ -7711,7 +7711,7 @@
     <t>Vật</t>
   </si>
   <si>
-    <t>audio_w78.m4a</t>
+    <t>audio_w78.wav</t>
   </si>
   <si>
     <t>Hăng</t>
@@ -7720,7 +7720,7 @@
     <t>Cay</t>
   </si>
   <si>
-    <t>audio_w780.m4a</t>
+    <t>audio_w780.wav</t>
   </si>
   <si>
     <t>Pơp dăng</t>
@@ -7729,7 +7729,7 @@
     <t>Vật cứng</t>
   </si>
   <si>
-    <t>audio_w781.m4a</t>
+    <t>audio_w781.wav</t>
   </si>
   <si>
     <t>Pơp jâk</t>
@@ -7738,7 +7738,7 @@
     <t>Vật nặng</t>
   </si>
   <si>
-    <t>audio_w782.m4a</t>
+    <t>audio_w782.wav</t>
   </si>
   <si>
     <t>Su dư\r</t>
@@ -7747,13 +7747,13 @@
     <t>Váy</t>
   </si>
   <si>
-    <t>audio_w783.m4a</t>
+    <t>audio_w783.wav</t>
   </si>
   <si>
     <t>Vẩy</t>
   </si>
   <si>
-    <t>audio_w784.m4a</t>
+    <t>audio_w784.wav</t>
   </si>
   <si>
     <t>Pư\t</t>
@@ -7762,13 +7762,13 @@
     <t>Ven</t>
   </si>
   <si>
-    <t>audio_w785.m4a</t>
+    <t>audio_w785.wav</t>
   </si>
   <si>
     <t>King</t>
   </si>
   <si>
-    <t>audio_w786.m4a</t>
+    <t>audio_w786.wav</t>
   </si>
   <si>
     <t>Pư\t dak</t>
@@ -7777,7 +7777,7 @@
     <t>Ven bờ</t>
   </si>
   <si>
-    <t>audio_w787.m4a</t>
+    <t>audio_w787.wav</t>
   </si>
   <si>
     <t>Ta tu\k</t>
@@ -7786,13 +7786,13 @@
     <t>Vị trí</t>
   </si>
   <si>
-    <t>audio_w788.m4a</t>
+    <t>audio_w788.wav</t>
   </si>
   <si>
     <t>Tu\k ]ua</t>
   </si>
   <si>
-    <t>audio_w789.m4a</t>
+    <t>audio_w789.wav</t>
   </si>
   <si>
     <t>yơi</t>
@@ -7801,7 +7801,7 @@
     <t>Vô</t>
   </si>
   <si>
-    <t>audio_w79.m4a</t>
+    <t>audio_w79.wav</t>
   </si>
   <si>
     <t>Tơm jri</t>
@@ -7810,7 +7810,7 @@
     <t>Cây đa</t>
   </si>
   <si>
-    <t>audio_w790.m4a</t>
+    <t>audio_w790.wav</t>
   </si>
   <si>
     <t>Khup</t>
@@ -7819,13 +7819,13 @@
     <t>Vỏ</t>
   </si>
   <si>
-    <t>audio_w791.m4a</t>
+    <t>audio_w791.wav</t>
   </si>
   <si>
     <t>Vỏ cây</t>
   </si>
   <si>
-    <t>audio_w792.m4a</t>
+    <t>audio_w792.wav</t>
   </si>
   <si>
     <t>kiap</t>
@@ -7834,7 +7834,7 @@
     <t>Vỏ hến</t>
   </si>
   <si>
-    <t>audio_w793.m4a</t>
+    <t>audio_w793.wav</t>
   </si>
   <si>
     <t>Rueh</t>
@@ -7843,7 +7843,7 @@
     <t>Voi</t>
   </si>
   <si>
-    <t>audio_w794.m4a</t>
+    <t>audio_w794.wav</t>
   </si>
   <si>
     <t>Kông</t>
@@ -7852,7 +7852,7 @@
     <t>Vòng tay</t>
   </si>
   <si>
-    <t>audio_w795.m4a</t>
+    <t>audio_w795.wav</t>
   </si>
   <si>
     <t>j'jai …j'jai…</t>
@@ -7861,7 +7861,7 @@
     <t xml:space="preserve">Vừa …vừa … </t>
   </si>
   <si>
-    <t>audio_w796.m4a</t>
+    <t>audio_w796.wav</t>
   </si>
   <si>
     <t>Rôm</t>
@@ -7870,7 +7870,7 @@
     <t>Vui</t>
   </si>
   <si>
-    <t>audio_w797.m4a</t>
+    <t>audio_w797.wav</t>
   </si>
   <si>
     <t>Rôm ngăn</t>
@@ -7879,7 +7879,7 @@
     <t>Vui nhộn</t>
   </si>
   <si>
-    <t>audio_w798.m4a</t>
+    <t>audio_w798.wav</t>
   </si>
   <si>
     <t>Tu\k n'nâm dak</t>
@@ -7888,13 +7888,13 @@
     <t>Vùng hạ lưu</t>
   </si>
   <si>
-    <t>audio_w799.m4a</t>
+    <t>audio_w799.wav</t>
   </si>
   <si>
     <t>Tu\k kơi dak</t>
   </si>
   <si>
-    <t>audio_w8.m4a</t>
+    <t>audio_w8.wav</t>
   </si>
   <si>
     <t>Ao ư\t</t>
@@ -7903,7 +7903,7 @@
     <t>Áo dày</t>
   </si>
   <si>
-    <t>audio_w80.m4a</t>
+    <t>audio_w80.wav</t>
   </si>
   <si>
     <t>dlei</t>
@@ -7912,7 +7912,7 @@
     <t>Cây le</t>
   </si>
   <si>
-    <t>audio_w81.m4a</t>
+    <t>audio_w81.wav</t>
   </si>
   <si>
     <t>Răng rai</t>
@@ -7921,7 +7921,7 @@
     <t>Cây nêu</t>
   </si>
   <si>
-    <t>audio_w82.m4a</t>
+    <t>audio_w82.wav</t>
   </si>
   <si>
     <t>Krai</t>
@@ -7930,7 +7930,7 @@
     <t>Cây nhuộm răng đen</t>
   </si>
   <si>
-    <t>audio_w83.m4a</t>
+    <t>audio_w83.wav</t>
   </si>
   <si>
     <t>Lut</t>
@@ -7939,7 +7939,7 @@
     <t>Cây sáo</t>
   </si>
   <si>
-    <t>audio_w84.m4a</t>
+    <t>audio_w84.wav</t>
   </si>
   <si>
     <t>Tơm truih</t>
@@ -7948,7 +7948,7 @@
     <t>Cây sen</t>
   </si>
   <si>
-    <t>audio_w85.m4a</t>
+    <t>audio_w85.wav</t>
   </si>
   <si>
     <t>Gri</t>
@@ -7957,13 +7957,13 @@
     <t>Chai</t>
   </si>
   <si>
-    <t>audio_w86.m4a</t>
+    <t>audio_w86.wav</t>
   </si>
   <si>
     <t>Chậm chậm</t>
   </si>
   <si>
-    <t>audio_w87.m4a</t>
+    <t>audio_w87.wav</t>
   </si>
   <si>
     <t>Ư\t dhư\t</t>
@@ -7972,13 +7972,13 @@
     <t>Chậm chạp</t>
   </si>
   <si>
-    <t>audio_w88.m4a</t>
+    <t>audio_w88.wav</t>
   </si>
   <si>
     <t>Drân kơ\k</t>
   </si>
   <si>
-    <t>audio_w89.m4a</t>
+    <t>audio_w89.wav</t>
   </si>
   <si>
     <t>Su tâk</t>
@@ -7987,19 +7987,19 @@
     <t>Chăn đắp</t>
   </si>
   <si>
-    <t>audio_w9.m4a</t>
+    <t>audio_w9.wav</t>
   </si>
   <si>
     <t>Số 3</t>
   </si>
   <si>
-    <t>audio_w90.m4a</t>
+    <t>audio_w90.wav</t>
   </si>
   <si>
     <t>Chật</t>
   </si>
   <si>
-    <t>audio_w91.m4a</t>
+    <t>audio_w91.wav</t>
   </si>
   <si>
     <t>Kâl</t>
@@ -8008,25 +8008,25 @@
     <t>Chặt</t>
   </si>
   <si>
-    <t>audio_w92.m4a</t>
+    <t>audio_w92.wav</t>
   </si>
   <si>
     <t>Chặt cây gỗ</t>
   </si>
   <si>
-    <t>audio_w93.m4a</t>
+    <t>audio_w93.wav</t>
   </si>
   <si>
     <t>Chặt cây nhỏ bằng dao/xà gạc</t>
   </si>
   <si>
-    <t>audio_w94.m4a</t>
+    <t>audio_w94.wav</t>
   </si>
   <si>
     <t>nde\]</t>
   </si>
   <si>
-    <t>audio_w95.m4a</t>
+    <t>audio_w95.wav</t>
   </si>
   <si>
     <t>pe\]</t>
@@ -8035,7 +8035,7 @@
     <t>Chặt cành</t>
   </si>
   <si>
-    <t>audio_w96.m4a</t>
+    <t>audio_w96.wav</t>
   </si>
   <si>
     <t>Jăp bâk</t>
@@ -8044,7 +8044,7 @@
     <t>Chặt chẽ</t>
   </si>
   <si>
-    <t>audio_w97.m4a</t>
+    <t>audio_w97.wav</t>
   </si>
   <si>
     <t>Kăt rai</t>
@@ -8053,7 +8053,7 @@
     <t>Chặt phá</t>
   </si>
   <si>
-    <t>audio_w98.m4a</t>
+    <t>audio_w98.wav</t>
   </si>
   <si>
     <t>Hung</t>
@@ -8062,7 +8062,7 @@
     <t>Chảy</t>
   </si>
   <si>
-    <t>audio_w99.m4a</t>
+    <t>audio_w99.wav</t>
   </si>
   <si>
     <t>Tuôt</t>
@@ -8071,7 +8071,7 @@
     <t>Chạy nhanh</t>
   </si>
   <si>
-    <t>audio_s1051.mp3</t>
+    <t>audio_s1051.wav</t>
   </si>
   <si>
     <t>Pơp wơng gư\t `jing pơp kăl krip mâng le\ mơt pơp tăng juăt.</t>
@@ -8080,7 +8080,7 @@
     <t>Sự hiểu biết là chìa khóa của mọi mối quan hệ.</t>
   </si>
   <si>
-    <t>audio_s1052.mp3</t>
+    <t>audio_s1052.wav</t>
   </si>
   <si>
     <t>Tăp năng, so ng'ngơi `jing pơp plo\ dơk lup găl ngăn.</t>
@@ -8089,7 +8089,7 @@
     <t>Đôi khi, im lặng là cách tốt nhất để trả lời.</t>
   </si>
   <si>
-    <t>audio_s1053.mp3</t>
+    <t>audio_s1053.wav</t>
   </si>
   <si>
     <t>Pơp nhạc gâp khơ` iat tơ gâp ngoh ngual(rngot)?</t>
@@ -8098,7 +8098,7 @@
     <t>Bạn thích nghe nhạc gì khi buồn?</t>
   </si>
   <si>
-    <t>audio_s1054.mp3</t>
+    <t>audio_s1054.wav</t>
   </si>
   <si>
     <t>Tu\k ]ua e\` di `jing ju nâo nih nhap `jing.</t>
@@ -8107,7 +8107,7 @@
     <t>Mục tiêu của tôi là trở thành một người hạnh phúc.</t>
   </si>
   <si>
-    <t>audio_s1055.mp3</t>
+    <t>audio_s1055.wav</t>
   </si>
   <si>
     <t>Ru\ng truk năr lai hân wơi m^n.</t>
@@ -8116,7 +8116,7 @@
     <t>Hãy nhìn lên bầu trời và mơ mộng.</t>
   </si>
   <si>
-    <t>audio_s1056.mp3</t>
+    <t>audio_s1056.wav</t>
   </si>
   <si>
     <t>Khơ` khăp năng ai tăng mlih le\ mơt pơp.</t>
@@ -8125,7 +8125,7 @@
     <t>Tình yêu có thể thay đổi mọi thứ.</t>
   </si>
   <si>
-    <t>audio_s1057.mp3</t>
+    <t>audio_s1057.wav</t>
   </si>
   <si>
     <t>Gâp lai lôông riam [ah [ơn pơp riam mhei ya?</t>
@@ -8134,7 +8134,7 @@
     <t>Bạn đã thử học một ngôn ngữ mới chưa?</t>
   </si>
   <si>
-    <t>audio_s1058.mp3</t>
+    <t>audio_s1058.wav</t>
   </si>
   <si>
     <t>Đơ do\ tăm tal `jing ju mông [ri mhei gu gu.</t>
@@ -8143,7 +8143,7 @@
     <t>Mỗi cuộc gặp gỡ đều là một cơ hội mới.</t>
   </si>
   <si>
-    <t>audio_s1059.mp3</t>
+    <t>audio_s1059.wav</t>
   </si>
   <si>
     <t>Tim mông ân ta đơ pơp tu\ dơn mâng pơp brêh</t>
@@ -8152,7 +8152,7 @@
     <t>Hãy dành thời gian cho những điều quan trọng trong cuộc sống.</t>
   </si>
   <si>
-    <t>audio_s1060.mp3</t>
+    <t>audio_s1060.wav</t>
   </si>
   <si>
     <t>Pơp brêh tăp năng ]iang ju n^ lông ai.</t>
@@ -8161,7 +8161,7 @@
     <t>Cuộc sống đôi khi cần một chút thách thức.</t>
   </si>
   <si>
-    <t>audio_s962.mp3</t>
+    <t>audio_s962.wav</t>
   </si>
   <si>
     <t>Măng đo khe ang bhơng nhap blah rup.</t>
@@ -8170,7 +8170,7 @@
     <t>Đêm qua trăng sáng đẹp như tranh.</t>
   </si>
   <si>
-    <t>audio_s1061.mp3</t>
+    <t>audio_s1061.wav</t>
   </si>
   <si>
     <t>Gâp khơ` ko\ `jing do\ sung sa ram kư\t ei?</t>
@@ -8179,7 +8179,7 @@
     <t>Bạn muốn tổ chức bữa tiệc nhỏ không?</t>
   </si>
   <si>
-    <t>audio_s1062.mp3</t>
+    <t>audio_s1062.wav</t>
   </si>
   <si>
     <t>Mâo ya, pơp rôm truh bơ đơ pơp lơih pơih ngăn.</t>
@@ -8188,7 +8188,7 @@
     <t>Đôi khi, niềm vui đến từ những điều đơn giản nhất.</t>
   </si>
   <si>
-    <t>audio_s1063.mp3</t>
+    <t>audio_s1063.wav</t>
   </si>
   <si>
     <t>Tip mâng trông săk bân tơm.</t>
@@ -8197,7 +8197,7 @@
     <t>Hãy tin tưởng vào con đường của mình.</t>
   </si>
   <si>
-    <t>audio_s1064.mp3</t>
+    <t>audio_s1064.wav</t>
   </si>
   <si>
     <t>Pơp brêh ei so eh `joh mlih, bân brêh tăng guap.</t>
@@ -8206,7 +8206,7 @@
     <t>Cuộc sống không ngừng đổi, hãy thích nghi.</t>
   </si>
   <si>
-    <t>audio_s1065.mp3</t>
+    <t>audio_s1065.wav</t>
   </si>
   <si>
     <t>E|` khơ` ndơm mâo ha ]hi ru.</t>
@@ -8215,7 +8215,7 @@
     <t>Tôi thích mùa thu vì có lá cây rơi.</t>
   </si>
   <si>
-    <t>audio_s1066.mp3</t>
+    <t>audio_s1066.wav</t>
   </si>
   <si>
     <t>Gâp lai lôông gâm [ah [ơn pơp sa mhei ya?</t>
@@ -8224,7 +8224,7 @@
     <t>Bạn đã thử nấu một món ăn mới chưa?</t>
   </si>
   <si>
-    <t>audio_s1067.mp3</t>
+    <t>audio_s1067.wav</t>
   </si>
   <si>
     <t>~ut ân ple nuih bân hui hai ndul s'sei.</t>
@@ -8233,7 +8233,7 @@
     <t>Hãy giữ cho trái tim mình luôn trẻ trung.</t>
   </si>
   <si>
-    <t>audio_s963.mp3</t>
+    <t>audio_s963.wav</t>
   </si>
   <si>
     <t>Le\ mơt rup nghệ thuật nhap gu gu.</t>
@@ -8242,7 +8242,7 @@
     <t>Các bức tranh nghệ thuật đều rất ấn tượng.</t>
   </si>
   <si>
-    <t>audio_s964.mp3</t>
+    <t>audio_s964.wav</t>
   </si>
   <si>
     <t>Gâp mâo pơp lah luar ya ta năng nhal tu]?</t>
@@ -8251,7 +8251,7 @@
     <t>Bạn có kế hoạch gì cho cuối tuần?</t>
   </si>
   <si>
-    <t>audio_s965.mp3</t>
+    <t>audio_s965.wav</t>
   </si>
   <si>
     <t>Grâp năr mâo ndrơm `jing [ah [ơn pơp nhap găl truh mhei.</t>
@@ -8260,7 +8260,7 @@
     <t>Mỗi ngày đều là một cơ hội mới.</t>
   </si>
   <si>
-    <t>audio_s966.mp3</t>
+    <t>audio_s966.wav</t>
   </si>
   <si>
     <t>E|` khơ` riam [ah [ơn pơp ngơi mhei.</t>
@@ -8269,7 +8269,7 @@
     <t>Tôi muốn học một ngôn ngữ mới.</t>
   </si>
   <si>
-    <t>audio_s967.mp3</t>
+    <t>audio_s967.wav</t>
   </si>
   <si>
     <t>Đơ ]hi dlei băt ja lư\t p'piek ju dăng.</t>
@@ -8278,7 +8278,7 @@
     <t>Những cây cỏ xanh mướt trải dài.</t>
   </si>
   <si>
-    <t>audio_s968.mp3</t>
+    <t>audio_s968.wav</t>
   </si>
   <si>
     <t>Gâp gâm pơp sa noh kah!</t>
@@ -8287,7 +8287,7 @@
     <t>Bạn đã nấu ăn ngon quá!</t>
   </si>
   <si>
-    <t>audio_s969.mp3</t>
+    <t>audio_s969.wav</t>
   </si>
   <si>
     <t>Truk năr ta âo so âo mih ]al.</t>
@@ -8296,7 +8296,7 @@
     <t>Thời tiết ở đây khá thoải mái.</t>
   </si>
   <si>
-    <t>audio_s970.mp3</t>
+    <t>audio_s970.wav</t>
   </si>
   <si>
     <t>G^r `ut lăng duh pơp bân khơ`.</t>
@@ -8305,7 +8305,7 @@
     <t>Hãy giữ lửa đam mê của mình.</t>
   </si>
   <si>
-    <t>audio_s971.mp3</t>
+    <t>audio_s971.wav</t>
   </si>
   <si>
     <t>Trông bân săk hâo tu\k ta truh?</t>
@@ -8314,7 +8314,7 @@
     <t>Con đường này dẫn đến đâu?</t>
   </si>
   <si>
-    <t>audio_s972.mp3</t>
+    <t>audio_s972.wav</t>
   </si>
   <si>
     <t>Gâp mi eh `jing pơp yuam bhăn ngăn.</t>
@@ -8323,7 +8323,7 @@
     <t>Tình bạn là kho báu quý giá nhất.</t>
   </si>
   <si>
-    <t>audio_s973.mp3</t>
+    <t>audio_s973.wav</t>
   </si>
   <si>
     <t>Pơp nhap găl truh ]ông gu ta nih g^r nơn.</t>
@@ -8332,7 +8332,7 @@
     <t>Cơ hội chỉ đến với những người kiên trì.</t>
   </si>
   <si>
-    <t>audio_s974.mp3</t>
+    <t>audio_s974.wav</t>
   </si>
   <si>
     <t>Pơp nhạc gâp khơ` iat?</t>
@@ -8341,7 +8341,7 @@
     <t>Bạn thích nghe nhạc gì?</t>
   </si>
   <si>
-    <t>audio_s975.mp3</t>
+    <t>audio_s975.wav</t>
   </si>
   <si>
     <t>~ut jăp pơp wơ wơi khơ` bân tơm.</t>
@@ -8350,7 +8350,7 @@
     <t>Hãy giữ vững ước mơ của mình.</t>
   </si>
   <si>
-    <t>audio_s976.mp3</t>
+    <t>audio_s976.wav</t>
   </si>
   <si>
     <t>E|` khơ` riam pơp gư\t mhei.</t>
@@ -8359,7 +8359,7 @@
     <t>Tôi muốn học kỹ năng mới.</t>
   </si>
   <si>
-    <t>audio_s977.mp3</t>
+    <t>audio_s977.wav</t>
   </si>
   <si>
     <t>Pơp nhap ta tu\\k hâo eh mho\\ e\\` rui rai.</t>
@@ -8368,7 +8368,7 @@
     <t>Cảnh đẹp nơi đây làm tôi say đắm.</t>
   </si>
   <si>
-    <t>audio_s978.mp3</t>
+    <t>audio_s978.wav</t>
   </si>
   <si>
     <t>Gâp khơ` lôông sa pơp sa mhei ya?</t>
@@ -8377,7 +8377,7 @@
     <t>Bạn muốn thử một món ăn mới không?</t>
   </si>
   <si>
-    <t>audio_s979.mp3</t>
+    <t>audio_s979.wav</t>
   </si>
   <si>
     <t>Khơ` khăp eh `jing tơm ]hul pral jăp.</t>
@@ -8386,7 +8386,7 @@
     <t>Tình yêu là nguồn động viên mạnh mẽ.</t>
   </si>
   <si>
-    <t>audio_s980.mp3</t>
+    <t>audio_s980.wav</t>
   </si>
   <si>
     <t>Dơn le\ đơ pơp truh [l^r lơp ku it.</t>
@@ -8395,7 +8395,7 @@
     <t>Hãy tận hưởng những khoảnh khắc nhỏ.</t>
   </si>
   <si>
-    <t>audio_s981.mp3</t>
+    <t>audio_s981.wav</t>
   </si>
   <si>
     <t>Brơn mơn gâp lai dơi mho\ truh tơl ta tu\k mra truh mho\!</t>
@@ -8404,7 +8404,7 @@
     <t>Chúc mừng bạn đã đạt được mục tiêu!</t>
   </si>
   <si>
-    <t>audio_s982.mp3</t>
+    <t>audio_s982.wav</t>
   </si>
   <si>
     <t>Pơp brêh `jing [ah [ơn trông săk, so geh buk tu\k truh.</t>
@@ -8413,7 +8413,7 @@
     <t>Cuộc sống là một hành trình, không phải là đích đến.</t>
   </si>
   <si>
-    <t>audio_s983.mp3</t>
+    <t>audio_s983.wav</t>
   </si>
   <si>
     <t>E||` khơ` ru\ng năr `âp.</t>
@@ -8422,7 +8422,7 @@
     <t>Tôi thích ngắm hoàng hôn.</t>
   </si>
   <si>
-    <t>audio_s984.mp3</t>
+    <t>audio_s984.wav</t>
   </si>
   <si>
     <t>Pơp găl nhap ngăn `jing bân gơm grâp năr.</t>
@@ -8431,7 +8431,7 @@
     <t>Điều tốt đẹp nhất là mỉm cười mỗi ngày.</t>
   </si>
   <si>
-    <t>audio_s985.mp3</t>
+    <t>audio_s985.wav</t>
   </si>
   <si>
     <t>Ru\ng ju tu\k ta pơp ndeh tăng, găl nhap.</t>
@@ -8440,7 +8440,7 @@
     <t>Hãy tập trung vào điều tích cực.</t>
   </si>
   <si>
-    <t>audio_s986.mp3</t>
+    <t>audio_s986.wav</t>
   </si>
   <si>
     <t>Prăp kial lăm truh `jing pơp nhap găl truh nodi riam.</t>
@@ -8449,7 +8449,7 @@
     <t>Mọi thách thức đều là cơ hội để học hỏi.</t>
   </si>
   <si>
-    <t>audio_s987.mp3</t>
+    <t>audio_s987.wav</t>
   </si>
   <si>
     <t>Mơ\\ng pơp khơ` khăp, pơp wơng gư\\t `jing yuam bhăn ngăn.</t>
@@ -8458,7 +8458,7 @@
     <t>Trong tình yêu, sự hiểu biết là quan trọng nhất.</t>
   </si>
   <si>
-    <t>audio_s988.mp3</t>
+    <t>audio_s988.wav</t>
   </si>
   <si>
     <t>Grâp ang ui `jing [ah [ơn mâo pơp mhei.</t>
@@ -8467,7 +8467,7 @@
     <t>Mỗi sáng là một khởi đầu mới.</t>
   </si>
   <si>
-    <t>audio_s989.mp3</t>
+    <t>audio_s989.wav</t>
   </si>
   <si>
     <t>E||` khơ` dlăng ju druôm ră rôm.</t>
@@ -8476,7 +8476,7 @@
     <t>Tôi muốn đọc một cuốn sách hay.</t>
   </si>
   <si>
-    <t>audio_s990.mp3</t>
+    <t>audio_s990.wav</t>
   </si>
   <si>
     <t>Pơp wơng gư\t `jing pơp kăl pơk [ăng nuih `hâm.</t>
@@ -8485,7 +8485,7 @@
     <t>Sự hiểu biết là chìa khóa mở cánh cửa trái tim.</t>
   </si>
   <si>
-    <t>audio_s991.mp3</t>
+    <t>audio_s991.wav</t>
   </si>
   <si>
     <t>Pơp gâp wơ wơi? (Pơp gâp khơ`?)</t>
@@ -8494,7 +8494,7 @@
     <t>Mơ ước của bạn là gì?</t>
   </si>
   <si>
-    <t>audio_s992.mp3</t>
+    <t>audio_s992.wav</t>
   </si>
   <si>
     <t>G^r ngeh hui hai `ut lăng duh pơp bân khơ`.</t>
@@ -8503,7 +8503,7 @@
     <t>Hãy luôn nhớ giữ lửa đam mê của mình.</t>
   </si>
   <si>
-    <t>audio_s993.mp3</t>
+    <t>audio_s993.wav</t>
   </si>
   <si>
     <t>Ei râo ndroh pơp m'mơn.</t>
@@ -8512,7 +8512,7 @@
     <t>Đừng bao giờ từ bỏ hy vọng.</t>
   </si>
   <si>
-    <t>audio_s994.mp3</t>
+    <t>audio_s994.wav</t>
   </si>
   <si>
     <t>E||` khơ` ndơm kao gơ\ mâo o\\k kao ri [hi.</t>
@@ -8521,7 +8521,7 @@
     <t>Tôi thích mùa xuân vì có nhiều hoa khoe sắc.</t>
   </si>
   <si>
-    <t>audio_s995.mp3</t>
+    <t>audio_s995.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Săk jăn `jing pơp yuam bhăn ngăn. </t>
@@ -8530,7 +8530,7 @@
     <t>Sức khỏe là quan trọng nhất.</t>
   </si>
   <si>
-    <t>audio_s996.mp3</t>
+    <t>audio_s996.wav</t>
   </si>
   <si>
     <t>Gâp lai lôông tăng tư\ng [ah plu\ng ya?</t>
@@ -8539,7 +8539,7 @@
     <t>Bạn đã thử đua thuyền chưa?</t>
   </si>
   <si>
-    <t>audio_s997.mp3</t>
+    <t>audio_s997.wav</t>
   </si>
   <si>
     <t>Nnei mbum đơ nih ju\m dăr gâp.</t>
@@ -8548,7 +8548,7 @@
     <t>Hãy trân trọng những người xung quanh bạn.</t>
   </si>
   <si>
-    <t>audio_s998.mp3</t>
+    <t>audio_s998.wav</t>
   </si>
   <si>
     <t>Khơ` khăp `jing tơm ]hul ram ngăn.</t>
@@ -8557,7 +8557,7 @@
     <t>Tình yêu là nguồn động viên lớn nhất.</t>
   </si>
   <si>
-    <t>audio_s999.mp3</t>
+    <t>audio_s999.wav</t>
   </si>
   <si>
     <t>Ei râo jâng wâr `joh `jang b^ hak djâp.</t>
@@ -8566,7 +8566,7 @@
     <t>Đừng quên nghỉ ngơi đủ giấc.</t>
   </si>
   <si>
-    <t>audio_s1000.mp3</t>
+    <t>audio_s1000.wav</t>
   </si>
   <si>
     <t>Năr âo pơp Phim gâp khơ` ru\ng?</t>
@@ -8575,7 +8575,7 @@
     <t>Bạn muốn xem phim gì hôm nay?</t>
   </si>
   <si>
-    <t>audio_s1001.mp3</t>
+    <t>audio_s1001.wav</t>
   </si>
   <si>
     <t>Pơp lai `jing truh ta đơ nih g^r nơn.</t>
@@ -8584,7 +8584,7 @@
     <t>Sự thành công đến với những người kiên trì.</t>
   </si>
   <si>
-    <t>audio_s1002.mp3</t>
+    <t>audio_s1002.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Gâp mi blah [ah [ơn rup sang [hieo. </t>
@@ -8593,7 +8593,7 @@
     <t>Tình bạn như một bức tranh tươi sáng.</t>
   </si>
   <si>
-    <t>audio_s1003.mp3</t>
+    <t>audio_s1003.wav</t>
   </si>
   <si>
     <t>E|` khơ` lap hur [ah [ơn pơp riam ep juat mhei.</t>
@@ -8602,7 +8602,7 @@
     <t>Tôi muốn thử một môn thể thao mới.</t>
   </si>
   <si>
-    <t>audio_s1004.mp3</t>
+    <t>audio_s1004.wav</t>
   </si>
   <si>
     <t>Dơi brêh grâp năr blah năr nhal tu].</t>
@@ -8611,7 +8611,7 @@
     <t>Hãy sống mỗi ngày như là ngày cuối cùng.</t>
   </si>
   <si>
-    <t>audio_s1005.mp3</t>
+    <t>audio_s1005.wav</t>
   </si>
   <si>
     <t xml:space="preserve">Grâp pơp kial lăm ăt man dơi gao. </t>
@@ -8620,7 +8620,7 @@
     <t>Mọi khó khăn đều có thể vượt qua.</t>
   </si>
   <si>
-    <t>audio_s1006.mp3</t>
+    <t>audio_s1006.wav</t>
   </si>
   <si>
     <t>G^r `ut lăng duh pơp bân prăp dăp bơ săk jăn.</t>
@@ -8629,7 +8629,7 @@
     <t>Hãy giữ lửa nghị lực của mình.</t>
   </si>
   <si>
-    <t>audio_s1007.mp3</t>
+    <t>audio_s1007.wav</t>
   </si>
   <si>
     <t>Măng ieo truk noh o\k me\`.</t>
@@ -8638,7 +8638,7 @@
     <t>Đêm nay trời sao rất nhiều.</t>
   </si>
   <si>
-    <t>audio_s1008.mp3</t>
+    <t>audio_s1008.wav</t>
   </si>
   <si>
     <t>Pơp duh rôm truh bơ mâo pơp ik re\] nuih tur.</t>
@@ -8647,7 +8647,7 @@
     <t>Sự hạnh phúc đến từ sự bình yên nội tâm.</t>
   </si>
   <si>
-    <t>audio_s1009.mp3</t>
+    <t>audio_s1009.wav</t>
   </si>
   <si>
     <t>Gâp mâo pơp lah luar ya ta pơp brêh kơi ne\?</t>
@@ -8656,7 +8656,7 @@
     <t>Bạn có kế hoạch cho tương lai không?</t>
   </si>
   <si>
-    <t>audio_s1010.mp3</t>
+    <t>audio_s1010.wav</t>
   </si>
   <si>
     <t>Nnei mbum ta [ah [ơn pơp truh [l^r lơp.</t>
@@ -8665,7 +8665,7 @@
     <t>Hãy trân trọng từng khoảnh khắc.</t>
   </si>
   <si>
-    <t>audio_s1011.mp3</t>
+    <t>audio_s1011.wav</t>
   </si>
   <si>
     <t>Pơp brêh tăp năng ]iang ju n^ phiêu lưu.</t>
@@ -8674,7 +8674,7 @@
     <t>Cuộc sống đôi khi cần một chút phiêu lưu.</t>
   </si>
   <si>
-    <t>audio_s1012.mp3</t>
+    <t>audio_s1012.wav</t>
   </si>
   <si>
     <t>Gâp lai săk siap hih `ât tim nghệ thuật ya?</t>
@@ -8683,7 +8683,7 @@
     <t>Bạn đã đến thăm bảo tàng nghệ thuật chưa?</t>
   </si>
   <si>
-    <t>audio_s1013.mp3</t>
+    <t>audio_s1013.wav</t>
   </si>
   <si>
     <t>Khơ` khăp lai hân pơp wơng gư\t `jing mâng kăl pơp duh rôm.</t>
@@ -8692,7 +8692,7 @@
     <t>Tình yêu và sự hiểu biết là chìa khóa của hạnh phúc.</t>
   </si>
   <si>
-    <t>audio_s1014.mp3</t>
+    <t>audio_s1014.wav</t>
   </si>
   <si>
     <t>Prăp `ut jăp pơp tip bân tơm.</t>
@@ -8701,7 +8701,7 @@
     <t>Hãy giữ vững niềm tin của mình.</t>
   </si>
   <si>
-    <t>audio_s1015.mp3</t>
+    <t>audio_s1015.wav</t>
   </si>
   <si>
     <t>Grâp năr `jing [ah [ơn pơp nhap găl nodi mlih mhei.</t>
@@ -8710,7 +8710,7 @@
     <t>Mỗi ngày đều là một cơ hội để thay đổi.</t>
   </si>
   <si>
-    <t>audio_s1016.mp3</t>
+    <t>audio_s1016.wav</t>
   </si>
   <si>
     <t>Pơp rup gâp khơ` ng'ngăn?</t>
@@ -8719,7 +8719,7 @@
     <t>Bạn thích những bức tranh nghệ thuật nào nhất?</t>
   </si>
   <si>
-    <t>audio_s1017.mp3</t>
+    <t>audio_s1017.wav</t>
   </si>
   <si>
     <t>Lơi nuih tur gâp păr đhung.</t>
@@ -8728,7 +8728,7 @@
     <t>Hãy để tâm hồn bạn bay bổng.</t>
   </si>
   <si>
-    <t>audio_s1018.mp3</t>
+    <t>audio_s1018.wav</t>
   </si>
   <si>
     <t xml:space="preserve">E|` khơ` săk nhân ta Nhật Bản. </t>
@@ -8737,7 +8737,7 @@
     <t>Tôi muốn đi du lịch đến Nhật Bản.</t>
   </si>
   <si>
-    <t>audio_s1019.mp3</t>
+    <t>audio_s1019.wav</t>
   </si>
   <si>
     <t>Gâp lai lôông sa [ah [ơn pơp sa mhei ya?</t>
@@ -8746,7 +8746,7 @@
     <t>Bạn đã thử một món ăn mới chưa?</t>
   </si>
   <si>
-    <t>audio_s1020.mp3</t>
+    <t>audio_s1020.wav</t>
   </si>
   <si>
     <t>~joh `jang b^ hak djâp nodi săk jăn so mâo eh wăm.</t>
@@ -8755,7 +8755,7 @@
     <t>Hãy nghỉ ngơi đủ giấc để tinh thần sảng khoái.</t>
   </si>
   <si>
-    <t>audio_s1021.mp3</t>
+    <t>audio_s1021.wav</t>
   </si>
   <si>
     <t>Ei râo jâng wâr đơ pơp bân bơ bơi.</t>
@@ -8764,7 +8764,7 @@
     <t>Đừng quên những giấc mơ của mình.</t>
   </si>
   <si>
-    <t>audio_s1022.mp3</t>
+    <t>audio_s1022.wav</t>
   </si>
   <si>
     <t>Dơn le\ đơ pơp nnei mbum mơ\ng pơp brêh.</t>
@@ -8773,7 +8773,7 @@
     <t>Hãy tận hưởng mỗi khoảnh khắc trong cuộc sống.</t>
   </si>
   <si>
-    <t>audio_s1024.mp3</t>
+    <t>audio_s1024.wav</t>
   </si>
   <si>
     <t>Gâp khơ` săk riam ju gưl riam nghệ thuật ya?</t>
@@ -8782,7 +8782,7 @@
     <t>Bạn muốn tham gia một khóa học nghệ thuật không?</t>
   </si>
   <si>
-    <t>audio_s1025.mp3</t>
+    <t>audio_s1025.wav</t>
   </si>
   <si>
     <t>Pơp khơ` mho\ `jing trut ai ne\` tang ngăn.</t>
@@ -8791,7 +8791,7 @@
     <t>Sự đam mê là động lực mạnh mẽ nhất.</t>
   </si>
   <si>
-    <t>audio_s1026.mp3</t>
+    <t>audio_s1026.wav</t>
   </si>
   <si>
     <t>Ei râo ngam ngam lôông ei mhei.</t>
@@ -8800,7 +8800,7 @@
     <t>Đừng ngần ngại thử thách mới.</t>
   </si>
   <si>
-    <t>audio_s1027.mp3</t>
+    <t>audio_s1027.wav</t>
   </si>
   <si>
     <t>Grâp ang ui `jing [ah [ơn pơp dâng mho\ mhei ta ju năr nhap prơi .</t>
@@ -8809,7 +8809,7 @@
     <t>Mỗi sáng là một khởi đầu mới cho một ngày tuyệt vời.</t>
   </si>
   <si>
-    <t>audio_s1028.mp3</t>
+    <t>audio_s1028.wav</t>
   </si>
   <si>
     <t>Mhei hâo pơp druam ră gâp lai dlăng?</t>
@@ -8818,7 +8818,7 @@
     <t>Bạn đã đọc sách gì gần đây?</t>
   </si>
   <si>
-    <t>audio_s1029.mp3</t>
+    <t>audio_s1029.wav</t>
   </si>
   <si>
     <t>Năk ple nuih bân ân hui hai duh prơi.</t>
@@ -8827,7 +8827,7 @@
     <t>Hãy giữ cho trái tim mình luôn ấm áp.</t>
   </si>
   <si>
-    <t>audio_s1030.mp3</t>
+    <t>audio_s1030.wav</t>
   </si>
   <si>
     <t>Khơ` khăp lai hân pơp wơng gư\t `jing yuam bhăn ngăn.</t>
@@ -8836,7 +8836,7 @@
     <t>Tình yêu và sự hiểu biết là quan trọng nhất.</t>
   </si>
   <si>
-    <t>audio_s1031.mp3</t>
+    <t>audio_s1031.wav</t>
   </si>
   <si>
     <t>Pơp nhap găl ngăn truh ta đơ nih gư\t gân.</t>
@@ -8845,7 +8845,7 @@
     <t>Điều tốt nhất đến với những người biết chờ đợi.</t>
   </si>
   <si>
-    <t>audio_s1032.mp3</t>
+    <t>audio_s1032.wav</t>
   </si>
   <si>
     <t>E|` khơ` riam nhân [ah [ơn nhạc cụ.</t>
@@ -8854,7 +8854,7 @@
     <t>Tôi muốn học chơi một nhạc cụ.</t>
   </si>
   <si>
-    <t>audio_s1033.mp3</t>
+    <t>audio_s1033.wav</t>
   </si>
   <si>
     <t>Gâp khơ` riam [ah [ơn du\ riam mhei ya?</t>
@@ -8863,7 +8863,7 @@
     <t>Bạn muốn tham gia một lớp học mới không?</t>
   </si>
   <si>
-    <t>audio_s1034.mp3</t>
+    <t>audio_s1034.wav</t>
   </si>
   <si>
     <t>Tăng ru\ng ta măt găl mâng le\ mơt pơp truh.</t>
@@ -8872,7 +8872,7 @@
     <t>Hãy nhìn vào mặt tích cực của mọi tình huống.</t>
   </si>
   <si>
-    <t>audio_s1035.mp3</t>
+    <t>audio_s1035.wav</t>
   </si>
   <si>
     <t>Pơp brêh `jing [ah [ơn trông săk phiêu lưu dơi brêh.</t>
@@ -8881,7 +8881,7 @@
     <t>Cuộc sống là một cuộc phiêu lưu đáng sống.</t>
   </si>
   <si>
-    <t>audio_s1036.mp3</t>
+    <t>audio_s1036.wav</t>
   </si>
   <si>
     <t>Khơ` khăp `jing tơm noh ai lă lăr.</t>
@@ -8890,7 +8890,7 @@
     <t>Tình yêu là nguồn năng lượng vô tận.</t>
   </si>
   <si>
-    <t>audio_s1037.mp3</t>
+    <t>audio_s1037.wav</t>
   </si>
   <si>
     <t>Dơn le\ ju [l^r lơp ku it.</t>
@@ -8899,7 +8899,7 @@
     <t>Hãy tận hưởng từng khoảnh khắc nhỏ bé.</t>
   </si>
   <si>
-    <t>audio_s1038.mp3</t>
+    <t>audio_s1038.wav</t>
   </si>
   <si>
     <t xml:space="preserve"> Pơp pơp no# nhân gâp khơ` ngăn?</t>
@@ -8908,7 +8908,7 @@
     <t>Bạn thích môn thể thao nào nhất?</t>
   </si>
   <si>
-    <t>audio_s1039.mp3</t>
+    <t>audio_s1039.wav</t>
   </si>
   <si>
     <t>~ut ân nuih tur bân ndul s'sei.</t>
@@ -8917,7 +8917,7 @@
     <t>Hãy giữ cho tâm hồn mình trẻ trung.</t>
   </si>
   <si>
-    <t>audio_s1040.mp3</t>
+    <t>audio_s1040.wav</t>
   </si>
   <si>
     <t>Grâp năr eh `jing [ah [ơn pơp ân.</t>
@@ -8926,7 +8926,7 @@
     <t>Mỗi ngày đều là một quà tặng.</t>
   </si>
   <si>
-    <t>audio_s1041.mp3</t>
+    <t>audio_s1041.wav</t>
   </si>
   <si>
     <t>Gâp lai lôông [ah [ơn pơp riam ep juăt mhei ya?</t>
@@ -8935,7 +8935,7 @@
     <t>Bạn đã thử một môn thể thao mới chưa?</t>
   </si>
   <si>
-    <t>audio_s1042.mp3</t>
+    <t>audio_s1042.wav</t>
   </si>
   <si>
     <t>Brêh le\ nuih `hâm mâng ju pơp [l^r lơp.</t>
@@ -8944,7 +8944,7 @@
     <t>Hãy sống hết mình trong từng khoảnh khắc.</t>
   </si>
   <si>
-    <t>audio_s1043.mp3</t>
+    <t>audio_s1043.wav</t>
   </si>
   <si>
     <t>Ei râo ngam ngam hui tư\ng wơ wơi khơ` bơ bân tơm.</t>
@@ -8953,7 +8953,7 @@
     <t>Đừng bao giờ ngần ngại theo đuổi ước mơ của mình.</t>
   </si>
   <si>
-    <t>audio_s1044.mp3</t>
+    <t>audio_s1044.wav</t>
   </si>
   <si>
     <t>Mâng tu\k `joh ta măt, pơp ]ar war gâp khơ` siap mhơ]?</t>
@@ -8962,7 +8962,7 @@
     <t>Bạn muốn thăm quốc gia nào trong kỳ nghỉ tới?</t>
   </si>
   <si>
-    <t>audio_s1045.mp3</t>
+    <t>audio_s1045.wav</t>
   </si>
   <si>
     <t>Nơn tơm, ei so mâo nih d^h năng ai mho\ pơp hân găl blah gâp.</t>
@@ -8971,7 +8971,7 @@
     <t>Hãy là chính mình, vì không ai khác có thể làm điều đó tốt như bạn.</t>
   </si>
   <si>
-    <t>audio_s1046.mp3</t>
+    <t>audio_s1046.wav</t>
   </si>
   <si>
     <t>Gâp  khơ` riam [ah [ơn pơp dơi mho\ mhei ya?</t>
@@ -8980,7 +8980,7 @@
     <t>Bạn muốn học một kỹ năng mới không?</t>
   </si>
   <si>
-    <t>audio_s1047.mp3</t>
+    <t>audio_s1047.wav</t>
   </si>
   <si>
     <t>Khơ` khăp `jing tơm ]hul ram ngăn mâng pơp brêh.</t>
@@ -8989,7 +8989,7 @@
     <t>Tình yêu là nguồn động viên lớn nhất trong cuộc sống.</t>
   </si>
   <si>
-    <t>audio_s1048.mp3</t>
+    <t>audio_s1048.wav</t>
   </si>
   <si>
     <t>Juei pơp rôm mâng grâp năr.</t>
@@ -8998,7 +8998,7 @@
     <t>Hãy tìm kiếm niềm vui trong từng ngày.</t>
   </si>
   <si>
-    <t>audio_s1049.mp3</t>
+    <t>audio_s1049.wav</t>
   </si>
   <si>
     <t>Pơp brêh `jing [ah [ơn trông săk dơi ngeh.</t>
@@ -9007,7 +9007,7 @@
     <t>Cuộc sống là một hành trình đáng nhớ.</t>
   </si>
   <si>
-    <t>audio_s1050.mp3</t>
+    <t>audio_s1050.wav</t>
   </si>
   <si>
     <t>Gâp lai lôông sa [ah [ơn pơp sa kah ta âo ya?</t>
@@ -10009,8 +10009,8 @@
   <sheetPr/>
   <dimension ref="A1:C1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1030" workbookViewId="0">
-      <selection activeCell="B295" sqref="B295"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89814814814815" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -10024,7 +10024,7 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">

--- a/data.xlsx
+++ b/data.xlsx
@@ -9016,7 +9016,7 @@
     <t>Bạn đã thử một món ăn ngon ở đây chưa?</t>
   </si>
   <si>
-    <t>audio_s1087.mp3</t>
+    <t>audio_s1087.wav</t>
   </si>
   <si>
     <t>Găl săk jăn ya!</t>
@@ -9025,7 +9025,7 @@
     <t>Xin chào!</t>
   </si>
   <si>
-    <t>audio_s1096.mp3</t>
+    <t>audio_s1096.wav</t>
   </si>
   <si>
     <t>Tu] năng poh, Pơp bruă gâp khơ` mho\?</t>
@@ -9034,7 +9034,7 @@
     <t>Bạn thích làm gì vào cuối tuần?</t>
   </si>
   <si>
-    <t>audio_s1186.mp3</t>
+    <t>audio_s1186.wav</t>
   </si>
   <si>
     <t>Tlâo nu soh ao nơnamg.</t>
@@ -9043,7 +9043,7 @@
     <t>Anh chàng mặc áo sơ mi trắng.</t>
   </si>
   <si>
-    <t>audio_s1187.mp3</t>
+    <t>audio_s1187.wav</t>
   </si>
   <si>
     <t>Mei bap e\` tăng khăp dâng bơ khe\` bar jât năm.</t>
@@ -9052,7 +9052,7 @@
     <t>Bố mẹ tôi yêu nhau từ hơn 20 năm.</t>
   </si>
   <si>
-    <t>audio_s1188.mp3</t>
+    <t>audio_s1188.wav</t>
   </si>
   <si>
     <t>Le\ mơt băl ku sei riam ră khăng hui hai mho\ pơp riam mho\.</t>
@@ -9061,7 +9061,7 @@
     <t>Các bạn học sinh thường xuyên làm bài tập.</t>
   </si>
   <si>
-    <t>audio_s1189.mp3</t>
+    <t>audio_s1189.wav</t>
   </si>
   <si>
     <t>Kuan sư\m ndr'ndrâo ta nông la].</t>
@@ -9070,7 +9070,7 @@
     <t>Con chim hót trong sân.</t>
   </si>
   <si>
-    <t>audio_s1190.mp3</t>
+    <t>audio_s1190.wav</t>
   </si>
   <si>
     <t>Ư|` nduh dâng ang.</t>
@@ -9079,7 +9079,7 @@
     <t>Đèn đang sáng lên.</t>
   </si>
   <si>
-    <t>audio_s1191.mp3</t>
+    <t>audio_s1191.wav</t>
   </si>
   <si>
     <t>Le\ mơt nih dlah piang săk nh'nhân grâp năm.</t>
@@ -9088,7 +9088,7 @@
     <t>Cả gia đình đi du lịch mỗi năm.</t>
   </si>
   <si>
-    <t>audio_s1192.mp3</t>
+    <t>audio_s1192.wav</t>
   </si>
   <si>
     <t>Máy tính mhei mhe\] ngăn.</t>
@@ -9097,7 +9097,7 @@
     <t>Máy tính mới rất nhanh.</t>
   </si>
   <si>
-    <t>audio_s1193.mp3</t>
+    <t>audio_s1193.wav</t>
   </si>
   <si>
     <t>Oh b^ ta [ăng bhă.</t>
@@ -9106,7 +9106,7 @@
     <t>Em bé ngủ bên cửa sổ.</t>
   </si>
   <si>
-    <t>audio_s1194.mp3</t>
+    <t>audio_s1194.wav</t>
   </si>
   <si>
     <t>Nai dak gư\n le\ nuih tur năk ial nih kôp kăt.</t>
@@ -9115,7 +9115,7 @@
     <t>Bác sĩ tận tình chăm sóc bệnh nhân.</t>
   </si>
   <si>
-    <t>audio_s1195.mp3</t>
+    <t>audio_s1195.wav</t>
   </si>
   <si>
     <t>Gâp mi e\` [lum găl gu gu.</t>
@@ -9124,7 +9124,7 @@
     <t>Bạn bè tôi đều thân thiện.</t>
   </si>
   <si>
-    <t>audio_s1097.mp3</t>
+    <t>audio_s1097.wav</t>
   </si>
   <si>
     <t>Năr âo dâh, pơp bruă gâp lai prăp dăp mho\?</t>
@@ -9133,7 +9133,7 @@
     <t>Hôm nay bạn có kế hoạch gì?</t>
   </si>
   <si>
-    <t>audio_s1196.mp3</t>
+    <t>audio_s1196.wav</t>
   </si>
   <si>
     <t>De mi e\` riam wah ngăn.</t>
@@ -9142,7 +9142,7 @@
     <t>Chị gái học giỏi lắm.</t>
   </si>
   <si>
-    <t>audio_s1197.mp3</t>
+    <t>audio_s1197.wav</t>
   </si>
   <si>
     <t>Ku sei riam ră kât yung du\ riam nhap ngăn.</t>
@@ -9151,7 +9151,7 @@
     <t>Học sinh trang trí phòng học đẹp quá.</t>
   </si>
   <si>
-    <t>audio_s1198.mp3</t>
+    <t>audio_s1198.wav</t>
   </si>
   <si>
     <t>Kân ku sei nduh nhân ju bâk sâo.</t>
@@ -9160,7 +9160,7 @@
     <t>Bé trai đang chơi đùa cùng chó.</t>
   </si>
   <si>
-    <t>audio_s1199.mp3</t>
+    <t>audio_s1199.wav</t>
   </si>
   <si>
     <t>De uôn lan khăng hui hai weh săk nhân.</t>
@@ -9169,7 +9169,7 @@
     <t>Cô hàng xóm thường xuyên ghé chơi.</t>
   </si>
   <si>
-    <t>audio_s1200.mp3</t>
+    <t>audio_s1200.wav</t>
   </si>
   <si>
     <t>So\k de oh noh jua.</t>
@@ -9178,7 +9178,7 @@
     <t>Mái tóc của em gái rất dài.</t>
   </si>
   <si>
-    <t>audio_s1201.mp3</t>
+    <t>audio_s1201.wav</t>
   </si>
   <si>
     <t>Tlâo nu ân pơp ta ur druh.</t>
@@ -9187,7 +9187,7 @@
     <t>Bạn trai tặng quà cho bạn gái.</t>
   </si>
   <si>
-    <t>audio_s1202.mp3</t>
+    <t>audio_s1202.wav</t>
   </si>
   <si>
     <t>Yo bă khăng mho\ [e\` kah.</t>
@@ -9196,7 +9196,7 @@
     <t>Bà ngoại thường làm bánh ngon.</t>
   </si>
   <si>
-    <t>audio_s1203.mp3</t>
+    <t>audio_s1203.wav</t>
   </si>
   <si>
     <t>De mi ta oh khăng hui hai tăng ngơi.</t>
@@ -9205,7 +9205,7 @@
     <t>Chị em tôi thường xuyên nói chuyện.</t>
   </si>
   <si>
-    <t>audio_s1204.mp3</t>
+    <t>audio_s1204.wav</t>
   </si>
   <si>
     <t>Băl bơ de ur druh nduh kdo\ mu`.</t>
@@ -9214,7 +9214,7 @@
     <t>Các cô gái đang múa hát.</t>
   </si>
   <si>
-    <t>audio_s1205.mp3</t>
+    <t>audio_s1205.wav</t>
   </si>
   <si>
     <t>Truk ngâu, ư\` trông nduh ang.</t>
@@ -9223,7 +9223,7 @@
     <t>Trời tối, đèn đường sáng lên.</t>
   </si>
   <si>
-    <t>audio_s1098.mp3</t>
+    <t>audio_s1098.wav</t>
   </si>
   <si>
     <t>Gâp khơ` ya pơp sung sa ]ar la]?</t>
@@ -9232,7 +9232,7 @@
     <t>Bạn có thích ẩm thực nước ngoài không?</t>
   </si>
   <si>
-    <t>audio_s1206.mp3</t>
+    <t>audio_s1206.wav</t>
   </si>
   <si>
     <t>Pơp so\k rup so\k rup sang [hieo.</t>
@@ -9241,7 +9241,7 @@
     <t>Máy ảnh chụp ảnh rõ nét.</t>
   </si>
   <si>
-    <t>audio_s1207.mp3</t>
+    <t>audio_s1207.wav</t>
   </si>
   <si>
     <t>Gâp riam ră bâk e\` khơ` riam t^ng kơp.</t>
@@ -9250,7 +9250,7 @@
     <t>Bạn học tôi thích học toán.</t>
   </si>
   <si>
-    <t>audio_s1208.mp3</t>
+    <t>audio_s1208.wav</t>
   </si>
   <si>
     <t>De tơm t'ti sâo lăng dah.</t>
@@ -9259,7 +9259,7 @@
     <t>Cô chủ nhân dạy chó biểu diễn.</t>
   </si>
   <si>
-    <t>audio_s1209.mp3</t>
+    <t>audio_s1209.wav</t>
   </si>
   <si>
     <t>Trông săk truh ta hih riam ră noh nhap.</t>
@@ -9268,7 +9268,7 @@
     <t>Con đường dẫn đến ngôi trường rất đẹp.</t>
   </si>
   <si>
-    <t>audio_s1210.mp3</t>
+    <t>audio_s1210.wav</t>
   </si>
   <si>
     <t>De ku sei nduh gơm rôm.</t>
@@ -9277,7 +9277,7 @@
     <t>Bé gái đang cười vui.</t>
   </si>
   <si>
-    <t>audio_s1211.mp3</t>
+    <t>audio_s1211.wav</t>
   </si>
   <si>
     <t>Gâp mi e\` khăng lăng `jing sung sa ram.</t>
@@ -9286,7 +9286,7 @@
     <t>Bạn bè tôi thường tổ chức tiệc.</t>
   </si>
   <si>
-    <t>audio_s1212.mp3</t>
+    <t>audio_s1212.wav</t>
   </si>
   <si>
     <t>Mơ\ng hip ]hum ao mâo o\k ]hum ao nhap.</t>
@@ -9295,7 +9295,7 @@
     <t>Trong tủ quần áo có nhiều đồ đẹp.</t>
   </si>
   <si>
-    <t>audio_s1213.mp3</t>
+    <t>audio_s1213.wav</t>
   </si>
   <si>
     <t>Kân tl'tlâo soh ao ksu piak.</t>
@@ -9304,7 +9304,7 @@
     <t>Anh chàng mặc áo thun xanh.</t>
   </si>
   <si>
-    <t>audio_s1214.mp3</t>
+    <t>audio_s1214.wav</t>
   </si>
   <si>
     <t>De yo nduh gâm jăng ta le\ mơt nih dlah piang.</t>
@@ -9313,7 +9313,7 @@
     <t>Bà đang nấu ăn cho cả gia đình.</t>
   </si>
   <si>
-    <t>audio_s1215.mp3</t>
+    <t>audio_s1215.wav</t>
   </si>
   <si>
     <t>Mei e\` khăng hui hai ruat kao trieo ta hih.</t>
@@ -9322,7 +9322,7 @@
     <t>Mẹ tôi thường xuyên mua hoa về nhà.</t>
   </si>
   <si>
-    <t>audio_s1099.mp3</t>
+    <t>audio_s1099.wav</t>
   </si>
   <si>
     <t>Gâp lai lap sa ya pơp sung sa Việt?</t>
@@ -9331,7 +9331,7 @@
     <t>Bạn đã thử món ăn Việt chưa?</t>
   </si>
   <si>
-    <t>audio_s1216.mp3</t>
+    <t>audio_s1216.wav</t>
   </si>
   <si>
     <t>Mơ\ng kâr mâo o\k ]hi.</t>
@@ -9340,7 +9340,7 @@
     <t>Trong vườn có nhiều cây.</t>
   </si>
   <si>
-    <t>audio_s1217.mp3</t>
+    <t>audio_s1217.wav</t>
   </si>
   <si>
     <t>De oh khơ` nhân kuan rup.</t>
@@ -9349,7 +9349,7 @@
     <t>Cô em gái thích chơi búp bê.</t>
   </si>
   <si>
-    <t>audio_s1218.mp3</t>
+    <t>audio_s1218.wav</t>
   </si>
   <si>
     <t>Ku sei riam ră nduh mho\ pơp wih dlăng.</t>
@@ -9358,7 +9358,7 @@
     <t>Học sinh đang làm bài kiểm tra.</t>
   </si>
   <si>
-    <t>audio_s1219.mp3</t>
+    <t>audio_s1219.wav</t>
   </si>
   <si>
     <t>Ư|` năr lai khư\t, truk mmăng bing me\`.</t>
@@ -9367,7 +9367,7 @@
     <t>Đèn trời tắt, bầu trời đầy sao.</t>
   </si>
   <si>
-    <t>audio_s1220.mp3</t>
+    <t>audio_s1220.wav</t>
   </si>
   <si>
     <t>Kân mi nduh b^ hak.</t>
@@ -9376,7 +9376,7 @@
     <t>Anh chàng đang ngủ say.</t>
   </si>
   <si>
-    <t>audio_s1221.mp3</t>
+    <t>audio_s1221.wav</t>
   </si>
   <si>
     <t>Mei bap e\` hui hai kơl ndrôm pơp wơi khơ`.</t>
@@ -9385,7 +9385,7 @@
     <t>Bố mẹ tôi luôn ủng hộ ước mơ của tôi.</t>
   </si>
   <si>
-    <t>audio_s1222.mp3</t>
+    <t>audio_s1222.wav</t>
   </si>
   <si>
     <t>Le\ mơt nih nduh tuăt kdo\ bâk nu\ng gâr pơp mu`.</t>
@@ -9394,7 +9394,7 @@
     <t>Mọi người đang nhảy múa hòa nhạc.</t>
   </si>
   <si>
-    <t>audio_s1223.mp3</t>
+    <t>audio_s1223.wav</t>
   </si>
   <si>
     <t>De Hương khơ` dak brung pal.</t>
@@ -9403,7 +9403,7 @@
     <t>Chị Hương thích màu hồng.</t>
   </si>
   <si>
-    <t>audio_s1224.mp3</t>
+    <t>audio_s1224.wav</t>
   </si>
   <si>
     <t>Ku sei nduh riam mho\ [e\`.</t>
@@ -9412,7 +9412,7 @@
     <t>Bé đang tập làm bánh.</t>
   </si>
   <si>
-    <t>audio_s1225.mp3</t>
+    <t>audio_s1225.wav</t>
   </si>
   <si>
     <t>Nai t'ti t'ti riam knhuih mho\ bruă mhei ta.</t>
@@ -9421,7 +9421,7 @@
     <t>Cô giáo dạy học với phong cách mới lạ.</t>
   </si>
   <si>
-    <t>audio_s1100.mp3</t>
+    <t>audio_s1100.wav</t>
   </si>
   <si>
     <t>Gâp khơ` lap sa ju do\ ya?</t>
@@ -9430,7 +9430,7 @@
     <t>Bạn có muốn thử một lần không?</t>
   </si>
   <si>
-    <t>audio_s1226.mp3</t>
+    <t>audio_s1226.wav</t>
   </si>
   <si>
     <t>Kân ku sei nduh no# nhân ju bâk gâp mi.</t>
@@ -9439,7 +9439,7 @@
     <t>Cậu bé đang nô đùa cùng bạn bè.</t>
   </si>
   <si>
-    <t>audio_s1227.mp3</t>
+    <t>audio_s1227.wav</t>
   </si>
   <si>
     <t>Máy pih tăng râm kơl bruă hih mhe\] ro\k.</t>
@@ -9448,7 +9448,7 @@
     <t>Máy giặt giúp công việc nhà nhanh chóng.</t>
   </si>
   <si>
-    <t>audio_s1228.mp3</t>
+    <t>audio_s1228.wav</t>
   </si>
   <si>
     <t>Nih tl'tlâo nduh hao deh ph'phu\t.</t>
@@ -9457,7 +9457,7 @@
     <t>Người đàn ông đang lái xe máy.</t>
   </si>
   <si>
-    <t>audio_s1229.mp3</t>
+    <t>audio_s1229.wav</t>
   </si>
   <si>
     <t>Tlâo nu yoh kao ta ur druh.</t>
@@ -9466,7 +9466,7 @@
     <t>Bạn trai tặng hoa cho bạn gái.</t>
   </si>
   <si>
-    <t>audio_s1230.mp3</t>
+    <t>audio_s1230.wav</t>
   </si>
   <si>
     <t>De yo ura` nduh mho\ [a` tiat.</t>
@@ -9475,7 +9475,7 @@
     <t>Bà già đang làm bánh ngọt.</t>
   </si>
   <si>
-    <t>audio_s1231.mp3</t>
+    <t>audio_s1231.wav</t>
   </si>
   <si>
     <t>Ku sei riam ră nduh trông ]hai pơp riam.</t>
@@ -9484,7 +9484,7 @@
     <t>Học sinh đang thảo luận về bài học.</t>
   </si>
   <si>
-    <t>audio_s1232.mp3</t>
+    <t>audio_s1232.wav</t>
   </si>
   <si>
     <t>Mei e\` `jing nih gâm jăng kah ngăn.</t>
@@ -9493,7 +9493,7 @@
     <t>Mẹ tôi là người nấu ăn ngon nhất.</t>
   </si>
   <si>
-    <t>audio_s1233.mp3</t>
+    <t>audio_s1233.wav</t>
   </si>
   <si>
     <t>Lah găl gâp o\k!</t>
@@ -9502,7 +9502,7 @@
     <t>Cảm ơn bạn nhiều!</t>
   </si>
   <si>
-    <t>audio_s1234.mp3</t>
+    <t>audio_s1234.wav</t>
   </si>
   <si>
     <t>Noh brơn dơi tăm tal ta gâp!</t>
@@ -9511,7 +9511,7 @@
     <t>Rất vui được gặp bạn!</t>
   </si>
   <si>
-    <t>audio_s1235.mp3</t>
+    <t>audio_s1235.wav</t>
   </si>
   <si>
     <t>Tu\\k ta gâp brêh?</t>
@@ -9520,7 +9520,7 @@
     <t>Bạn sống ở đâu?</t>
   </si>
   <si>
-    <t>audio_s1101.mp3</t>
+    <t>audio_s1101.wav</t>
   </si>
   <si>
     <t>Gâp khơ` dlăng ră ya?</t>
@@ -9529,7 +9529,7 @@
     <t>Bạn có thích đọc sách không?</t>
   </si>
   <si>
-    <t>audio_s1236.mp3</t>
+    <t>audio_s1236.wav</t>
   </si>
   <si>
     <t>Gâp mâo ur(sai) ya?</t>
@@ -9538,7 +9538,7 @@
     <t>Bạn có gia đình chưa?</t>
   </si>
   <si>
-    <t>audio_s1237.mp3</t>
+    <t>audio_s1237.wav</t>
   </si>
   <si>
     <t>Gâp lai mâo kuan ya?</t>
@@ -9547,7 +9547,7 @@
     <t>Bạn có con cái không?</t>
   </si>
   <si>
-    <t>audio_s1238.mp3</t>
+    <t>audio_s1238.wav</t>
   </si>
   <si>
     <t>Gâp mâo pơp ]iang tăng râm kơl ya?</t>
@@ -9556,7 +9556,7 @@
     <t>Bạn có điều gì cần giúp đỡ không?</t>
   </si>
   <si>
-    <t>audio_s1239.mp3</t>
+    <t>audio_s1239.wav</t>
   </si>
   <si>
     <t>Gâp man dơi nă gâm jăng ya?</t>
@@ -9565,7 +9565,7 @@
     <t>Bạn có kỹ năng nấu ăn tốt không?</t>
   </si>
   <si>
-    <t>audio_s1240.mp3</t>
+    <t>audio_s1240.wav</t>
   </si>
   <si>
     <t>Đah bri hâo noh nhap.</t>
@@ -9574,7 +9574,7 @@
     <t>Cánh rừng này rất đẹp</t>
   </si>
   <si>
-    <t>audio_s1241.mp3</t>
+    <t>audio_s1241.wav</t>
   </si>
   <si>
     <t>E|` khơ` `joh `jang.</t>
@@ -9583,7 +9583,7 @@
     <t>Tôi cần nghỉ ngơi</t>
   </si>
   <si>
-    <t>audio_s1242.mp3</t>
+    <t>audio_s1242.wav</t>
   </si>
   <si>
     <t>Tăng tlah ndrân yô.</t>
@@ -9592,7 +9592,7 @@
     <t>Tạm biệt</t>
   </si>
   <si>
-    <t>audio_s1243.mp3</t>
+    <t>audio_s1243.wav</t>
   </si>
   <si>
     <t>Gâp o\k ian năm?</t>
@@ -9601,7 +9601,7 @@
     <t>Bạn bao nhiêu tuổi?</t>
   </si>
   <si>
-    <t>audio_s1244.mp3</t>
+    <t>audio_s1244.wav</t>
   </si>
   <si>
     <t>Gâp gư\t ngơi pơp Anh ya?</t>
@@ -9610,7 +9610,7 @@
     <t>Bạn có biết tiếng Anh không?</t>
   </si>
   <si>
-    <t>audio_s1245.mp3</t>
+    <t>audio_s1245.wav</t>
   </si>
   <si>
     <t>E|` gư\t ju n^.</t>
@@ -9619,7 +9619,7 @@
     <t>Tôi biết một chút</t>
   </si>
   <si>
-    <t>audio_s1102.mp3</t>
+    <t>audio_s1102.wav</t>
   </si>
   <si>
     <t>Pơp ră gâp khăng dlăng?</t>
@@ -9628,7 +9628,7 @@
     <t>Bạn thường đọc loại sách gì?</t>
   </si>
   <si>
-    <t>audio_s1246.mp3</t>
+    <t>audio_s1246.wav</t>
   </si>
   <si>
     <t>E|` so gư\t pơp ngơi Anh.</t>
@@ -9637,7 +9637,7 @@
     <t>Tôi không biết tiếng Anh.</t>
   </si>
   <si>
-    <t>audio_s1247.mp3</t>
+    <t>audio_s1247.wav</t>
   </si>
   <si>
     <t>E|` khơ` riam pơp ngơi Anh.</t>
@@ -9646,7 +9646,7 @@
     <t>Tôi muốn học tiếng Anh.</t>
   </si>
   <si>
-    <t>audio_s1248.mp3</t>
+    <t>audio_s1248.wav</t>
   </si>
   <si>
     <t>Gâp năng ai dơi ya kơl e\`?</t>
@@ -9655,7 +9655,7 @@
     <t>Bạn có thể giúp tôi không?</t>
   </si>
   <si>
-    <t>audio_s1249.mp3</t>
+    <t>audio_s1249.wav</t>
   </si>
   <si>
     <t>Gâp năng ai dơi ya ]ih?</t>
@@ -9664,7 +9664,7 @@
     <t>Bạn có thể viết ra không?</t>
   </si>
   <si>
-    <t>audio_s1250.mp3</t>
+    <t>audio_s1250.wav</t>
   </si>
   <si>
     <t>Pơp eh hâo?</t>
@@ -9673,7 +9673,7 @@
     <t>Đây là gì?</t>
   </si>
   <si>
-    <t>audio_s1251.mp3</t>
+    <t>audio_s1251.wav</t>
   </si>
   <si>
     <t>Eh hân yuam ngăn.</t>
@@ -9682,7 +9682,7 @@
     <t>Nó đắt quá.</t>
   </si>
   <si>
-    <t>audio_s1252.mp3</t>
+    <t>audio_s1252.wav</t>
   </si>
   <si>
     <t>Eh hân lưih ngăn.</t>
@@ -9691,7 +9691,7 @@
     <t>Nó rẻ quá.</t>
   </si>
   <si>
-    <t>audio_s1253.mp3</t>
+    <t>audio_s1253.wav</t>
   </si>
   <si>
     <t>O|k ian prăk?</t>
@@ -9700,7 +9700,7 @@
     <t>Bao nhiêu tiền?</t>
   </si>
   <si>
-    <t>audio_s1254.mp3</t>
+    <t>audio_s1254.wav</t>
   </si>
   <si>
     <t>E|` khơ` ruat eh hân.</t>
@@ -9709,7 +9709,7 @@
     <t>Tôi muốn mua nó.</t>
   </si>
   <si>
-    <t>audio_s1255.mp3</t>
+    <t>audio_s1255.wav</t>
   </si>
   <si>
     <t>E|` so khơ` ruat eh hân.</t>
@@ -9718,7 +9718,7 @@
     <t>Tôi không muốn mua nó.</t>
   </si>
   <si>
-    <t>audio_s1103.mp3</t>
+    <t>audio_s1103.wav</t>
   </si>
   <si>
     <t>Gâp khơ` ru\ng phim ya?</t>
@@ -9727,7 +9727,7 @@
     <t>Bạn thích xem phim không?</t>
   </si>
   <si>
-    <t>audio_s1256.mp3</t>
+    <t>audio_s1256.wav</t>
   </si>
   <si>
     <t>Mâo.</t>
@@ -9736,7 +9736,7 @@
     <t>Có</t>
   </si>
   <si>
-    <t>audio_s1257.mp3</t>
+    <t>audio_s1257.wav</t>
   </si>
   <si>
     <t>So mâo.</t>
@@ -9745,7 +9745,7 @@
     <t>Không</t>
   </si>
   <si>
-    <t>audio_s1258.mp3</t>
+    <t>audio_s1258.wav</t>
   </si>
   <si>
     <t>Gâp `jing nih gâp găl.</t>
@@ -9754,7 +9754,7 @@
     <t>Bạn là người bạn tốt</t>
   </si>
   <si>
-    <t>audio_s1259.mp3</t>
+    <t>audio_s1259.wav</t>
   </si>
   <si>
     <t>E|` mra g^r mho\ găl h^n.</t>
@@ -9763,7 +9763,7 @@
     <t>Tôi sẽ cố gắng làm tốt hơn</t>
   </si>
   <si>
-    <t>audio_s1260.mp3</t>
+    <t>audio_s1260.wav</t>
   </si>
   <si>
     <t>E|` so mâo prăk.</t>
@@ -9772,7 +9772,7 @@
     <t>Tôi không có tiền</t>
   </si>
   <si>
-    <t>audio_s1261.mp3</t>
+    <t>audio_s1261.wav</t>
   </si>
   <si>
     <t>Năr âo truk năr duh ngăn.</t>
@@ -9781,7 +9781,7 @@
     <t>Hôm nay trời nắng quá.</t>
   </si>
   <si>
-    <t>audio_s1262.mp3</t>
+    <t>audio_s1262.wav</t>
   </si>
   <si>
     <t>E|` khơ` săk nhân ndơm phang hâo.</t>
@@ -9790,7 +9790,7 @@
     <t>Tôi muốn đi du lịch vào mùa hè này.</t>
   </si>
   <si>
-    <t>audio_s1263.mp3</t>
+    <t>audio_s1263.wav</t>
   </si>
   <si>
     <t>Tlông năr e\` sung piang wâr ta tỏi.</t>
@@ -9799,7 +9799,7 @@
     <t>Bữa trưa tôi ăn cơm rang tỏi.</t>
   </si>
   <si>
-    <t>audio_s1264.mp3</t>
+    <t>audio_s1264.wav</t>
   </si>
   <si>
     <t>{ah [ơn deh wai jơ\ng mhei năng ai eh mlih pơp brêh gâp.</t>
@@ -9808,7 +9808,7 @@
     <t>Một chiếc xe đạp mới có thể thay đổi cuộc sống của bạn.</t>
   </si>
   <si>
-    <t>audio_s1265.mp3</t>
+    <t>audio_s1265.wav</t>
   </si>
   <si>
     <t>Mâo ju mblâm kuan mieo ju\ nduh b^ ta [ăng bhă.</t>
@@ -9817,7 +9817,7 @@
     <t>Có một con mèo đen đang ngủ trên cửa sổ.</t>
   </si>
   <si>
-    <t>audio_s1104.mp3</t>
+    <t>audio_s1104.wav</t>
   </si>
   <si>
     <t>Gâp mâo ya phim khăp khơ`?</t>
@@ -9826,7 +9826,7 @@
     <t>Bạn có bộ phim yêu thích không?</t>
   </si>
   <si>
-    <t>audio_s1266.mp3</t>
+    <t>audio_s1266.wav</t>
   </si>
   <si>
     <t>Băl bân dơi răng gang o\k h^n tu\k pơp brêh.</t>
@@ -9835,7 +9835,7 @@
     <t>Chúng ta nên bảo vệ môi trường hơn.</t>
   </si>
   <si>
-    <t>audio_s1267.mp3</t>
+    <t>audio_s1267.wav</t>
   </si>
   <si>
     <t>Jai năr mông lơih, e\` khăng ru\ng phim kuan rup.</t>
@@ -9844,7 +9844,7 @@
     <t>Trong thời gian rảnh rỗi, tôi thường xem phim hoạt hình.</t>
   </si>
   <si>
-    <t>audio_s1268.mp3</t>
+    <t>audio_s1268.wav</t>
   </si>
   <si>
     <t>Gâp khơ` lap sa [ah [ơn pơp sa mhei ya?</t>
@@ -9853,7 +9853,7 @@
     <t>Bạn có muốn thử một món ăn mới không?</t>
   </si>
   <si>
-    <t>audio_s1269.mp3</t>
+    <t>audio_s1269.wav</t>
   </si>
   <si>
     <t>Bruă riam pral grâp năr `jing pơp tu\ dơn ta ai pral.</t>
@@ -9862,7 +9862,7 @@
     <t>Việc tập thể dục hàng ngày là quan trọng cho sức khỏe.</t>
   </si>
   <si>
-    <t>audio_s1270.mp3</t>
+    <t>audio_s1270.wav</t>
   </si>
   <si>
     <t>Măng đo, lai e\` bơi [ah [ơn pơp bơi nhap prơi.</t>
@@ -9871,7 +9871,7 @@
     <t>Đêm qua, tôi đã mơ một giấc mơ tuyệt vời.</t>
   </si>
   <si>
-    <t>audio_s1271.mp3</t>
+    <t>audio_s1271.wav</t>
   </si>
   <si>
     <t>Mih man dơn eh mho\ e\` ru\ng lơih pơih.</t>
@@ -9880,7 +9880,7 @@
     <t>Mưa rơi nhẹ nhàng làm tôi cảm thấy thư thái.</t>
   </si>
   <si>
-    <t>audio_s1272.mp3</t>
+    <t>audio_s1272.wav</t>
   </si>
   <si>
     <t>G^r `ut ư\` khăp [ô hui hai sa bluk.</t>
@@ -9889,7 +9889,7 @@
     <t>Hãy giữ lửa tình yêu luôn bùng cháy.</t>
   </si>
   <si>
-    <t>audio_s1273.mp3</t>
+    <t>audio_s1273.wav</t>
   </si>
   <si>
     <t>E|` khơ` ru\ng năr `âp ta pư\t dak ling.</t>
@@ -9898,7 +9898,7 @@
     <t>Tôi thích ngắm hoàng hôn trên bờ biển.</t>
   </si>
   <si>
-    <t>audio_s1274.mp3</t>
+    <t>audio_s1274.wav</t>
   </si>
   <si>
     <t>Tơ mâo [ri mông, e\` khơ` riam gâm jăng.</t>
@@ -9907,7 +9907,7 @@
     <t>Nếu có cơ hội, tôi muốn học nấu ăn.</t>
   </si>
   <si>
-    <t>audio_s1275.mp3</t>
+    <t>audio_s1275.wav</t>
   </si>
   <si>
     <t>Pơp brêh eh `jing [ah [ơn trông săk bing pơp tu\ dơn.</t>
@@ -9916,7 +9916,7 @@
     <t>Cuộc sống là một chuyến đi đầy ý nghĩa.</t>
   </si>
   <si>
-    <t>audio_s1105.mp3</t>
+    <t>audio_s1105.wav</t>
   </si>
   <si>
     <t>Pơp ian gâp m^n truk năr năr âo dâh?</t>
@@ -9925,7 +9925,7 @@
     <t>Bạn nghĩ sao về thời tiết hôm nay?</t>
   </si>
   <si>
-    <t>audio_s1276.mp3</t>
+    <t>audio_s1276.wav</t>
   </si>
   <si>
     <t>Ndơm ]al ta âo noh ik.</t>
@@ -9934,7 +9934,7 @@
     <t>Mùa đông ở đây rất lạnh.</t>
   </si>
   <si>
-    <t>audio_s1277.mp3</t>
+    <t>audio_s1277.wav</t>
   </si>
   <si>
     <t>Pơp ian gâp m^n ta bruă riam bơ we]?</t>
@@ -9943,7 +9943,7 @@
     <t>Bạn nghĩ gì về việc học từ xa?</t>
   </si>
   <si>
-    <t>audio_s1278.mp3</t>
+    <t>audio_s1278.wav</t>
   </si>
   <si>
     <t>E|` mho\ bruă khăng iat nhạc.</t>
@@ -9952,7 +9952,7 @@
     <t>Tôi thường nghe nhạc khi làm việc.</t>
   </si>
   <si>
-    <t>audio_s1279.mp3</t>
+    <t>audio_s1279.wav</t>
   </si>
   <si>
     <t>Grâp năr ăt `jing [ah [ơn mông [ri mhei nodi iat riam.</t>
@@ -9961,7 +9961,7 @@
     <t>Mỗi ngày đều là một cơ hội mới để học hỏi.</t>
   </si>
   <si>
-    <t>audio_s1280.mp3</t>
+    <t>audio_s1280.wav</t>
   </si>
   <si>
     <t>Le\ mơt rup nghệ thuật năng ai lăng truh o\k gư\t gơ` jhơ`.</t>
@@ -9970,7 +9970,7 @@
     <t>Những bức tranh nghệ thuật có thể truyền đạt nhiều cảm xúc.</t>
   </si>
   <si>
-    <t>audio_s1281.mp3</t>
+    <t>audio_s1281.wav</t>
   </si>
   <si>
     <t>N'nei mbum đơ nih mei bap ku` yo oh mi pul nhuar ju\m dăr gâp.</t>
@@ -9979,7 +9979,7 @@
     <t>Hãy trân trọng những người thân yêu xung quanh bạn.</t>
   </si>
   <si>
-    <t>audio_s1282.mp3</t>
+    <t>audio_s1282.wav</t>
   </si>
   <si>
     <t>Pơp wơng gư\t `jing pơp kăl pơk [ăng ân le\ ru\ng răng.</t>
@@ -9988,7 +9988,7 @@
     <t>Sự hiểu biết là chìa khóa mở cửa cho hòa bình.</t>
   </si>
   <si>
-    <t>audio_s1283.mp3</t>
+    <t>audio_s1283.wav</t>
   </si>
   <si>
     <t>E|` khơ` lap hur [ah [ơn rup số ta máy tính.</t>
@@ -9997,7 +9997,7 @@
     <t>Tôi muốn thử một bức tranh số với máy tính.</t>
   </si>
   <si>
-    <t>audio_s1284.mp3</t>
+    <t>audio_s1284.wav</t>
   </si>
   <si>
     <t>Ân tu\k ]ua lai hân hui tư\ng pơp gâp khơ`.</t>
@@ -10006,7 +10006,7 @@
     <t>Hãy đặt mục tiêu và theo đuổi đam mê của bạn.</t>
   </si>
   <si>
-    <t>audio_s1285.mp3</t>
+    <t>audio_s1285.wav</t>
   </si>
   <si>
     <t>Ju năr duh năr eh mho\ e\` so pơp nhap găl.</t>
@@ -10015,7 +10015,7 @@
     <t>Một ngày nắng làm tôi cảm thấy hạnh phúc.</t>
   </si>
   <si>
-    <t>audio_s1088.mp3</t>
+    <t>audio_s1088.wav</t>
   </si>
   <si>
     <t>Gâp găl săk jăn ya?</t>
@@ -10024,7 +10024,7 @@
     <t>Bạn có khỏe không?</t>
   </si>
   <si>
-    <t>audio_s1106.mp3</t>
+    <t>audio_s1106.wav</t>
   </si>
   <si>
     <t>Gâp lai ru\ng ya pơp mhei năr âo dâh?</t>
@@ -10033,7 +10033,7 @@
     <t>Bạn đã xem tin tức hôm nay chưa?</t>
   </si>
   <si>
-    <t>audio_s1286.mp3</t>
+    <t>audio_s1286.wav</t>
   </si>
   <si>
     <t>Bruă riam ăt `jing [ah [ơn cuộc phiêu lưu eh uh rôm.</t>
@@ -10042,7 +10042,7 @@
     <t>Việc học luôn là một cuộc phiêu lưu thú vị.</t>
   </si>
   <si>
-    <t>audio_s1287.mp3</t>
+    <t>audio_s1287.wav</t>
   </si>
   <si>
     <t>E|` khơ` [âo kah kao nhài.</t>
@@ -10051,7 +10051,7 @@
     <t>Tôi thích hương thơm của hoa nhài.</t>
   </si>
   <si>
-    <t>audio_s1288.mp3</t>
+    <t>audio_s1288.wav</t>
   </si>
   <si>
     <t>Tăp năng, băl bân khơ` `joh săk jăn lai hân buk jâng.</t>
@@ -10060,7 +10060,7 @@
     <t>Đôi khi, chúng ta cần nghỉ ngơi và thư giãn.</t>
   </si>
   <si>
-    <t>audio_s1289.mp3</t>
+    <t>audio_s1289.wav</t>
   </si>
   <si>
     <t>Pơp truh bơ nuih tur `jing pơp pơk trông mơ\ng pơp lai `jing.</t>
@@ -10069,13 +10069,13 @@
     <t>Sự tận tâm là chìa khóa của sự thành công.</t>
   </si>
   <si>
-    <t>audio_s1290.mp3</t>
+    <t>audio_s1290.wav</t>
   </si>
   <si>
     <t>Gâp lai lap hur ya tăng tư\ng plu\ng?</t>
   </si>
   <si>
-    <t>audio_s1291.mp3</t>
+    <t>audio_s1291.wav</t>
   </si>
   <si>
     <t>Gâp dơi năk ial ai pral săk jăk tơm grâp năr.</t>
@@ -10084,7 +10084,7 @@
     <t>Hãy chăm sóc sức khỏe của bạn mỗi ngày.</t>
   </si>
   <si>
-    <t>audio_s1292.mp3</t>
+    <t>audio_s1292.wav</t>
   </si>
   <si>
     <t>Grâp pơp tal luar kial lăm gu gu mơ\ng ian at geh noh.</t>
@@ -10093,7 +10093,7 @@
     <t>Mọi sự khởi đầu đều khó khăn nhưng đáng giá.</t>
   </si>
   <si>
-    <t>audio_s1293.mp3</t>
+    <t>audio_s1293.wav</t>
   </si>
   <si>
     <t>Gâp khơ` tăng ndrôm riam trực tuyến ya?</t>
@@ -10102,7 +10102,7 @@
     <t>Bạn có muốn tham gia học trực tuyến không?</t>
   </si>
   <si>
-    <t>audio_s1294.mp3</t>
+    <t>audio_s1294.wav</t>
   </si>
   <si>
     <t>E|` khăng dlăng ră luar mha e\` b^.</t>
@@ -10111,7 +10111,7 @@
     <t>Tôi thường đọc sách trước khi đi ngủ.</t>
   </si>
   <si>
-    <t>audio_s1295.mp3</t>
+    <t>audio_s1295.wav</t>
   </si>
   <si>
     <t>Grâp năr ăt `jing [ah [ơn mông [ri nodi mho\ bruă găl.</t>
@@ -10120,7 +10120,7 @@
     <t>Mỗi ngày là một cơ hội để làm điều tốt.</t>
   </si>
   <si>
-    <t>audio_s1107.mp3</t>
+    <t>audio_s1107.wav</t>
   </si>
   <si>
     <t>Pơp thể loại âm nhạc gâp khơ`?</t>
@@ -10129,7 +10129,7 @@
     <t>Bạn thích thể loại âm nhạc nào?</t>
   </si>
   <si>
-    <t>audio_s1296.mp3</t>
+    <t>audio_s1296.wav</t>
   </si>
   <si>
     <t>Mơ\ng mông gâm jăng, e\` khăng iat nhạc.</t>
@@ -10138,7 +10138,7 @@
     <t>Trong khi nấu ăn, tôi thường nghe nhạc.</t>
   </si>
   <si>
-    <t>audio_s1297.mp3</t>
+    <t>audio_s1297.wav</t>
   </si>
   <si>
     <t>N'nei mbum đơ năr mông gâp mâo.</t>
@@ -10147,7 +10147,7 @@
     <t>Hãy trân trọng thời gian bạn có.</t>
   </si>
   <si>
-    <t>audio_s1298.mp3</t>
+    <t>audio_s1298.wav</t>
   </si>
   <si>
     <t xml:space="preserve"> Pơp lăng `jing năng ai truh bơ grâp tu\k.</t>
@@ -10156,7 +10156,7 @@
     <t>Sự sáng tạo có thể đến từ bất cứ nơi đâu.</t>
   </si>
   <si>
-    <t>audio_s1299.mp3</t>
+    <t>audio_s1299.wav</t>
   </si>
   <si>
     <t>Pơp brêh `jing ju răng đơ pơp ]ua.</t>
@@ -10165,7 +10165,7 @@
     <t>Cuộc sống là một chuỗi các quyết định.</t>
   </si>
   <si>
-    <t>audio_s1300.mp3</t>
+    <t>audio_s1300.wav</t>
   </si>
   <si>
     <t>Gâp lai lap tăng tư\ng deh trông jua ya?</t>
@@ -10174,7 +10174,7 @@
     <t>Bạn đã từng thử đua xe đạp đường dài chưa?</t>
   </si>
   <si>
-    <t>audio_s1301.mp3</t>
+    <t>audio_s1301.wav</t>
   </si>
   <si>
     <t>~ut nơn nuih tur ndul s'sei.</t>
@@ -10183,7 +10183,7 @@
     <t>Hãy luôn giữ tâm hồn trẻ trung.</t>
   </si>
   <si>
-    <t>audio_s1302.mp3</t>
+    <t>audio_s1302.wav</t>
   </si>
   <si>
     <t>Ndơm kao `jing khe năm nhap prơi nodi dơn le\ pơp nhap, pơp găl bơ bri dak ak na.</t>
@@ -10192,7 +10192,7 @@
     <t>Mùa xuân là thời kỳ tuyệt vời để tận hưởng thiên nhiên.</t>
   </si>
   <si>
-    <t>audio_s1303.mp3</t>
+    <t>audio_s1303.wav</t>
   </si>
   <si>
     <t>Pơp g^r t^r `jing pơp pơk trông mơ\ng pơp lai `jing.</t>
@@ -10201,7 +10201,7 @@
     <t>Sự kiên nhẫn là chìa khóa của sự thành công.</t>
   </si>
   <si>
-    <t>audio_s1304.mp3</t>
+    <t>audio_s1304.wav</t>
   </si>
   <si>
     <t>G^r `ut ân pơp gâp khơ` nơn hâr duh.</t>
@@ -10210,7 +10210,7 @@
     <t>Hãy giữ cho đam mê của bạn luôn cháy bỏng.</t>
   </si>
   <si>
-    <t>audio_s1305.mp3</t>
+    <t>audio_s1305.wav</t>
   </si>
   <si>
     <t>Prăp mông ta săk jăn tơm grâp năr.</t>
@@ -10219,7 +10219,7 @@
     <t>Hãy đặt thời gian biểu cho bản thân mình mỗi ngày.</t>
   </si>
   <si>
-    <t>audio_s1108.mp3</t>
+    <t>audio_s1108.wav</t>
   </si>
   <si>
     <t>Gâp mâo ya pơp mu` khăp khơ`?</t>
@@ -10228,7 +10228,7 @@
     <t>Bạn có bài hát yêu thích không?</t>
   </si>
   <si>
-    <t>audio_s1306.mp3</t>
+    <t>audio_s1306.wav</t>
   </si>
   <si>
     <t>Pơp wơng gư\t `jing buk tơm mơ\ng pơp so mâo ru\ng răng.</t>
@@ -10237,7 +10237,7 @@
     <t>Sự hiểu biết là nguồn gốc của sự hòa bình.</t>
   </si>
   <si>
-    <t>audio_s1307.mp3</t>
+    <t>audio_s1307.wav</t>
   </si>
   <si>
     <t>E|` khơ` bâo kah kaphê ang ui.</t>
@@ -10246,7 +10246,7 @@
     <t>Tôi thích mùi của cà phê buổi sáng.</t>
   </si>
   <si>
-    <t>audio_s1308.mp3</t>
+    <t>audio_s1308.wav</t>
   </si>
   <si>
     <t>Phă pơp rôm ta nih dih [ă.</t>
@@ -10255,7 +10255,7 @@
     <t>Hãy chia sẻ niềm vui với người khác.</t>
   </si>
   <si>
-    <t>audio_s1309.mp3</t>
+    <t>audio_s1309.wav</t>
   </si>
   <si>
     <t>Gâp lai lap ]ơn yuk ya?</t>
@@ -10264,7 +10264,7 @@
     <t>Bạn đã từng thử leo núi chưa?</t>
   </si>
   <si>
-    <t>audio_s1310.mp3</t>
+    <t>audio_s1310.wav</t>
   </si>
   <si>
     <t>Grâp năr ăt `jing [ah [ơn mông [ri nodi mho\ bruă găl ta nih dih.</t>
@@ -10273,7 +10273,7 @@
     <t>Mỗi ngày là một cơ hội để làm điều tốt cho người khác.</t>
   </si>
   <si>
-    <t>audio_s1311.mp3</t>
+    <t>audio_s1311.wav</t>
   </si>
   <si>
     <t xml:space="preserve"> Pơp ian gâp m^n ta công nghệ mhei?</t>
@@ -10282,7 +10282,7 @@
     <t>Bạn nghĩ gì về công nghệ mới?</t>
   </si>
   <si>
-    <t>audio_s1312.mp3</t>
+    <t>audio_s1312.wav</t>
   </si>
   <si>
     <t>E|` khơ` lap hur mho\ [a` pu\ng bum(bánh mì) ta hih.</t>
@@ -10291,7 +10291,7 @@
     <t>Tôi muốn thử làm bánh mì tại nhà.</t>
   </si>
   <si>
-    <t>audio_s1313.mp3</t>
+    <t>audio_s1313.wav</t>
   </si>
   <si>
     <t>Dơn le\ đơ pơp truh [l^r lơp ku it mơ\ng pơp brêh.</t>
@@ -10300,7 +10300,7 @@
     <t>Hãy tận hưởng những khoảnh khắc nhỏ trong cuộc sống.</t>
   </si>
   <si>
-    <t>audio_s1314.mp3</t>
+    <t>audio_s1314.wav</t>
   </si>
   <si>
     <t>Ju mh'mho ngâu nih dlah piang năng ai mho\ `jing o\k pơp `ut tur nhap.</t>
@@ -10309,7 +10309,7 @@
     <t>Một bữa tối gia đình có thể tạo ra những kí ức đẹp.</t>
   </si>
   <si>
-    <t>audio_s1315.mp3</t>
+    <t>audio_s1315.wav</t>
   </si>
   <si>
     <t>~ut nơn pơp ndeh tăng, găl nhap mơ\ng tur buk.</t>
@@ -10318,7 +10318,7 @@
     <t>Hãy luôn giữ tâm trạng tích cực.</t>
   </si>
   <si>
-    <t>audio_s1109.mp3</t>
+    <t>audio_s1109.wav</t>
   </si>
   <si>
     <t>Gâp khơ` no# nhâng ya?</t>
@@ -10327,7 +10327,7 @@
     <t>Bạn có thích thể thao không?</t>
   </si>
   <si>
-    <t>audio_s1316.mp3</t>
+    <t>audio_s1316.wav</t>
   </si>
   <si>
     <t>Pơp brêh so le\ pơp tăng mlih mhei lai hân hao ]ơn.</t>
@@ -10336,7 +10336,7 @@
     <t>Cuộc sống không ngừng thay đổi và phát triển.</t>
   </si>
   <si>
-    <t>audio_s1317.mp3</t>
+    <t>audio_s1317.wav</t>
   </si>
   <si>
     <t>Ju mh'mho `jing [ah [ơn mông [ri nodi `joh săk jăn, tur buk.</t>
@@ -10345,7 +10345,7 @@
     <t>Mỗi buổi chiều là một cơ hội để thư giãn.</t>
   </si>
   <si>
-    <t>audio_s1318.mp3</t>
+    <t>audio_s1318.wav</t>
   </si>
   <si>
     <t>E|` khơ` lap hur [ah [ơn ndruat geh gâm jăng mhei.</t>
@@ -10354,7 +10354,7 @@
     <t>Tôi muốn thử một công thức nấu ăn mới.</t>
   </si>
   <si>
-    <t>audio_s1319.mp3</t>
+    <t>audio_s1319.wav</t>
   </si>
   <si>
     <t>Iat nơn âm nhạc grâp năr.</t>
@@ -10363,7 +10363,7 @@
     <t>Hãy lắng nghe âm nhạc mỗi ngày.</t>
   </si>
   <si>
-    <t>audio_s1320.mp3</t>
+    <t>audio_s1320.wav</t>
   </si>
   <si>
     <t>Gâp khơ` riam nghệ thuật ya?</t>
@@ -10372,7 +10372,7 @@
     <t>Bạn có muốn học nghệ thuật không?</t>
   </si>
   <si>
-    <t>audio_s1321.mp3</t>
+    <t>audio_s1321.wav</t>
   </si>
   <si>
     <t>Pơp g^r `jing mư\ng kăl pơk trông ta bruă lai `jing.</t>
@@ -10381,7 +10381,7 @@
     <t>Sự nhẫn nại là chìa khóa của sự thành công.</t>
   </si>
   <si>
-    <t>audio_s1322.mp3</t>
+    <t>audio_s1322.wav</t>
   </si>
   <si>
     <t>Gâp lai lap nhân guitar ya?</t>
@@ -10390,7 +10390,7 @@
     <t>Bạn đã thử chơi guitar chưa?</t>
   </si>
   <si>
-    <t>audio_s1323.mp3</t>
+    <t>audio_s1323.wav</t>
   </si>
   <si>
     <t>Dlăng ră `jing [ah [ơn pơp mơng nhap prơi nodi pơk tre\ nuih tur.</t>
@@ -10399,7 +10399,7 @@
     <t>Đọc sách là một thói quen tuyệt vời để mở rộng tâm hồn.</t>
   </si>
   <si>
-    <t>audio_s1324.mp3</t>
+    <t>audio_s1324.wav</t>
   </si>
   <si>
     <t>Grâp năr ăt `jing [ah [ơn mông [ri nodi iat riam lai hân hao ]ơn.</t>
@@ -10408,7 +10408,7 @@
     <t>Mỗi ngày là một cơ hội để học hỏi và phát triển.</t>
   </si>
   <si>
-    <t>audio_s1325.mp3</t>
+    <t>audio_s1325.wav</t>
   </si>
   <si>
     <t>~ut nơn ân nuih tur gâp hui hai bing ping ndeh tăng, găl nhap.</t>
@@ -10417,7 +10417,7 @@
     <t>Hãy giữ cho tâm hồn bạn luôn tràn đầy năng lượng tích cực.</t>
   </si>
   <si>
-    <t>audio_s1110.mp3</t>
+    <t>audio_s1110.wav</t>
   </si>
   <si>
     <t>Gâp khăng riam pral ya?</t>
@@ -10426,7 +10426,7 @@
     <t>Bạn hay tập thể dục không?</t>
   </si>
   <si>
-    <t>audio_s1326.mp3</t>
+    <t>audio_s1326.wav</t>
   </si>
   <si>
     <t>Pơp gâp m^n ta bruă mho\ găl (từ thiện).</t>
@@ -10435,7 +10435,7 @@
     <t>Bạn nghĩ gì về việc làm từ thiện?</t>
   </si>
   <si>
-    <t>audio_s1327.mp3</t>
+    <t>audio_s1327.wav</t>
   </si>
   <si>
     <t>Năr âo, bruă răng gang pơp dơi ju nâo `jing yuam bhăn.</t>
@@ -10444,7 +10444,7 @@
     <t>Trong ngày nay, việc bảo vệ quyền riêng tư là quan trọng.</t>
   </si>
   <si>
-    <t>audio_s1328.mp3</t>
+    <t>audio_s1328.wav</t>
   </si>
   <si>
     <t>E|` khơ` săk siap [ah [ơn hih yang yâo ta châu Á.</t>
@@ -10453,7 +10453,7 @@
     <t>Tôi muốn thăm một ngôi đền cổ ở châu Á.</t>
   </si>
   <si>
-    <t>audio_s1329.mp3</t>
+    <t>audio_s1329.wav</t>
   </si>
   <si>
     <t>J'juei pơp rôm mơ\ng đơ pơp ku it.</t>
@@ -10462,7 +10462,7 @@
     <t>Hãy tìm kiếm niềm vui ở những điều nhỏ bé.</t>
   </si>
   <si>
-    <t>audio_s1330.mp3</t>
+    <t>audio_s1330.wav</t>
   </si>
   <si>
     <t>Pơp brêh eh `jing ju trông săk jua, so geh tu\k truh.</t>
@@ -10471,7 +10471,7 @@
     <t>Cuộc sống là một quá trình, không phải là điểm đến.</t>
   </si>
   <si>
-    <t>audio_s1331.mp3</t>
+    <t>audio_s1331.wav</t>
   </si>
   <si>
     <t>Gâp khơ` lap gâm [ah [ơn pơp sa kah ya?</t>
@@ -10480,7 +10480,7 @@
     <t>Bạn có muốn thử nấu một món ăn ngon không?</t>
   </si>
   <si>
-    <t>audio_s1332.mp3</t>
+    <t>audio_s1332.wav</t>
   </si>
   <si>
     <t>Dơn le\ đơ pơp truh [l^r lơp mơ\ng pơp brêh.</t>
@@ -10489,7 +10489,7 @@
     <t>Hãy tận hưởng mỗi khoảnh khắc của cuộc sống.</t>
   </si>
   <si>
-    <t>audio_s1333.mp3</t>
+    <t>audio_s1333.wav</t>
   </si>
   <si>
     <t>Grâp năr ăt `jing [ah [ơn mông [ri nodi mho\ `jing pơp mhei ơ`.</t>
@@ -10498,7 +10498,7 @@
     <t>Mỗi ngày là một cơ hội để tạo ra điều mới mẻ.</t>
   </si>
   <si>
-    <t>audio_s1334.mp3</t>
+    <t>audio_s1334.wav</t>
   </si>
   <si>
     <t>Pơp wơng gư\t lai hân đup gơt noh yuam bhăn mơ\ng tuah wa`.</t>
@@ -10507,7 +10507,7 @@
     <t>Sự hiểu biết và tôn trọng rất quan trọng trong giao tiếp.</t>
   </si>
   <si>
-    <t>audio_s1335.mp3</t>
+    <t>audio_s1335.wav</t>
   </si>
   <si>
     <t>Gâp lai lap hur riam mơng pơp riam pral grâp năr ya?</t>
@@ -10516,7 +10516,7 @@
     <t>Bạn đã từng thử tập thể dục hàng ngày chưa?</t>
   </si>
   <si>
-    <t>audio_s1111.mp3</t>
+    <t>audio_s1111.wav</t>
   </si>
   <si>
     <t>Gâp hum săk riam ya?</t>
@@ -10525,7 +10525,7 @@
     <t>Bạn có đang đi học không?</t>
   </si>
   <si>
-    <t>audio_s1336.mp3</t>
+    <t>audio_s1336.wav</t>
   </si>
   <si>
     <t>Mho\ `jing đơ buk ngeh nhap mơ\ng pơp brêh gâp.</t>
@@ -10534,7 +10534,7 @@
     <t>Hãy tạo ra những kí ức đẹp trong cuộc sống của bạn.</t>
   </si>
   <si>
-    <t>audio_s1337.mp3</t>
+    <t>audio_s1337.wav</t>
   </si>
   <si>
     <t>Grâp năr ăt `jing [ah [ơn pơp yoh, dơi n'nei mbum pơp hân.</t>
@@ -10543,7 +10543,7 @@
     <t>Mỗi ngày là một quà tặng, hãy trân trọng nó.</t>
   </si>
   <si>
-    <t>audio_s1338.mp3</t>
+    <t>audio_s1338.wav</t>
   </si>
   <si>
     <t>Pơp brêh năng ai eh lăng ndu pơp brêh dih mhe\]\ ro\k, `jrăng tham măt yơh.</t>
@@ -10552,7 +10552,7 @@
     <t>Cuộc sống có thể thay đổi nhanh chóng, hãy sẵn sàng đối mặt.</t>
   </si>
   <si>
-    <t>audio_s1339.mp3</t>
+    <t>audio_s1339.wav</t>
   </si>
   <si>
     <t>Pơp gâp m^n ta bruă nh'nhân dih ju nâu?</t>
@@ -10561,7 +10561,7 @@
     <t>Bạn nghĩ gì về việc du lịch tự do?</t>
   </si>
   <si>
-    <t>audio_s1340.mp3</t>
+    <t>audio_s1340.wav</t>
   </si>
   <si>
     <t>Âm nhạc năng ai dơp gâp truh ta đơ jư\m tar dih dih.</t>
@@ -10570,7 +10570,7 @@
     <t>Âm nhạc có thể đưa bạn đến những thế giới khác nhau.</t>
   </si>
   <si>
-    <t>audio_s1341.mp3</t>
+    <t>audio_s1341.wav</t>
   </si>
   <si>
     <t>Khum dih săk tơm tơ gâp dơi geh [ah [ơn tu\k ]ua ku it.</t>
@@ -10579,7 +10579,7 @@
     <t>Hãy tự thưởng cho bản thân mỗi khi bạn đạt được một mục tiêu nhỏ.</t>
   </si>
   <si>
-    <t>audio_s1342.mp3</t>
+    <t>audio_s1342.wav</t>
   </si>
   <si>
     <t>Grâp năr ăt wih dơp mông [ri mhei lai hân lông mhăr mhei.</t>
@@ -10588,7 +10588,7 @@
     <t>Mỗi ngày đều mang lại cơ hội mới và thách thức mới.</t>
   </si>
   <si>
-    <t>audio_s1343.mp3</t>
+    <t>audio_s1343.wav</t>
   </si>
   <si>
     <t>Gâp khơ` riam [ah [ơn pơp nă mhei ya?</t>
@@ -10597,7 +10597,7 @@
     <t>Bạn có muốn học một kỹ năng mới không?</t>
   </si>
   <si>
-    <t>audio_s1344.mp3</t>
+    <t>audio_s1344.wav</t>
   </si>
   <si>
     <t>E|` khơ` [âo kah ]hi dlei [ăt ja lai ju do\ mih.</t>
@@ -10606,7 +10606,7 @@
     <t>Tôi thích mùi hương của cây cỏ sau một trận mưa.</t>
   </si>
   <si>
-    <t>audio_s1345.mp3</t>
+    <t>audio_s1345.wav</t>
   </si>
   <si>
     <t>N'nei mbum đơ nih gâp khăp khơ`.</t>
@@ -10615,7 +10615,7 @@
     <t>Hãy trân trọng những người bạn yêu thương.</t>
   </si>
   <si>
-    <t>audio_s1112.mp3</t>
+    <t>audio_s1112.wav</t>
   </si>
   <si>
     <t>Pơp bruă gâp riam?</t>
@@ -10624,7 +10624,7 @@
     <t>Bạn học chuyên ngành gì?</t>
   </si>
   <si>
-    <t>audio_s1346.mp3</t>
+    <t>audio_s1346.wav</t>
   </si>
   <si>
     <t>Gâp lai lap mho\ bruă hih ya?</t>
@@ -10633,7 +10633,7 @@
     <t>Bạn đã thử làm việc nhà chưa?</t>
   </si>
   <si>
-    <t>audio_s1347.mp3</t>
+    <t>audio_s1347.wav</t>
   </si>
   <si>
     <t>Grâp năr `jing grâp pơp rôm.</t>
@@ -10642,7 +10642,7 @@
     <t>Mỗi ngày là một niềm vui.</t>
   </si>
   <si>
-    <t>audio_s1348.mp3</t>
+    <t>audio_s1348.wav</t>
   </si>
   <si>
     <t>Pơp so mâo ru\ng răng eh lăng ndu bơ tu\k wơng gư\t lai hân đup gơt.</t>
@@ -10651,7 +10651,7 @@
     <t>Sự hòa bình bắt đầu từ sự hiểu biết và tôn trọng.</t>
   </si>
   <si>
-    <t>audio_s1349.mp3</t>
+    <t>audio_s1349.wav</t>
   </si>
   <si>
     <t>E|` khơ` lap hur ]ih [ah [ơn druam ră.</t>
@@ -10660,7 +10660,7 @@
     <t>Tôi muốn thử viết một cuốn sách.</t>
   </si>
   <si>
-    <t>audio_s1350.mp3</t>
+    <t>audio_s1350.wav</t>
   </si>
   <si>
     <t>Dơn le\ nơn [âo kah ju to\ Kaphê ang ui.</t>
@@ -10669,7 +10669,7 @@
     <t>Hãy tận hưởng hương vị của một cốc cà phê buổi sáng.</t>
   </si>
   <si>
-    <t>audio_s1351.mp3</t>
+    <t>audio_s1351.wav</t>
   </si>
   <si>
     <t>Pơp brêh `jing [ah [ơn rup, dơi mho\ lăng ndu eh.</t>
@@ -10678,7 +10678,7 @@
     <t>Cuộc sống là một bức tranh, hãy tự làm nên nó.</t>
   </si>
   <si>
-    <t>audio_s1352.mp3</t>
+    <t>audio_s1352.wav</t>
   </si>
   <si>
     <t>Gâp khơ` lap hur ka] [ah [ơn rup ya?</t>
@@ -10687,7 +10687,7 @@
     <t>Bạn có muốn thử vẽ một bức tranh không?</t>
   </si>
   <si>
-    <t>audio_s1353.mp3</t>
+    <t>audio_s1353.wav</t>
   </si>
   <si>
     <t>~ut nơn ân ple nuih gâp hui hai bing ping pơp khăp.</t>
@@ -10696,7 +10696,7 @@
     <t>Hãy giữ cho trái tim bạn luôn tràn đầy tình yêu thương.</t>
   </si>
   <si>
-    <t>audio_s1354.mp3</t>
+    <t>audio_s1354.wav</t>
   </si>
   <si>
     <t>Grâp năr ăt `jing [ah [ơn mông [ri nodi ju bâk ta pơp rôm.</t>
@@ -10705,7 +10705,7 @@
     <t>Mỗi ngày là một cơ hội để đồng hành với niềm vui.</t>
   </si>
   <si>
-    <t>audio_s1355.mp3</t>
+    <t>audio_s1355.wav</t>
   </si>
   <si>
     <t>Dơn le\ đơ pơp truh [l^r lơp âo ah mơ\ng pơp brêh.</t>
@@ -10714,7 +10714,7 @@
     <t>Hãy tận hưởng những khoảnh khắc bình yên trong cuộc sống.</t>
   </si>
   <si>
-    <t>audio_s1113.mp3</t>
+    <t>audio_s1113.wav</t>
   </si>
   <si>
     <t>Tu\k ta ian gâp lai săk nh'nhân?</t>
@@ -10723,7 +10723,7 @@
     <t>Bạn đã đi du lịch ở đâu chưa?</t>
   </si>
   <si>
-    <t>audio_s1356.mp3</t>
+    <t>audio_s1356.wav</t>
   </si>
   <si>
     <t>Gâp lai lap hur riam ju ang ui yoga ya?</t>
@@ -10732,7 +10732,7 @@
     <t>Bạn đã thử một buổi học yoga chưa?</t>
   </si>
   <si>
-    <t>audio_s1357.mp3</t>
+    <t>audio_s1357.wav</t>
   </si>
   <si>
     <t>E|` khơ` siap [ah [ơn ]ar mhei lai hân no gư\t pơp gư\t so băl nai.</t>
@@ -10741,7 +10741,7 @@
     <t>Tôi muốn thăm một quốc gia mới và trải nghiệm văn hóa độc đáo của họ.</t>
   </si>
   <si>
-    <t>audio_s1358.mp3</t>
+    <t>audio_s1358.wav</t>
   </si>
   <si>
     <t>Ha ]hi t'tu\ng eh ru mơ\ng [lu\ng dak, mho\ `jing ju dăr w^l ku it ri mơ\ng buk dak.</t>
@@ -10750,7 +10750,7 @@
     <t>Chiếc lá vàng rơi xuống mặt hồ, tạo thành một vòng tròn nhỏ lăn trên mặt nước.</t>
   </si>
   <si>
-    <t>audio_s1359.mp3</t>
+    <t>audio_s1359.wav</t>
   </si>
   <si>
     <t>De kusei gu\k ta hang dak, ru\ng đơ plu\ng eh đhung.</t>
@@ -10759,7 +10759,7 @@
     <t>Cô bé ngồi bên bờ sông, ngắm nhìn những con thuyền trôi qua.</t>
   </si>
   <si>
-    <t>audio_s1360.mp3</t>
+    <t>audio_s1360.wav</t>
   </si>
   <si>
     <t>Pul sư\m păr siang mơ\ng truk p'piak lư\t, mu` ndr'ndrâo drieo drieo.</t>
@@ -10768,7 +10768,7 @@
     <t>Đàn chim bay lượn trên bầu trời xanh, ca hót líu lo.</t>
   </si>
   <si>
-    <t>audio_s1361.mp3</t>
+    <t>audio_s1361.wav</t>
   </si>
   <si>
     <t>Đơ kao tăng tư\ng nuh nhap tle\` ta ang năr đang.</t>
@@ -10777,7 +10777,7 @@
     <t>Những bông hoa đua nhau khoe sắc dưới ánh nắng mặt trời.</t>
   </si>
   <si>
-    <t>audio_s1362.mp3</t>
+    <t>audio_s1362.wav</t>
   </si>
   <si>
     <t>Lo\ ba dư\m t'tu\ng, lang djha lơ la.</t>
@@ -10786,7 +10786,7 @@
     <t>Cánh đồng lúa chín vàng, trải rộng mênh mông.</t>
   </si>
   <si>
-    <t>audio_s1363.mp3</t>
+    <t>audio_s1363.wav</t>
   </si>
   <si>
     <t>Đơ puh kuăng hum sa băt mơ\ng lo\.</t>
@@ -10795,7 +10795,7 @@
     <t>Những chú trâu đang gặm cỏ trong cánh đồng.</t>
   </si>
   <si>
-    <t>audio_s1364.mp3</t>
+    <t>audio_s1364.wav</t>
   </si>
   <si>
     <t>Dơk sư\m ndr'ndrâo pual pu\h mơ\ng bri dak.</t>
@@ -10804,7 +10804,7 @@
     <t>Tiếng chim hót vang vọng trong khu rừng xanh.</t>
   </si>
   <si>
-    <t>audio_s1365.mp3</t>
+    <t>audio_s1365.wav</t>
   </si>
   <si>
     <t>Dak krông hung drư\t drư\t băn pơn, we\] wial.</t>
@@ -10813,7 +10813,7 @@
     <t>Dòng sông chảy hiền hòa, quanh co.</t>
   </si>
   <si>
-    <t>audio_s1114.mp3</t>
+    <t>audio_s1114.wav</t>
   </si>
   <si>
     <t>Pơp bruă gâp khơ` mho\ nhal tu] năng poh hâo?</t>
@@ -10822,7 +10822,7 @@
     <t>Bạn muốn làm gì vào cuối tuần này?</t>
   </si>
   <si>
-    <t>audio_s1366.mp3</t>
+    <t>audio_s1366.wav</t>
   </si>
   <si>
     <t>Dak ling p'piak lơ la, yak truh bh^ng bhu\ng.</t>
@@ -10831,7 +10831,7 @@
     <t>Biển xanh mênh mông, sóng vỗ rì rào.</t>
   </si>
   <si>
-    <t>audio_s1367.mp3</t>
+    <t>audio_s1367.wav</t>
   </si>
   <si>
     <t>Đơ yak dak trut truh ta hang kiak pôk.</t>
@@ -10840,7 +10840,7 @@
     <t>Những con sóng xô vào bờ cát trắng.</t>
   </si>
   <si>
-    <t>audio_s1368.mp3</t>
+    <t>audio_s1368.wav</t>
   </si>
   <si>
     <t>Băl kusei hum dơ\ng tăng no# ta hang dak ling.</t>
@@ -10849,7 +10849,7 @@
     <t>Những đứa trẻ đang nô đùa trên bãi biển.</t>
   </si>
   <si>
-    <t>audio_s1369.mp3</t>
+    <t>audio_s1369.wav</t>
   </si>
   <si>
     <t>Đơ plu\ng kât kơn hum đhung mơ\ng buk dak ling.</t>
@@ -10858,7 +10858,7 @@
     <t>Những chiếc thuyền buồm đang lướt trên mặt biển.</t>
   </si>
   <si>
-    <t>audio_s1370.mp3</t>
+    <t>audio_s1370.wav</t>
   </si>
   <si>
     <t>Tu\k đhung drư\t drư\t mơ\ng truk.</t>
@@ -10867,7 +10867,7 @@
     <t>Mây trôi nhè nhẹ trên bầu trời.</t>
   </si>
   <si>
-    <t>audio_s1371.mp3</t>
+    <t>audio_s1371.wav</t>
   </si>
   <si>
     <t>Truk năr djha p'piak, sang [hieo.</t>
@@ -10876,7 +10876,7 @@
     <t>Bầu trời cao xanh, trong veo.</t>
   </si>
   <si>
-    <t>audio_s1372.mp3</t>
+    <t>audio_s1372.wav</t>
   </si>
   <si>
     <t>Năr brung hu], trang ta măt teh.</t>
@@ -10885,7 +10885,7 @@
     <t>Mặt trời đỏ rực, chiếu xuống mặt đất.</t>
   </si>
   <si>
-    <t>audio_s1373.mp3</t>
+    <t>audio_s1373.wav</t>
   </si>
   <si>
     <t>Đơ tu\k n'nang blah kao dih [lôông.</t>
@@ -10894,7 +10894,7 @@
     <t>Những đám mây trắng như bông gòn.</t>
   </si>
   <si>
-    <t>audio_s1374.mp3</t>
+    <t>audio_s1374.wav</t>
   </si>
   <si>
     <t>Mih ru rô] ]rô], ik trưm.</t>
@@ -10903,7 +10903,7 @@
     <t>Mưa rơi tí tách, mát rượi.</t>
   </si>
   <si>
-    <t>audio_s1375.mp3</t>
+    <t>audio_s1375.wav</t>
   </si>
   <si>
     <t>Đơ dak mih goh r^p [l^p.</t>
@@ -10912,7 +10912,7 @@
     <t>Những giọt nước mưa long lanh, lấp lánh.</t>
   </si>
   <si>
-    <t>audio_s1115.mp3</t>
+    <t>audio_s1115.wav</t>
   </si>
   <si>
     <t>Gâp khơ` săk nhân ju bâk e\` ya?</t>
@@ -10921,7 +10921,7 @@
     <t>Bạn có muốn đi chơi cùng tôi không?</t>
   </si>
   <si>
-    <t>audio_s1376.mp3</t>
+    <t>audio_s1376.wav</t>
   </si>
   <si>
     <t>Trông uôn tiar bhât, hư\t hu.</t>
@@ -10930,7 +10930,7 @@
     <t>Con đường làng trơn trượt, lầy lội.</t>
   </si>
   <si>
-    <t>audio_s1377.mp3</t>
+    <t>audio_s1377.wav</t>
   </si>
   <si>
     <t>Băl kusei nduh hum tăng no# nhân dak mih.</t>
@@ -10939,7 +10939,7 @@
     <t>Những đứa trẻ đang chơi đùa dưới mưa.</t>
   </si>
   <si>
-    <t>audio_s1378.mp3</t>
+    <t>audio_s1378.wav</t>
   </si>
   <si>
     <t>Hơt mih, truk ang bhơng.</t>
@@ -10948,7 +10948,7 @@
     <t>Mưa ngớt dần, trời quang mây tạnh.</t>
   </si>
   <si>
-    <t>audio_s1379.mp3</t>
+    <t>audio_s1379.wav</t>
   </si>
   <si>
     <t>Năr trang, `h'`hâm ]al duh jư\m.</t>
@@ -10957,7 +10957,7 @@
     <t>Nắng chiếu xuống, làm cho không khí trở nên ấm áp.</t>
   </si>
   <si>
-    <t>audio_s1380.mp3</t>
+    <t>audio_s1380.wav</t>
   </si>
   <si>
     <t>Đơ kao nduh nuh nhap tle\` ta pơp ang năr.</t>
@@ -10966,7 +10966,7 @@
     <t>Những bông hoa đang khoe sắc dưới ánh nắng.</t>
   </si>
   <si>
-    <t>audio_s1381.mp3</t>
+    <t>audio_s1381.wav</t>
   </si>
   <si>
     <t>Đơ Sư\m hum ndr'ndrâo re\] ]he\].</t>
@@ -10975,7 +10975,7 @@
     <t>Những chú chim đang hót líu lo.</t>
   </si>
   <si>
-    <t>audio_s1382.mp3</t>
+    <t>audio_s1382.wav</t>
   </si>
   <si>
     <t>Dơk `uei wiang ndr'ndrâo wiang wiang mơ\ng kâr.</t>
@@ -10984,7 +10984,7 @@
     <t>Tiếng ve kêu râm ran trong vườn.</t>
   </si>
   <si>
-    <t>audio_s1383.mp3</t>
+    <t>audio_s1383.wav</t>
   </si>
   <si>
     <t>Ndơm phang duh dang.</t>
@@ -10993,7 +10993,7 @@
     <t>Mùa hè nóng bức, oi ả.</t>
   </si>
   <si>
-    <t>audio_s1384.mp3</t>
+    <t>audio_s1384.wav</t>
   </si>
   <si>
     <t>Băl kusei hum ư\m dak krông.</t>
@@ -11002,7 +11002,7 @@
     <t>Những đứa trẻ đang tắm sông.</t>
   </si>
   <si>
-    <t>audio_s1385.mp3</t>
+    <t>audio_s1385.wav</t>
   </si>
   <si>
     <t>Băl nih mho\ lo\ mir hum ke\] riak ba.</t>
@@ -11011,7 +11011,7 @@
     <t>Những người nông dân đang thu hoạch lúa.</t>
   </si>
   <si>
-    <t>audio_s1089.mp3</t>
+    <t>audio_s1089.wav</t>
   </si>
   <si>
     <t>Pơp năn e(me) gâp?</t>
@@ -11020,7 +11020,7 @@
     <t>Bạn tên là gì?</t>
   </si>
   <si>
-    <t>audio_s1116.mp3</t>
+    <t>audio_s1116.wav</t>
   </si>
   <si>
     <t>Gâp khơ` `it kaphê ya?</t>
@@ -11029,7 +11029,7 @@
     <t>Bạn muốn uống cà phê không?</t>
   </si>
   <si>
-    <t>audio_s1386.mp3</t>
+    <t>audio_s1386.wav</t>
   </si>
   <si>
     <t>Ndơm mih ik trưm, găl prơi.</t>
@@ -11038,7 +11038,7 @@
     <t>Mùa thu mát mẻ, dễ chịu.</t>
   </si>
   <si>
-    <t>audio_s1117.mp3</t>
+    <t>audio_s1117.wav</t>
   </si>
   <si>
     <t>Pơp dak gâp khăng `it?</t>
@@ -11047,7 +11047,7 @@
     <t>Bạn thường uống nước gì?</t>
   </si>
   <si>
-    <t>audio_s1118.mp3</t>
+    <t>audio_s1118.wav</t>
   </si>
   <si>
     <t>Pơp ta gâp khăng hao săk riam ră?</t>
@@ -11056,7 +11056,7 @@
     <t>Bạn thường đi học bằng phương tiện gì?</t>
   </si>
   <si>
-    <t>audio_s1119.mp3</t>
+    <t>audio_s1119.wav</t>
   </si>
   <si>
     <t>Tu\k ta gâp khơ` mho\ bruă ta kơi ne\?</t>
@@ -11065,13 +11065,13 @@
     <t>Bạn muốn làm việc ở đâu sau này?</t>
   </si>
   <si>
-    <t>audio_s1120.mp3</t>
+    <t>audio_s1120.wav</t>
   </si>
   <si>
     <t>Gâp mâo ya pơp prăp dăp ân ta ne ne\?</t>
   </si>
   <si>
-    <t>audio_s1121.mp3</t>
+    <t>audio_s1121.wav</t>
   </si>
   <si>
     <t>Mâo ya gâp khơ` jưl pơm rông?</t>
@@ -11080,7 +11080,7 @@
     <t>Bạn có thích thú nuôi không?</t>
   </si>
   <si>
-    <t>audio_s1122.mp3</t>
+    <t>audio_s1122.wav</t>
   </si>
   <si>
     <t>Gâp mâo ya jưl pơm rông nhu\?</t>
@@ -11089,7 +11089,7 @@
     <t>Bạn có thú cưng không?</t>
   </si>
   <si>
-    <t>audio_s1123.mp3</t>
+    <t>audio_s1123.wav</t>
   </si>
   <si>
     <t>Gâp khơ` nhân game ya?</t>
@@ -11098,7 +11098,7 @@
     <t>Bạn thích chơi game không?</t>
   </si>
   <si>
-    <t>audio_s1124.mp3</t>
+    <t>audio_s1124.wav</t>
   </si>
   <si>
     <t>Pơp game gâp khăng nhân hui hai?</t>
@@ -11107,7 +11107,7 @@
     <t>Bạn chơi game gì thường xuyên?</t>
   </si>
   <si>
-    <t>audio_s1125.mp3</t>
+    <t>audio_s1125.wav</t>
   </si>
   <si>
     <t>Gâp khơ` so\k rup ya?</t>
@@ -11116,7 +11116,7 @@
     <t>Bạn có thích chụp ảnh không?</t>
   </si>
   <si>
-    <t>audio_s1090.mp3</t>
+    <t>audio_s1090.wav</t>
   </si>
   <si>
     <t>E|` năn....</t>
@@ -11125,7 +11125,7 @@
     <t>Tôi tên là...</t>
   </si>
   <si>
-    <t>audio_s1126.mp3</t>
+    <t>audio_s1126.wav</t>
   </si>
   <si>
     <t>Gâp khăng yua điện thoại di động ya?</t>
@@ -11134,7 +11134,7 @@
     <t>Bạn hay dùng điện thoại di động không?</t>
   </si>
   <si>
-    <t>audio_s1127.mp3</t>
+    <t>audio_s1127.wav</t>
   </si>
   <si>
     <t>Gâp lai lap sa ya pơp sung sa mhe] Việt Nam?</t>
@@ -11143,7 +11143,7 @@
     <t>Bạn đã thử đồ ăn nhanh Việt Nam chưa?</t>
   </si>
   <si>
-    <t>audio_s1128.mp3</t>
+    <t>audio_s1128.wav</t>
   </si>
   <si>
     <t>Mâo ya gâp khơ` săk ruat pơp no?</t>
@@ -11152,7 +11152,7 @@
     <t>Bạn có thích đi mua sắm không?</t>
   </si>
   <si>
-    <t>audio_s1129.mp3</t>
+    <t>audio_s1129.wav</t>
   </si>
   <si>
     <t>Tu\k ta gâp khăng ruat pơp no?</t>
@@ -11161,7 +11161,7 @@
     <t>Bạn thường mua sắm ở đâu?</t>
   </si>
   <si>
-    <t>audio_s1130.mp3</t>
+    <t>audio_s1130.wav</t>
   </si>
   <si>
     <t>Gâp khơ` ruat pơp mhei ya?</t>
@@ -11170,7 +11170,7 @@
     <t>Bạn có muốn mua cái gì mới không?</t>
   </si>
   <si>
-    <t>audio_s1131.mp3</t>
+    <t>audio_s1131.wav</t>
   </si>
   <si>
     <t>Pơp ]hum ao gâp khăng soh băn?</t>
@@ -11179,7 +11179,7 @@
     <t>Bạn hay mặc trang phục gì?</t>
   </si>
   <si>
-    <t>audio_s1132.mp3</t>
+    <t>audio_s1132.wav</t>
   </si>
   <si>
     <t>Gâp khơ` gâm jăng ya?</t>
@@ -11188,7 +11188,7 @@
     <t>Bạn có thích nấu ăn không?</t>
   </si>
   <si>
-    <t>audio_s1133.mp3</t>
+    <t>audio_s1133.wav</t>
   </si>
   <si>
     <t>Pơp pơp sung sa gâp gâm kah ngăn?</t>
@@ -11197,7 +11197,7 @@
     <t>Bạn nấu món gì ngon nhất?</t>
   </si>
   <si>
-    <t>audio_s1134.mp3</t>
+    <t>audio_s1134.wav</t>
   </si>
   <si>
     <t>Gâp khăng ru\ng phim mâng Tivi ya?</t>
@@ -11206,7 +11206,7 @@
     <t>Bạn thường xem phim trên tivi không?</t>
   </si>
   <si>
-    <t>audio_s1135.mp3</t>
+    <t>audio_s1135.wav</t>
   </si>
   <si>
     <t>Gâp mâo phim đhung rup gâp khăp khơ` ya?</t>
@@ -11215,7 +11215,7 @@
     <t>Bạn có bộ phim truyền hình yêu thích không?</t>
   </si>
   <si>
-    <t>audio_s1091.mp3</t>
+    <t>audio_s1091.wav</t>
   </si>
   <si>
     <t>Brơn mơn dơi tâm tal ta e(me) di gâp.</t>
@@ -11224,7 +11224,7 @@
     <t>Rất vui được gặp bạn.</t>
   </si>
   <si>
-    <t>audio_s1136.mp3</t>
+    <t>audio_s1136.wav</t>
   </si>
   <si>
     <t>Gâp khơ` riam pơp ngơi mhei ya?</t>
@@ -11233,7 +11233,7 @@
     <t>Bạn có muốn học một ngôn ngữ mới không?</t>
   </si>
   <si>
-    <t>audio_s1137.mp3</t>
+    <t>audio_s1137.wav</t>
   </si>
   <si>
     <t>Gâp khơ` săk nh'nhân ta ]ar la] ya?</t>
@@ -11242,7 +11242,7 @@
     <t>Bạn thích đi du lịch nước ngoài không?</t>
   </si>
   <si>
-    <t>audio_s1138.mp3</t>
+    <t>audio_s1138.wav</t>
   </si>
   <si>
     <t>Gâp lai lap sa le\ mơt pơp sa ]ar la] ya?</t>
@@ -11251,7 +11251,7 @@
     <t>Bạn đã thử các món ăn nước ngoài chưa?</t>
   </si>
   <si>
-    <t>audio_s1139.mp3</t>
+    <t>audio_s1139.wav</t>
   </si>
   <si>
     <t>Gâp khơ` dơn le\ truk năr ik ngăp ya?</t>
@@ -11260,7 +11260,7 @@
     <t>Bạn thích tận hưởng không gian yên tĩnh không?</t>
   </si>
   <si>
-    <t>audio_s1140.mp3</t>
+    <t>audio_s1140.wav</t>
   </si>
   <si>
     <t>Gâp khơ` iap riam pơp gư\t bơ nih dih ya?</t>
@@ -11269,7 +11269,7 @@
     <t>Bạn có muốn học hỏi từ người khác không?</t>
   </si>
   <si>
-    <t>audio_s1141.mp3</t>
+    <t>audio_s1141.wav</t>
   </si>
   <si>
     <t>Gâp lai tuôm tăng ndrôm le\ mơt mho\ bruă khơ` dih ya?</t>
@@ -11278,7 +11278,7 @@
     <t>Bạn đã từng tham gia các hoạt động tình nguyện chưa?</t>
   </si>
   <si>
-    <t>audio_s1142.mp3</t>
+    <t>audio_s1142.wav</t>
   </si>
   <si>
     <t>Gâp khơ` phă nuh pơp mơng ya?</t>
@@ -11287,7 +11287,7 @@
     <t>Bạn thích chia sẻ kinh nghiệm không?</t>
   </si>
   <si>
-    <t>audio_s1143.mp3</t>
+    <t>audio_s1143.wav</t>
   </si>
   <si>
     <t>Pơp druam ră gâp lai dlăng mhei hâo?</t>
@@ -11296,7 +11296,7 @@
     <t>Bạn đã đọc sách nào gần đây chưa?</t>
   </si>
   <si>
-    <t>audio_s1144.mp3</t>
+    <t>audio_s1144.wav</t>
   </si>
   <si>
     <t>Pơp dră đhung rup gâp khăng ru\ng?</t>
@@ -11305,7 +11305,7 @@
     <t>Bạn thường xem các chương trình truyền hình nào?</t>
   </si>
   <si>
-    <t>audio_s1145.mp3</t>
+    <t>audio_s1145.wav</t>
   </si>
   <si>
     <t>Gâp khơ` lap [ah [ơn pơp no# nhâng mhei ya?</t>
@@ -11314,7 +11314,7 @@
     <t>Bạn có muốn thử một môn thể thao mới không?</t>
   </si>
   <si>
-    <t>audio_s1092.mp3</t>
+    <t>audio_s1092.wav</t>
   </si>
   <si>
     <t>Tu\k bơ truh e(me) gâp?</t>
@@ -11323,7 +11323,7 @@
     <t>Bạn đến từ đâu?</t>
   </si>
   <si>
-    <t>audio_s1146.mp3</t>
+    <t>audio_s1146.wav</t>
   </si>
   <si>
     <t>Ku sei hum nhân mâng tu\k no# nhân wăng sông.</t>
@@ -11332,7 +11332,7 @@
     <t>Đứa bé đang chơi trong công viên.</t>
   </si>
   <si>
-    <t>audio_s1147.mp3</t>
+    <t>audio_s1147.wav</t>
   </si>
   <si>
     <t>Mei gâm piang kah ngăn.</t>
@@ -11341,7 +11341,7 @@
     <t>Mẹ nấu cơm ngon quá.</t>
   </si>
   <si>
-    <t>audio_s1148.mp3</t>
+    <t>audio_s1148.wav</t>
   </si>
   <si>
     <t>Yo u'ur yo tl'tlâo noh khăp so.</t>
@@ -11350,7 +11350,7 @@
     <t>Ông bà rất yêu thương cháu.</t>
   </si>
   <si>
-    <t>audio_s1149.mp3</t>
+    <t>audio_s1149.wav</t>
   </si>
   <si>
     <t>Truk hum mih [hi [hi.</t>
@@ -11359,7 +11359,7 @@
     <t>Trời đang mưa nhẹ.</t>
   </si>
   <si>
-    <t>audio_s1150.mp3</t>
+    <t>audio_s1150.wav</t>
   </si>
   <si>
     <t>Oh mi riam ju du\.</t>
@@ -11368,7 +11368,7 @@
     <t>Anh em học cùng lớp.</t>
   </si>
   <si>
-    <t>audio_s1151.mp3</t>
+    <t>audio_s1151.wav</t>
   </si>
   <si>
     <t>Mi u'ur Lan khơ` dlăng ră.</t>
@@ -11377,7 +11377,7 @@
     <t>Chị Lan thích đọc sách.</t>
   </si>
   <si>
-    <t>audio_s1152.mp3</t>
+    <t>audio_s1152.wav</t>
   </si>
   <si>
     <t>Nai dak gư\n tăng râm kơl o\k nih bah kôp kăt.</t>
@@ -11386,7 +11386,7 @@
     <t>Bác sĩ giúp mọi người khỏi bệnh.</t>
   </si>
   <si>
-    <t>audio_s1153.mp3</t>
+    <t>audio_s1153.wav</t>
   </si>
   <si>
     <t>Nai t'ti t'ti riam ră le\ nuih `hâm.</t>
@@ -11395,7 +11395,7 @@
     <t>Cô giáo dạy học rất nhiệt tình.</t>
   </si>
   <si>
-    <t>audio_s1154.mp3</t>
+    <t>audio_s1154.wav</t>
   </si>
   <si>
     <t>Năr âo truk duh năr.</t>
@@ -11404,7 +11404,7 @@
     <t>Hôm nay trời nắng.</t>
   </si>
   <si>
-    <t>audio_s1155.mp3</t>
+    <t>audio_s1155.wav</t>
   </si>
   <si>
     <t>Oh u'ur khơ` kao brung.</t>
@@ -11413,7 +11413,7 @@
     <t>Em gái thích hoa hồng đỏ.</t>
   </si>
   <si>
-    <t>audio_s1093.mp3</t>
+    <t>audio_s1093.wav</t>
   </si>
   <si>
     <t>E(me) lai sung ya?</t>
@@ -11422,7 +11422,7 @@
     <t>Bạn đã ăn chưa?</t>
   </si>
   <si>
-    <t>audio_s1156.mp3</t>
+    <t>audio_s1156.wav</t>
   </si>
   <si>
     <t>Kân gâp mhei nhân bru\ guitar noh wah.</t>
@@ -11431,7 +11431,7 @@
     <t>Cậu bạn mới chơi đàn guitar rất giỏi.</t>
   </si>
   <si>
-    <t>audio_s1157.mp3</t>
+    <t>audio_s1157.wav</t>
   </si>
   <si>
     <t>Mei bap năk ial oh găl nư\m ngăn.</t>
@@ -11440,7 +11440,7 @@
     <t>Bố mẹ chăm sóc em rất chu đáo.</t>
   </si>
   <si>
-    <t>audio_s1158.mp3</t>
+    <t>audio_s1158.wav</t>
   </si>
   <si>
     <t>Pul nhuar săk nhân hih e\`.</t>
@@ -11449,7 +11449,7 @@
     <t>Họ hàng đến chơi nhà tôi.</t>
   </si>
   <si>
-    <t>audio_s1159.mp3</t>
+    <t>audio_s1159.wav</t>
   </si>
   <si>
     <t>Kuăn sâo hih e\` eh khơ` tuăt ]h^ ]hil.</t>
@@ -11458,7 +11458,7 @@
     <t>Con chó nhà tôi thích chạy nhảy.</t>
   </si>
   <si>
-    <t>audio_s1160.mp3</t>
+    <t>audio_s1160.wav</t>
   </si>
   <si>
     <t>De gâp hum mho\ nhap.</t>
@@ -11467,7 +11467,7 @@
     <t>Cô bạn gái đang làm đẹp.</t>
   </si>
   <si>
-    <t>audio_s1161.mp3</t>
+    <t>audio_s1161.wav</t>
   </si>
   <si>
     <t>Ku sei riam ră găl gu gu.</t>
@@ -11476,7 +11476,7 @@
     <t>Học sinh đều ngoan ngoãn.</t>
   </si>
   <si>
-    <t>audio_s1162.mp3</t>
+    <t>audio_s1162.wav</t>
   </si>
   <si>
     <t>Mâng hip mâo o\k ]hum ao nhap.</t>
@@ -11485,7 +11485,7 @@
     <t>Trong tủ có nhiều đồ đẹp.</t>
   </si>
   <si>
-    <t>audio_s1163.mp3</t>
+    <t>audio_s1163.wav</t>
   </si>
   <si>
     <t>Kân tơm `ut buk noh đup gơt nih mho\ bruă.</t>
@@ -11494,7 +11494,7 @@
     <t>Ông chủ rất tôn trọng nhân viên.</t>
   </si>
   <si>
-    <t>audio_s1164.mp3</t>
+    <t>audio_s1164.wav</t>
   </si>
   <si>
     <t>De mi Hằng nă rông năk so\k noh nhap.</t>
@@ -11503,7 +11503,7 @@
     <t>Chị Hằng luôn giữ gìn mái tóc đẹp.</t>
   </si>
   <si>
-    <t>audio_s1165.mp3</t>
+    <t>audio_s1165.wav</t>
   </si>
   <si>
     <t>Gâp e\` tăng phă pơp ênguôt ta e\`.</t>
@@ -11512,7 +11512,7 @@
     <t>Bạn thân chia sẻ nỗi buồn với tôi.</t>
   </si>
   <si>
-    <t>audio_s1094.mp3</t>
+    <t>audio_s1094.wav</t>
   </si>
   <si>
     <t>Tu\k ta gâp mho\ bruă?</t>
@@ -11521,7 +11521,7 @@
     <t>Bạn làm việc ở đâu?</t>
   </si>
   <si>
-    <t>audio_s1166.mp3</t>
+    <t>audio_s1166.wav</t>
   </si>
   <si>
     <t>Nông la] hih riam ră tre\ ram.</t>
@@ -11530,13 +11530,13 @@
     <t>Sân trường rộng lớn.</t>
   </si>
   <si>
-    <t>audio_s1167.mp3</t>
+    <t>audio_s1167.wav</t>
   </si>
   <si>
     <t>E|` khơ` ru\ng năr `âp.</t>
   </si>
   <si>
-    <t>audio_s1168.mp3</t>
+    <t>audio_s1168.wav</t>
   </si>
   <si>
     <t>Kân oh nga nduh nhân lâr dak.</t>
@@ -11545,7 +11545,7 @@
     <t>Cậu bé đang nghịch nước.</t>
   </si>
   <si>
-    <t>audio_s1169.mp3</t>
+    <t>audio_s1169.wav</t>
   </si>
   <si>
     <t>Nih dlah piang e\` brêh nhap `jing.</t>
@@ -11554,7 +11554,7 @@
     <t>Gia đình tôi sống hạnh phúc.</t>
   </si>
   <si>
-    <t>audio_s1170.mp3</t>
+    <t>audio_s1170.wav</t>
   </si>
   <si>
     <t>Ndơm kao dơp ân pơp brêh mhei.</t>
@@ -11563,7 +11563,7 @@
     <t>Mùa xuân đem lại sức sống mới.</t>
   </si>
   <si>
-    <t>audio_s1171.mp3</t>
+    <t>audio_s1171.wav</t>
   </si>
   <si>
     <t>Kân mi khăng hui hai tăng râm kơl e\`.</t>
@@ -11572,7 +11572,7 @@
     <t>Anh trai thường xuyên giúp đỡ tôi.</t>
   </si>
   <si>
-    <t>audio_s1172.mp3</t>
+    <t>audio_s1172.wav</t>
   </si>
   <si>
     <t>Nai dak gư\n lup ]hă nih kôp kăt ân gư\t pơp kôp ji.</t>
@@ -11581,7 +11581,7 @@
     <t>Bác sĩ tư vấn cho bệnh nhân.</t>
   </si>
   <si>
-    <t>audio_s1173.mp3</t>
+    <t>audio_s1173.wav</t>
   </si>
   <si>
     <t>Mei e\` khăng gâm pai kah.</t>
@@ -11590,7 +11590,7 @@
     <t>Mẹ tôi hay nấu món canh ngon.</t>
   </si>
   <si>
-    <t>audio_s1174.mp3</t>
+    <t>audio_s1174.wav</t>
   </si>
   <si>
     <t>Ur druh mâo nggăr măt r^p [l^p.</t>
@@ -11599,7 +11599,7 @@
     <t>Cô gái có đôi mắt lấp lánh.</t>
   </si>
   <si>
-    <t>audio_s1175.mp3</t>
+    <t>audio_s1175.wav</t>
   </si>
   <si>
     <t>Gâp mi e\` săk siap hih.</t>
@@ -11608,7 +11608,7 @@
     <t>Bạn bè tôi đến thăm nhà.</t>
   </si>
   <si>
-    <t>audio_s1095.mp3</t>
+    <t>audio_s1095.wav</t>
   </si>
   <si>
     <t>Gâp lai tuôm săk truh ta ]ar la] ya?</t>
@@ -11617,7 +11617,7 @@
     <t>Bạn đã từng đến nước ngoài chưa?</t>
   </si>
   <si>
-    <t>audio_s1176.mp3</t>
+    <t>audio_s1176.wav</t>
   </si>
   <si>
     <t>Kân yo ura` pr'prơ ân so iat.</t>
@@ -11626,7 +11626,7 @@
     <t>Ông già kể chuyện cho cháu nghe.</t>
   </si>
   <si>
-    <t>audio_s1177.mp3</t>
+    <t>audio_s1177.wav</t>
   </si>
   <si>
     <t>Tăng guk ur sai duh rôm nơn.</t>
@@ -11635,7 +11635,7 @@
     <t>Đám cưới diễn ra vui vẻ.</t>
   </si>
   <si>
-    <t>audio_s1178.mp3</t>
+    <t>audio_s1178.wav</t>
   </si>
   <si>
     <t>Hih druam ră mâo o\k ră rôm.</t>
@@ -11644,7 +11644,7 @@
     <t>Nhà sách có nhiều sách hay.</t>
   </si>
   <si>
-    <t>audio_s1179.mp3</t>
+    <t>audio_s1179.wav</t>
   </si>
   <si>
     <t>Ku sei riam ră hum tăng ndrôm ]ưng ple đung.</t>
@@ -11653,7 +11653,7 @@
     <t>Học sinh đang tham gia trận bóng đá.</t>
   </si>
   <si>
-    <t>audio_s1180.mp3</t>
+    <t>audio_s1180.wav</t>
   </si>
   <si>
     <t>De hân băn su dư\r nhap ngăn.</t>
@@ -11662,7 +11662,7 @@
     <t>Cô ấy mặc bộ váy đẹp quá.</t>
   </si>
   <si>
-    <t>audio_s1181.mp3</t>
+    <t>audio_s1181.wav</t>
   </si>
   <si>
     <t>Băl ku sei ku it tăng no# tăng nhơn mâng tu\k no# nhân wăng sông.</t>
@@ -11671,7 +11671,7 @@
     <t>Các em nhỏ vui đùa trong công viên.</t>
   </si>
   <si>
-    <t>audio_s1182.mp3</t>
+    <t>audio_s1182.wav</t>
   </si>
   <si>
     <t>Nai dak gư\n ra] pơp kôp kăt e\`.</t>
@@ -11680,7 +11680,7 @@
     <t>Bác sĩ chẩn đoán bệnh cho tôi.</t>
   </si>
   <si>
-    <t>audio_s1183.mp3</t>
+    <t>audio_s1183.wav</t>
   </si>
   <si>
     <t>Hih riam ră mâo o\k tơm ]hi `h'`hâp.</t>
@@ -11689,7 +11689,7 @@
     <t>Trường học có nhiều cây xanh.</t>
   </si>
   <si>
-    <t>audio_s1184.mp3</t>
+    <t>audio_s1184.wav</t>
   </si>
   <si>
     <t>Nai t'ti t'ti riam ră wah nă ngăn.</t>
@@ -11698,7 +11698,7 @@
     <t>Cô giáo dạy học rất sâu sắc.</t>
   </si>
   <si>
-    <t>audio_s1185.mp3</t>
+    <t>audio_s1185.wav</t>
   </si>
   <si>
     <t>Kuan ka ku it rei mâng dak lak.</t>
@@ -11707,7 +11707,7 @@
     <t>Con cá nhỏ bơi trong hồ.</t>
   </si>
   <si>
-    <t>audio_s1387.m4a</t>
+    <t>audio_s1387.wav</t>
   </si>
   <si>
     <t>Năr âo truk năr nhap ngăn.</t>
@@ -11716,7 +11716,7 @@
     <t>Hôm nay trời nắng đẹp quá.</t>
   </si>
   <si>
-    <t>audio_s1388.m4a</t>
+    <t>audio_s1388.wav</t>
   </si>
   <si>
     <t>Miêo hih e\` khơ` hao ]hi.</t>
@@ -11725,7 +11725,7 @@
     <t>Mèo nhà tôi thích leo cây.</t>
   </si>
   <si>
-    <t>audio_s1389.m4a</t>
+    <t>audio_s1389.wav</t>
   </si>
   <si>
     <t>Gâp lai ru\ng ya bảng xếp hạng?</t>
@@ -11734,7 +11734,7 @@
     <t>Bạn đã xem bảng xếp hạng chưa?</t>
   </si>
   <si>
-    <t>audio_s1390.m4a</t>
+    <t>audio_s1390.wav</t>
   </si>
   <si>
     <t>E|` di khơ` dlăng ră.</t>
@@ -11743,7 +11743,7 @@
     <t>Sở thích của tôi là đọc sách.</t>
   </si>
   <si>
-    <t>audio_s1391.m4a</t>
+    <t>audio_s1391.wav</t>
   </si>
   <si>
     <t>Trông hâo mâo o\k kao nhap ngăn.</t>
@@ -11752,7 +11752,7 @@
     <t>Con đường này có nhiều hoa đẹp quá.</t>
   </si>
   <si>
-    <t>audio_s1392.m4a</t>
+    <t>audio_s1392.wav</t>
   </si>
   <si>
     <t>E|` khơ` sa pơp sa Việt Nam.</t>
@@ -11761,7 +11761,7 @@
     <t>Tôi thích ẩm thực Việt Nam.</t>
   </si>
   <si>
-    <t>audio_s1393.m4a</t>
+    <t>audio_s1393.wav</t>
   </si>
   <si>
     <t>~joh ndrân ju ni\ pâng di.</t>
@@ -11770,7 +11770,7 @@
     <t>Hãy nghỉ ngơi thêm chút nữa.</t>
   </si>
   <si>
-    <t>audio_s1394.m4a</t>
+    <t>audio_s1394.wav</t>
   </si>
   <si>
     <t>Băl bân ei râo jâng wâr mho\ gâp mi.</t>
@@ -11779,7 +11779,7 @@
     <t>Chúng ta nên duy trì tình bạn này.</t>
   </si>
   <si>
-    <t>audio_s1395.m4a</t>
+    <t>audio_s1395.wav</t>
   </si>
   <si>
     <t>Tu\k ta gâp khơ` săk nhân?</t>
@@ -11788,7 +11788,7 @@
     <t>Bạn muốn đi du lịch ở đâu?</t>
   </si>
   <si>
-    <t>audio_s1396.m4a</t>
+    <t>audio_s1396.wav</t>
   </si>
   <si>
     <t>Pơp brêh ei so eh `joh mlih truh ta băl bân mâo pơp mlih.</t>
@@ -11797,202 +11797,202 @@
     <t>Cuộc sống không ngừng đổi đến khi chúng ta thay đổi.</t>
   </si>
   <si>
-    <t>audio_s1397.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1398.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1399.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1400.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1401.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1402.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1403.m4a</t>
+    <t>audio_s1397.wav</t>
+  </si>
+  <si>
+    <t>audio_s1398.wav</t>
+  </si>
+  <si>
+    <t>audio_s1399.wav</t>
+  </si>
+  <si>
+    <t>audio_s1400.wav</t>
+  </si>
+  <si>
+    <t>audio_s1401.wav</t>
+  </si>
+  <si>
+    <t>audio_s1402.wav</t>
+  </si>
+  <si>
+    <t>audio_s1403.wav</t>
   </si>
   <si>
     <t>Me gâm pơp sa noh kah!</t>
   </si>
   <si>
-    <t>audio_s1404.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1405.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1406.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1407.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1408.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1409.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1410.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1411.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1412.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1413.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1414.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1415.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1416.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1417.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1418.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1419.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1420.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1421.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1422.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1423.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1424.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1425.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1426.m4a</t>
+    <t>audio_s1404.wav</t>
+  </si>
+  <si>
+    <t>audio_s1405.wav</t>
+  </si>
+  <si>
+    <t>audio_s1406.wav</t>
+  </si>
+  <si>
+    <t>audio_s1407.wav</t>
+  </si>
+  <si>
+    <t>audio_s1408.wav</t>
+  </si>
+  <si>
+    <t>audio_s1409.wav</t>
+  </si>
+  <si>
+    <t>audio_s1410.wav</t>
+  </si>
+  <si>
+    <t>audio_s1411.wav</t>
+  </si>
+  <si>
+    <t>audio_s1412.wav</t>
+  </si>
+  <si>
+    <t>audio_s1413.wav</t>
+  </si>
+  <si>
+    <t>audio_s1414.wav</t>
+  </si>
+  <si>
+    <t>audio_s1415.wav</t>
+  </si>
+  <si>
+    <t>audio_s1416.wav</t>
+  </si>
+  <si>
+    <t>audio_s1417.wav</t>
+  </si>
+  <si>
+    <t>audio_s1418.wav</t>
+  </si>
+  <si>
+    <t>audio_s1419.wav</t>
+  </si>
+  <si>
+    <t>audio_s1420.wav</t>
+  </si>
+  <si>
+    <t>audio_s1421.wav</t>
+  </si>
+  <si>
+    <t>audio_s1422.wav</t>
+  </si>
+  <si>
+    <t>audio_s1423.wav</t>
+  </si>
+  <si>
+    <t>audio_s1424.wav</t>
+  </si>
+  <si>
+    <t>audio_s1425.wav</t>
+  </si>
+  <si>
+    <t>audio_s1426.wav</t>
   </si>
   <si>
     <t>Pơp gâp wơ wơi?</t>
   </si>
   <si>
-    <t>audio_s1427.m4a</t>
+    <t>audio_s1427.wav</t>
   </si>
   <si>
     <t>Pơp gâp khơ`?</t>
   </si>
   <si>
-    <t>audio_s1428.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1429.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1430.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1431.m4a</t>
+    <t>audio_s1428.wav</t>
+  </si>
+  <si>
+    <t>audio_s1429.wav</t>
+  </si>
+  <si>
+    <t>audio_s1430.wav</t>
+  </si>
+  <si>
+    <t>audio_s1431.wav</t>
   </si>
   <si>
     <t>Săk jăn `jing pơp yuam bhăn ngăn.</t>
   </si>
   <si>
-    <t>audio_s1432.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1433.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1434.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1435.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1436.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1437.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1438.m4a</t>
+    <t>audio_s1432.wav</t>
+  </si>
+  <si>
+    <t>audio_s1433.wav</t>
+  </si>
+  <si>
+    <t>audio_s1434.wav</t>
+  </si>
+  <si>
+    <t>audio_s1435.wav</t>
+  </si>
+  <si>
+    <t>audio_s1436.wav</t>
+  </si>
+  <si>
+    <t>audio_s1437.wav</t>
+  </si>
+  <si>
+    <t>audio_s1438.wav</t>
   </si>
   <si>
     <t>Gâp mi blah [ah [ơn rup sang [hieo.</t>
   </si>
   <si>
-    <t>audio_s1439.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1440.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1441.m4a</t>
+    <t>audio_s1439.wav</t>
+  </si>
+  <si>
+    <t>audio_s1440.wav</t>
+  </si>
+  <si>
+    <t>audio_s1441.wav</t>
   </si>
   <si>
     <t>Grâp pơp kial lăm ăt man dơi gao.</t>
   </si>
   <si>
-    <t>audio_s1442.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1443.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1444.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1445.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1446.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1447.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1448.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1449.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1450.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1451.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1452.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1453.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1454.m4a</t>
+    <t>audio_s1442.wav</t>
+  </si>
+  <si>
+    <t>audio_s1443.wav</t>
+  </si>
+  <si>
+    <t>audio_s1444.wav</t>
+  </si>
+  <si>
+    <t>audio_s1445.wav</t>
+  </si>
+  <si>
+    <t>audio_s1446.wav</t>
+  </si>
+  <si>
+    <t>audio_s1447.wav</t>
+  </si>
+  <si>
+    <t>audio_s1448.wav</t>
+  </si>
+  <si>
+    <t>audio_s1449.wav</t>
+  </si>
+  <si>
+    <t>audio_s1450.wav</t>
+  </si>
+  <si>
+    <t>audio_s1451.wav</t>
+  </si>
+  <si>
+    <t>audio_s1452.wav</t>
+  </si>
+  <si>
+    <t>audio_s1453.wav</t>
+  </si>
+  <si>
+    <t>audio_s1454.wav</t>
   </si>
   <si>
     <t>E|` khơ` săk nhân ta Nhật Bản.</t>
   </si>
   <si>
-    <t>audio_s1455.m4a</t>
+    <t>audio_s1455.wav</t>
   </si>
   <si>
     <t>E|` khơ` săk riam.</t>
@@ -12001,19 +12001,19 @@
     <t>Tôi muốn đi học</t>
   </si>
   <si>
-    <t>audio_s1456.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1457.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1458.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1459.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1460.m4a</t>
+    <t>audio_s1456.wav</t>
+  </si>
+  <si>
+    <t>audio_s1457.wav</t>
+  </si>
+  <si>
+    <t>audio_s1458.wav</t>
+  </si>
+  <si>
+    <t>audio_s1459.wav</t>
+  </si>
+  <si>
+    <t>audio_s1460.wav</t>
   </si>
   <si>
     <t>E|` khơ` riam gâm jăng kah.</t>
@@ -12022,7 +12022,7 @@
     <t>Tôi muốn học nấu ăn ngon.</t>
   </si>
   <si>
-    <t>audio_s1461.m4a</t>
+    <t>audio_s1461.wav</t>
   </si>
   <si>
     <t>E|` khơ` riam mu`.</t>
@@ -12031,862 +12031,862 @@
     <t>Tôi muốn học hát.</t>
   </si>
   <si>
-    <t>audio_s1462.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1463.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1464.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1465.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1466.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1467.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1468.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1469.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1470.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1471.m4a</t>
+    <t>audio_s1462.wav</t>
+  </si>
+  <si>
+    <t>audio_s1463.wav</t>
+  </si>
+  <si>
+    <t>audio_s1464.wav</t>
+  </si>
+  <si>
+    <t>audio_s1465.wav</t>
+  </si>
+  <si>
+    <t>audio_s1466.wav</t>
+  </si>
+  <si>
+    <t>audio_s1467.wav</t>
+  </si>
+  <si>
+    <t>audio_s1468.wav</t>
+  </si>
+  <si>
+    <t>audio_s1469.wav</t>
+  </si>
+  <si>
+    <t>audio_s1470.wav</t>
+  </si>
+  <si>
+    <t>audio_s1471.wav</t>
   </si>
   <si>
     <t>Gâp khơ` săk riam du\ riam mhei ya?</t>
   </si>
   <si>
-    <t>audio_s1472.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1473.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1474.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1475.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1476.m4a</t>
+    <t>audio_s1472.wav</t>
+  </si>
+  <si>
+    <t>audio_s1473.wav</t>
+  </si>
+  <si>
+    <t>audio_s1474.wav</t>
+  </si>
+  <si>
+    <t>audio_s1475.wav</t>
+  </si>
+  <si>
+    <t>audio_s1476.wav</t>
   </si>
   <si>
     <t>Pơp pơp no# nhân gâp khơ` ngăn?</t>
   </si>
   <si>
-    <t>audio_s1477.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1478.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1479.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1480.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1481.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1482.m4a</t>
+    <t>audio_s1477.wav</t>
+  </si>
+  <si>
+    <t>audio_s1478.wav</t>
+  </si>
+  <si>
+    <t>audio_s1479.wav</t>
+  </si>
+  <si>
+    <t>audio_s1480.wav</t>
+  </si>
+  <si>
+    <t>audio_s1481.wav</t>
+  </si>
+  <si>
+    <t>audio_s1482.wav</t>
   </si>
   <si>
     <t>Gâp khơ` siap mhơ] ]ar war mâng tu\k `joh ta măt?</t>
   </si>
   <si>
-    <t>audio_s1483.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1484.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1485.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1486.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1487.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1488.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1489.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1490.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1491.m4a</t>
+    <t>audio_s1483.wav</t>
+  </si>
+  <si>
+    <t>audio_s1484.wav</t>
+  </si>
+  <si>
+    <t>audio_s1485.wav</t>
+  </si>
+  <si>
+    <t>audio_s1486.wav</t>
+  </si>
+  <si>
+    <t>audio_s1487.wav</t>
+  </si>
+  <si>
+    <t>audio_s1488.wav</t>
+  </si>
+  <si>
+    <t>audio_s1489.wav</t>
+  </si>
+  <si>
+    <t>audio_s1490.wav</t>
+  </si>
+  <si>
+    <t>audio_s1491.wav</t>
   </si>
   <si>
     <t>Pơp nhạc gâp khơ` iat tơ gâp ngoh ngual?</t>
   </si>
   <si>
-    <t>audio_s1492.m4a</t>
+    <t>audio_s1492.wav</t>
   </si>
   <si>
     <t>Pơp nhạc gâp khơ` iat tơ gâp rngot?</t>
   </si>
   <si>
-    <t>audio_s1493.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1494.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1495.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1496.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1497.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1498.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1499.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1500.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1501.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1502.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1503.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1504.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1505.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1506.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1507.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1508.m4a</t>
+    <t>audio_s1493.wav</t>
+  </si>
+  <si>
+    <t>audio_s1494.wav</t>
+  </si>
+  <si>
+    <t>audio_s1495.wav</t>
+  </si>
+  <si>
+    <t>audio_s1496.wav</t>
+  </si>
+  <si>
+    <t>audio_s1497.wav</t>
+  </si>
+  <si>
+    <t>audio_s1498.wav</t>
+  </si>
+  <si>
+    <t>audio_s1499.wav</t>
+  </si>
+  <si>
+    <t>audio_s1500.wav</t>
+  </si>
+  <si>
+    <t>audio_s1501.wav</t>
+  </si>
+  <si>
+    <t>audio_s1502.wav</t>
+  </si>
+  <si>
+    <t>audio_s1503.wav</t>
+  </si>
+  <si>
+    <t>audio_s1504.wav</t>
+  </si>
+  <si>
+    <t>audio_s1505.wav</t>
+  </si>
+  <si>
+    <t>audio_s1506.wav</t>
+  </si>
+  <si>
+    <t>audio_s1507.wav</t>
+  </si>
+  <si>
+    <t>audio_s1508.wav</t>
   </si>
   <si>
     <t>Pơp năn e gâp?</t>
   </si>
   <si>
-    <t>audio_s1509.m4a</t>
+    <t>audio_s1509.wav</t>
   </si>
   <si>
     <t>Pơp năn me gâp?</t>
   </si>
   <si>
-    <t>audio_s1510.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1511.m4a</t>
+    <t>audio_s1510.wav</t>
+  </si>
+  <si>
+    <t>audio_s1511.wav</t>
   </si>
   <si>
     <t>Brơn mơn dơi tâm tal ta e di gâp.</t>
   </si>
   <si>
-    <t>audio_s1512.m4a</t>
+    <t>audio_s1512.wav</t>
   </si>
   <si>
     <t>Brơn mơn dơi tâm tal ta me di gâp.</t>
   </si>
   <si>
-    <t>audio_s1513.m4a</t>
+    <t>audio_s1513.wav</t>
   </si>
   <si>
     <t>Tu\k bơ truh e gâp?</t>
   </si>
   <si>
-    <t>audio_s1514.m4a</t>
+    <t>audio_s1514.wav</t>
   </si>
   <si>
     <t>Tu\k bơ truh me gâp?</t>
   </si>
   <si>
-    <t>audio_s1515.m4a</t>
+    <t>audio_s1515.wav</t>
   </si>
   <si>
     <t>E lai sung ya?</t>
   </si>
   <si>
-    <t>audio_s1516.m4a</t>
+    <t>audio_s1516.wav</t>
   </si>
   <si>
     <t>Me lai sung ya?</t>
   </si>
   <si>
-    <t>audio_s1517.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1518.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1519.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1520.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1521.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1522.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1523.m4a</t>
+    <t>audio_s1517.wav</t>
+  </si>
+  <si>
+    <t>audio_s1518.wav</t>
+  </si>
+  <si>
+    <t>audio_s1519.wav</t>
+  </si>
+  <si>
+    <t>audio_s1520.wav</t>
+  </si>
+  <si>
+    <t>audio_s1521.wav</t>
+  </si>
+  <si>
+    <t>audio_s1522.wav</t>
+  </si>
+  <si>
+    <t>audio_s1523.wav</t>
   </si>
   <si>
     <t>Bạn có muốn ăn thử một lần không?</t>
   </si>
   <si>
-    <t>audio_s1524.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1525.m4a</t>
+    <t>audio_s1524.wav</t>
+  </si>
+  <si>
+    <t>audio_s1525.wav</t>
   </si>
   <si>
     <t>Pơp ră e khăng dlăng?</t>
   </si>
   <si>
-    <t>audio_s1526.m4a</t>
+    <t>audio_s1526.wav</t>
   </si>
   <si>
     <t>Pơp ră me khăng dlăng?</t>
   </si>
   <si>
-    <t>audio_s1527.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1529.m4a</t>
+    <t>audio_s1527.wav</t>
+  </si>
+  <si>
+    <t>audio_s1529.wav</t>
   </si>
   <si>
     <t>E khơ` ru\ng phim ya?</t>
   </si>
   <si>
-    <t>audio_s1530.m4a</t>
+    <t>audio_s1530.wav</t>
   </si>
   <si>
     <t>Me khơ` ru\ng phim ya?</t>
   </si>
   <si>
-    <t>audio_s1531.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1532.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1533.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1534.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1535.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1536.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1537.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1538.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1539.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1540.m4a</t>
+    <t>audio_s1531.wav</t>
+  </si>
+  <si>
+    <t>audio_s1532.wav</t>
+  </si>
+  <si>
+    <t>audio_s1533.wav</t>
+  </si>
+  <si>
+    <t>audio_s1534.wav</t>
+  </si>
+  <si>
+    <t>audio_s1535.wav</t>
+  </si>
+  <si>
+    <t>audio_s1536.wav</t>
+  </si>
+  <si>
+    <t>audio_s1537.wav</t>
+  </si>
+  <si>
+    <t>audio_s1538.wav</t>
+  </si>
+  <si>
+    <t>audio_s1539.wav</t>
+  </si>
+  <si>
+    <t>audio_s1540.wav</t>
   </si>
   <si>
     <t>Tu\k ta ian gâp lai săk nhân?</t>
   </si>
   <si>
-    <t>audio_s1541.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1542.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1543.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1544.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1545.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1546.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1547.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1548.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1549.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1550.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1551.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1552.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1553.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1554.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1555.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1556.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1557.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1558.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1559.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1560.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1561.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1562.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1563.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1564.m4a</t>
+    <t>audio_s1541.wav</t>
+  </si>
+  <si>
+    <t>audio_s1542.wav</t>
+  </si>
+  <si>
+    <t>audio_s1543.wav</t>
+  </si>
+  <si>
+    <t>audio_s1544.wav</t>
+  </si>
+  <si>
+    <t>audio_s1545.wav</t>
+  </si>
+  <si>
+    <t>audio_s1546.wav</t>
+  </si>
+  <si>
+    <t>audio_s1547.wav</t>
+  </si>
+  <si>
+    <t>audio_s1548.wav</t>
+  </si>
+  <si>
+    <t>audio_s1549.wav</t>
+  </si>
+  <si>
+    <t>audio_s1550.wav</t>
+  </si>
+  <si>
+    <t>audio_s1551.wav</t>
+  </si>
+  <si>
+    <t>audio_s1552.wav</t>
+  </si>
+  <si>
+    <t>audio_s1553.wav</t>
+  </si>
+  <si>
+    <t>audio_s1554.wav</t>
+  </si>
+  <si>
+    <t>audio_s1555.wav</t>
+  </si>
+  <si>
+    <t>audio_s1556.wav</t>
+  </si>
+  <si>
+    <t>audio_s1557.wav</t>
+  </si>
+  <si>
+    <t>audio_s1558.wav</t>
+  </si>
+  <si>
+    <t>audio_s1559.wav</t>
+  </si>
+  <si>
+    <t>audio_s1560.wav</t>
+  </si>
+  <si>
+    <t>audio_s1561.wav</t>
+  </si>
+  <si>
+    <t>audio_s1562.wav</t>
+  </si>
+  <si>
+    <t>audio_s1563.wav</t>
+  </si>
+  <si>
+    <t>audio_s1564.wav</t>
   </si>
   <si>
     <t>Gâp khơ` săk nhân ta ]ar la] ya?</t>
   </si>
   <si>
-    <t>audio_s1565.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1566.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1567.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1568.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1569.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1570.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1571.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1572.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1573.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1574.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1575.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1576.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1577.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1578.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1579.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1580.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1581.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1582.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1583.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1584.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1585.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1586.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1587.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1588.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1589.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1590.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1591.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1592.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1593.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1594.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1595.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1596.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1597.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1598.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1599.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1600.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1601.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1602.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1603.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1604.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1605.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1606.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1607.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1608.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1609.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1610.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1611.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1612.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1613.m4a</t>
+    <t>audio_s1565.wav</t>
+  </si>
+  <si>
+    <t>audio_s1566.wav</t>
+  </si>
+  <si>
+    <t>audio_s1567.wav</t>
+  </si>
+  <si>
+    <t>audio_s1568.wav</t>
+  </si>
+  <si>
+    <t>audio_s1569.wav</t>
+  </si>
+  <si>
+    <t>audio_s1570.wav</t>
+  </si>
+  <si>
+    <t>audio_s1571.wav</t>
+  </si>
+  <si>
+    <t>audio_s1572.wav</t>
+  </si>
+  <si>
+    <t>audio_s1573.wav</t>
+  </si>
+  <si>
+    <t>audio_s1574.wav</t>
+  </si>
+  <si>
+    <t>audio_s1575.wav</t>
+  </si>
+  <si>
+    <t>audio_s1576.wav</t>
+  </si>
+  <si>
+    <t>audio_s1577.wav</t>
+  </si>
+  <si>
+    <t>audio_s1578.wav</t>
+  </si>
+  <si>
+    <t>audio_s1579.wav</t>
+  </si>
+  <si>
+    <t>audio_s1580.wav</t>
+  </si>
+  <si>
+    <t>audio_s1581.wav</t>
+  </si>
+  <si>
+    <t>audio_s1582.wav</t>
+  </si>
+  <si>
+    <t>audio_s1583.wav</t>
+  </si>
+  <si>
+    <t>audio_s1584.wav</t>
+  </si>
+  <si>
+    <t>audio_s1585.wav</t>
+  </si>
+  <si>
+    <t>audio_s1586.wav</t>
+  </si>
+  <si>
+    <t>audio_s1587.wav</t>
+  </si>
+  <si>
+    <t>audio_s1588.wav</t>
+  </si>
+  <si>
+    <t>audio_s1589.wav</t>
+  </si>
+  <si>
+    <t>audio_s1590.wav</t>
+  </si>
+  <si>
+    <t>audio_s1591.wav</t>
+  </si>
+  <si>
+    <t>audio_s1592.wav</t>
+  </si>
+  <si>
+    <t>audio_s1593.wav</t>
+  </si>
+  <si>
+    <t>audio_s1594.wav</t>
+  </si>
+  <si>
+    <t>audio_s1595.wav</t>
+  </si>
+  <si>
+    <t>audio_s1596.wav</t>
+  </si>
+  <si>
+    <t>audio_s1597.wav</t>
+  </si>
+  <si>
+    <t>audio_s1598.wav</t>
+  </si>
+  <si>
+    <t>audio_s1599.wav</t>
+  </si>
+  <si>
+    <t>audio_s1600.wav</t>
+  </si>
+  <si>
+    <t>audio_s1601.wav</t>
+  </si>
+  <si>
+    <t>audio_s1602.wav</t>
+  </si>
+  <si>
+    <t>audio_s1603.wav</t>
+  </si>
+  <si>
+    <t>audio_s1604.wav</t>
+  </si>
+  <si>
+    <t>audio_s1605.wav</t>
+  </si>
+  <si>
+    <t>audio_s1606.wav</t>
+  </si>
+  <si>
+    <t>audio_s1607.wav</t>
+  </si>
+  <si>
+    <t>audio_s1608.wav</t>
+  </si>
+  <si>
+    <t>audio_s1609.wav</t>
+  </si>
+  <si>
+    <t>audio_s1610.wav</t>
+  </si>
+  <si>
+    <t>audio_s1611.wav</t>
+  </si>
+  <si>
+    <t>audio_s1612.wav</t>
+  </si>
+  <si>
+    <t>audio_s1613.wav</t>
   </si>
   <si>
     <t>Tlâo nu soh ao nơnang.</t>
   </si>
   <si>
-    <t>audio_s1614.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1615.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1616.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1617.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1618.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1619.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1620.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1621.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1622.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1623.m4a</t>
+    <t>audio_s1614.wav</t>
+  </si>
+  <si>
+    <t>audio_s1615.wav</t>
+  </si>
+  <si>
+    <t>audio_s1616.wav</t>
+  </si>
+  <si>
+    <t>audio_s1617.wav</t>
+  </si>
+  <si>
+    <t>audio_s1618.wav</t>
+  </si>
+  <si>
+    <t>audio_s1619.wav</t>
+  </si>
+  <si>
+    <t>audio_s1620.wav</t>
+  </si>
+  <si>
+    <t>audio_s1621.wav</t>
+  </si>
+  <si>
+    <t>audio_s1622.wav</t>
+  </si>
+  <si>
+    <t>audio_s1623.wav</t>
   </si>
   <si>
     <t>Chị gái tôi học giỏi lắm.</t>
   </si>
   <si>
-    <t>audio_s1624.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1625.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1626.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1627.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1628.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1629.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1630.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1631.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1632.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1633.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1634.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1635.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1636.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1637.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1638.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1639.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1640.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1641.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1642.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1643.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1644.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1645.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1646.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1647.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1648.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1649.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1650.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1651.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1652.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1653.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1654.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1655.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1656.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1657.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1658.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1659.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1660.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1661.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1662.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1663.m4a</t>
+    <t>audio_s1624.wav</t>
+  </si>
+  <si>
+    <t>audio_s1625.wav</t>
+  </si>
+  <si>
+    <t>audio_s1626.wav</t>
+  </si>
+  <si>
+    <t>audio_s1627.wav</t>
+  </si>
+  <si>
+    <t>audio_s1628.wav</t>
+  </si>
+  <si>
+    <t>audio_s1629.wav</t>
+  </si>
+  <si>
+    <t>audio_s1630.wav</t>
+  </si>
+  <si>
+    <t>audio_s1631.wav</t>
+  </si>
+  <si>
+    <t>audio_s1632.wav</t>
+  </si>
+  <si>
+    <t>audio_s1633.wav</t>
+  </si>
+  <si>
+    <t>audio_s1634.wav</t>
+  </si>
+  <si>
+    <t>audio_s1635.wav</t>
+  </si>
+  <si>
+    <t>audio_s1636.wav</t>
+  </si>
+  <si>
+    <t>audio_s1637.wav</t>
+  </si>
+  <si>
+    <t>audio_s1638.wav</t>
+  </si>
+  <si>
+    <t>audio_s1639.wav</t>
+  </si>
+  <si>
+    <t>audio_s1640.wav</t>
+  </si>
+  <si>
+    <t>audio_s1641.wav</t>
+  </si>
+  <si>
+    <t>audio_s1642.wav</t>
+  </si>
+  <si>
+    <t>audio_s1643.wav</t>
+  </si>
+  <si>
+    <t>audio_s1644.wav</t>
+  </si>
+  <si>
+    <t>audio_s1645.wav</t>
+  </si>
+  <si>
+    <t>audio_s1646.wav</t>
+  </si>
+  <si>
+    <t>audio_s1647.wav</t>
+  </si>
+  <si>
+    <t>audio_s1648.wav</t>
+  </si>
+  <si>
+    <t>audio_s1649.wav</t>
+  </si>
+  <si>
+    <t>audio_s1650.wav</t>
+  </si>
+  <si>
+    <t>audio_s1651.wav</t>
+  </si>
+  <si>
+    <t>audio_s1652.wav</t>
+  </si>
+  <si>
+    <t>audio_s1653.wav</t>
+  </si>
+  <si>
+    <t>audio_s1654.wav</t>
+  </si>
+  <si>
+    <t>audio_s1655.wav</t>
+  </si>
+  <si>
+    <t>audio_s1656.wav</t>
+  </si>
+  <si>
+    <t>audio_s1657.wav</t>
+  </si>
+  <si>
+    <t>audio_s1658.wav</t>
+  </si>
+  <si>
+    <t>audio_s1659.wav</t>
+  </si>
+  <si>
+    <t>audio_s1660.wav</t>
+  </si>
+  <si>
+    <t>audio_s1661.wav</t>
+  </si>
+  <si>
+    <t>audio_s1662.wav</t>
+  </si>
+  <si>
+    <t>audio_s1663.wav</t>
   </si>
   <si>
     <t>Gâp mâo ur ya?</t>
   </si>
   <si>
-    <t>audio_s1664.m4a</t>
+    <t>audio_s1664.wav</t>
   </si>
   <si>
     <t>Gâp mâo sai ya?</t>
   </si>
   <si>
-    <t>audio_s1665.m4a</t>
+    <t>audio_s1665.wav</t>
   </si>
   <si>
     <t>Bạn có vợ chưa?</t>
   </si>
   <si>
-    <t>audio_s1666.m4a</t>
+    <t>audio_s1666.wav</t>
   </si>
   <si>
     <t>Bạn có chồng chưa?</t>
   </si>
   <si>
-    <t>audio_s1667.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1668.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1669.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1670.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1671.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1672.m4a</t>
+    <t>audio_s1667.wav</t>
+  </si>
+  <si>
+    <t>audio_s1668.wav</t>
+  </si>
+  <si>
+    <t>audio_s1669.wav</t>
+  </si>
+  <si>
+    <t>audio_s1670.wav</t>
+  </si>
+  <si>
+    <t>audio_s1671.wav</t>
+  </si>
+  <si>
+    <t>audio_s1672.wav</t>
   </si>
   <si>
     <t>Tăng tlah ndrân.</t>
   </si>
   <si>
-    <t>audio_s1673.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1674.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1675.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1676.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1677.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1678.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1679.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1681.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1682.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1683.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1684.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1685.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1686.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1687.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1688.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1689.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1690.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1691.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1692.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1693.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1694.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1695.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1696.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1697.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1698.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1699.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1700.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1701.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1702.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1703.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1704.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1705.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1706.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1707.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1708.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1709.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1710.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1711.m4a</t>
+    <t>audio_s1673.wav</t>
+  </si>
+  <si>
+    <t>audio_s1674.wav</t>
+  </si>
+  <si>
+    <t>audio_s1675.wav</t>
+  </si>
+  <si>
+    <t>audio_s1676.wav</t>
+  </si>
+  <si>
+    <t>audio_s1677.wav</t>
+  </si>
+  <si>
+    <t>audio_s1678.wav</t>
+  </si>
+  <si>
+    <t>audio_s1679.wav</t>
+  </si>
+  <si>
+    <t>audio_s1681.wav</t>
+  </si>
+  <si>
+    <t>audio_s1682.wav</t>
+  </si>
+  <si>
+    <t>audio_s1683.wav</t>
+  </si>
+  <si>
+    <t>audio_s1684.wav</t>
+  </si>
+  <si>
+    <t>audio_s1685.wav</t>
+  </si>
+  <si>
+    <t>audio_s1686.wav</t>
+  </si>
+  <si>
+    <t>audio_s1687.wav</t>
+  </si>
+  <si>
+    <t>audio_s1688.wav</t>
+  </si>
+  <si>
+    <t>audio_s1689.wav</t>
+  </si>
+  <si>
+    <t>audio_s1690.wav</t>
+  </si>
+  <si>
+    <t>audio_s1691.wav</t>
+  </si>
+  <si>
+    <t>audio_s1692.wav</t>
+  </si>
+  <si>
+    <t>audio_s1693.wav</t>
+  </si>
+  <si>
+    <t>audio_s1694.wav</t>
+  </si>
+  <si>
+    <t>audio_s1695.wav</t>
+  </si>
+  <si>
+    <t>audio_s1696.wav</t>
+  </si>
+  <si>
+    <t>audio_s1697.wav</t>
+  </si>
+  <si>
+    <t>audio_s1698.wav</t>
+  </si>
+  <si>
+    <t>audio_s1699.wav</t>
+  </si>
+  <si>
+    <t>audio_s1700.wav</t>
+  </si>
+  <si>
+    <t>audio_s1701.wav</t>
+  </si>
+  <si>
+    <t>audio_s1702.wav</t>
+  </si>
+  <si>
+    <t>audio_s1703.wav</t>
+  </si>
+  <si>
+    <t>audio_s1704.wav</t>
+  </si>
+  <si>
+    <t>audio_s1705.wav</t>
+  </si>
+  <si>
+    <t>audio_s1706.wav</t>
+  </si>
+  <si>
+    <t>audio_s1707.wav</t>
+  </si>
+  <si>
+    <t>audio_s1708.wav</t>
+  </si>
+  <si>
+    <t>audio_s1709.wav</t>
+  </si>
+  <si>
+    <t>audio_s1710.wav</t>
+  </si>
+  <si>
+    <t>audio_s1711.wav</t>
   </si>
   <si>
     <t>Nnei mbum đơ nih mei bap ku` yo oh mi pul nhuar ju\m dăr gâp.</t>
   </si>
   <si>
-    <t>audio_s1712.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1713.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1714.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1715.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1716.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1717.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1718.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1719.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1720.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1722.m4a</t>
+    <t>audio_s1712.wav</t>
+  </si>
+  <si>
+    <t>audio_s1713.wav</t>
+  </si>
+  <si>
+    <t>audio_s1714.wav</t>
+  </si>
+  <si>
+    <t>audio_s1715.wav</t>
+  </si>
+  <si>
+    <t>audio_s1716.wav</t>
+  </si>
+  <si>
+    <t>audio_s1717.wav</t>
+  </si>
+  <si>
+    <t>audio_s1718.wav</t>
+  </si>
+  <si>
+    <t>audio_s1719.wav</t>
+  </si>
+  <si>
+    <t>audio_s1720.wav</t>
+  </si>
+  <si>
+    <t>audio_s1722.wav</t>
   </si>
   <si>
     <t>Kuan dơi năk ial ai pral grâp năr.</t>
@@ -12895,7 +12895,7 @@
     <t>Hãy chăm sóc sức khỏe của con mỗi ngày.</t>
   </si>
   <si>
-    <t>audio_s1723.m4a</t>
+    <t>audio_s1723.wav</t>
   </si>
   <si>
     <t>Oh dơi năk ial ai pral grâp năr.</t>
@@ -12904,304 +12904,304 @@
     <t>Hãy chăm sóc sức khỏe của em mỗi ngày.</t>
   </si>
   <si>
-    <t>audio_s1724.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1725.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1726.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1727.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1728.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1729.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1730.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1731.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1732.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1733.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1734.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1735.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1736.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1737.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1738.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1739.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1740.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1741.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1742.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1743.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1744.m4a</t>
+    <t>audio_s1724.wav</t>
+  </si>
+  <si>
+    <t>audio_s1725.wav</t>
+  </si>
+  <si>
+    <t>audio_s1726.wav</t>
+  </si>
+  <si>
+    <t>audio_s1727.wav</t>
+  </si>
+  <si>
+    <t>audio_s1728.wav</t>
+  </si>
+  <si>
+    <t>audio_s1729.wav</t>
+  </si>
+  <si>
+    <t>audio_s1730.wav</t>
+  </si>
+  <si>
+    <t>audio_s1731.wav</t>
+  </si>
+  <si>
+    <t>audio_s1732.wav</t>
+  </si>
+  <si>
+    <t>audio_s1733.wav</t>
+  </si>
+  <si>
+    <t>audio_s1734.wav</t>
+  </si>
+  <si>
+    <t>audio_s1735.wav</t>
+  </si>
+  <si>
+    <t>audio_s1736.wav</t>
+  </si>
+  <si>
+    <t>audio_s1737.wav</t>
+  </si>
+  <si>
+    <t>audio_s1738.wav</t>
+  </si>
+  <si>
+    <t>audio_s1739.wav</t>
+  </si>
+  <si>
+    <t>audio_s1740.wav</t>
+  </si>
+  <si>
+    <t>audio_s1741.wav</t>
+  </si>
+  <si>
+    <t>audio_s1742.wav</t>
+  </si>
+  <si>
+    <t>audio_s1743.wav</t>
+  </si>
+  <si>
+    <t>audio_s1744.wav</t>
   </si>
   <si>
     <t>E|` khơ` lap hur mho\ [a` pu\ng bum ta hih.</t>
   </si>
   <si>
-    <t>audio_s1745.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1746.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1747.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1748.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1749.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1750.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1751.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1752.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1753.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1754.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1755.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1756.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1757.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1758.m4a</t>
+    <t>audio_s1745.wav</t>
+  </si>
+  <si>
+    <t>audio_s1746.wav</t>
+  </si>
+  <si>
+    <t>audio_s1747.wav</t>
+  </si>
+  <si>
+    <t>audio_s1748.wav</t>
+  </si>
+  <si>
+    <t>audio_s1749.wav</t>
+  </si>
+  <si>
+    <t>audio_s1750.wav</t>
+  </si>
+  <si>
+    <t>audio_s1751.wav</t>
+  </si>
+  <si>
+    <t>audio_s1752.wav</t>
+  </si>
+  <si>
+    <t>audio_s1753.wav</t>
+  </si>
+  <si>
+    <t>audio_s1754.wav</t>
+  </si>
+  <si>
+    <t>audio_s1755.wav</t>
+  </si>
+  <si>
+    <t>audio_s1756.wav</t>
+  </si>
+  <si>
+    <t>audio_s1757.wav</t>
+  </si>
+  <si>
+    <t>audio_s1758.wav</t>
   </si>
   <si>
     <t>Pơp gâp m^n ta bruă mho\ găl.</t>
   </si>
   <si>
-    <t>audio_s1759.m4a</t>
+    <t>audio_s1759.wav</t>
   </si>
   <si>
     <t>Pơp gâp m^n ta bruă mho\ từ thiện.</t>
   </si>
   <si>
-    <t>audio_s1760.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1761.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1762.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1763.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1764.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1765.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1766.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1767.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1768.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1769.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1770.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1771.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1772.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1773.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1774.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1775.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1776.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1777.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1778.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1779.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1780.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1781.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1782.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1783.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1784.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1785.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1786.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1787.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1788.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1789.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1790.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1791.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1792.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1793.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1794.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1795.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1796.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1797.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1798.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1799.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1800.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1801.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1802.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1803.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1804.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1805.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1806.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1807.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1808.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1809.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1810.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1811.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1812.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1813.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1814.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1815.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1816.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1817.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1818.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1819.m4a</t>
-  </si>
-  <si>
-    <t>audio_s1721.m4a</t>
+    <t>audio_s1760.wav</t>
+  </si>
+  <si>
+    <t>audio_s1761.wav</t>
+  </si>
+  <si>
+    <t>audio_s1762.wav</t>
+  </si>
+  <si>
+    <t>audio_s1763.wav</t>
+  </si>
+  <si>
+    <t>audio_s1764.wav</t>
+  </si>
+  <si>
+    <t>audio_s1765.wav</t>
+  </si>
+  <si>
+    <t>audio_s1766.wav</t>
+  </si>
+  <si>
+    <t>audio_s1767.wav</t>
+  </si>
+  <si>
+    <t>audio_s1768.wav</t>
+  </si>
+  <si>
+    <t>audio_s1769.wav</t>
+  </si>
+  <si>
+    <t>audio_s1770.wav</t>
+  </si>
+  <si>
+    <t>audio_s1771.wav</t>
+  </si>
+  <si>
+    <t>audio_s1772.wav</t>
+  </si>
+  <si>
+    <t>audio_s1773.wav</t>
+  </si>
+  <si>
+    <t>audio_s1774.wav</t>
+  </si>
+  <si>
+    <t>audio_s1775.wav</t>
+  </si>
+  <si>
+    <t>audio_s1776.wav</t>
+  </si>
+  <si>
+    <t>audio_s1777.wav</t>
+  </si>
+  <si>
+    <t>audio_s1778.wav</t>
+  </si>
+  <si>
+    <t>audio_s1779.wav</t>
+  </si>
+  <si>
+    <t>audio_s1780.wav</t>
+  </si>
+  <si>
+    <t>audio_s1781.wav</t>
+  </si>
+  <si>
+    <t>audio_s1782.wav</t>
+  </si>
+  <si>
+    <t>audio_s1783.wav</t>
+  </si>
+  <si>
+    <t>audio_s1784.wav</t>
+  </si>
+  <si>
+    <t>audio_s1785.wav</t>
+  </si>
+  <si>
+    <t>audio_s1786.wav</t>
+  </si>
+  <si>
+    <t>audio_s1787.wav</t>
+  </si>
+  <si>
+    <t>audio_s1788.wav</t>
+  </si>
+  <si>
+    <t>audio_s1789.wav</t>
+  </si>
+  <si>
+    <t>audio_s1790.wav</t>
+  </si>
+  <si>
+    <t>audio_s1791.wav</t>
+  </si>
+  <si>
+    <t>audio_s1792.wav</t>
+  </si>
+  <si>
+    <t>audio_s1793.wav</t>
+  </si>
+  <si>
+    <t>audio_s1794.wav</t>
+  </si>
+  <si>
+    <t>audio_s1795.wav</t>
+  </si>
+  <si>
+    <t>audio_s1796.wav</t>
+  </si>
+  <si>
+    <t>audio_s1797.wav</t>
+  </si>
+  <si>
+    <t>audio_s1798.wav</t>
+  </si>
+  <si>
+    <t>audio_s1799.wav</t>
+  </si>
+  <si>
+    <t>audio_s1800.wav</t>
+  </si>
+  <si>
+    <t>audio_s1801.wav</t>
+  </si>
+  <si>
+    <t>audio_s1802.wav</t>
+  </si>
+  <si>
+    <t>audio_s1803.wav</t>
+  </si>
+  <si>
+    <t>audio_s1804.wav</t>
+  </si>
+  <si>
+    <t>audio_s1805.wav</t>
+  </si>
+  <si>
+    <t>audio_s1806.wav</t>
+  </si>
+  <si>
+    <t>audio_s1807.wav</t>
+  </si>
+  <si>
+    <t>audio_s1808.wav</t>
+  </si>
+  <si>
+    <t>audio_s1809.wav</t>
+  </si>
+  <si>
+    <t>audio_s1810.wav</t>
+  </si>
+  <si>
+    <t>audio_s1811.wav</t>
+  </si>
+  <si>
+    <t>audio_s1812.wav</t>
+  </si>
+  <si>
+    <t>audio_s1813.wav</t>
+  </si>
+  <si>
+    <t>audio_s1814.wav</t>
+  </si>
+  <si>
+    <t>audio_s1815.wav</t>
+  </si>
+  <si>
+    <t>audio_s1816.wav</t>
+  </si>
+  <si>
+    <t>audio_s1817.wav</t>
+  </si>
+  <si>
+    <t>audio_s1818.wav</t>
+  </si>
+  <si>
+    <t>audio_s1819.wav</t>
+  </si>
+  <si>
+    <t>audio_s1721.wav</t>
   </si>
   <si>
     <t>Gâp dơi năk ial ai pral grâp năr.</t>
@@ -14200,8 +14200,8 @@
   <sheetPr/>
   <dimension ref="A1:C1788"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1761" workbookViewId="0">
-      <selection activeCell="B1781" sqref="B1781"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1046" sqref="A1:C1788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
